--- a/data/IEEE_9/ieee9/ieee9_2020.xlsx
+++ b/data/IEEE_9/ieee9/ieee9_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD133E2C-CE7A-4771-97C6-18B7F3F2A20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A516013-0AEA-4917-8815-2E2E80D77F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7590" yWindow="1995" windowWidth="21600" windowHeight="12660" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25740" yWindow="3600" windowWidth="21600" windowHeight="12660" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>

--- a/data/IEEE_9/ieee9/ieee9_2020.xlsx
+++ b/data/IEEE_9/ieee9/ieee9_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A516013-0AEA-4917-8815-2E2E80D77F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D966EFBE-0B59-4A04-9816-24FF43EBE6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25740" yWindow="3600" windowWidth="21600" windowHeight="12660" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25050" yWindow="4290" windowWidth="21600" windowHeight="12660" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -217,6 +217,9 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Base Consumption"/>
@@ -244,7 +247,7 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>-5.0000000000000001E-3</v>
+            <v>2.5000000000000001E-3</v>
           </cell>
         </row>
         <row r="3">
@@ -1149,592 +1152,592 @@
       <sheetData sheetId="4">
         <row r="2">
           <cell r="B2">
-            <v>56.309511426502212</v>
+            <v>54.531316328823202</v>
           </cell>
           <cell r="C2">
-            <v>55.80303789179937</v>
+            <v>57.367609047644216</v>
           </cell>
           <cell r="D2">
-            <v>48.117067049533681</v>
+            <v>50.081028969922819</v>
           </cell>
           <cell r="E2">
-            <v>52.88241128342132</v>
+            <v>45.605015235244068</v>
           </cell>
           <cell r="F2">
-            <v>51.289658458143712</v>
+            <v>48.242748054689628</v>
           </cell>
           <cell r="G2">
-            <v>56.474223462013839</v>
+            <v>50.991289145313466</v>
           </cell>
           <cell r="H2">
-            <v>60.868299549960085</v>
+            <v>71.454090776040104</v>
           </cell>
           <cell r="I2">
-            <v>68.786478518766842</v>
+            <v>68.046838964801609</v>
           </cell>
           <cell r="J2">
-            <v>78.284120064959353</v>
+            <v>79.849802466258538</v>
           </cell>
           <cell r="K2">
-            <v>79.32833557499923</v>
+            <v>83.375699634948177</v>
           </cell>
           <cell r="L2">
-            <v>83.321670971970505</v>
+            <v>78.420396208913417</v>
           </cell>
           <cell r="M2">
-            <v>82.452596358079347</v>
+            <v>76.794084843309179</v>
           </cell>
           <cell r="N2">
-            <v>73.947023266689911</v>
+            <v>88.414919123216194</v>
           </cell>
           <cell r="O2">
-            <v>73.996480918472415</v>
+            <v>85.804430001207393</v>
           </cell>
           <cell r="P2">
-            <v>76.976013587677983</v>
+            <v>70.116764852142325</v>
           </cell>
           <cell r="Q2">
-            <v>67.350506949838632</v>
+            <v>80.072269373697054</v>
           </cell>
           <cell r="R2">
-            <v>72.855093240928014</v>
+            <v>84.480905992139938</v>
           </cell>
           <cell r="S2">
-            <v>93.011939159311737</v>
+            <v>95.644352531745085</v>
           </cell>
           <cell r="T2">
-            <v>87.679263937608383</v>
+            <v>95.731441238000997</v>
           </cell>
           <cell r="U2">
-            <v>84.6</v>
+            <v>85.5</v>
           </cell>
           <cell r="V2">
-            <v>89.070149072636383</v>
+            <v>85.577202050180063</v>
           </cell>
           <cell r="W2">
-            <v>86.665244289698251</v>
+            <v>76.665408410117678</v>
           </cell>
           <cell r="X2">
-            <v>78.266154996342649</v>
+            <v>81.305617326297707</v>
           </cell>
           <cell r="Y2">
-            <v>71.194943358549978</v>
+            <v>72.538244176635828</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>65.555402620965978</v>
+            <v>59.827260644376715</v>
           </cell>
           <cell r="C3">
-            <v>65.30229024346697</v>
+            <v>58.772061219120268</v>
           </cell>
           <cell r="D3">
-            <v>58.500876280522206</v>
+            <v>54.56331730010244</v>
           </cell>
           <cell r="E3">
-            <v>50.267552905334476</v>
+            <v>50.826081270949302</v>
           </cell>
           <cell r="F3">
-            <v>58.787610523613765</v>
+            <v>57.657079552005811</v>
           </cell>
           <cell r="G3">
-            <v>67.727021176180443</v>
+            <v>59.649486540489193</v>
           </cell>
           <cell r="H3">
-            <v>78.590579779532206</v>
+            <v>72.659215267869385</v>
           </cell>
           <cell r="I3">
-            <v>85.674654363204752</v>
+            <v>86.56709867948814</v>
           </cell>
           <cell r="J3">
-            <v>99.106194329630398</v>
+            <v>95.219676904939007</v>
           </cell>
           <cell r="K3">
-            <v>96.407050061777014</v>
+            <v>108.21199496730074</v>
           </cell>
           <cell r="L3">
-            <v>99.548531315603682</v>
+            <v>93.805346816626539</v>
           </cell>
           <cell r="M3">
-            <v>94.288832112120986</v>
+            <v>88.516046472603378</v>
           </cell>
           <cell r="N3">
             <v>87.481966178020883</v>
           </cell>
           <cell r="O3">
-            <v>104.02063272458084</v>
+            <v>103.07499060890282</v>
           </cell>
           <cell r="P3">
-            <v>81.149285857356148</v>
+            <v>94.52554176790936</v>
           </cell>
           <cell r="Q3">
-            <v>92.683551489830805</v>
+            <v>94.415954321416436</v>
           </cell>
           <cell r="R3">
-            <v>85.699946637247507</v>
+            <v>91.112574845915773</v>
           </cell>
           <cell r="S3">
-            <v>103</v>
+            <v>108</v>
           </cell>
           <cell r="T3">
             <v>104.61937666064914</v>
           </cell>
           <cell r="U3">
-            <v>94.647407611170919</v>
+            <v>104.40487231335351</v>
           </cell>
           <cell r="V3">
             <v>96.855581754478948</v>
           </cell>
           <cell r="W3">
-            <v>84.488066904344308</v>
+            <v>98.8690144625306</v>
           </cell>
           <cell r="X3">
-            <v>86.491992341486721</v>
+            <v>82.56053814414642</v>
           </cell>
           <cell r="Y3">
-            <v>77.043461245399598</v>
+            <v>72.049903572086663</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>72.212712620575786</v>
+            <v>76.460519245315552</v>
           </cell>
           <cell r="C4">
-            <v>69.077411062395257</v>
+            <v>71.051051378463697</v>
           </cell>
           <cell r="D4">
-            <v>63.702485915992995</v>
+            <v>53.581530209713733</v>
           </cell>
           <cell r="E4">
-            <v>66.594679845444617</v>
+            <v>69.796347145706378</v>
           </cell>
           <cell r="F4">
-            <v>62.533822730050439</v>
+            <v>68.276724817504061</v>
           </cell>
           <cell r="G4">
-            <v>64.526107230186639</v>
+            <v>59.869584028008227</v>
           </cell>
           <cell r="H4">
             <v>102.95900891476366</v>
           </cell>
           <cell r="I4">
-            <v>120.18428409417976</v>
+            <v>101.43994620793154</v>
           </cell>
           <cell r="J4">
-            <v>112.42258885332305</v>
+            <v>116.04912397762378</v>
           </cell>
           <cell r="K4">
-            <v>122.1577888301361</v>
+            <v>111.27244131061903</v>
           </cell>
           <cell r="L4">
-            <v>102.82381485439703</v>
+            <v>122.24609099356093</v>
           </cell>
           <cell r="M4">
-            <v>122.5</v>
+            <v>117.5</v>
           </cell>
           <cell r="N4">
-            <v>110.81249786908471</v>
+            <v>119.0644923912506</v>
           </cell>
           <cell r="O4">
-            <v>104.83869762321503</v>
+            <v>112.56365429018877</v>
           </cell>
           <cell r="P4">
-            <v>116.63731290979733</v>
+            <v>97.376105273317023</v>
           </cell>
           <cell r="Q4">
-            <v>106.98720721502637</v>
+            <v>89.989239713573582</v>
           </cell>
           <cell r="R4">
-            <v>99.051334073102836</v>
+            <v>104.05392670305753</v>
           </cell>
           <cell r="S4">
-            <v>100.6259123453416</v>
+            <v>97.448251955488715</v>
           </cell>
           <cell r="T4">
-            <v>102.74435260524353</v>
+            <v>116.51421429460608</v>
           </cell>
           <cell r="U4">
-            <v>104.29162834972759</v>
+            <v>117.19368546515781</v>
           </cell>
           <cell r="V4">
-            <v>109.84466500038602</v>
+            <v>98.337128667012223</v>
           </cell>
           <cell r="W4">
-            <v>88.860654734496066</v>
+            <v>90.751306962889601</v>
           </cell>
           <cell r="X4">
-            <v>84.750127592875572</v>
+            <v>80.752480064909747</v>
           </cell>
           <cell r="Y4">
-            <v>82.784612180880288</v>
+            <v>72.726668644885478</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="2">
           <cell r="B2">
-            <v>58.68043822340757</v>
+            <v>54.531316328823202</v>
           </cell>
           <cell r="C2">
             <v>52.152371861494736</v>
           </cell>
           <cell r="D2">
-            <v>52.535981370409232</v>
+            <v>44.189143208755425</v>
           </cell>
           <cell r="E2">
-            <v>50.941772337240714</v>
+            <v>46.090174971789217</v>
           </cell>
           <cell r="F2">
-            <v>52.305295259295072</v>
+            <v>50.781840057568033</v>
           </cell>
           <cell r="G2">
-            <v>58.119103757023957</v>
+            <v>57.570810325353918</v>
           </cell>
           <cell r="H2">
-            <v>70.792478824410097</v>
+            <v>63.514747356480079</v>
           </cell>
           <cell r="I2">
-            <v>66.567559856871142</v>
+            <v>81.360350936175848</v>
           </cell>
           <cell r="J2">
-            <v>78.284120064959353</v>
+            <v>85.329690870805706</v>
           </cell>
           <cell r="K2">
-            <v>82.566226822958399</v>
+            <v>83.375699634948177</v>
           </cell>
           <cell r="L2">
-            <v>80.871033590441968</v>
+            <v>79.237275336089596</v>
           </cell>
           <cell r="M2">
-            <v>88.111107872849502</v>
+            <v>76.794084843309179</v>
           </cell>
           <cell r="N2">
-            <v>80.377199202923805</v>
+            <v>77.965883226836084</v>
           </cell>
           <cell r="O2">
-            <v>71.634891101925433</v>
+            <v>82.655643579144723</v>
           </cell>
           <cell r="P2">
-            <v>74.689597342499425</v>
+            <v>70.878903600535168</v>
           </cell>
           <cell r="Q2">
-            <v>72.588879712603855</v>
+            <v>77.078913509259777</v>
           </cell>
           <cell r="R2">
-            <v>76.73036415799865</v>
+            <v>69.754876507271504</v>
           </cell>
           <cell r="S2">
-            <v>84.23722791786723</v>
+            <v>92.134468035167288</v>
           </cell>
           <cell r="T2">
-            <v>96.626127604711286</v>
+            <v>81.41645937063636</v>
           </cell>
           <cell r="U2">
-            <v>91.8</v>
+            <v>86.399999999999991</v>
           </cell>
           <cell r="V2">
-            <v>82.957491783337801</v>
+            <v>81.211018272109655</v>
           </cell>
           <cell r="W2">
-            <v>86.665244289698251</v>
+            <v>76.665408410117678</v>
           </cell>
           <cell r="X2">
-            <v>72.947095918921306</v>
+            <v>69.907633588966263</v>
           </cell>
           <cell r="Y2">
-            <v>68.508341722378276</v>
+            <v>64.478439268120724</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>61.736641303239807</v>
+            <v>57.281419765892608</v>
           </cell>
           <cell r="C3">
-            <v>63.521318691372414</v>
+            <v>64.708633059435456</v>
           </cell>
           <cell r="D3">
-            <v>54.56331730010244</v>
+            <v>51.188266745456929</v>
           </cell>
           <cell r="E3">
-            <v>53.618723099023434</v>
+            <v>55.852836561482746</v>
           </cell>
           <cell r="F3">
-            <v>54.830752122985913</v>
+            <v>61.613937952633663</v>
           </cell>
           <cell r="G3">
-            <v>58.406788904229003</v>
+            <v>64.620277085529963</v>
           </cell>
           <cell r="H3">
-            <v>73.400635831827245</v>
+            <v>71.91779470391154</v>
           </cell>
           <cell r="I3">
             <v>86.56709867948814</v>
           </cell>
           <cell r="J3">
-            <v>104.93597046666748</v>
+            <v>101.04945304197609</v>
           </cell>
           <cell r="K3">
-            <v>88.537086791427882</v>
+            <v>91.48832301780881</v>
           </cell>
           <cell r="L3">
-            <v>105.29171581458083</v>
+            <v>89.01935973414561</v>
           </cell>
           <cell r="M3">
-            <v>90.440308352442571</v>
+            <v>99.099486811719004</v>
           </cell>
           <cell r="N3">
-            <v>96.134028767055909</v>
+            <v>92.288667616373672</v>
           </cell>
           <cell r="O3">
-            <v>91.727285220766731</v>
+            <v>85.107790411020687</v>
           </cell>
           <cell r="P3">
-            <v>91.850290585798717</v>
+            <v>81.149285857356148</v>
           </cell>
           <cell r="Q3">
-            <v>80.556731668731445</v>
+            <v>84.021537331902692</v>
           </cell>
           <cell r="R3">
-            <v>92.9167842488052</v>
+            <v>86.60205133869222</v>
           </cell>
           <cell r="S3">
-            <v>99</v>
+            <v>103</v>
           </cell>
           <cell r="T3">
-            <v>106.61212669228055</v>
+            <v>98.641126565754902</v>
           </cell>
           <cell r="U3">
-            <v>94.647407611170919</v>
+            <v>90.744421730297901</v>
           </cell>
           <cell r="V3">
-            <v>103.56834484637353</v>
+            <v>87.265920194629544</v>
           </cell>
           <cell r="W3">
-            <v>80.892830014797752</v>
+            <v>87.184494571504246</v>
           </cell>
           <cell r="X3">
-            <v>71.552466391593555</v>
+            <v>83.346828983614472</v>
           </cell>
           <cell r="Y3">
-            <v>73.476634335890353</v>
+            <v>70.623172808282959</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>66.548970454256121</v>
+            <v>77.876454786895465</v>
           </cell>
           <cell r="C4">
-            <v>68.419530957039115</v>
+            <v>72.366811589175995</v>
           </cell>
           <cell r="D4">
-            <v>64.89318658731996</v>
+            <v>62.511785244666022</v>
           </cell>
           <cell r="E4">
-            <v>63.393012545182849</v>
+            <v>67.875346765549324</v>
           </cell>
           <cell r="F4">
-            <v>62.533822730050439</v>
+            <v>58.705221338414702</v>
           </cell>
           <cell r="G4">
-            <v>63.860889629875437</v>
+            <v>63.195672029564236</v>
           </cell>
           <cell r="H4">
-            <v>107.908961266435</v>
+            <v>98.999047033426592</v>
           </cell>
           <cell r="I4">
-            <v>120.18428409417976</v>
+            <v>101.43994620793154</v>
           </cell>
           <cell r="J4">
-            <v>120.88450414335811</v>
+            <v>128.13757439195962</v>
           </cell>
           <cell r="K4">
-            <v>123.36727188786023</v>
+            <v>125.78623800330847</v>
           </cell>
           <cell r="L4">
             <v>115.39117000326779</v>
           </cell>
           <cell r="M4">
-            <v>118.75</v>
+            <v>127.5</v>
           </cell>
           <cell r="N4">
-            <v>126.13763055310707</v>
+            <v>123.77991783248825</v>
           </cell>
           <cell r="O4">
-            <v>116.9779152427452</v>
+            <v>99.320871432519496</v>
           </cell>
           <cell r="P4">
-            <v>116.63731290979733</v>
+            <v>104.86657490972603</v>
           </cell>
           <cell r="Q4">
-            <v>106.98720721502637</v>
+            <v>91.989000596097441</v>
           </cell>
           <cell r="R4">
-            <v>96.049778495130028</v>
+            <v>100.05185259909378</v>
           </cell>
           <cell r="S4">
-            <v>108.04045325499835</v>
+            <v>104.86279286514547</v>
           </cell>
           <cell r="T4">
-            <v>97.448251955488715</v>
+            <v>116.51421429460608</v>
           </cell>
           <cell r="U4">
-            <v>99.990942644584194</v>
+            <v>112.8929997600144</v>
           </cell>
           <cell r="V4">
-            <v>102.52168733369361</v>
+            <v>112.98308400039704</v>
           </cell>
           <cell r="W4">
-            <v>87.915328620299306</v>
+            <v>99.259241990660513</v>
           </cell>
           <cell r="X4">
-            <v>83.151068581689245</v>
+            <v>85.549657098468742</v>
           </cell>
           <cell r="Y4">
-            <v>78.916172359343818</v>
+            <v>70.405604751963608</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="2">
           <cell r="B2">
-            <v>62.829560117991953</v>
+            <v>57.494974824954895</v>
           </cell>
           <cell r="C2">
-            <v>54.759990454569476</v>
+            <v>46.937134675345263</v>
           </cell>
           <cell r="D2">
-            <v>52.044990890311951</v>
+            <v>44.680133688852706</v>
           </cell>
           <cell r="E2">
-            <v>43.664376289063469</v>
+            <v>49.971452864150415</v>
           </cell>
           <cell r="F2">
-            <v>51.797476858719392</v>
+            <v>48.750566455265307</v>
           </cell>
           <cell r="G2">
-            <v>53.732756303663649</v>
+            <v>50.442995713643434</v>
           </cell>
           <cell r="H2">
-            <v>65.49958321137008</v>
+            <v>63.514747356480079</v>
           </cell>
           <cell r="I2">
-            <v>72.484676288593022</v>
+            <v>67.307199410836375</v>
           </cell>
           <cell r="J2">
-            <v>72.804231660412199</v>
+            <v>74.369914061711384</v>
           </cell>
           <cell r="K2">
-            <v>80.947281198978814</v>
+            <v>88.232536506886916</v>
           </cell>
           <cell r="L2">
-            <v>77.603517081737238</v>
+            <v>78.420396208913417</v>
           </cell>
           <cell r="M2">
-            <v>80.835878782430726</v>
+            <v>88.919466660673805</v>
           </cell>
           <cell r="N2">
-            <v>81.180971194953045</v>
+            <v>83.592287171040766</v>
           </cell>
           <cell r="O2">
-            <v>83.442840184660398</v>
+            <v>78.719660551566406</v>
           </cell>
           <cell r="P2">
-            <v>76.976013587677983</v>
+            <v>80.78670732964224</v>
           </cell>
           <cell r="Q2">
-            <v>72.588879712603855</v>
+            <v>68.847184882057277</v>
           </cell>
           <cell r="R2">
-            <v>74.405201607756268</v>
+            <v>78.280472524826905</v>
           </cell>
           <cell r="S2">
-            <v>78.97240117300052</v>
+            <v>89.502054662733926</v>
           </cell>
           <cell r="T2">
-            <v>93.942068504580419</v>
+            <v>91.258009404449538</v>
           </cell>
           <cell r="U2">
-            <v>85.5</v>
+            <v>98.100000000000009</v>
           </cell>
           <cell r="V2">
-            <v>95.182806361934965</v>
+            <v>85.577202050180063</v>
           </cell>
           <cell r="W2">
-            <v>84.165285319803104</v>
+            <v>80.832006693276242</v>
           </cell>
           <cell r="X2">
-            <v>77.506289413853892</v>
+            <v>80.54575174380895</v>
           </cell>
           <cell r="Y2">
-            <v>73.881544994721679</v>
+            <v>64.478439268120724</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>67.464783279829064</v>
+            <v>64.282482181723921</v>
           </cell>
           <cell r="C3">
-            <v>56.991089667025712</v>
+            <v>57.584746851057233</v>
           </cell>
           <cell r="D3">
-            <v>54.56331730010244</v>
+            <v>58.500876280522206</v>
           </cell>
           <cell r="E3">
-            <v>56.411364927097573</v>
+            <v>51.384609636564129</v>
           </cell>
           <cell r="F3">
-            <v>55.961283094593874</v>
+            <v>57.091814066201827</v>
           </cell>
           <cell r="G3">
-            <v>65.241625903660065</v>
+            <v>62.134881813009578</v>
           </cell>
           <cell r="H3">
-            <v>68.210691884122284</v>
+            <v>80.814841471405757</v>
           </cell>
           <cell r="I3">
-            <v>97.276430474888741</v>
+            <v>94.599097526038591</v>
           </cell>
           <cell r="J3">
-            <v>98.134564973457557</v>
+            <v>104.93597046666748</v>
           </cell>
           <cell r="K3">
-            <v>89.52083220022152</v>
+            <v>88.537086791427882</v>
           </cell>
           <cell r="L3">
-            <v>90.933754567137981</v>
+            <v>104.33451839808464</v>
           </cell>
           <cell r="M3">
-            <v>101.98587963147781</v>
+            <v>105.83440339115621</v>
           </cell>
           <cell r="N3">
-            <v>95.172688479385343</v>
+            <v>99.018049630067594</v>
           </cell>
           <cell r="O3">
-            <v>103.07499060890282</v>
+            <v>86.999074642376698</v>
           </cell>
           <cell r="P3">
-            <v>89.175039403688075</v>
+            <v>90.958540191761841</v>
           </cell>
           <cell r="Q3">
-            <v>86.620141579281125</v>
+            <v>90.084947242452373</v>
           </cell>
           <cell r="R3">
-            <v>96.52520305458404</v>
+            <v>91.112574845915773</v>
           </cell>
           <cell r="S3">
-            <v>107</v>
+            <v>95</v>
           </cell>
           <cell r="T3">
-            <v>108.60487672391197</v>
+            <v>96.648376534123486</v>
           </cell>
           <cell r="U3">
-            <v>102.45337937291698</v>
+            <v>89.768675260079647</v>
           </cell>
           <cell r="V3">
-            <v>87.265920194629544</v>
+            <v>88.224886350614497</v>
           </cell>
           <cell r="W3">
-            <v>86.2856853491176</v>
+            <v>96.172586795370663</v>
           </cell>
           <cell r="X3">
             <v>83.346828983614472</v>
@@ -1745,149 +1748,149 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>67.964905995836034</v>
+            <v>76.460519245315552</v>
           </cell>
           <cell r="C4">
-            <v>69.735291167751413</v>
+            <v>63.15649011418995</v>
           </cell>
           <cell r="D4">
-            <v>62.511785244666022</v>
+            <v>61.32108457333905</v>
           </cell>
           <cell r="E4">
-            <v>64.033346005235202</v>
+            <v>58.270344864764034</v>
           </cell>
           <cell r="F4">
-            <v>62.533822730050439</v>
+            <v>59.981421802293276</v>
           </cell>
           <cell r="G4">
-            <v>60.534801628319428</v>
+            <v>62.530454429253034</v>
           </cell>
           <cell r="H4">
-            <v>95.039085152089527</v>
+            <v>93.059104211420987</v>
           </cell>
           <cell r="I4">
-            <v>100.33733809697576</v>
+            <v>105.85037865175464</v>
           </cell>
           <cell r="J4">
             <v>111.21374381188947</v>
           </cell>
           <cell r="K4">
-            <v>129.41468717648084</v>
+            <v>113.69140742606726</v>
           </cell>
           <cell r="L4">
-            <v>110.82122267640568</v>
+            <v>125.67355148870749</v>
           </cell>
           <cell r="M4">
-            <v>118.75</v>
+            <v>122.5</v>
           </cell>
           <cell r="N4">
-            <v>110.81249786908471</v>
+            <v>122.60106147217884</v>
           </cell>
           <cell r="O4">
-            <v>104.83869762321503</v>
+            <v>110.35652381391056</v>
           </cell>
           <cell r="P4">
-            <v>96.306038182401451</v>
+            <v>107.00670909155717</v>
           </cell>
           <cell r="Q4">
-            <v>96.988402802407066</v>
+            <v>107.9870876562883</v>
           </cell>
           <cell r="R4">
-            <v>107.05548228103035</v>
+            <v>99.051334073102836</v>
           </cell>
           <cell r="S4">
-            <v>109.09967338494931</v>
+            <v>98.507472085439673</v>
           </cell>
           <cell r="T4">
-            <v>115.4549941646551</v>
+            <v>112.27733377480222</v>
           </cell>
           <cell r="U4">
-            <v>98.915771218298346</v>
+            <v>117.19368546515781</v>
           </cell>
           <cell r="V4">
-            <v>94.152570000330869</v>
+            <v>97.290989000341895</v>
           </cell>
           <cell r="W4">
-            <v>89.805980848692826</v>
+            <v>90.751306962889601</v>
           </cell>
           <cell r="X4">
-            <v>74.356244020164425</v>
+            <v>75.155773525757581</v>
           </cell>
           <cell r="Y4">
-            <v>83.558300145187573</v>
+            <v>77.368796430729233</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="2">
           <cell r="B2">
-            <v>10.813262185630244</v>
+            <v>12.653817451269436</v>
           </cell>
           <cell r="C2">
             <v>9.2283995159327823</v>
           </cell>
           <cell r="D2">
-            <v>7.444214048958572</v>
+            <v>7.2922913132655403</v>
           </cell>
           <cell r="E2">
             <v>7.8793241403845427</v>
           </cell>
           <cell r="F2">
-            <v>9.1242992184498171</v>
+            <v>8.2794566982229814</v>
           </cell>
           <cell r="G2">
-            <v>10.384985187332877</v>
+            <v>10.699681708161146</v>
           </cell>
           <cell r="H2">
-            <v>15.786886814010129</v>
+            <v>16.275141045371267</v>
           </cell>
           <cell r="I2">
-            <v>19.670144754169069</v>
+            <v>21.855716393521188</v>
           </cell>
           <cell r="J2">
-            <v>24.103403479477805</v>
+            <v>24.792072150320028</v>
           </cell>
           <cell r="K2">
-            <v>27.806200777770208</v>
+            <v>24.520013413124634</v>
           </cell>
           <cell r="L2">
-            <v>27.785946846808869</v>
+            <v>24.98186046777311</v>
           </cell>
           <cell r="M2">
-            <v>26.286338021730796</v>
+            <v>23.532531181358994</v>
           </cell>
           <cell r="N2">
-            <v>24.638404161081308</v>
+            <v>25.644053310513197</v>
           </cell>
           <cell r="O2">
-            <v>23.391596336170867</v>
+            <v>23.142749566637139</v>
           </cell>
           <cell r="P2">
-            <v>23.795782085238013</v>
+            <v>20.428454431666598</v>
           </cell>
           <cell r="Q2">
             <v>19.622150335440256</v>
           </cell>
           <cell r="R2">
-            <v>22.671328709175562</v>
+            <v>23.11154868411101</v>
           </cell>
           <cell r="S2">
-            <v>32.700000000000003</v>
+            <v>32.1</v>
           </cell>
           <cell r="T2">
-            <v>31.75383604533792</v>
+            <v>31.454271554344164</v>
           </cell>
           <cell r="U2">
-            <v>31.656127895941694</v>
+            <v>28.461472787176934</v>
           </cell>
           <cell r="V2">
-            <v>28.494633745335054</v>
+            <v>29.569902943272229</v>
           </cell>
           <cell r="W2">
-            <v>22.950545226683232</v>
+            <v>25.819363380018636</v>
           </cell>
           <cell r="X2">
-            <v>20.278914547482202</v>
+            <v>19.88893542156908</v>
           </cell>
           <cell r="Y2">
             <v>15.109050429231946</v>
@@ -1895,55 +1898,55 @@
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-27.059434563384116</v>
+            <v>-30.841936169018453</v>
           </cell>
           <cell r="C3">
-            <v>-31.939772440491488</v>
+            <v>-29.726124845605938</v>
           </cell>
           <cell r="D3">
             <v>-30.656624782507482</v>
           </cell>
           <cell r="E3">
-            <v>-33.138648183003248</v>
+            <v>-35.167545010534063</v>
           </cell>
           <cell r="F3">
-            <v>-32.200000000000003</v>
+            <v>-36.4</v>
           </cell>
           <cell r="G3">
-            <v>-33.649115465354889</v>
+            <v>-33.337549581416418</v>
           </cell>
           <cell r="H3">
-            <v>-24.825992348482206</v>
+            <v>-24.593973728402933</v>
           </cell>
           <cell r="I3">
-            <v>-10.314375907489971</v>
+            <v>-9.3593411012408989</v>
           </cell>
           <cell r="J3">
-            <v>-2.5593955467785316</v>
+            <v>-2.5312703209897567</v>
           </cell>
           <cell r="K3">
-            <v>-0.41797373795190984</v>
+            <v>-0.47517014419796066</v>
           </cell>
           <cell r="L3">
-            <v>-3.9893191974059161</v>
+            <v>-4.3448030862836715</v>
           </cell>
           <cell r="M3">
             <v>-3.1361382232545592</v>
           </cell>
           <cell r="N3">
-            <v>-3.8987193289407798</v>
+            <v>-4.4212281049843902</v>
           </cell>
           <cell r="O3">
-            <v>-3.9329058759209174</v>
+            <v>-3.7301787689146848</v>
           </cell>
           <cell r="P3">
-            <v>-10.864996868383985</v>
+            <v>-10.659996927471079</v>
           </cell>
           <cell r="Q3">
-            <v>-14.318761230902309</v>
+            <v>-14.613993421230191</v>
           </cell>
           <cell r="R3">
-            <v>-12.996478098968542</v>
+            <v>-13.652865881744731</v>
           </cell>
           <cell r="S3">
             <v>-4.1227000778745406</v>
@@ -1952,915 +1955,915 @@
             <v>-6.3229769374534452</v>
           </cell>
           <cell r="U3">
-            <v>-7.7844020483341021</v>
+            <v>-7.3746966773691494</v>
           </cell>
           <cell r="V3">
-            <v>-12.742775751833543</v>
+            <v>-11.841771405744304</v>
           </cell>
           <cell r="W3">
-            <v>-15.87262924120456</v>
+            <v>-16.206789856808868</v>
           </cell>
           <cell r="X3">
-            <v>-23.088578632758438</v>
+            <v>-22.191934802360052</v>
           </cell>
           <cell r="Y3">
-            <v>-23.212724838934463</v>
+            <v>-25.735847104036036</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>40.364416827048736</v>
+            <v>43.59357017321264</v>
           </cell>
           <cell r="C4">
-            <v>51.5</v>
+            <v>52</v>
           </cell>
           <cell r="D4">
-            <v>48.5</v>
+            <v>55.000000000000007</v>
           </cell>
           <cell r="E4">
-            <v>54.500000000000007</v>
+            <v>52.5</v>
           </cell>
           <cell r="F4">
-            <v>54</v>
+            <v>48</v>
           </cell>
           <cell r="G4">
-            <v>42.133168430436328</v>
+            <v>36.461395757108356</v>
           </cell>
           <cell r="H4">
-            <v>16.721741331392934</v>
+            <v>20.029338517822307</v>
           </cell>
           <cell r="I4">
-            <v>2.2237206877056699</v>
+            <v>2.5549131305554504</v>
           </cell>
           <cell r="J4">
-            <v>-14.395532639376221</v>
+            <v>-13.565021140950668</v>
           </cell>
           <cell r="K4">
-            <v>-12.457672476383268</v>
+            <v>-13.980276890163443</v>
           </cell>
           <cell r="L4">
-            <v>-1.2516779557268016</v>
+            <v>-1.1920742435493348</v>
           </cell>
           <cell r="M4">
-            <v>-13.28005170360659</v>
+            <v>-14.723535584433394</v>
           </cell>
           <cell r="N4">
-            <v>-13.857445255937311</v>
+            <v>-15.156580748681435</v>
           </cell>
           <cell r="O4">
-            <v>-10.391413319233276</v>
+            <v>-12.290918979738283</v>
           </cell>
           <cell r="P4">
-            <v>-1.3063503459713692</v>
+            <v>-1.4175290988199967</v>
           </cell>
           <cell r="Q4">
-            <v>8.729824570743844</v>
+            <v>7.554655878528326</v>
           </cell>
           <cell r="R4">
-            <v>10.839454655483015</v>
+            <v>11.888434138271693</v>
           </cell>
           <cell r="S4">
-            <v>11.888434138271693</v>
+            <v>12.004987414137103</v>
           </cell>
           <cell r="T4">
-            <v>12.820860345194964</v>
+            <v>11.189114483079241</v>
           </cell>
           <cell r="U4">
-            <v>11.305667758944649</v>
+            <v>11.771880862406285</v>
           </cell>
           <cell r="V4">
-            <v>12.820860345194964</v>
+            <v>12.23809396586792</v>
           </cell>
           <cell r="W4">
-            <v>24.305111538796627</v>
+            <v>21.874600384916963</v>
           </cell>
           <cell r="X4">
-            <v>39.381709115562217</v>
+            <v>34.923402423234421</v>
           </cell>
           <cell r="Y4">
-            <v>39.010183557868238</v>
+            <v>34.551876865540436</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="2">
           <cell r="B2">
-            <v>12.538782747166985</v>
+            <v>10.353123369220446</v>
           </cell>
           <cell r="C2">
-            <v>9.6720725695833973</v>
+            <v>8.8734610730122903</v>
           </cell>
           <cell r="D2">
-            <v>7.8240208881911526</v>
+            <v>7.0644072097259922</v>
           </cell>
           <cell r="E2">
-            <v>7.2103249209179303</v>
+            <v>7.3589914141327331</v>
           </cell>
           <cell r="F2">
-            <v>7.772551186086881</v>
+            <v>8.8708464623817651</v>
           </cell>
           <cell r="G2">
-            <v>10.594782867885055</v>
+            <v>10.699681708161146</v>
           </cell>
           <cell r="H2">
-            <v>17.414400918547258</v>
+            <v>14.64762694083414</v>
           </cell>
           <cell r="I2">
-            <v>19.670144754169069</v>
+            <v>21.060963070120419</v>
           </cell>
           <cell r="J2">
-            <v>22.037397466951134</v>
+            <v>25.251184597548178</v>
           </cell>
           <cell r="K2">
-            <v>25.78393163029601</v>
+            <v>23.003311552518987</v>
           </cell>
           <cell r="L2">
-            <v>27.531029903260166</v>
+            <v>24.726943524224406</v>
           </cell>
           <cell r="M2">
-            <v>26.53668409812823</v>
+            <v>27.538068403717975</v>
           </cell>
           <cell r="N2">
-            <v>25.141228735797252</v>
+            <v>23.129930436933474</v>
           </cell>
           <cell r="O2">
-            <v>24.138136644772068</v>
+            <v>23.640443105704602</v>
           </cell>
           <cell r="P2">
-            <v>22.897828044285635</v>
+            <v>23.346805064761824</v>
           </cell>
           <cell r="Q2">
-            <v>19.195581849887208</v>
+            <v>21.541708520428976</v>
           </cell>
           <cell r="R2">
-            <v>22.231108734240113</v>
+            <v>20.250118847030599</v>
           </cell>
           <cell r="S2">
-            <v>29.4</v>
+            <v>30.6</v>
           </cell>
           <cell r="T2">
-            <v>32.652529518319184</v>
+            <v>27.85949766241912</v>
           </cell>
           <cell r="U2">
-            <v>30.204011937412258</v>
+            <v>27.009356828647501</v>
           </cell>
           <cell r="V2">
-            <v>27.15054724791359</v>
+            <v>24.193556953586366</v>
           </cell>
           <cell r="W2">
-            <v>23.9068179444617</v>
+            <v>21.994272508904764</v>
           </cell>
           <cell r="X2">
-            <v>19.88893542156908</v>
+            <v>21.253862362265</v>
           </cell>
           <cell r="Y2">
-            <v>13.912293959589812</v>
+            <v>14.809861311821411</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-26.768472901412242</v>
+            <v>-28.223281211271601</v>
           </cell>
           <cell r="C3">
-            <v>-29.093654104210071</v>
+            <v>-34.469655406074978</v>
           </cell>
           <cell r="D3">
-            <v>-33.381658096508147</v>
+            <v>-33.722287260758229</v>
           </cell>
           <cell r="E3">
-            <v>-34.491246068023791</v>
+            <v>-34.829395539278927</v>
           </cell>
           <cell r="F3">
-            <v>-36.75</v>
+            <v>-37.450000000000003</v>
           </cell>
           <cell r="G3">
-            <v>-33.96068134929336</v>
+            <v>-28.352495438400876</v>
           </cell>
           <cell r="H3">
-            <v>-21.34571304729311</v>
+            <v>-23.897917868165113</v>
           </cell>
           <cell r="I3">
-            <v>-8.5953132562416421</v>
+            <v>-9.7413550237405264</v>
           </cell>
           <cell r="J3">
-            <v>-2.8968982562438326</v>
+            <v>-2.8125225788775072</v>
           </cell>
           <cell r="K3">
-            <v>-0.41357401439452129</v>
+            <v>-0.4091742908371328</v>
           </cell>
           <cell r="L3">
-            <v>-4.2658066665330594</v>
+            <v>-3.7523299381540793</v>
           </cell>
           <cell r="M3">
-            <v>-2.7876784206707192</v>
+            <v>-2.6715251531427726</v>
           </cell>
           <cell r="N3">
-            <v>-3.7781403806230238</v>
+            <v>-4.0192982772585362</v>
           </cell>
           <cell r="O3">
-            <v>-3.8518150331184242</v>
+            <v>-3.8923604545196708</v>
           </cell>
           <cell r="P3">
-            <v>-10.35249701610172</v>
+            <v>-11.274996750209795</v>
           </cell>
           <cell r="Q3">
-            <v>-15.352073897049898</v>
+            <v>-14.466377326066249</v>
           </cell>
           <cell r="R3">
-            <v>-13.521588325189494</v>
+            <v>-13.915420994855207</v>
           </cell>
           <cell r="S3">
-            <v>-4.884503353133967</v>
+            <v>-4.5708196515565565</v>
           </cell>
           <cell r="T3">
-            <v>-6.2577916082013481</v>
+            <v>-7.1052008884786142</v>
           </cell>
           <cell r="U3">
-            <v>-8.9315770870359703</v>
+            <v>-7.3746966773691494</v>
           </cell>
           <cell r="V3">
-            <v>-11.970486312328481</v>
+            <v>-13.515065191338607</v>
           </cell>
           <cell r="W3">
-            <v>-16.206789856808868</v>
+            <v>-17.543432319226095</v>
           </cell>
           <cell r="X3">
             <v>-21.519451929561264</v>
           </cell>
           <cell r="Y3">
-            <v>-23.969661518464932</v>
+            <v>-25.735847104036036</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>43.997214341483122</v>
+            <v>39.557128490507758</v>
           </cell>
           <cell r="C4">
-            <v>47</v>
+            <v>47.5</v>
           </cell>
           <cell r="D4">
-            <v>52</v>
+            <v>46.5</v>
           </cell>
           <cell r="E4">
-            <v>45.5</v>
+            <v>47.5</v>
           </cell>
           <cell r="F4">
-            <v>50</v>
+            <v>53.5</v>
           </cell>
           <cell r="G4">
-            <v>36.866522376631785</v>
+            <v>43.348548289006601</v>
           </cell>
           <cell r="H4">
             <v>18.191784525361541</v>
           </cell>
           <cell r="I4">
-            <v>2.1290942754628754</v>
+            <v>2.3420037030091629</v>
           </cell>
           <cell r="J4">
-            <v>-13.288183974808817</v>
+            <v>-14.257114056305294</v>
           </cell>
           <cell r="K4">
-            <v>-15.226044137801772</v>
+            <v>-12.457672476383268</v>
           </cell>
           <cell r="L4">
-            <v>-1.1563120162428546</v>
+            <v>-1.1920742435493348</v>
           </cell>
           <cell r="M4">
+            <v>-14.867883972516074</v>
+          </cell>
+          <cell r="N4">
             <v>-13.28005170360659</v>
           </cell>
-          <cell r="N4">
-            <v>-15.445277524846796</v>
-          </cell>
           <cell r="O4">
-            <v>-10.503148946321804</v>
+            <v>-12.290918979738283</v>
           </cell>
           <cell r="P4">
-            <v>-1.3619397223956828</v>
+            <v>-1.3063503459713692</v>
           </cell>
           <cell r="Q4">
-            <v>8.6458839498713065</v>
+            <v>9.2334682959790655</v>
           </cell>
           <cell r="R4">
-            <v>12.587753793464147</v>
+            <v>10.606348103752197</v>
           </cell>
           <cell r="S4">
+            <v>12.121540690002512</v>
+          </cell>
+          <cell r="T4">
+            <v>11.538774310675468</v>
+          </cell>
+          <cell r="U4">
+            <v>12.121540690002512</v>
+          </cell>
+          <cell r="V4">
             <v>10.489794827886788</v>
           </cell>
-          <cell r="T4">
-            <v>10.489794827886788</v>
-          </cell>
-          <cell r="U4">
-            <v>12.004987414137103</v>
-          </cell>
-          <cell r="V4">
-            <v>11.888434138271693</v>
-          </cell>
           <cell r="W4">
-            <v>23.332907077244762</v>
+            <v>23.575958192632729</v>
           </cell>
           <cell r="X4">
-            <v>40.124760230950187</v>
+            <v>34.551876865540436</v>
           </cell>
           <cell r="Y4">
-            <v>35.666453538622385</v>
+            <v>33.437300192458487</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9">
         <row r="2">
           <cell r="B2">
-            <v>12.538782747166985</v>
+            <v>11.50347041024494</v>
           </cell>
           <cell r="C2">
-            <v>9.3171341266629053</v>
+            <v>9.0509302944725363</v>
           </cell>
           <cell r="D2">
-            <v>7.444214048958572</v>
+            <v>7.1403685775725076</v>
           </cell>
           <cell r="E2">
-            <v>7.3589914141327331</v>
+            <v>7.6563244005623385</v>
           </cell>
           <cell r="F2">
-            <v>7.9415196901322469</v>
+            <v>9.0398149664271337</v>
           </cell>
           <cell r="G2">
             <v>10.489884027608966</v>
           </cell>
           <cell r="H2">
-            <v>17.902655149908394</v>
+            <v>16.600643866278691</v>
           </cell>
           <cell r="I2">
-            <v>21.259651400970611</v>
+            <v>19.670144754169069</v>
           </cell>
           <cell r="J2">
-            <v>23.644291032249654</v>
+            <v>22.955622361407432</v>
           </cell>
           <cell r="K2">
-            <v>24.772797056558908</v>
+            <v>26.542282560598832</v>
           </cell>
           <cell r="L2">
-            <v>24.726943524224406</v>
+            <v>22.942524919383469</v>
           </cell>
           <cell r="M2">
-            <v>23.28218510496156</v>
+            <v>23.782877257756429</v>
           </cell>
           <cell r="N2">
-            <v>24.386991873723336</v>
+            <v>22.627105862217526</v>
           </cell>
           <cell r="O2">
-            <v>22.396209258035938</v>
+            <v>25.382370492440732</v>
           </cell>
           <cell r="P2">
-            <v>20.428454431666598</v>
+            <v>22.448851023809446</v>
           </cell>
           <cell r="Q2">
-            <v>21.541708520428976</v>
+            <v>19.195581849887208</v>
           </cell>
           <cell r="R2">
-            <v>23.771878646514182</v>
+            <v>19.80989887209515</v>
           </cell>
           <cell r="S2">
-            <v>33</v>
+            <v>32.400000000000006</v>
           </cell>
           <cell r="T2">
-            <v>32.952094009312937</v>
+            <v>31.454271554344164</v>
           </cell>
           <cell r="U2">
-            <v>30.784858320824032</v>
+            <v>26.718933636941614</v>
           </cell>
           <cell r="V2">
-            <v>26.881729948429296</v>
+            <v>28.763451044819348</v>
           </cell>
           <cell r="W2">
-            <v>24.145886123906319</v>
+            <v>23.428681585572466</v>
           </cell>
           <cell r="X2">
-            <v>19.498956295655962</v>
+            <v>20.668893673395321</v>
           </cell>
           <cell r="Y2">
-            <v>14.809861311821411</v>
+            <v>14.510672194410878</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-28.223281211271601</v>
+            <v>-29.387127859159094</v>
           </cell>
           <cell r="C3">
-            <v>-30.674830957699747</v>
+            <v>-31.939772440491488</v>
           </cell>
           <cell r="D3">
-            <v>-33.381658096508147</v>
+            <v>-36.447320574758898</v>
           </cell>
           <cell r="E3">
-            <v>-34.491246068023791</v>
+            <v>-36.520142895554606</v>
           </cell>
           <cell r="F3">
-            <v>-36.4</v>
+            <v>-37.1</v>
           </cell>
           <cell r="G3">
-            <v>-33.025983697477947</v>
+            <v>-34.27224723323183</v>
           </cell>
           <cell r="H3">
-            <v>-24.825992348482206</v>
+            <v>-21.34571304729311</v>
           </cell>
           <cell r="I3">
-            <v>-10.218872426865063</v>
+            <v>-8.5953132562416421</v>
           </cell>
           <cell r="J3">
-            <v>-2.7000216757224069</v>
+            <v>-2.7281469015111819</v>
           </cell>
           <cell r="K3">
-            <v>-0.42677318506668688</v>
+            <v>-0.47517014419796066</v>
           </cell>
           <cell r="L3">
-            <v>-4.2658066665330594</v>
+            <v>-3.7128317282787733</v>
           </cell>
           <cell r="M3">
-            <v>-2.9038316881986659</v>
+            <v>-2.9619083219626394</v>
           </cell>
           <cell r="N3">
-            <v>-4.4212281049843902</v>
+            <v>-4.1398772255762921</v>
           </cell>
           <cell r="O3">
-            <v>-4.0545421401246573</v>
+            <v>-4.297814668532137</v>
           </cell>
           <cell r="P3">
-            <v>-10.454996986558173</v>
+            <v>-9.5324972524500993</v>
           </cell>
           <cell r="Q3">
-            <v>-15.204457801885956</v>
+            <v>-14.613993421230191</v>
           </cell>
           <cell r="R3">
-            <v>-12.602645429302829</v>
+            <v>-13.915420994855207</v>
           </cell>
           <cell r="S3">
-            <v>-4.7948794383975635</v>
+            <v>-4.2123239926109433</v>
           </cell>
           <cell r="T3">
-            <v>-5.9970502911929593</v>
+            <v>-6.0622356204450565</v>
           </cell>
           <cell r="U3">
-            <v>-7.5385788257551312</v>
+            <v>-7.7844020483341021</v>
           </cell>
           <cell r="V3">
-            <v>-12.35663103208101</v>
+            <v>-13.000205565001897</v>
           </cell>
           <cell r="W3">
-            <v>-15.705548933402408</v>
+            <v>-17.209271703621788</v>
           </cell>
           <cell r="X3">
-            <v>-21.967773844760455</v>
+            <v>-20.398647141563281</v>
           </cell>
           <cell r="Y3">
-            <v>-24.978910424505564</v>
+            <v>-27.754344916117294</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>39.557128490507758</v>
+            <v>39.153484322237276</v>
           </cell>
           <cell r="C4">
-            <v>54.500000000000007</v>
+            <v>53</v>
           </cell>
           <cell r="D4">
-            <v>47</v>
+            <v>45</v>
           </cell>
           <cell r="E4">
-            <v>53.5</v>
+            <v>51.5</v>
           </cell>
           <cell r="F4">
-            <v>48</v>
+            <v>52.5</v>
           </cell>
           <cell r="G4">
-            <v>42.133168430436328</v>
+            <v>43.348548289006601</v>
           </cell>
           <cell r="H4">
-            <v>16.905496730639008</v>
+            <v>18.375539924607619</v>
           </cell>
           <cell r="I4">
-            <v>2.4839433213733546</v>
+            <v>2.4129735121912588</v>
           </cell>
           <cell r="J4">
-            <v>-13.149765391737892</v>
+            <v>-12.457672476383268</v>
           </cell>
           <cell r="K4">
-            <v>-13.841858307092519</v>
+            <v>-15.226044137801772</v>
           </cell>
           <cell r="L4">
-            <v>-1.0728668191944013</v>
+            <v>-1.2516779557268016</v>
           </cell>
           <cell r="M4">
-            <v>-12.991354927441231</v>
+            <v>-13.424400091689272</v>
           </cell>
           <cell r="N4">
-            <v>-15.589625912929476</v>
+            <v>-13.56874847977195</v>
           </cell>
           <cell r="O4">
-            <v>-10.279677692144746</v>
+            <v>-10.726620200498864</v>
           </cell>
           <cell r="P4">
-            <v>-1.3897344106078398</v>
+            <v>-1.3619397223956828</v>
           </cell>
           <cell r="Q4">
-            <v>7.8904183620184734</v>
+            <v>8.3101214663811582</v>
           </cell>
           <cell r="R4">
             <v>10.722901379617607</v>
           </cell>
           <cell r="S4">
+            <v>12.23809396586792</v>
+          </cell>
+          <cell r="T4">
             <v>11.771880862406285</v>
           </cell>
-          <cell r="T4">
-            <v>11.538774310675468</v>
-          </cell>
           <cell r="U4">
+            <v>11.189114483079241</v>
+          </cell>
+          <cell r="V4">
             <v>10.489794827886788</v>
           </cell>
-          <cell r="V4">
-            <v>10.606348103752197</v>
-          </cell>
           <cell r="W4">
-            <v>21.874600384916963</v>
+            <v>25.277316000348492</v>
           </cell>
           <cell r="X4">
-            <v>34.923402423234421</v>
+            <v>35.294927980928399</v>
           </cell>
           <cell r="Y4">
-            <v>34.180351307846458</v>
+            <v>33.437300192458487</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="2">
           <cell r="B2">
-            <v>59.438297935290414</v>
+            <v>69.129324772566022</v>
           </cell>
           <cell r="C2">
-            <v>61.423437385685375</v>
+            <v>56.304817603544919</v>
           </cell>
           <cell r="D2">
-            <v>53.242242251262013</v>
+            <v>57.006845238724985</v>
           </cell>
           <cell r="E2">
-            <v>56.76103778770694</v>
+            <v>56.240294321764672</v>
           </cell>
           <cell r="F2">
-            <v>58.515902732345822</v>
+            <v>54.651645004738072</v>
           </cell>
           <cell r="G2">
-            <v>46.517983202194273</v>
+            <v>48.540504210985318</v>
           </cell>
           <cell r="H2">
-            <v>65.231323143366964</v>
+            <v>55.150118657573884</v>
           </cell>
           <cell r="I2">
-            <v>63.323499844761344</v>
+            <v>72.271385692390666</v>
           </cell>
           <cell r="J2">
-            <v>83.744840137692734</v>
+            <v>77.541518646011781</v>
           </cell>
           <cell r="K2">
-            <v>90.712731831924771</v>
+            <v>85.719370446681197</v>
           </cell>
           <cell r="L2">
-            <v>84.168275910791152</v>
+            <v>82.450555994244382</v>
           </cell>
           <cell r="M2">
-            <v>88.117720366036508</v>
+            <v>78.520740920230551</v>
           </cell>
           <cell r="N2">
-            <v>94.295843361447737</v>
+            <v>97.854177073200489</v>
           </cell>
           <cell r="O2">
-            <v>94.171291445793756</v>
+            <v>86.996335907066594</v>
           </cell>
           <cell r="P2">
-            <v>90.9</v>
+            <v>81.900000000000006</v>
           </cell>
           <cell r="Q2">
-            <v>83.14278879614011</v>
+            <v>92.669566679031178</v>
           </cell>
           <cell r="R2">
-            <v>88.383428673284783</v>
+            <v>91.849445484001834</v>
           </cell>
           <cell r="S2">
-            <v>86.603039142092371</v>
+            <v>75.777659249330824</v>
           </cell>
           <cell r="T2">
-            <v>87.058706702768248</v>
+            <v>78.68767721211745</v>
           </cell>
           <cell r="U2">
-            <v>89.462449644059646</v>
+            <v>76.802669034051206</v>
           </cell>
           <cell r="V2">
-            <v>77.845430393062216</v>
+            <v>84.541811502142835</v>
           </cell>
           <cell r="W2">
-            <v>79.768981770656168</v>
+            <v>82.370144219699284</v>
           </cell>
           <cell r="X2">
-            <v>80.476788208874339</v>
+            <v>83.018160468101954</v>
           </cell>
           <cell r="Y2">
-            <v>80.252838115129975</v>
+            <v>77.224429129653373</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>78.761702268432046</v>
+            <v>72.198227079396034</v>
           </cell>
           <cell r="C3">
-            <v>60.957267279529205</v>
+            <v>62.945004256035581</v>
           </cell>
           <cell r="D3">
-            <v>62.496524084707048</v>
+            <v>58.590491329412863</v>
           </cell>
           <cell r="E3">
-            <v>70.778324224091151</v>
+            <v>64.934242407423071</v>
           </cell>
           <cell r="F3">
-            <v>68.835723540077041</v>
+            <v>64.939361830261362</v>
           </cell>
           <cell r="G3">
-            <v>68.226960514451122</v>
+            <v>59.215852521976437</v>
           </cell>
           <cell r="H3">
-            <v>63.233920563755632</v>
+            <v>71.572459539195933</v>
           </cell>
           <cell r="I3">
-            <v>74.249122012378223</v>
+            <v>81.674034213616039</v>
           </cell>
           <cell r="J3">
-            <v>89.32415807141399</v>
+            <v>94.965683844345406</v>
           </cell>
           <cell r="K3">
-            <v>91.099768724681368</v>
+            <v>102.72952643421517</v>
           </cell>
           <cell r="L3">
-            <v>104.56794794895464</v>
+            <v>94.015219256858288</v>
           </cell>
           <cell r="M3">
             <v>104.56558070996049</v>
           </cell>
           <cell r="N3">
-            <v>97</v>
+            <v>90</v>
           </cell>
           <cell r="O3">
-            <v>106.00220233070868</v>
+            <v>106.98370420414118</v>
           </cell>
           <cell r="P3">
-            <v>96.201247252621954</v>
+            <v>90.5423503554089</v>
           </cell>
           <cell r="Q3">
-            <v>94.139691704866777</v>
+            <v>87.803366301654577</v>
           </cell>
           <cell r="R3">
-            <v>87.49328342078644</v>
+            <v>100.38703045121815</v>
           </cell>
           <cell r="S3">
-            <v>93.93818121791675</v>
+            <v>93.008100215759157</v>
           </cell>
           <cell r="T3">
-            <v>93.402885050440617</v>
+            <v>90.600798498927389</v>
           </cell>
           <cell r="U3">
-            <v>92.775204276389431</v>
+            <v>99.205168929208511</v>
           </cell>
           <cell r="V3">
-            <v>96.739257962336225</v>
+            <v>93.975279163412324</v>
           </cell>
           <cell r="W3">
-            <v>95.948572984935637</v>
+            <v>100.74600163418242</v>
           </cell>
           <cell r="X3">
-            <v>80.492115032773299</v>
+            <v>93.907467538235508</v>
           </cell>
           <cell r="Y3">
-            <v>82.80504418314284</v>
+            <v>80.345488415326713</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>90.673838861083524</v>
+            <v>81.523267966845722</v>
           </cell>
           <cell r="C4">
-            <v>70.442171306853069</v>
+            <v>73.471942115749968</v>
           </cell>
           <cell r="D4">
-            <v>69.155371638820881</v>
+            <v>68.435003184249837</v>
           </cell>
           <cell r="E4">
-            <v>65.303984128223789</v>
+            <v>70.861770011476878</v>
           </cell>
           <cell r="F4">
-            <v>65.303984128223789</v>
+            <v>66.693430599037058</v>
           </cell>
           <cell r="G4">
-            <v>67.785795948213959</v>
+            <v>72.255189087656632</v>
           </cell>
           <cell r="H4">
-            <v>94.26695628322733</v>
+            <v>100.80030968899557</v>
           </cell>
           <cell r="I4">
-            <v>107.96214538005113</v>
+            <v>124.04161384090982</v>
           </cell>
           <cell r="J4">
-            <v>109.08253199200091</v>
+            <v>122.26833256246255</v>
           </cell>
           <cell r="K4">
-            <v>116.1885059508124</v>
+            <v>118.53574849527327</v>
           </cell>
           <cell r="L4">
-            <v>118.47945024446015</v>
+            <v>106.7488116063948</v>
           </cell>
           <cell r="M4">
             <v>132.5</v>
           </cell>
           <cell r="N4">
-            <v>118.75</v>
+            <v>133.75</v>
           </cell>
           <cell r="O4">
-            <v>133.75</v>
+            <v>113.75</v>
           </cell>
           <cell r="P4">
-            <v>128.22627818362832</v>
+            <v>123.47715676941986</v>
           </cell>
           <cell r="Q4">
-            <v>110.15231154251752</v>
+            <v>118.02033379555451</v>
           </cell>
           <cell r="R4">
-            <v>107.84791773614783</v>
+            <v>100.51844759873973</v>
           </cell>
           <cell r="S4">
-            <v>109.94205206112159</v>
+            <v>100.51844759873973</v>
           </cell>
           <cell r="T4">
             <v>104.70671624868721</v>
           </cell>
           <cell r="U4">
-            <v>106.80085057366097</v>
+            <v>114.13032071106907</v>
           </cell>
           <cell r="V4">
-            <v>109.94205206112159</v>
+            <v>94.236044623818501</v>
           </cell>
           <cell r="W4">
-            <v>96.330178948792238</v>
+            <v>100.51844759873973</v>
           </cell>
           <cell r="X4">
-            <v>94.886948844600084</v>
+            <v>108.00961198268308</v>
           </cell>
           <cell r="Y4">
-            <v>102.00450593617379</v>
+            <v>86.892727278962852</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="2">
           <cell r="B2">
-            <v>70.421461684202782</v>
+            <v>64.606845581837405</v>
           </cell>
           <cell r="C2">
-            <v>62.560908448383252</v>
+            <v>61.423437385685375</v>
           </cell>
           <cell r="D2">
-            <v>57.006845238724985</v>
+            <v>59.158046945846685</v>
           </cell>
           <cell r="E2">
-            <v>47.387655400746162</v>
+            <v>47.908398866688422</v>
           </cell>
           <cell r="F2">
-            <v>52.443497731819363</v>
+            <v>50.787387277130335</v>
           </cell>
           <cell r="G2">
-            <v>53.59680673296296</v>
+            <v>54.60806723735849</v>
           </cell>
           <cell r="H2">
             <v>56.929154743302071</v>
           </cell>
           <cell r="I2">
-            <v>65.388396578829642</v>
+            <v>68.829891135610154</v>
           </cell>
           <cell r="J2">
-            <v>85.295670510612965</v>
+            <v>83.744840137692734</v>
           </cell>
           <cell r="K2">
-            <v>91.544958729465364</v>
+            <v>85.719370446681197</v>
           </cell>
           <cell r="L2">
-            <v>85.885995827337908</v>
+            <v>79.873976119424256</v>
           </cell>
           <cell r="M2">
-            <v>95.969794458059567</v>
+            <v>81.138098950904904</v>
           </cell>
           <cell r="N2">
-            <v>96.075010217324106</v>
+            <v>90.737509649694985</v>
           </cell>
           <cell r="O2">
-            <v>86.099466464725708</v>
+            <v>89.686944234089282</v>
           </cell>
           <cell r="P2">
-            <v>84.6</v>
+            <v>88.2</v>
           </cell>
           <cell r="Q2">
-            <v>78.812435213007817</v>
+            <v>94.401708112284098</v>
           </cell>
           <cell r="R2">
-            <v>81.451395051850668</v>
+            <v>82.317899254529934</v>
           </cell>
           <cell r="S2">
-            <v>82.439431491030234</v>
+            <v>91.599368323366932</v>
           </cell>
           <cell r="T2">
-            <v>85.38450080463808</v>
+            <v>82.036089008377772</v>
           </cell>
           <cell r="U2">
-            <v>75.958683660050639</v>
+            <v>88.618464270059093</v>
           </cell>
           <cell r="V2">
-            <v>79.519525670332357</v>
+            <v>83.70476386350775</v>
           </cell>
           <cell r="W2">
-            <v>94.508902315233939</v>
+            <v>88.439523267466612</v>
           </cell>
           <cell r="X2">
-            <v>86.406656813738763</v>
+            <v>76.24116777682832</v>
           </cell>
           <cell r="Y2">
-            <v>73.438917897807613</v>
+            <v>68.896304419592724</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>77.303152226424046</v>
+            <v>74.386052142408033</v>
           </cell>
           <cell r="C3">
             <v>65.595320224710775</v>
           </cell>
           <cell r="D3">
-            <v>67.704567758432646</v>
+            <v>61.845518625491351</v>
           </cell>
           <cell r="E3">
-            <v>69.479639375942696</v>
+            <v>67.531612103719993</v>
           </cell>
           <cell r="F3">
-            <v>70.134510776682276</v>
+            <v>69.485117158379666</v>
           </cell>
           <cell r="G3">
-            <v>65.008707659995878</v>
+            <v>65.652358230886918</v>
           </cell>
           <cell r="H3">
-            <v>72.267337787149287</v>
+            <v>72.962216035102657</v>
           </cell>
           <cell r="I3">
-            <v>79.199063479870105</v>
+            <v>88.273956170271887</v>
           </cell>
           <cell r="J3">
-            <v>90.264412366902562</v>
+            <v>94.025429548856835</v>
           </cell>
           <cell r="K3">
-            <v>88.192329297297931</v>
+            <v>94.00720815206482</v>
           </cell>
           <cell r="L3">
-            <v>95.933897200875805</v>
+            <v>89.218524396814502</v>
           </cell>
           <cell r="M3">
-            <v>103.57911296741369</v>
+            <v>88.782096829211724</v>
           </cell>
           <cell r="N3">
-            <v>108</v>
+            <v>92</v>
           </cell>
           <cell r="O3">
-            <v>89.316670482356386</v>
+            <v>100.11319109011374</v>
           </cell>
           <cell r="P3">
-            <v>97.144396735490801</v>
+            <v>89.599200872540052</v>
           </cell>
           <cell r="Q3">
-            <v>83.277419585074455</v>
+            <v>88.708555644970616</v>
           </cell>
           <cell r="R3">
-            <v>94.861138866747424</v>
+            <v>83.809355697805969</v>
           </cell>
           <cell r="S3">
-            <v>93.008100215759157</v>
+            <v>101.37882923517749</v>
           </cell>
           <cell r="T3">
-            <v>91.534827349431808</v>
+            <v>102.74317355548469</v>
           </cell>
           <cell r="U3">
-            <v>82.670974107673757</v>
+            <v>83.589540486647905</v>
           </cell>
           <cell r="V3">
-            <v>100.42456302756808</v>
+            <v>101.34588929387604</v>
           </cell>
           <cell r="W3">
-            <v>87.313201416291434</v>
+            <v>88.272687146140797</v>
           </cell>
           <cell r="X3">
-            <v>98.379251706722926</v>
+            <v>82.280828700168257</v>
           </cell>
           <cell r="Y3">
-            <v>84.444748028353587</v>
+            <v>88.54400764138046</v>
           </cell>
         </row>
         <row r="4">
@@ -2868,518 +2871,518 @@
             <v>79.859527804257041</v>
           </cell>
           <cell r="C4">
-            <v>71.957056711301519</v>
+            <v>68.169843200180395</v>
           </cell>
           <cell r="D4">
-            <v>68.435003184249837</v>
+            <v>79.240530002815603</v>
           </cell>
           <cell r="E4">
-            <v>75.030109423916699</v>
+            <v>70.861770011476878</v>
           </cell>
           <cell r="F4">
-            <v>63.91453765741052</v>
+            <v>67.388153834443699</v>
           </cell>
           <cell r="G4">
-            <v>70.765391374509065</v>
+            <v>70.020492517935281</v>
           </cell>
           <cell r="H4">
-            <v>85.866930475811046</v>
+            <v>84.000258074162971</v>
           </cell>
           <cell r="I4">
-            <v>111.40774576452085</v>
+            <v>119.4474799949502</v>
           </cell>
           <cell r="J4">
-            <v>116.27478684861634</v>
+            <v>131.85800570461649</v>
           </cell>
           <cell r="K4">
-            <v>107.97315704519941</v>
+            <v>129.09833994534713</v>
           </cell>
           <cell r="L4">
-            <v>121.99864183587977</v>
+            <v>126.69089729110591</v>
           </cell>
           <cell r="M4">
-            <v>133.75</v>
+            <v>115</v>
           </cell>
           <cell r="N4">
-            <v>131.25</v>
+            <v>121.25</v>
           </cell>
           <cell r="O4">
-            <v>120</v>
+            <v>123.75</v>
           </cell>
           <cell r="P4">
-            <v>121.10259606231564</v>
+            <v>116.35347464810717</v>
           </cell>
           <cell r="Q4">
-            <v>119.14433697455979</v>
+            <v>102.28428928948057</v>
           </cell>
           <cell r="R4">
-            <v>105.75378341117408</v>
+            <v>114.13032071106907</v>
           </cell>
           <cell r="S4">
-            <v>113.08325354858221</v>
+            <v>106.80085057366097</v>
           </cell>
           <cell r="T4">
+            <v>108.8949848986347</v>
+          </cell>
+          <cell r="U4">
+            <v>103.65964908620035</v>
+          </cell>
+          <cell r="V4">
             <v>100.51844759873973</v>
           </cell>
-          <cell r="U4">
-            <v>101.56551476122659</v>
-          </cell>
-          <cell r="V4">
-            <v>115.17738787355594</v>
-          </cell>
           <cell r="W4">
-            <v>112.03618638609532</v>
+            <v>107.84791773614783</v>
           </cell>
           <cell r="X4">
-            <v>108.00961198268308</v>
+            <v>99.934126974632008</v>
           </cell>
           <cell r="Y4">
-            <v>98.226561271871049</v>
+            <v>95.393102773643989</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="2">
           <cell r="B2">
-            <v>58.792229479472041</v>
+            <v>65.252914037655785</v>
           </cell>
           <cell r="C2">
-            <v>51.754933352753412</v>
+            <v>52.323668884102354</v>
           </cell>
           <cell r="D2">
-            <v>57.544645665505406</v>
+            <v>48.402038410238191</v>
           </cell>
           <cell r="E2">
-            <v>54.678063923937877</v>
+            <v>53.115833526111082</v>
           </cell>
           <cell r="F2">
             <v>51.891460913589682</v>
           </cell>
           <cell r="G2">
-            <v>46.012352949996504</v>
+            <v>47.023613454392034</v>
           </cell>
           <cell r="H2">
-            <v>55.150118657573884</v>
+            <v>59.89421488618239</v>
           </cell>
           <cell r="I2">
-            <v>64.700097667473543</v>
+            <v>70.206488958322353</v>
           </cell>
           <cell r="J2">
-            <v>82.969424951232611</v>
+            <v>82.194009764772488</v>
           </cell>
           <cell r="K2">
-            <v>81.55823595897823</v>
+            <v>84.05491665160001</v>
           </cell>
           <cell r="L2">
-            <v>78.156256202877501</v>
+            <v>84.168275910791152</v>
           </cell>
           <cell r="M2">
-            <v>88.117720366036508</v>
+            <v>86.372815012253596</v>
           </cell>
           <cell r="N2">
-            <v>88.068759365880425</v>
+            <v>82.731258798251318</v>
           </cell>
           <cell r="O2">
-            <v>93.274422003452855</v>
+            <v>88.790074791748381</v>
           </cell>
           <cell r="P2">
-            <v>99.000000000000014</v>
+            <v>98.100000000000009</v>
           </cell>
           <cell r="Q2">
-            <v>78.812435213007817</v>
+            <v>84.008859512766563</v>
           </cell>
           <cell r="R2">
-            <v>78.851882443812897</v>
+            <v>79.718386646492149</v>
           </cell>
           <cell r="S2">
             <v>75.777659249330824</v>
           </cell>
           <cell r="T2">
-            <v>84.54739785557301</v>
+            <v>76.176368364922212</v>
           </cell>
           <cell r="U2">
-            <v>86.930493522057958</v>
+            <v>80.178610530053447</v>
           </cell>
           <cell r="V2">
-            <v>79.519525670332357</v>
+            <v>84.541811502142835</v>
           </cell>
           <cell r="W2">
-            <v>80.636035920337207</v>
+            <v>95.375956464914978</v>
           </cell>
           <cell r="X2">
-            <v>87.253780900147973</v>
+            <v>82.171036381692744</v>
           </cell>
           <cell r="Y2">
-            <v>76.46732688328423</v>
+            <v>70.410508912331025</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>74.386052142408033</v>
+            <v>79.490977289436046</v>
           </cell>
           <cell r="C3">
-            <v>63.607583248204378</v>
+            <v>64.932741232541971</v>
           </cell>
           <cell r="D3">
-            <v>69.657584136079734</v>
+            <v>63.798535003138447</v>
           </cell>
           <cell r="E3">
-            <v>70.128981800016916</v>
+            <v>58.440818166680764</v>
           </cell>
           <cell r="F3">
             <v>62.991180975353522</v>
           </cell>
           <cell r="G3">
-            <v>69.514261656233217</v>
+            <v>58.57220195108539</v>
           </cell>
           <cell r="H3">
-            <v>75.74172902691609</v>
+            <v>71.572459539195933</v>
           </cell>
           <cell r="I3">
-            <v>89.923936659435853</v>
+            <v>79.199063479870105</v>
           </cell>
           <cell r="J3">
-            <v>96.846192435322536</v>
+            <v>101.54746391276539</v>
           </cell>
           <cell r="K3">
-            <v>101.76037995842069</v>
+            <v>88.192329297297931</v>
           </cell>
           <cell r="L3">
-            <v>89.218524396814502</v>
+            <v>92.09654131284077</v>
           </cell>
           <cell r="M3">
-            <v>99.633241997226492</v>
+            <v>98.646774254679698</v>
           </cell>
           <cell r="N3">
-            <v>94</v>
+            <v>90</v>
           </cell>
           <cell r="O3">
-            <v>95.205681722951311</v>
+            <v>92.261176102653849</v>
           </cell>
           <cell r="P3">
-            <v>95.258097769753121</v>
+            <v>89.599200872540052</v>
           </cell>
           <cell r="Q3">
-            <v>93.234502361550753</v>
+            <v>98.665638421446914</v>
           </cell>
           <cell r="R3">
-            <v>93.019175005257182</v>
+            <v>93.940156936002296</v>
           </cell>
           <cell r="S3">
-            <v>91.147938211443972</v>
+            <v>86.497533200656022</v>
           </cell>
           <cell r="T3">
-            <v>91.534827349431808</v>
+            <v>95.270942751449425</v>
           </cell>
           <cell r="U3">
-            <v>85.426673244596216</v>
+            <v>83.589540486647905</v>
           </cell>
           <cell r="V3">
-            <v>95.817931696028253</v>
+            <v>97.660584228644183</v>
           </cell>
           <cell r="W3">
-            <v>89.232172875990145</v>
+            <v>105.5434302834292</v>
           </cell>
           <cell r="X3">
-            <v>82.280828700168257</v>
+            <v>84.069542367563216</v>
           </cell>
           <cell r="Y3">
-            <v>77.066080724905206</v>
+            <v>85.264599950958967</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>84.850748292023113</v>
+            <v>82.355138048140077</v>
           </cell>
           <cell r="C4">
-            <v>77.259155626871106</v>
+            <v>74.229384817974207</v>
           </cell>
           <cell r="D4">
-            <v>77.7997930936735</v>
+            <v>68.435003184249837</v>
           </cell>
           <cell r="E4">
-            <v>73.64066295310343</v>
+            <v>67.388153834443699</v>
           </cell>
           <cell r="F4">
-            <v>62.525091186597251</v>
+            <v>63.91453765741052</v>
           </cell>
           <cell r="G4">
-            <v>70.765391374509065</v>
+            <v>70.020492517935281</v>
           </cell>
           <cell r="H4">
-            <v>88.666939078283136</v>
+            <v>96.133628684875404</v>
           </cell>
           <cell r="I4">
-            <v>104.51654499558143</v>
+            <v>105.66507845707133</v>
           </cell>
           <cell r="J4">
-            <v>118.67220513415482</v>
+            <v>124.66575084800104</v>
           </cell>
           <cell r="K4">
-            <v>107.97315704519941</v>
+            <v>124.40385485642541</v>
           </cell>
           <cell r="L4">
-            <v>107.92187547020133</v>
+            <v>109.09493933400788</v>
           </cell>
           <cell r="M4">
-            <v>123.75</v>
+            <v>132.5</v>
           </cell>
           <cell r="N4">
-            <v>137.5</v>
+            <v>120</v>
           </cell>
           <cell r="O4">
-            <v>137.5</v>
+            <v>135</v>
           </cell>
           <cell r="P4">
-            <v>121.10259606231564</v>
+            <v>130.60083889073255</v>
           </cell>
           <cell r="Q4">
-            <v>107.90430518450697</v>
+            <v>101.16028611047528</v>
           </cell>
           <cell r="R4">
-            <v>107.84791773614783</v>
+            <v>98.424313273765975</v>
           </cell>
           <cell r="S4">
+            <v>105.75378341117408</v>
+          </cell>
+          <cell r="T4">
             <v>110.98911922360845</v>
           </cell>
-          <cell r="T4">
-            <v>115.17738787355594</v>
-          </cell>
           <cell r="U4">
-            <v>115.17738787355594</v>
+            <v>105.75378341117408</v>
           </cell>
           <cell r="V4">
-            <v>98.424313273765975</v>
+            <v>99.471380436252844</v>
           </cell>
           <cell r="W4">
-            <v>99.471380436252844</v>
+            <v>95.283111786305369</v>
           </cell>
           <cell r="X4">
-            <v>100.94356260063839</v>
+            <v>103.97186947865754</v>
           </cell>
           <cell r="Y4">
-            <v>102.94899210224946</v>
+            <v>98.226561271871049</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="13">
         <row r="2">
           <cell r="B2">
-            <v>12.695712942389127</v>
+            <v>14.106347713765699</v>
           </cell>
           <cell r="C2">
-            <v>9.236094618732734</v>
+            <v>10.415170527507128</v>
           </cell>
           <cell r="D2">
-            <v>8.9388082820377797</v>
+            <v>9.3112586271226867</v>
           </cell>
           <cell r="E2">
-            <v>8.2948546189919714</v>
+            <v>8.3761767230997357</v>
           </cell>
           <cell r="F2">
-            <v>8.4256053063681797</v>
+            <v>9.3617836737424209</v>
           </cell>
           <cell r="G2">
-            <v>4.6925448149284597</v>
+            <v>4.0842519685488439</v>
           </cell>
           <cell r="H2">
-            <v>7.5809210989341649</v>
+            <v>7.3534934659661397</v>
           </cell>
           <cell r="I2">
-            <v>13.110872036015174</v>
+            <v>14.567635595572415</v>
           </cell>
           <cell r="J2">
-            <v>23.098694426383936</v>
+            <v>20.131889637674071</v>
           </cell>
           <cell r="K2">
-            <v>26.188605949002458</v>
+            <v>27.4476735427045</v>
           </cell>
           <cell r="L2">
-            <v>27.76518799587263</v>
+            <v>28.040090847316911</v>
           </cell>
           <cell r="M2">
-            <v>27.06922891897748</v>
+            <v>31.34331769565814</v>
           </cell>
           <cell r="N2">
-            <v>31.858957273478502</v>
+            <v>27.095001045668631</v>
           </cell>
           <cell r="O2">
-            <v>29.4</v>
+            <v>32.1</v>
           </cell>
           <cell r="P2">
-            <v>28.297707575904976</v>
+            <v>30.978543030464397</v>
           </cell>
           <cell r="Q2">
-            <v>27.067762468649544</v>
+            <v>27.355717388528792</v>
           </cell>
           <cell r="R2">
-            <v>28.773679580925911</v>
+            <v>27.403504362786581</v>
           </cell>
           <cell r="S2">
-            <v>24.317524564645893</v>
+            <v>21.885772108181303</v>
           </cell>
           <cell r="T2">
-            <v>24.447069097882029</v>
+            <v>22.026567207002621</v>
           </cell>
           <cell r="U2">
-            <v>21.644702762152292</v>
+            <v>23.256542329546615</v>
           </cell>
           <cell r="V2">
-            <v>20.340727461948816</v>
+            <v>21.170961235905914</v>
           </cell>
           <cell r="W2">
-            <v>25.131025992496539</v>
+            <v>25.628670071555877</v>
           </cell>
           <cell r="X2">
-            <v>21.626499616329696</v>
+            <v>21.849453220621754</v>
           </cell>
           <cell r="Y2">
-            <v>16.865863945424714</v>
+            <v>17.045288029950505</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-23.919804466460054</v>
+            <v>-25.62836192835006</v>
           </cell>
           <cell r="C3">
-            <v>-33.954684421399534</v>
+            <v>-34.906684919195783</v>
           </cell>
           <cell r="D3">
-            <v>-33.57722466211068</v>
+            <v>-32.877699148316708</v>
           </cell>
           <cell r="E3">
             <v>-31.917683997931213</v>
           </cell>
           <cell r="F3">
-            <v>-31.816660608509856</v>
+            <v>-36.606265431296286</v>
           </cell>
           <cell r="G3">
-            <v>-34.299999999999997</v>
+            <v>-35.700000000000003</v>
           </cell>
           <cell r="H3">
-            <v>-28.817451981430526</v>
+            <v>-27.300743982407869</v>
           </cell>
           <cell r="I3">
-            <v>-4.5777343692523207</v>
+            <v>-5.0496657475257569</v>
           </cell>
           <cell r="J3">
-            <v>13.633784980259477</v>
+            <v>14.08824447960146</v>
           </cell>
           <cell r="K3">
-            <v>20.509745529691543</v>
+            <v>23.817769002222434</v>
           </cell>
           <cell r="L3">
-            <v>16.642574040864059</v>
+            <v>18.202815357195067</v>
           </cell>
           <cell r="M3">
-            <v>20.782842726518385</v>
+            <v>24.939411271822067</v>
           </cell>
           <cell r="N3">
-            <v>21.721882394273109</v>
+            <v>22.3366526507148</v>
           </cell>
           <cell r="O3">
-            <v>22.798088720687748</v>
+            <v>19.631687509481115</v>
           </cell>
           <cell r="P3">
-            <v>9.9113973844948262</v>
+            <v>11.327311296565515</v>
           </cell>
           <cell r="Q3">
-            <v>2.808610616749061</v>
+            <v>2.9187522095627498</v>
           </cell>
           <cell r="R3">
-            <v>6.2480395020522259</v>
+            <v>5.5129760312225526</v>
           </cell>
           <cell r="S3">
-            <v>6.9939757541716467</v>
+            <v>7.8868237227893054</v>
           </cell>
           <cell r="T3">
-            <v>4.303258215747408</v>
+            <v>4.4825606414035502</v>
           </cell>
           <cell r="U3">
-            <v>-0.84456791096214168</v>
+            <v>-0.90310232063278517</v>
           </cell>
           <cell r="V3">
             <v>-3.0685485255490925</v>
           </cell>
           <cell r="W3">
-            <v>-2.0894459722325776</v>
+            <v>-2.2257141878129629</v>
           </cell>
           <cell r="X3">
-            <v>-10.456116659609817</v>
+            <v>-10.89178818709356</v>
           </cell>
           <cell r="Y3">
-            <v>-15.480068236484041</v>
+            <v>-14.005776023485559</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-35.933614398313658</v>
+            <v>-35.555365825699823</v>
           </cell>
           <cell r="C4">
-            <v>-40.850845842293424</v>
+            <v>-34.420620107858348</v>
           </cell>
           <cell r="D4">
-            <v>-42.155931485463739</v>
+            <v>-44.351552916998308</v>
           </cell>
           <cell r="E4">
-            <v>-52</v>
+            <v>-54.500000000000007</v>
           </cell>
           <cell r="F4">
-            <v>-52</v>
+            <v>-45.5</v>
           </cell>
           <cell r="G4">
-            <v>-49</v>
+            <v>-50.5</v>
           </cell>
           <cell r="H4">
-            <v>-19.338673265963784</v>
+            <v>-21.7310864535057</v>
           </cell>
           <cell r="I4">
-            <v>3.8019403844828168</v>
+            <v>4.421821968909363</v>
           </cell>
           <cell r="J4">
-            <v>13.385902192807253</v>
+            <v>12.467261846242048</v>
           </cell>
           <cell r="K4">
-            <v>14.435776874596057</v>
+            <v>12.598496181465649</v>
           </cell>
           <cell r="L4">
-            <v>12.839522206625626</v>
+            <v>11.039589187005211</v>
           </cell>
           <cell r="M4">
             <v>16.700890512964939</v>
           </cell>
           <cell r="N4">
-            <v>25.149849282307621</v>
+            <v>24.006674314930002</v>
           </cell>
           <cell r="O4">
-            <v>24.0372557602211</v>
+            <v>25.215552611212335</v>
           </cell>
           <cell r="P4">
-            <v>14.01010673205046</v>
+            <v>13.745765095596676</v>
           </cell>
           <cell r="Q4">
-            <v>9.4886624320361186</v>
+            <v>10.107488242821082</v>
           </cell>
           <cell r="R4">
-            <v>-1.7745062860625838</v>
+            <v>-1.5066562806191748</v>
           </cell>
           <cell r="S4">
-            <v>-1.7745062860625838</v>
+            <v>-1.6908031593615185</v>
           </cell>
           <cell r="T4">
-            <v>-1.6405812833408793</v>
+            <v>-1.7075437847017314</v>
           </cell>
           <cell r="U4">
-            <v>-1.8079875367430098</v>
+            <v>-1.6573219086810922</v>
           </cell>
           <cell r="V4">
-            <v>-11.198210315913499</v>
+            <v>-11.411509560026138</v>
           </cell>
           <cell r="W4">
-            <v>-14.071786625720499</v>
+            <v>-15.02812163911898</v>
           </cell>
           <cell r="X4">
-            <v>-35.143494425683116</v>
+            <v>-40.109422985833994</v>
           </cell>
           <cell r="Y4">
             <v>-41.63740100434196</v>
@@ -3389,448 +3392,448 @@
       <sheetData sheetId="14">
         <row r="2">
           <cell r="B2">
-            <v>12.695712942389127</v>
+            <v>11.541557220353752</v>
           </cell>
           <cell r="C2">
-            <v>10.808195830431925</v>
+            <v>10.611683178969527</v>
           </cell>
           <cell r="D2">
-            <v>9.7768215584788223</v>
+            <v>9.590596385936367</v>
           </cell>
           <cell r="E2">
-            <v>7.888244098453149</v>
+            <v>8.5388209313152661</v>
           </cell>
           <cell r="F2">
-            <v>9.7362550206921181</v>
+            <v>8.4256053063681797</v>
           </cell>
           <cell r="G2">
-            <v>4.4318478807657673</v>
+            <v>4.5187468588199975</v>
           </cell>
           <cell r="H2">
-            <v>6.8228289890407483</v>
+            <v>7.5809210989341649</v>
           </cell>
           <cell r="I2">
-            <v>14.421959239616692</v>
+            <v>13.256548391970899</v>
           </cell>
           <cell r="J2">
-            <v>20.767633520969042</v>
+            <v>19.072316498849123</v>
           </cell>
           <cell r="K2">
-            <v>24.929538355300416</v>
+            <v>26.944046505223685</v>
           </cell>
           <cell r="L2">
             <v>24.741256629985511</v>
           </cell>
           <cell r="M2">
-            <v>26.78428966719877</v>
+            <v>29.918621436764589</v>
           </cell>
           <cell r="N2">
-            <v>32.156704537716621</v>
+            <v>30.667968216526035</v>
           </cell>
           <cell r="O2">
-            <v>30.3</v>
+            <v>32.400000000000006</v>
           </cell>
           <cell r="P2">
             <v>30.680672424402239</v>
           </cell>
           <cell r="Q2">
-            <v>29.6593567475628</v>
+            <v>28.219582148166545</v>
           </cell>
           <cell r="R2">
-            <v>26.85543427553085</v>
+            <v>26.033329144647251</v>
           </cell>
           <cell r="S2">
-            <v>26.262926529817566</v>
+            <v>23.344823582060055</v>
           </cell>
           <cell r="T2">
-            <v>22.510667585178503</v>
+            <v>25.899370232409677</v>
           </cell>
           <cell r="U2">
-            <v>23.256542329546615</v>
+            <v>24.868381896940935</v>
           </cell>
           <cell r="V2">
-            <v>22.623870340330829</v>
+            <v>19.095376801013177</v>
           </cell>
           <cell r="W2">
-            <v>25.877492111085548</v>
+            <v>25.37984803202621</v>
           </cell>
           <cell r="X2">
-            <v>21.626499616329696</v>
+            <v>20.511731594869403</v>
           </cell>
           <cell r="Y2">
-            <v>18.480680706156868</v>
+            <v>16.686439860898918</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-23.187565554221479</v>
+            <v>-23.919804466460054</v>
           </cell>
           <cell r="C3">
-            <v>-33.002683923603286</v>
+            <v>-30.781349428745372</v>
           </cell>
           <cell r="D3">
-            <v>-33.57722466211068</v>
+            <v>-38.124140501771507</v>
           </cell>
           <cell r="E3">
-            <v>-31.5985071579519</v>
+            <v>-34.790275557745026</v>
           </cell>
           <cell r="F3">
-            <v>-33.869348389704044</v>
+            <v>-37.632609321893383</v>
           </cell>
           <cell r="G3">
-            <v>-34.65</v>
+            <v>-32.550000000000004</v>
           </cell>
           <cell r="H3">
-            <v>-32.760892778889442</v>
+            <v>-33.367575978498508</v>
           </cell>
           <cell r="I3">
-            <v>-4.3889618179429473</v>
+            <v>-4.766506920561695</v>
           </cell>
           <cell r="J3">
-            <v>14.694190478724103</v>
+            <v>14.997163478285424</v>
           </cell>
           <cell r="K3">
-            <v>23.597234104053708</v>
+            <v>24.03830390039116</v>
           </cell>
           <cell r="L3">
-            <v>15.775773309569058</v>
+            <v>15.949133455828058</v>
           </cell>
           <cell r="M3">
-            <v>21.93744510021385</v>
+            <v>23.784808898126599</v>
           </cell>
           <cell r="N3">
-            <v>20.082495043761927</v>
+            <v>22.3366526507148</v>
           </cell>
           <cell r="O3">
-            <v>22.586995306607303</v>
+            <v>21.953715064365976</v>
           </cell>
           <cell r="P3">
-            <v>10.564896113142836</v>
+            <v>10.020313839269495</v>
           </cell>
           <cell r="Q3">
-            <v>2.7810752185456389</v>
+            <v>2.7535398203422168</v>
           </cell>
           <cell r="R3">
             <v>6.3092947912880328</v>
           </cell>
           <cell r="S3">
-            <v>6.7707637620172338</v>
+            <v>7.2171877463260614</v>
           </cell>
           <cell r="T3">
-            <v>4.0791301836772309</v>
+            <v>4.751514279887763</v>
           </cell>
           <cell r="U3">
-            <v>-0.8194817353890087</v>
+            <v>-0.88637820358402986</v>
           </cell>
           <cell r="V3">
-            <v>-3.2970574583027488</v>
+            <v>-3.3949898580543154</v>
           </cell>
           <cell r="W3">
-            <v>-2.4755392497103363</v>
+            <v>-2.2938482956031558</v>
           </cell>
           <cell r="X3">
-            <v>-10.456116659609817</v>
+            <v>-11.872049123931982</v>
           </cell>
           <cell r="Y3">
-            <v>-13.416059138286169</v>
+            <v>-15.922355900383584</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-37.446608688768968</v>
+            <v>-41.607342987521079</v>
           </cell>
           <cell r="C4">
-            <v>-40.472597269679596</v>
+            <v>-41.229094414907252</v>
           </cell>
           <cell r="D4">
-            <v>-47.864547207453626</v>
+            <v>-47.425422921146712</v>
           </cell>
           <cell r="E4">
-            <v>-50</v>
+            <v>-48</v>
           </cell>
           <cell r="F4">
-            <v>-49.5</v>
+            <v>-52</v>
           </cell>
           <cell r="G4">
-            <v>-47</v>
+            <v>-54.500000000000007</v>
           </cell>
           <cell r="H4">
-            <v>-20.734247625363235</v>
+            <v>-21.531718687877206</v>
           </cell>
           <cell r="I4">
-            <v>4.2151947741005138</v>
+            <v>4.4631474078711326</v>
           </cell>
           <cell r="J4">
-            <v>13.517136528030852</v>
+            <v>12.336027511018447</v>
           </cell>
           <cell r="K4">
-            <v>12.860964851912849</v>
+            <v>12.99219918713645</v>
           </cell>
           <cell r="L4">
-            <v>12.479535602701542</v>
+            <v>12.599531137342902</v>
           </cell>
           <cell r="M4">
-            <v>17.544369831801554</v>
+            <v>17.206978104266906</v>
           </cell>
           <cell r="N4">
-            <v>22.17759436712581</v>
+            <v>21.263054393223715</v>
           </cell>
           <cell r="O4">
-            <v>21.445002688040397</v>
+            <v>24.272915130419349</v>
           </cell>
           <cell r="P4">
-            <v>11.895373640420202</v>
+            <v>12.027544458647093</v>
           </cell>
           <cell r="Q4">
-            <v>9.3855247969052904</v>
+            <v>9.282387161774464</v>
           </cell>
           <cell r="R4">
-            <v>-1.5401375312996011</v>
+            <v>-1.7912469114027969</v>
           </cell>
           <cell r="S4">
+            <v>-1.8414687874234361</v>
+          </cell>
+          <cell r="T4">
             <v>-1.5066562806191748</v>
           </cell>
-          <cell r="T4">
-            <v>-1.6573219086810922</v>
-          </cell>
           <cell r="U4">
-            <v>-1.7242844100419445</v>
+            <v>-1.607100032660453</v>
           </cell>
           <cell r="V4">
-            <v>-9.7051156071250322</v>
+            <v>-10.025064473293989</v>
           </cell>
           <cell r="W4">
-            <v>-13.388690187578726</v>
+            <v>-13.115451612322017</v>
           </cell>
           <cell r="X4">
-            <v>-40.491417490460982</v>
+            <v>-38.963439471953023</v>
           </cell>
           <cell r="Y4">
-            <v>-34.761499921056128</v>
+            <v>-38.581444967326028</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="15">
         <row r="2">
           <cell r="B2">
-            <v>13.208671041071517</v>
+            <v>12.56747341771853</v>
           </cell>
           <cell r="C2">
-            <v>10.120401550313529</v>
+            <v>10.611683178969527</v>
           </cell>
           <cell r="D2">
-            <v>8.9388082820377797</v>
+            <v>9.1250334545802332</v>
           </cell>
           <cell r="E2">
-            <v>8.1322104107764428</v>
+            <v>7.4816335779143275</v>
           </cell>
           <cell r="F2">
-            <v>8.6128409798430283</v>
+            <v>8.7064588165804526</v>
           </cell>
           <cell r="G2">
             <v>4.4318478807657673</v>
           </cell>
           <cell r="H2">
-            <v>7.5051118879448229</v>
+            <v>8.0357763648702143</v>
           </cell>
           <cell r="I2">
-            <v>15.150341019395313</v>
+            <v>14.567635595572415</v>
           </cell>
           <cell r="J2">
-            <v>20.555718893204052</v>
+            <v>22.251035915323975</v>
           </cell>
           <cell r="K2">
-            <v>24.929538355300416</v>
+            <v>25.181351874040825</v>
           </cell>
           <cell r="L2">
-            <v>25.016159481429796</v>
+            <v>28.314993698761196</v>
           </cell>
           <cell r="M2">
-            <v>27.924046674313612</v>
+            <v>26.499350415420064</v>
           </cell>
           <cell r="N2">
-            <v>29.179231895335448</v>
+            <v>30.667968216526035</v>
           </cell>
           <cell r="O2">
-            <v>28.799999999999997</v>
+            <v>27.6</v>
           </cell>
           <cell r="P2">
-            <v>29.787060606215764</v>
+            <v>30.084931212277922</v>
           </cell>
           <cell r="Q2">
-            <v>29.083446907804298</v>
+            <v>29.371401827683549</v>
           </cell>
           <cell r="R2">
-            <v>30.143854799065242</v>
+            <v>27.677539406414446</v>
           </cell>
           <cell r="S2">
             <v>23.344823582060055</v>
           </cell>
           <cell r="T2">
-            <v>23.478868341530266</v>
+            <v>21.784517017914681</v>
           </cell>
           <cell r="U2">
-            <v>22.335491148178431</v>
+            <v>24.868381896940935</v>
           </cell>
           <cell r="V2">
-            <v>22.208753453352283</v>
+            <v>21.793636566373735</v>
           </cell>
           <cell r="W2">
-            <v>25.131025992496539</v>
+            <v>23.389271715788858</v>
           </cell>
           <cell r="X2">
-            <v>23.633082054958226</v>
+            <v>20.734685199161461</v>
           </cell>
           <cell r="Y2">
-            <v>17.942408452579482</v>
+            <v>17.583560283527891</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-25.872441565762916</v>
+            <v>-23.919804466460054</v>
           </cell>
           <cell r="C3">
             <v>-28.877348433152875</v>
           </cell>
           <cell r="D3">
-            <v>-32.527936391419722</v>
+            <v>-35.326038446595611</v>
           </cell>
           <cell r="E3">
-            <v>-29.364269278096717</v>
+            <v>-34.1519218777864</v>
           </cell>
           <cell r="F3">
-            <v>-35.922036170898224</v>
+            <v>-35.579921540699196</v>
           </cell>
           <cell r="G3">
-            <v>-31.5</v>
+            <v>-37.800000000000004</v>
           </cell>
           <cell r="H3">
-            <v>-29.727476780844121</v>
+            <v>-28.817451981430526</v>
           </cell>
           <cell r="I3">
-            <v>-4.8137000583890384</v>
+            <v>-4.483348093597634</v>
           </cell>
           <cell r="J3">
-            <v>16.209055476530711</v>
+            <v>15.75459597718873</v>
           </cell>
           <cell r="K3">
-            <v>24.03830390039116</v>
+            <v>20.950815326028991</v>
           </cell>
           <cell r="L3">
-            <v>18.029455210936067</v>
+            <v>18.896255942231068</v>
           </cell>
           <cell r="M3">
-            <v>25.170331746561157</v>
+            <v>24.246649847604786</v>
           </cell>
           <cell r="N3">
-            <v>19.057877949692443</v>
+            <v>19.467724787320236</v>
           </cell>
           <cell r="O3">
-            <v>21.531528236205094</v>
+            <v>20.476061165802882</v>
           </cell>
           <cell r="P3">
-            <v>11.545144206114852</v>
+            <v>11.218394841790847</v>
           </cell>
           <cell r="Q3">
-            <v>3.0013584041730166</v>
+            <v>2.67093362573195</v>
           </cell>
           <cell r="R3">
-            <v>6.1255289235806138</v>
+            <v>6.3092947912880328</v>
           </cell>
           <cell r="S3">
-            <v>7.6636117306348908</v>
+            <v>6.6963597646324287</v>
           </cell>
           <cell r="T3">
-            <v>4.3480838221614437</v>
+            <v>4.7066886734737281</v>
           </cell>
           <cell r="U3">
-            <v>-0.81111967686463105</v>
+            <v>-0.84456791096214168</v>
           </cell>
           <cell r="V3">
-            <v>-3.5255663910564046</v>
+            <v>-3.2644133250522263</v>
           </cell>
           <cell r="W3">
-            <v>-2.3165596648665532</v>
+            <v>-2.4982506189737341</v>
           </cell>
           <cell r="X3">
-            <v>-9.8026093683842053</v>
+            <v>-10.238280895867947</v>
           </cell>
           <cell r="Y3">
-            <v>-14.448063687385103</v>
+            <v>-14.005776023485559</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-37.824857261382796</v>
+            <v>-40.094348697065769</v>
           </cell>
           <cell r="C4">
-            <v>-41.229094414907252</v>
+            <v>-37.446608688768968</v>
           </cell>
           <cell r="D4">
-            <v>-41.277682912849912</v>
+            <v>-46.547174348532877</v>
           </cell>
           <cell r="E4">
-            <v>-53</v>
+            <v>-54</v>
           </cell>
           <cell r="F4">
-            <v>-46.5</v>
+            <v>-51.5</v>
           </cell>
           <cell r="G4">
-            <v>-48.5</v>
+            <v>-54.500000000000007</v>
           </cell>
           <cell r="H4">
-            <v>-20.534879859734744</v>
+            <v>-20.335512094106249</v>
           </cell>
           <cell r="I4">
-            <v>4.4631474078711326</v>
+            <v>3.719289506559277</v>
           </cell>
           <cell r="J4">
-            <v>14.173308204148857</v>
+            <v>14.435776874596057</v>
           </cell>
           <cell r="K4">
-            <v>13.648370863254453</v>
+            <v>13.123433522360051</v>
           </cell>
           <cell r="L4">
-            <v>11.279580256287931</v>
+            <v>11.519571325570652</v>
           </cell>
           <cell r="M4">
-            <v>15.857411194128325</v>
+            <v>17.375673968034231</v>
           </cell>
           <cell r="N4">
-            <v>23.549404327978952</v>
+            <v>21.948959373650286</v>
           </cell>
           <cell r="O4">
-            <v>21.680662058238642</v>
+            <v>25.686871351608826</v>
           </cell>
           <cell r="P4">
-            <v>12.291886095100875</v>
+            <v>12.424056913327764</v>
           </cell>
           <cell r="Q4">
-            <v>9.6949377022977714</v>
+            <v>10.416901148213565</v>
           </cell>
           <cell r="R4">
-            <v>-1.824728162083223</v>
+            <v>-1.6238406580006661</v>
           </cell>
           <cell r="S4">
-            <v>-1.7075437847017314</v>
+            <v>-1.7745062860625838</v>
           </cell>
           <cell r="T4">
-            <v>-1.6740625340213053</v>
+            <v>-1.5736187819800269</v>
           </cell>
           <cell r="U4">
-            <v>-1.556878156639814</v>
+            <v>-1.8079875367430098</v>
           </cell>
           <cell r="V4">
-            <v>-10.025064473293989</v>
+            <v>-10.771611827688222</v>
           </cell>
           <cell r="W4">
-            <v>-14.208405913348853</v>
+            <v>-14.891502351490626</v>
           </cell>
           <cell r="X4">
-            <v>-36.671472444191075</v>
+            <v>-38.199450462699041</v>
           </cell>
           <cell r="Y4">
-            <v>-34.761499921056128</v>
+            <v>-37.435461453445058</v>
           </cell>
         </row>
       </sheetData>
@@ -4333,7 +4336,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4509,100 +4512,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
-        <v>12.538782747166985</v>
+        <f ca="1">('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
+        <v>10.353123369220446</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
-        <v>9.6720725695833973</v>
+        <f ca="1">('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
+        <v>8.8734610730122903</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
-        <v>7.8240208881911526</v>
+        <f ca="1">('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
+        <v>7.0644072097259922</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
-        <v>7.2103249209179303</v>
+        <f ca="1">('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
+        <v>7.3589914141327331</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
-        <v>7.772551186086881</v>
+        <f ca="1">('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
+        <v>8.8708464623817651</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
-        <v>10.594782867885055</v>
+        <f ca="1">('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
+        <v>10.699681708161146</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
-        <v>17.414400918547258</v>
+        <f ca="1">('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
+        <v>14.64762694083414</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
-        <v>19.670144754169069</v>
+        <f ca="1">('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
+        <v>21.060963070120419</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
-        <v>22.037397466951134</v>
+        <f ca="1">('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
+        <v>25.251184597548178</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
-        <v>25.78393163029601</v>
+        <f ca="1">('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
+        <v>23.003311552518987</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
-        <v>27.531029903260166</v>
+        <f ca="1">('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
+        <v>24.726943524224406</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
-        <v>26.53668409812823</v>
+        <f ca="1">('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
+        <v>27.538068403717975</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
-        <v>25.141228735797252</v>
+        <f ca="1">('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
+        <v>23.129930436933474</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
-        <v>24.138136644772068</v>
+        <f ca="1">('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
+        <v>23.640443105704602</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
-        <v>22.897828044285635</v>
+        <f ca="1">('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
+        <v>23.346805064761824</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
-        <v>19.195581849887208</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
+        <v>21.541708520428976</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
-        <v>22.231108734240113</v>
+        <f ca="1">('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
+        <v>20.250118847030599</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
-        <v>29.4</v>
+        <f ca="1">('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
+        <v>30.6</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
-        <v>32.652529518319184</v>
+        <f ca="1">('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
+        <v>27.85949766241912</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
-        <v>30.204011937412258</v>
+        <f ca="1">('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
+        <v>27.009356828647501</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
-        <v>27.15054724791359</v>
+        <f ca="1">('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
+        <v>24.193556953586366</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
-        <v>23.9068179444617</v>
+        <f ca="1">('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
+        <v>21.994272508904764</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
-        <v>19.88893542156908</v>
+        <f ca="1">('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
+        <v>21.253862362265</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
-        <v>13.912293959589812</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
+        <v>14.809861311821411</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4610,100 +4613,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
-        <v>-26.768472901412242</v>
+        <f ca="1">('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
+        <v>-28.223281211271601</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
-        <v>-29.093654104210071</v>
+        <f ca="1">('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
+        <v>-34.469655406074978</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
-        <v>-33.381658096508147</v>
+        <f ca="1">('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
+        <v>-33.722287260758229</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
-        <v>-34.491246068023791</v>
+        <f ca="1">('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
+        <v>-34.829395539278927</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
-        <v>-36.75</v>
+        <f ca="1">('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
+        <v>-37.450000000000003</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
-        <v>-33.96068134929336</v>
+        <f ca="1">('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
+        <v>-28.352495438400876</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
-        <v>-21.34571304729311</v>
+        <f ca="1">('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
+        <v>-23.897917868165113</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
-        <v>-8.5953132562416421</v>
+        <f ca="1">('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
+        <v>-9.7413550237405264</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
-        <v>-2.8968982562438326</v>
+        <f ca="1">('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
+        <v>-2.8125225788775072</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
-        <v>-0.41357401439452129</v>
+        <f ca="1">('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
+        <v>-0.4091742908371328</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
-        <v>-4.2658066665330594</v>
+        <f ca="1">('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
+        <v>-3.7523299381540793</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
-        <v>-2.7876784206707192</v>
+        <f ca="1">('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
+        <v>-2.6715251531427726</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
-        <v>-3.7781403806230238</v>
+        <f ca="1">('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
+        <v>-4.0192982772585362</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
-        <v>-3.8518150331184242</v>
+        <f ca="1">('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
+        <v>-3.8923604545196708</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
-        <v>-10.35249701610172</v>
+        <f ca="1">('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
+        <v>-11.274996750209795</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
-        <v>-15.352073897049898</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
+        <v>-14.466377326066249</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
-        <v>-13.521588325189494</v>
+        <f ca="1">('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
+        <v>-13.915420994855207</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
-        <v>-4.884503353133967</v>
+        <f ca="1">('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
+        <v>-4.5708196515565565</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
-        <v>-6.2577916082013481</v>
+        <f ca="1">('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
+        <v>-7.1052008884786142</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
-        <v>-8.9315770870359703</v>
+        <f ca="1">('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
+        <v>-7.3746966773691494</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
-        <v>-11.970486312328481</v>
+        <f ca="1">('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
+        <v>-13.515065191338607</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
-        <v>-16.206789856808868</v>
+        <f ca="1">('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
+        <v>-17.543432319226095</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
         <v>-21.519451929561264</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
-        <v>-23.969661518464932</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
+        <v>-25.735847104036036</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4711,100 +4714,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
-        <v>43.997214341483122</v>
+        <f ca="1">('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
+        <v>39.557128490507758</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
-        <v>47</v>
+        <f ca="1">('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
+        <v>47.5</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
-        <v>52</v>
+        <f ca="1">('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
+        <v>46.5</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
-        <v>45.5</v>
+        <f ca="1">('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
+        <v>47.5</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
-        <v>50</v>
+        <f ca="1">('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
+        <v>53.5</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
-        <v>36.866522376631785</v>
+        <f ca="1">('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
+        <v>43.348548289006601</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
         <v>18.191784525361541</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
-        <v>2.1290942754628754</v>
+        <f ca="1">('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
+        <v>2.3420037030091629</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
-        <v>-13.288183974808817</v>
+        <f ca="1">('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
+        <v>-14.257114056305294</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
-        <v>-15.226044137801772</v>
+        <f ca="1">('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
+        <v>-12.457672476383268</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
-        <v>-1.1563120162428546</v>
+        <f ca="1">('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
+        <v>-1.1920742435493348</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
+        <v>-14.867883972516074</v>
+      </c>
+      <c r="N4" s="2">
+        <f ca="1">('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
         <v>-13.28005170360659</v>
       </c>
-      <c r="N4" s="2">
-        <f>('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
-        <v>-15.445277524846796</v>
-      </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
-        <v>-10.503148946321804</v>
+        <f ca="1">('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
+        <v>-12.290918979738283</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
-        <v>-1.3619397223956828</v>
+        <f ca="1">('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
+        <v>-1.3063503459713692</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
-        <v>8.6458839498713065</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
+        <v>9.2334682959790655</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
-        <v>12.587753793464147</v>
+        <f ca="1">('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
+        <v>10.606348103752197</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
+        <v>12.121540690002512</v>
+      </c>
+      <c r="T4" s="2">
+        <f ca="1">('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
+        <v>11.538774310675468</v>
+      </c>
+      <c r="U4" s="2">
+        <f ca="1">('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
+        <v>12.121540690002512</v>
+      </c>
+      <c r="V4" s="2">
+        <f ca="1">('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
         <v>10.489794827886788</v>
       </c>
-      <c r="T4" s="2">
-        <f>('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
-        <v>10.489794827886788</v>
-      </c>
-      <c r="U4" s="2">
-        <f>('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
-        <v>12.004987414137103</v>
-      </c>
-      <c r="V4" s="2">
-        <f>('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
-        <v>11.888434138271693</v>
-      </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
-        <v>23.332907077244762</v>
+        <f ca="1">('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
+        <v>23.575958192632729</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
-        <v>40.124760230950187</v>
+        <f ca="1">('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
+        <v>34.551876865540436</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
-        <v>35.666453538622385</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
+        <v>33.437300192458487</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5656,100 +5659,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
-        <v>12.538782747166985</v>
+        <f ca="1">('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
+        <v>11.50347041024494</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
-        <v>9.3171341266629053</v>
+        <f ca="1">('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
+        <v>9.0509302944725363</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
-        <v>7.444214048958572</v>
+        <f ca="1">('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
+        <v>7.1403685775725076</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
-        <v>7.3589914141327331</v>
+        <f ca="1">('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
+        <v>7.6563244005623385</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
-        <v>7.9415196901322469</v>
+        <f ca="1">('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
+        <v>9.0398149664271337</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
         <v>10.489884027608966</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
-        <v>17.902655149908394</v>
+        <f ca="1">('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
+        <v>16.600643866278691</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
-        <v>21.259651400970611</v>
+        <f ca="1">('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
+        <v>19.670144754169069</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
-        <v>23.644291032249654</v>
+        <f ca="1">('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
+        <v>22.955622361407432</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
-        <v>24.772797056558908</v>
+        <f ca="1">('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
+        <v>26.542282560598832</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
-        <v>24.726943524224406</v>
+        <f ca="1">('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
+        <v>22.942524919383469</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
-        <v>23.28218510496156</v>
+        <f ca="1">('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
+        <v>23.782877257756429</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
-        <v>24.386991873723336</v>
+        <f ca="1">('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
+        <v>22.627105862217526</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
-        <v>22.396209258035938</v>
+        <f ca="1">('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
+        <v>25.382370492440732</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
-        <v>20.428454431666598</v>
+        <f ca="1">('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
+        <v>22.448851023809446</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
-        <v>21.541708520428976</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
+        <v>19.195581849887208</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
-        <v>23.771878646514182</v>
+        <f ca="1">('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
+        <v>19.80989887209515</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
-        <v>33</v>
+        <f ca="1">('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
+        <v>32.400000000000006</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
-        <v>32.952094009312937</v>
+        <f ca="1">('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
+        <v>31.454271554344164</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
-        <v>30.784858320824032</v>
+        <f ca="1">('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
+        <v>26.718933636941614</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
-        <v>26.881729948429296</v>
+        <f ca="1">('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
+        <v>28.763451044819348</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
-        <v>24.145886123906319</v>
+        <f ca="1">('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
+        <v>23.428681585572466</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
-        <v>19.498956295655962</v>
+        <f ca="1">('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
+        <v>20.668893673395321</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
-        <v>14.809861311821411</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
+        <v>14.510672194410878</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5757,100 +5760,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
-        <v>-28.223281211271601</v>
+        <f ca="1">('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
+        <v>-29.387127859159094</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
-        <v>-30.674830957699747</v>
+        <f ca="1">('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
+        <v>-31.939772440491488</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
-        <v>-33.381658096508147</v>
+        <f ca="1">('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
+        <v>-36.447320574758898</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
-        <v>-34.491246068023791</v>
+        <f ca="1">('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
+        <v>-36.520142895554606</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
-        <v>-36.4</v>
+        <f ca="1">('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
+        <v>-37.1</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
-        <v>-33.025983697477947</v>
+        <f ca="1">('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
+        <v>-34.27224723323183</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
-        <v>-24.825992348482206</v>
+        <f ca="1">('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
+        <v>-21.34571304729311</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
-        <v>-10.218872426865063</v>
+        <f ca="1">('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
+        <v>-8.5953132562416421</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
-        <v>-2.7000216757224069</v>
+        <f ca="1">('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
+        <v>-2.7281469015111819</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
-        <v>-0.42677318506668688</v>
+        <f ca="1">('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
+        <v>-0.47517014419796066</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
-        <v>-4.2658066665330594</v>
+        <f ca="1">('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
+        <v>-3.7128317282787733</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
-        <v>-2.9038316881986659</v>
+        <f ca="1">('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
+        <v>-2.9619083219626394</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
-        <v>-4.4212281049843902</v>
+        <f ca="1">('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
+        <v>-4.1398772255762921</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
-        <v>-4.0545421401246573</v>
+        <f ca="1">('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
+        <v>-4.297814668532137</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
-        <v>-10.454996986558173</v>
+        <f ca="1">('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
+        <v>-9.5324972524500993</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
-        <v>-15.204457801885956</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
+        <v>-14.613993421230191</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
-        <v>-12.602645429302829</v>
+        <f ca="1">('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
+        <v>-13.915420994855207</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
-        <v>-4.7948794383975635</v>
+        <f ca="1">('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
+        <v>-4.2123239926109433</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
-        <v>-5.9970502911929593</v>
+        <f ca="1">('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
+        <v>-6.0622356204450565</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
-        <v>-7.5385788257551312</v>
+        <f ca="1">('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
+        <v>-7.7844020483341021</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
-        <v>-12.35663103208101</v>
+        <f ca="1">('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
+        <v>-13.000205565001897</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
-        <v>-15.705548933402408</v>
+        <f ca="1">('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
+        <v>-17.209271703621788</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
-        <v>-21.967773844760455</v>
+        <f ca="1">('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
+        <v>-20.398647141563281</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
-        <v>-24.978910424505564</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
+        <v>-27.754344916117294</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5858,100 +5861,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
-        <v>39.557128490507758</v>
+        <f ca="1">('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
+        <v>39.153484322237276</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
-        <v>54.500000000000007</v>
+        <f ca="1">('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
+        <v>53</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
-        <v>47</v>
+        <f ca="1">('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
+        <v>45</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
-        <v>53.5</v>
+        <f ca="1">('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
+        <v>51.5</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
-        <v>48</v>
+        <f ca="1">('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
+        <v>52.5</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
-        <v>42.133168430436328</v>
+        <f ca="1">('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
+        <v>43.348548289006601</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
-        <v>16.905496730639008</v>
+        <f ca="1">('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
+        <v>18.375539924607619</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
-        <v>2.4839433213733546</v>
+        <f ca="1">('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
+        <v>2.4129735121912588</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
-        <v>-13.149765391737892</v>
+        <f ca="1">('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
+        <v>-12.457672476383268</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
-        <v>-13.841858307092519</v>
+        <f ca="1">('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
+        <v>-15.226044137801772</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
-        <v>-1.0728668191944013</v>
+        <f ca="1">('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
+        <v>-1.2516779557268016</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
-        <v>-12.991354927441231</v>
+        <f ca="1">('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
+        <v>-13.424400091689272</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
-        <v>-15.589625912929476</v>
+        <f ca="1">('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
+        <v>-13.56874847977195</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
-        <v>-10.279677692144746</v>
+        <f ca="1">('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
+        <v>-10.726620200498864</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
-        <v>-1.3897344106078398</v>
+        <f ca="1">('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
+        <v>-1.3619397223956828</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
-        <v>7.8904183620184734</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
+        <v>8.3101214663811582</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
         <v>10.722901379617607</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
+        <v>12.23809396586792</v>
+      </c>
+      <c r="T4" s="2">
+        <f ca="1">('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
         <v>11.771880862406285</v>
       </c>
-      <c r="T4" s="2">
-        <f>('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
-        <v>11.538774310675468</v>
-      </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
+        <v>11.189114483079241</v>
+      </c>
+      <c r="V4" s="2">
+        <f ca="1">('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
         <v>10.489794827886788</v>
       </c>
-      <c r="V4" s="2">
-        <f>('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
-        <v>10.606348103752197</v>
-      </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
-        <v>21.874600384916963</v>
+        <f ca="1">('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
+        <v>25.277316000348492</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
-        <v>34.923402423234421</v>
+        <f ca="1">('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
+        <v>35.294927980928399</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
-        <v>34.180351307846458</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
+        <v>33.437300192458487</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13881,100 +13884,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>62.247669363861846</v>
+        <f ca="1">('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>71.938696201137446</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>64.326523099971084</v>
+        <f ca="1">('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>59.207903317830635</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>55.841785108404871</v>
+        <f ca="1">('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>59.606388095867842</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>59.225037787706938</v>
+        <f ca="1">('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>58.704294321764671</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>60.534645589488676</v>
+        <f ca="1">('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>56.670387861880926</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>48.231354630765701</v>
+        <f ca="1">('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>50.253875639556746</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>67.326637429081245</v>
+        <f ca="1">('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>57.245432943288172</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>63.687385559047058</v>
+        <f ca="1">('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>72.635271406676381</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>84.064840137692727</v>
+        <f ca="1">('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>77.861518646011774</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>91.179246117639053</v>
+        <f ca="1">('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>86.185884732395479</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>84.443018767934007</v>
+        <f ca="1">('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>82.725298851387237</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>88.461034651750794</v>
+        <f ca="1">('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>78.864055205944837</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>94.842814790019162</v>
+        <f ca="1">('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>98.401148501771914</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>95.179062874365187</v>
+        <f ca="1">('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>88.004107335638025</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>91.975200000000001</v>
+        <f ca="1">('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>82.975200000000001</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>84.200160224711539</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>93.726938107602606</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>88.976571530427634</v>
+        <f ca="1">('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>92.442588341144685</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>87.811267713520948</v>
+        <f ca="1">('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>76.985887820759402</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>87.767735274196824</v>
+        <f ca="1">('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>79.396705783546025</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>89.960963929773925</v>
+        <f ca="1">('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>77.301183319765485</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>78.602458964490793</v>
+        <f ca="1">('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>85.298840073571412</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>80.236867484941882</v>
+        <f ca="1">('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>82.838029933984998</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>82.612331066017191</v>
+        <f ca="1">('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>85.153703325244805</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>82.827238115129973</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>79.79882912965337</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -13982,100 +13985,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>81.883226077955854</v>
+        <f ca="1">('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>75.319750888919842</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>64.182918073180005</v>
+        <f ca="1">('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>66.170655049686374</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>65.384905037088004</v>
+        <f ca="1">('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>61.478872281793812</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>73.51610200186893</v>
+        <f ca="1">('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>67.67202018520085</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>71.078771159124656</v>
+        <f ca="1">('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>67.182409449308977</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>70.13070654619716</v>
+        <f ca="1">('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>61.119598553722469</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>65.562047547882614</v>
+        <f ca="1">('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>73.900586523322914</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>74.65343947269568</v>
+        <f ca="1">('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>82.078351673933497</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>89.679713626969544</v>
+        <f ca="1">('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>95.321239399900961</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>91.618117931030568</v>
+        <f ca="1">('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>103.24787564056437</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>104.87321779022449</v>
+        <f ca="1">('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>94.320489098128135</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f ca="1">('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>104.94704102742081</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>97.607746031746032</v>
+        <f ca="1">('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>90.607746031746032</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>107.12194836245472</v>
+        <f ca="1">('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>108.10345023588721</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>97.395913919288617</v>
+        <f ca="1">('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>91.737017022075563</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>95.314548847723927</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>88.978223444511727</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>88.152331039834053</v>
+        <f ca="1">('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>101.04607807026576</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>95.280657408392941</v>
+        <f ca="1">('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>94.350576406235348</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>94.190694574250145</v>
+        <f ca="1">('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>91.388608022736918</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>93.329109038294192</v>
+        <f ca="1">('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>99.759073691113272</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>97.580400819479081</v>
+        <f ca="1">('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>94.81642202055518</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>96.468446000808655</v>
+        <f ca="1">('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>101.26587465005544</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>82.86494042959869</v>
+        <f ca="1">('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>96.280292935060899</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>85.66548862758728</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>83.205932859771153</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -14083,100 +14086,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>94.575743622988284</v>
+        <f ca="1">('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>85.425172728750482</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>74.474234798916555</v>
+        <f ca="1">('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>77.504005607813454</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>72.765847829297073</v>
+        <f ca="1">('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>72.045479374726028</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>68.726206350446006</v>
+        <f ca="1">('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>74.283992233699095</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>68.107793652033308</v>
+        <f ca="1">('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>69.497240122846577</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>70.165478487896493</v>
+        <f ca="1">('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>74.634871627339166</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>97.177115013386057</v>
+        <f ca="1">('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>103.7104684191543</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>108.46754220544796</v>
+        <f ca="1">('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>124.54701066630665</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>109.52697643644535</v>
+        <f ca="1">('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>122.71277700690699</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>116.83644245874891</v>
+        <f ca="1">('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>119.18368500320977</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>118.86103754604746</v>
+        <f ca="1">('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>107.1303989079821</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f ca="1">('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>132.9768253968254</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>119.50968253968254</v>
+        <f ca="1">('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>134.50968253968253</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>135.14968253968254</v>
+        <f ca="1">('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>115.14968253968254</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>129.71961151696166</v>
+        <f ca="1">('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>124.9704901027532</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>111.62088297108895</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>119.48890522412593</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>108.67172725995736</v>
+        <f ca="1">('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>101.34225712254926</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>111.62014729921682</v>
+        <f ca="1">('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>102.19654283683496</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f ca="1">('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>105.69147815344913</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>107.49323152604192</v>
+        <f ca="1">('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>114.82270166345003</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>110.99348063255016</v>
+        <f ca="1">('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>95.287473195247074</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>96.980020218633513</v>
+        <f ca="1">('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>101.168288868581</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>97.85298059063183</v>
+        <f ca="1">('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>110.97564372871483</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>105.58006149172934</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>90.468282834518405</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15030,100 +15033,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>73.230833112774206</v>
+        <f ca="1">('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>67.416217010408829</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>65.463994162668968</v>
+        <f ca="1">('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>64.326523099971084</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>59.606388095867842</v>
+        <f ca="1">('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>61.757589802989543</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>49.851655400746161</v>
+        <f ca="1">('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>50.372398866688421</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>54.462240588962217</v>
+        <f ca="1">('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>52.806130134273189</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>55.310178161534388</v>
+        <f ca="1">('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>56.321438665929918</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f ca="1">('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>59.024469029016359</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>65.752282293115357</v>
+        <f ca="1">('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>69.193776849895869</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>85.615670510612958</v>
+        <f ca="1">('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>84.064840137692727</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>92.011473015179646</v>
+        <f ca="1">('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>86.185884732395479</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>86.160738684480762</v>
+        <f ca="1">('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>80.14871897656711</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>96.313108743773853</v>
+        <f ca="1">('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>81.48141323661919</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>96.621981645895531</v>
+        <f ca="1">('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>91.28448107826641</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>87.107237893297139</v>
+        <f ca="1">('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>90.694715662660712</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>85.67519999999999</v>
+        <f ca="1">('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>89.275199999999998</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>79.869806641579245</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>95.459079540855527</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>82.044537908993519</v>
+        <f ca="1">('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>82.911042111672785</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>83.647660062458812</v>
+        <f ca="1">('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>92.807596894795509</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>86.093529376066655</v>
+        <f ca="1">('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>82.745117579806347</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>76.457197945764918</v>
+        <f ca="1">('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>89.116978555773372</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>80.276554241760934</v>
+        <f ca="1">('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>84.461792434936328</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>94.976788029519653</v>
+        <f ca="1">('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>88.907408981752326</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>88.542199670881615</v>
+        <f ca="1">('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>78.376710633971172</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>76.01331789780761</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>71.470704419592721</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -15131,100 +15134,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>80.424676035947854</v>
+        <f ca="1">('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>77.507575951931841</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f ca="1">('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>68.820971018361575</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>70.592948710813602</v>
+        <f ca="1">('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>64.733899577872307</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>72.217417153720476</v>
+        <f ca="1">('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>70.269389881497773</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>72.377558395729892</v>
+        <f ca="1">('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>71.728164777427281</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>66.912453691741916</v>
+        <f ca="1">('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>67.556104262632957</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>74.595464771276269</v>
+        <f ca="1">('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>75.290343019229638</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>79.603380940187563</v>
+        <f ca="1">('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>88.678273630589345</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>90.619967922458116</v>
+        <f ca="1">('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>94.380985104412389</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>88.710678503647131</v>
+        <f ca="1">('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>94.525557358414019</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>96.239167042145652</v>
+        <f ca="1">('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>89.523794238084349</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>103.96057328487402</v>
+        <f ca="1">('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>89.163557146672048</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>108.60774603174603</v>
+        <f ca="1">('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>92.607746031746032</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>90.436416514102419</v>
+        <f ca="1">('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>101.23293712185978</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>98.339063402157464</v>
+        <f ca="1">('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>90.793867539206715</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>84.452276727931604</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>89.883412787827766</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>95.520186485795037</v>
+        <f ca="1">('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>84.468403316853582</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>94.350576406235348</v>
+        <f ca="1">('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>102.72130542565368</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>92.322636873241336</v>
+        <f ca="1">('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>103.53098307929422</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>83.224878869578518</v>
+        <f ca="1">('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>84.143445248552666</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>101.26570588471094</v>
+        <f ca="1">('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>102.1870321510189</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>87.833074432164452</v>
+        <f ca="1">('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>88.792560162013814</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>100.75207710354832</v>
+        <f ca="1">('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>84.653654096993648</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>87.305192472798026</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>91.4044520858249</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -15232,100 +15235,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f ca="1">('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>83.761432566161801</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>75.989120203365005</v>
+        <f ca="1">('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>72.201906692243881</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>72.045479374726028</v>
+        <f ca="1">('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>82.851006193291795</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>78.452331646138916</v>
+        <f ca="1">('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>74.283992233699095</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>66.718347181220039</v>
+        <f ca="1">('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>70.191963358253219</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>73.145073914191599</v>
+        <f ca="1">('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>72.400175057617815</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>88.777089205969773</v>
+        <f ca="1">('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>86.910416804321699</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>111.91314258991768</v>
+        <f ca="1">('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>119.95287682034703</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>116.71923129306079</v>
+        <f ca="1">('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>132.30245014906095</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>108.62109355313592</v>
+        <f ca="1">('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>129.74627645328366</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>122.38022913746707</v>
+        <f ca="1">('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>127.07248459269321</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>134.2268253968254</v>
+        <f ca="1">('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>115.47682539682539</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>132.00968253968253</v>
+        <f ca="1">('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>122.00968253968254</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>121.39968253968254</v>
+        <f ca="1">('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>125.14968253968254</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>122.59592939564898</v>
+        <f ca="1">('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>117.84680798144051</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>120.61290840313121</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>103.75286071805199</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>106.57759293498361</v>
+        <f ca="1">('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>114.9541302348786</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>114.76134878667744</v>
+        <f ca="1">('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>108.4789458117562</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>101.50320950350164</v>
+        <f ca="1">('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>109.87974680339661</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>102.25789571360755</v>
+        <f ca="1">('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>104.3520300385813</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>116.22881644498452</v>
+        <f ca="1">('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>101.5698761701683</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>112.6860276559366</v>
+        <f ca="1">('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>108.49775900598911</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>110.97564372871483</v>
+        <f ca="1">('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>102.90015872066375</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>101.8021168274266</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>98.968658329199542</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -16179,100 +16182,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>61.601600908043473</v>
+        <f ca="1">('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>68.062285466227209</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>54.658019067039127</v>
+        <f ca="1">('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>55.226754598388069</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>60.144188522648264</v>
+        <f ca="1">('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>51.001581267381049</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>57.142063923937876</v>
+        <f ca="1">('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>55.579833526111081</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f ca="1">('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>53.910203770732537</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>47.725724378567932</v>
+        <f ca="1">('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>48.736984882963462</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>57.245432943288172</v>
+        <f ca="1">('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>61.989529171896677</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>65.063983381759257</v>
+        <f ca="1">('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>70.570374672608068</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>83.289424951232604</v>
+        <f ca="1">('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>82.514009764772482</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>82.024750244692513</v>
+        <f ca="1">('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>84.521430937314292</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>78.430999060020355</v>
+        <f ca="1">('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>84.443018767934007</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>88.461034651750794</v>
+        <f ca="1">('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>86.716129297967882</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>88.615730794451849</v>
+        <f ca="1">('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>83.278230226822743</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>94.282193432024286</v>
+        <f ca="1">('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>89.797846220319812</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>100.07520000000001</v>
+        <f ca="1">('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>99.175200000000004</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>79.869806641579245</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>85.066230941337992</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>79.445025300955749</v>
+        <f ca="1">('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>80.311529503635001</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f ca="1">('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>76.985887820759402</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>85.256426427001585</v>
+        <f ca="1">('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>76.885396936350787</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>87.429007807772237</v>
+        <f ca="1">('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>80.677124815767726</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>80.276554241760934</v>
+        <f ca="1">('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>85.298840073571412</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>81.103921634622921</v>
+        <f ca="1">('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>95.843842179200692</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>89.389323757290825</v>
+        <f ca="1">('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>84.306579238835596</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>79.041726883284227</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>72.984908912331022</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -16280,100 +16283,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>77.507575951931841</v>
+        <f ca="1">('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>82.612501098959854</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>66.833234041855178</v>
+        <f ca="1">('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>68.158392026192772</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>72.54596508846069</v>
+        <f ca="1">('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>66.686915955519396</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>72.866759577794696</v>
+        <f ca="1">('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>61.178595944458543</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f ca="1">('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>65.234228594401145</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>71.418007687979255</v>
+        <f ca="1">('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>60.475947982831421</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>78.069856011043072</v>
+        <f ca="1">('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>73.900586523322914</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>90.328254119753311</v>
+        <f ca="1">('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>79.603380940187563</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>97.20174799087809</v>
+        <f ca="1">('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>101.90301946832095</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>102.27872916476989</v>
+        <f ca="1">('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>88.710678503647131</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>89.523794238084349</v>
+        <f ca="1">('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>92.401811154110618</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>100.01470231468682</v>
+        <f ca="1">('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>99.028234572140022</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>94.607746031746032</v>
+        <f ca="1">('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>90.607746031746032</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>96.325427754697344</v>
+        <f ca="1">('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>93.380922134399881</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>96.452764436419784</v>
+        <f ca="1">('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>90.793867539206715</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>94.409359504407902</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>99.840495564304064</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>93.678222624304794</v>
+        <f ca="1">('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>94.599204555049909</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>92.490414401920162</v>
+        <f ca="1">('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>87.840009391132213</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>92.322636873241336</v>
+        <f ca="1">('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>96.058752275258954</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>85.980578006500977</v>
+        <f ca="1">('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>84.143445248552666</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>96.659074553171109</v>
+        <f ca="1">('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>98.501727085787039</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>89.752045891863162</v>
+        <f ca="1">('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>106.06330329930222</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>84.653654096993648</v>
+        <f ca="1">('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>86.442367764388607</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>79.926525169349645</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>88.125044395403407</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -16381,100 +16384,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>88.752653053927872</v>
+        <f ca="1">('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>86.257042810044837</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>81.291219118934592</v>
+        <f ca="1">('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>78.261448310037693</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>81.410269284149692</v>
+        <f ca="1">('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>72.045479374726028</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>77.062885175325647</v>
+        <f ca="1">('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>70.810376056665916</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>65.328900710406771</v>
+        <f ca="1">('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>66.718347181220039</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>73.145073914191599</v>
+        <f ca="1">('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>72.400175057617815</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>91.577097808441863</v>
+        <f ca="1">('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>99.043787415034132</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>105.02194182097826</v>
+        <f ca="1">('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>106.17047528246816</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>119.11664957859927</v>
+        <f ca="1">('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>125.11019529244548</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>108.62109355313592</v>
+        <f ca="1">('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>125.05179136436192</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>108.30346277178863</v>
+        <f ca="1">('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>109.47652663559518</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>124.22682539682539</v>
+        <f ca="1">('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>132.9768253968254</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>138.25968253968253</v>
+        <f ca="1">('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>120.75968253968254</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>138.89968253968254</v>
+        <f ca="1">('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>136.39968253968254</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>122.59592939564898</v>
+        <f ca="1">('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>132.09417222406589</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>109.37287661307839</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>102.62885753904671</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>108.67172725995736</v>
+        <f ca="1">('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>99.248122797575505</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>112.66721446170369</v>
+        <f ca="1">('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>107.43187864926932</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>116.16214977831785</v>
+        <f ca="1">('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>111.97388112837037</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>115.8697688259369</v>
+        <f ca="1">('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>106.44616436355504</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>99.475741845194548</v>
+        <f ca="1">('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>100.52280900768142</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>100.12122170609412</v>
+        <f ca="1">('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>95.932953056146644</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>103.90959434667013</v>
+        <f ca="1">('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>106.93790122468928</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>106.52454765780502</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>101.8021168274266</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -17328,100 +17331,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
-        <v>12.695712942389127</v>
+        <f ca="1">('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
+        <v>14.106347713765699</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
-        <v>9.236094618732734</v>
+        <f ca="1">('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
+        <v>10.415170527507128</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
-        <v>8.9388082820377797</v>
+        <f ca="1">('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
+        <v>9.3112586271226867</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
-        <v>8.2948546189919714</v>
+        <f ca="1">('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
+        <v>8.3761767230997357</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
-        <v>8.4256053063681797</v>
+        <f ca="1">('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
+        <v>9.3617836737424209</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
-        <v>4.6925448149284597</v>
+        <f ca="1">('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
+        <v>4.0842519685488439</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
-        <v>7.5809210989341649</v>
+        <f ca="1">('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
+        <v>7.3534934659661397</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
-        <v>13.110872036015174</v>
+        <f ca="1">('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
+        <v>14.567635595572415</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
-        <v>23.098694426383936</v>
+        <f ca="1">('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
+        <v>20.131889637674071</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
-        <v>26.188605949002458</v>
+        <f ca="1">('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
+        <v>27.4476735427045</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
-        <v>27.76518799587263</v>
+        <f ca="1">('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
+        <v>28.040090847316911</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
-        <v>27.06922891897748</v>
+        <f ca="1">('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
+        <v>31.34331769565814</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
-        <v>31.858957273478502</v>
+        <f ca="1">('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
+        <v>27.095001045668631</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
-        <v>29.4</v>
+        <f ca="1">('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
+        <v>32.1</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
-        <v>28.297707575904976</v>
+        <f ca="1">('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
+        <v>30.978543030464397</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
-        <v>27.067762468649544</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
+        <v>27.355717388528792</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
-        <v>28.773679580925911</v>
+        <f ca="1">('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
+        <v>27.403504362786581</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
-        <v>24.317524564645893</v>
+        <f ca="1">('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
+        <v>21.885772108181303</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
-        <v>24.447069097882029</v>
+        <f ca="1">('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
+        <v>22.026567207002621</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
-        <v>21.644702762152292</v>
+        <f ca="1">('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
+        <v>23.256542329546615</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
-        <v>20.340727461948816</v>
+        <f ca="1">('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
+        <v>21.170961235905914</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
-        <v>25.131025992496539</v>
+        <f ca="1">('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
+        <v>25.628670071555877</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
-        <v>21.626499616329696</v>
+        <f ca="1">('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
+        <v>21.849453220621754</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
-        <v>16.865863945424714</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
+        <v>17.045288029950505</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -17429,100 +17432,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
-        <v>-23.919804466460054</v>
+        <f ca="1">('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
+        <v>-25.62836192835006</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
-        <v>-33.954684421399534</v>
+        <f ca="1">('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
+        <v>-34.906684919195783</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
-        <v>-33.57722466211068</v>
+        <f ca="1">('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
+        <v>-32.877699148316708</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
         <v>-31.917683997931213</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
-        <v>-31.816660608509856</v>
+        <f ca="1">('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
+        <v>-36.606265431296286</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
-        <v>-34.299999999999997</v>
+        <f ca="1">('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
+        <v>-35.700000000000003</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
-        <v>-28.817451981430526</v>
+        <f ca="1">('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
+        <v>-27.300743982407869</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
-        <v>-4.5777343692523207</v>
+        <f ca="1">('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
+        <v>-5.0496657475257569</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
-        <v>13.633784980259477</v>
+        <f ca="1">('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
+        <v>14.08824447960146</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
-        <v>20.509745529691543</v>
+        <f ca="1">('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
+        <v>23.817769002222434</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
-        <v>16.642574040864059</v>
+        <f ca="1">('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
+        <v>18.202815357195067</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
-        <v>20.782842726518385</v>
+        <f ca="1">('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
+        <v>24.939411271822067</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
-        <v>21.721882394273109</v>
+        <f ca="1">('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
+        <v>22.3366526507148</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
-        <v>22.798088720687748</v>
+        <f ca="1">('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
+        <v>19.631687509481115</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
-        <v>9.9113973844948262</v>
+        <f ca="1">('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
+        <v>11.327311296565515</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
-        <v>2.808610616749061</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
+        <v>2.9187522095627498</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
-        <v>6.2480395020522259</v>
+        <f ca="1">('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
+        <v>5.5129760312225526</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
-        <v>6.9939757541716467</v>
+        <f ca="1">('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
+        <v>7.8868237227893054</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
-        <v>4.303258215747408</v>
+        <f ca="1">('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
+        <v>4.4825606414035502</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
-        <v>-0.84456791096214168</v>
+        <f ca="1">('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
+        <v>-0.90310232063278517</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
         <v>-3.0685485255490925</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
-        <v>-2.0894459722325776</v>
+        <f ca="1">('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
+        <v>-2.2257141878129629</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
-        <v>-10.456116659609817</v>
+        <f ca="1">('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
+        <v>-10.89178818709356</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
-        <v>-15.480068236484041</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
+        <v>-14.005776023485559</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -17530,99 +17533,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
-        <v>-35.933614398313658</v>
+        <f ca="1">('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
+        <v>-35.555365825699823</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
-        <v>-40.850845842293424</v>
+        <f ca="1">('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
+        <v>-34.420620107858348</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
-        <v>-42.155931485463739</v>
+        <f ca="1">('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
+        <v>-44.351552916998308</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
-        <v>-52</v>
+        <f ca="1">('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
+        <v>-54.500000000000007</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
-        <v>-52</v>
+        <f ca="1">('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
+        <v>-45.5</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
-        <v>-49</v>
+        <f ca="1">('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
+        <v>-50.5</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
-        <v>-19.338673265963784</v>
+        <f ca="1">('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
+        <v>-21.7310864535057</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
-        <v>3.8019403844828168</v>
+        <f ca="1">('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
+        <v>4.421821968909363</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
-        <v>13.385902192807253</v>
+        <f ca="1">('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
+        <v>12.467261846242048</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
-        <v>14.435776874596057</v>
+        <f ca="1">('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
+        <v>12.598496181465649</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
-        <v>12.839522206625626</v>
+        <f ca="1">('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
+        <v>11.039589187005211</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
         <v>16.700890512964939</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
-        <v>25.149849282307621</v>
+        <f ca="1">('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
+        <v>24.006674314930002</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
-        <v>24.0372557602211</v>
+        <f ca="1">('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
+        <v>25.215552611212335</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
-        <v>14.01010673205046</v>
+        <f ca="1">('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
+        <v>13.745765095596676</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
-        <v>9.4886624320361186</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
+        <v>10.107488242821082</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
-        <v>-1.7745062860625838</v>
+        <f ca="1">('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
+        <v>-1.5066562806191748</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
-        <v>-1.7745062860625838</v>
+        <f ca="1">('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
+        <v>-1.6908031593615185</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
-        <v>-1.6405812833408793</v>
+        <f ca="1">('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
+        <v>-1.7075437847017314</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
-        <v>-1.8079875367430098</v>
+        <f ca="1">('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
+        <v>-1.6573219086810922</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
-        <v>-11.198210315913499</v>
+        <f ca="1">('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
+        <v>-11.411509560026138</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
-        <v>-14.071786625720499</v>
+        <f ca="1">('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
+        <v>-15.02812163911898</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
-        <v>-35.143494425683116</v>
+        <f ca="1">('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
+        <v>-40.109422985833994</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
         <v>-41.63740100434196</v>
       </c>
     </row>
@@ -18477,100 +18480,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
-        <v>12.695712942389127</v>
+        <f ca="1">('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
+        <v>11.541557220353752</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
-        <v>10.808195830431925</v>
+        <f ca="1">('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
+        <v>10.611683178969527</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
-        <v>9.7768215584788223</v>
+        <f ca="1">('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
+        <v>9.590596385936367</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
-        <v>7.888244098453149</v>
+        <f ca="1">('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
+        <v>8.5388209313152661</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
-        <v>9.7362550206921181</v>
+        <f ca="1">('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
+        <v>8.4256053063681797</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
-        <v>4.4318478807657673</v>
+        <f ca="1">('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
+        <v>4.5187468588199975</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
-        <v>6.8228289890407483</v>
+        <f ca="1">('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
+        <v>7.5809210989341649</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
-        <v>14.421959239616692</v>
+        <f ca="1">('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
+        <v>13.256548391970899</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
-        <v>20.767633520969042</v>
+        <f ca="1">('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
+        <v>19.072316498849123</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
-        <v>24.929538355300416</v>
+        <f ca="1">('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
+        <v>26.944046505223685</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
         <v>24.741256629985511</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
-        <v>26.78428966719877</v>
+        <f ca="1">('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
+        <v>29.918621436764589</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
-        <v>32.156704537716621</v>
+        <f ca="1">('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
+        <v>30.667968216526035</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
-        <v>30.3</v>
+        <f ca="1">('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
+        <v>32.400000000000006</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
         <v>30.680672424402239</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
-        <v>29.6593567475628</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
+        <v>28.219582148166545</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
-        <v>26.85543427553085</v>
+        <f ca="1">('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
+        <v>26.033329144647251</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
-        <v>26.262926529817566</v>
+        <f ca="1">('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
+        <v>23.344823582060055</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
-        <v>22.510667585178503</v>
+        <f ca="1">('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
+        <v>25.899370232409677</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
-        <v>23.256542329546615</v>
+        <f ca="1">('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
+        <v>24.868381896940935</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
-        <v>22.623870340330829</v>
+        <f ca="1">('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
+        <v>19.095376801013177</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
-        <v>25.877492111085548</v>
+        <f ca="1">('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
+        <v>25.37984803202621</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
-        <v>21.626499616329696</v>
+        <f ca="1">('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
+        <v>20.511731594869403</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
-        <v>18.480680706156868</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
+        <v>16.686439860898918</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -18578,100 +18581,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
-        <v>-23.187565554221479</v>
+        <f ca="1">('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
+        <v>-23.919804466460054</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
-        <v>-33.002683923603286</v>
+        <f ca="1">('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
+        <v>-30.781349428745372</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
-        <v>-33.57722466211068</v>
+        <f ca="1">('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
+        <v>-38.124140501771507</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
-        <v>-31.5985071579519</v>
+        <f ca="1">('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
+        <v>-34.790275557745026</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
-        <v>-33.869348389704044</v>
+        <f ca="1">('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
+        <v>-37.632609321893383</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
-        <v>-34.65</v>
+        <f ca="1">('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
+        <v>-32.550000000000004</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
-        <v>-32.760892778889442</v>
+        <f ca="1">('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
+        <v>-33.367575978498508</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
-        <v>-4.3889618179429473</v>
+        <f ca="1">('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
+        <v>-4.766506920561695</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
-        <v>14.694190478724103</v>
+        <f ca="1">('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
+        <v>14.997163478285424</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
-        <v>23.597234104053708</v>
+        <f ca="1">('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
+        <v>24.03830390039116</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
-        <v>15.775773309569058</v>
+        <f ca="1">('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
+        <v>15.949133455828058</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
-        <v>21.93744510021385</v>
+        <f ca="1">('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
+        <v>23.784808898126599</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
-        <v>20.082495043761927</v>
+        <f ca="1">('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
+        <v>22.3366526507148</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
-        <v>22.586995306607303</v>
+        <f ca="1">('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
+        <v>21.953715064365976</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
-        <v>10.564896113142836</v>
+        <f ca="1">('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
+        <v>10.020313839269495</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
-        <v>2.7810752185456389</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
+        <v>2.7535398203422168</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
         <v>6.3092947912880328</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
-        <v>6.7707637620172338</v>
+        <f ca="1">('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
+        <v>7.2171877463260614</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
-        <v>4.0791301836772309</v>
+        <f ca="1">('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
+        <v>4.751514279887763</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
-        <v>-0.8194817353890087</v>
+        <f ca="1">('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
+        <v>-0.88637820358402986</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
-        <v>-3.2970574583027488</v>
+        <f ca="1">('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
+        <v>-3.3949898580543154</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
-        <v>-2.4755392497103363</v>
+        <f ca="1">('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
+        <v>-2.2938482956031558</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
-        <v>-10.456116659609817</v>
+        <f ca="1">('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
+        <v>-11.872049123931982</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
-        <v>-13.416059138286169</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
+        <v>-15.922355900383584</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -18679,100 +18682,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
-        <v>-37.446608688768968</v>
+        <f ca="1">('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
+        <v>-41.607342987521079</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
-        <v>-40.472597269679596</v>
+        <f ca="1">('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
+        <v>-41.229094414907252</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
-        <v>-47.864547207453626</v>
+        <f ca="1">('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
+        <v>-47.425422921146712</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
-        <v>-50</v>
+        <f ca="1">('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
+        <v>-48</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
-        <v>-49.5</v>
+        <f ca="1">('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
+        <v>-52</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
-        <v>-47</v>
+        <f ca="1">('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
+        <v>-54.500000000000007</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
-        <v>-20.734247625363235</v>
+        <f ca="1">('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
+        <v>-21.531718687877206</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
-        <v>4.2151947741005138</v>
+        <f ca="1">('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
+        <v>4.4631474078711326</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
-        <v>13.517136528030852</v>
+        <f ca="1">('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
+        <v>12.336027511018447</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
-        <v>12.860964851912849</v>
+        <f ca="1">('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
+        <v>12.99219918713645</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
-        <v>12.479535602701542</v>
+        <f ca="1">('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
+        <v>12.599531137342902</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
-        <v>17.544369831801554</v>
+        <f ca="1">('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
+        <v>17.206978104266906</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
-        <v>22.17759436712581</v>
+        <f ca="1">('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
+        <v>21.263054393223715</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
-        <v>21.445002688040397</v>
+        <f ca="1">('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
+        <v>24.272915130419349</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
-        <v>11.895373640420202</v>
+        <f ca="1">('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
+        <v>12.027544458647093</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
-        <v>9.3855247969052904</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
+        <v>9.282387161774464</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
-        <v>-1.5401375312996011</v>
+        <f ca="1">('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
+        <v>-1.7912469114027969</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
+        <v>-1.8414687874234361</v>
+      </c>
+      <c r="T4" s="2">
+        <f ca="1">('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
         <v>-1.5066562806191748</v>
       </c>
-      <c r="T4" s="2">
-        <f>('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
-        <v>-1.6573219086810922</v>
-      </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
-        <v>-1.7242844100419445</v>
+        <f ca="1">('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
+        <v>-1.607100032660453</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
-        <v>-9.7051156071250322</v>
+        <f ca="1">('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
+        <v>-10.025064473293989</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
-        <v>-13.388690187578726</v>
+        <f ca="1">('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
+        <v>-13.115451612322017</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
-        <v>-40.491417490460982</v>
+        <f ca="1">('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
+        <v>-38.963439471953023</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
-        <v>-34.761499921056128</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
+        <v>-38.581444967326028</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -19626,100 +19629,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
-        <v>13.208671041071517</v>
+        <f ca="1">('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
+        <v>12.56747341771853</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
-        <v>10.120401550313529</v>
+        <f ca="1">('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
+        <v>10.611683178969527</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
-        <v>8.9388082820377797</v>
+        <f ca="1">('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
+        <v>9.1250334545802332</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
-        <v>8.1322104107764428</v>
+        <f ca="1">('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
+        <v>7.4816335779143275</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
-        <v>8.6128409798430283</v>
+        <f ca="1">('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
+        <v>8.7064588165804526</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
         <v>4.4318478807657673</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
-        <v>7.5051118879448229</v>
+        <f ca="1">('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
+        <v>8.0357763648702143</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
-        <v>15.150341019395313</v>
+        <f ca="1">('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
+        <v>14.567635595572415</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
-        <v>20.555718893204052</v>
+        <f ca="1">('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
+        <v>22.251035915323975</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
-        <v>24.929538355300416</v>
+        <f ca="1">('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
+        <v>25.181351874040825</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
-        <v>25.016159481429796</v>
+        <f ca="1">('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
+        <v>28.314993698761196</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
-        <v>27.924046674313612</v>
+        <f ca="1">('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
+        <v>26.499350415420064</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
-        <v>29.179231895335448</v>
+        <f ca="1">('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
+        <v>30.667968216526035</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
-        <v>28.799999999999997</v>
+        <f ca="1">('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
+        <v>27.6</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
-        <v>29.787060606215764</v>
+        <f ca="1">('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
+        <v>30.084931212277922</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
-        <v>29.083446907804298</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
+        <v>29.371401827683549</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
-        <v>30.143854799065242</v>
+        <f ca="1">('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
+        <v>27.677539406414446</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
         <v>23.344823582060055</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
-        <v>23.478868341530266</v>
+        <f ca="1">('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
+        <v>21.784517017914681</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
-        <v>22.335491148178431</v>
+        <f ca="1">('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
+        <v>24.868381896940935</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
-        <v>22.208753453352283</v>
+        <f ca="1">('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
+        <v>21.793636566373735</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
-        <v>25.131025992496539</v>
+        <f ca="1">('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
+        <v>23.389271715788858</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
-        <v>23.633082054958226</v>
+        <f ca="1">('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
+        <v>20.734685199161461</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
-        <v>17.942408452579482</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
+        <v>17.583560283527891</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -19727,100 +19730,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
-        <v>-25.872441565762916</v>
+        <f ca="1">('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
+        <v>-23.919804466460054</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
         <v>-28.877348433152875</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
-        <v>-32.527936391419722</v>
+        <f ca="1">('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
+        <v>-35.326038446595611</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
-        <v>-29.364269278096717</v>
+        <f ca="1">('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
+        <v>-34.1519218777864</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
-        <v>-35.922036170898224</v>
+        <f ca="1">('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
+        <v>-35.579921540699196</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
-        <v>-31.5</v>
+        <f ca="1">('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
+        <v>-37.800000000000004</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
-        <v>-29.727476780844121</v>
+        <f ca="1">('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
+        <v>-28.817451981430526</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
-        <v>-4.8137000583890384</v>
+        <f ca="1">('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
+        <v>-4.483348093597634</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
-        <v>16.209055476530711</v>
+        <f ca="1">('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
+        <v>15.75459597718873</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
-        <v>24.03830390039116</v>
+        <f ca="1">('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
+        <v>20.950815326028991</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
-        <v>18.029455210936067</v>
+        <f ca="1">('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
+        <v>18.896255942231068</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
-        <v>25.170331746561157</v>
+        <f ca="1">('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
+        <v>24.246649847604786</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
-        <v>19.057877949692443</v>
+        <f ca="1">('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
+        <v>19.467724787320236</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
-        <v>21.531528236205094</v>
+        <f ca="1">('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
+        <v>20.476061165802882</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
-        <v>11.545144206114852</v>
+        <f ca="1">('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
+        <v>11.218394841790847</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
-        <v>3.0013584041730166</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
+        <v>2.67093362573195</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
-        <v>6.1255289235806138</v>
+        <f ca="1">('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
+        <v>6.3092947912880328</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
-        <v>7.6636117306348908</v>
+        <f ca="1">('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
+        <v>6.6963597646324287</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
-        <v>4.3480838221614437</v>
+        <f ca="1">('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
+        <v>4.7066886734737281</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
-        <v>-0.81111967686463105</v>
+        <f ca="1">('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
+        <v>-0.84456791096214168</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
-        <v>-3.5255663910564046</v>
+        <f ca="1">('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
+        <v>-3.2644133250522263</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
-        <v>-2.3165596648665532</v>
+        <f ca="1">('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
+        <v>-2.4982506189737341</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
-        <v>-9.8026093683842053</v>
+        <f ca="1">('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
+        <v>-10.238280895867947</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
-        <v>-14.448063687385103</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
+        <v>-14.005776023485559</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -19828,100 +19831,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
-        <v>-37.824857261382796</v>
+        <f ca="1">('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
+        <v>-40.094348697065769</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
-        <v>-41.229094414907252</v>
+        <f ca="1">('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
+        <v>-37.446608688768968</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
-        <v>-41.277682912849912</v>
+        <f ca="1">('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
+        <v>-46.547174348532877</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
-        <v>-53</v>
+        <f ca="1">('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
+        <v>-54</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
-        <v>-46.5</v>
+        <f ca="1">('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
+        <v>-51.5</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
-        <v>-48.5</v>
+        <f ca="1">('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
+        <v>-54.500000000000007</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
-        <v>-20.534879859734744</v>
+        <f ca="1">('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
+        <v>-20.335512094106249</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
-        <v>4.4631474078711326</v>
+        <f ca="1">('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
+        <v>3.719289506559277</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
-        <v>14.173308204148857</v>
+        <f ca="1">('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
+        <v>14.435776874596057</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
-        <v>13.648370863254453</v>
+        <f ca="1">('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
+        <v>13.123433522360051</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
-        <v>11.279580256287931</v>
+        <f ca="1">('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
+        <v>11.519571325570652</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
-        <v>15.857411194128325</v>
+        <f ca="1">('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
+        <v>17.375673968034231</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
-        <v>23.549404327978952</v>
+        <f ca="1">('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
+        <v>21.948959373650286</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
-        <v>21.680662058238642</v>
+        <f ca="1">('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
+        <v>25.686871351608826</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
-        <v>12.291886095100875</v>
+        <f ca="1">('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
+        <v>12.424056913327764</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
-        <v>9.6949377022977714</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
+        <v>10.416901148213565</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
-        <v>-1.824728162083223</v>
+        <f ca="1">('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
+        <v>-1.6238406580006661</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
-        <v>-1.7075437847017314</v>
+        <f ca="1">('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
+        <v>-1.7745062860625838</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
-        <v>-1.6740625340213053</v>
+        <f ca="1">('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
+        <v>-1.5736187819800269</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
-        <v>-1.556878156639814</v>
+        <f ca="1">('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
+        <v>-1.8079875367430098</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
-        <v>-10.025064473293989</v>
+        <f ca="1">('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
+        <v>-10.771611827688222</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
-        <v>-14.208405913348853</v>
+        <f ca="1">('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
+        <v>-14.891502351490626</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
-        <v>-36.671472444191075</v>
+        <f ca="1">('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
+        <v>-38.199450462699041</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
-        <v>-34.761499921056128</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
+        <v>-37.435461453445058</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28314,100 +28317,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>59.118882855073643</v>
+        <f ca="1">('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>57.340687757394633</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>58.706123606085086</v>
+        <f ca="1">('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>60.270694761929931</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>50.716609906676538</v>
+        <f ca="1">('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>52.680571827065677</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>55.346411283421318</v>
+        <f ca="1">('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>48.069015235244066</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>53.308401315286567</v>
+        <f ca="1">('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>50.261490911832482</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>58.187594890585267</v>
+        <f ca="1">('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>52.704660573884894</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>62.963613835674373</v>
+        <f ca="1">('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>73.549405061754385</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>69.150364233052557</v>
+        <f ca="1">('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>68.410724679087323</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>78.604120064959346</v>
+        <f ca="1">('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>80.169802466258531</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>79.794849860713512</v>
+        <f ca="1">('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>83.842213920662459</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>83.596413829113359</v>
+        <f ca="1">('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>78.695139066056271</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>82.795910643793633</v>
+        <f ca="1">('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>77.137399129023464</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>74.493994695261335</v>
+        <f ca="1">('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>88.961890551787619</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>75.004252347043845</v>
+        <f ca="1">('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>86.812201429778824</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>78.051213587677978</v>
+        <f ca="1">('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>71.19196485214232</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>68.407878378410061</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>81.129640802268483</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>73.448236098070865</v>
+        <f ca="1">('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>85.074048849282789</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>94.220167730740314</v>
+        <f ca="1">('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>96.852581103173662</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>88.388292509036958</v>
+        <f ca="1">('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>96.440469809429572</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>85.098514285714273</v>
+        <f ca="1">('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>85.998514285714279</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>89.82717764406496</v>
+        <f ca="1">('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>86.33423062160864</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>87.133130003983965</v>
+        <f ca="1">('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>77.133294124403392</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>80.401697853485501</v>
+        <f ca="1">('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>83.441160183440559</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>73.769343358549975</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>75.112644176635825</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -28415,100 +28418,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>68.676926430489786</v>
+        <f ca="1">('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>62.948784453900522</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>68.52794103711777</v>
+        <f ca="1">('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>61.997712012771061</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>61.389257232903155</v>
+        <f ca="1">('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>57.451698252483389</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>53.005330683112255</v>
+        <f ca="1">('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>53.563859048727082</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>61.03065814266138</v>
+        <f ca="1">('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>59.900127171053427</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>69.630767207926482</v>
+        <f ca="1">('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>61.553232572235224</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>80.918706763659188</v>
+        <f ca="1">('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>74.987342251996367</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>86.07897182352221</v>
+        <f ca="1">('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>86.971416139805598</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>99.461749885185952</v>
+        <f ca="1">('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>95.575232460494561</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>96.925399268126213</v>
+        <f ca="1">('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>108.73034417364994</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>99.85380115687353</v>
+        <f ca="1">('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>94.110616657896387</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>94.670292429581309</v>
+        <f ca="1">('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>88.897506790063701</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f ca="1">('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>88.089712209766915</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>105.14037875632687</v>
+        <f ca="1">('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>104.19473664064886</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>82.343952524022811</v>
+        <f ca="1">('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>95.720208434576023</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>93.858408632687954</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>95.590811464273585</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>86.358994256295119</v>
+        <f ca="1">('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>91.771622464963386</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>104.34247619047619</v>
+        <f ca="1">('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>109.34247619047619</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f ca="1">('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>105.40718618445867</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>95.20131237307568</v>
+        <f ca="1">('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>104.95877707525827</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f ca="1">('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>97.696724611621804</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>85.007939920217325</v>
+        <f ca="1">('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>99.388887478403618</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>88.864817738312112</v>
+        <f ca="1">('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>84.933363540971811</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>79.903905689844038</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>74.910348016531103</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -28516,100 +28519,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>76.114617382480546</v>
+        <f ca="1">('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>80.362424007220312</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>73.109474554458743</v>
+        <f ca="1">('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>75.083114870527183</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>67.312962106469186</v>
+        <f ca="1">('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>57.192006400189925</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>70.016902067666834</v>
+        <f ca="1">('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>73.218569367928595</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>65.337632253859965</v>
+        <f ca="1">('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>71.08053434131358</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>66.905789769869173</v>
+        <f ca="1">('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>62.249266567690768</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f ca="1">('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>105.86916764492238</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>120.68968091957659</v>
+        <f ca="1">('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>101.94534303332837</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>112.86703329776749</v>
+        <f ca="1">('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>116.49356842206822</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>122.80572533807261</v>
+        <f ca="1">('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>111.92037781855554</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>103.20540215598433</v>
+        <f ca="1">('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>122.62767829514823</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>122.97682539682539</v>
+        <f ca="1">('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>117.97682539682539</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>111.57218040876725</v>
+        <f ca="1">('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>119.82417493093314</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>106.23838016289757</v>
+        <f ca="1">('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>113.96333682987131</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>118.13064624313067</v>
+        <f ca="1">('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>98.869438606650363</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>108.4557786435978</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>91.457811142145005</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>99.875143596912366</v>
+        <f ca="1">('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>104.87773622686706</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>102.30400758343684</v>
+        <f ca="1">('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>99.126347193583953</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>103.72911451000545</v>
+        <f ca="1">('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>117.49897619936799</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>104.98400930210855</v>
+        <f ca="1">('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>117.88606641753877</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>110.89609357181459</v>
+        <f ca="1">('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>99.388557238440796</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>89.510496004337341</v>
+        <f ca="1">('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>91.401148232730876</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>87.716159338907318</v>
+        <f ca="1">('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>83.718511810941493</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>86.360167736435841</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>76.302224200441032</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -29461,100 +29464,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>61.489809651979002</v>
+        <f ca="1">('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>57.340687757394633</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f ca="1">('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>55.055457575780451</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>55.135524227552089</v>
+        <f ca="1">('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>46.788686065898283</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>53.405772337240712</v>
+        <f ca="1">('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>48.554174971789216</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>54.324038116437926</v>
+        <f ca="1">('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>52.800582914710887</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>59.832475185595385</v>
+        <f ca="1">('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>59.284181753925346</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>72.887793110124377</v>
+        <f ca="1">('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>65.610061642194367</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>66.931445571156857</v>
+        <f ca="1">('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>81.724236650461563</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>78.604120064959346</v>
+        <f ca="1">('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>85.649690870805699</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>83.032741108672681</v>
+        <f ca="1">('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>83.842213920662459</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>81.145776447584822</v>
+        <f ca="1">('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>79.51201819323245</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>88.454422158563787</v>
+        <f ca="1">('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>77.137399129023464</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>80.92417063149523</v>
+        <f ca="1">('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>78.512854655407509</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>72.642662530496864</v>
+        <f ca="1">('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>83.663415007716154</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>75.764797342499421</v>
+        <f ca="1">('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>71.954103600535163</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>73.646251141175284</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>78.136284937831206</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>77.323507015141502</v>
+        <f ca="1">('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>70.348019364414355</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>85.445456489295808</v>
+        <f ca="1">('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>93.342696606595865</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>97.335156176139861</v>
+        <f ca="1">('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>82.125487942064936</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>92.298514285714276</v>
+        <f ca="1">('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>86.89851428571427</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>83.714520354766378</v>
+        <f ca="1">('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>81.968046843538232</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>87.133130003983965</v>
+        <f ca="1">('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>77.133294124403392</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>75.082638776064158</v>
+        <f ca="1">('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>72.043176446109115</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>71.082741722378273</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>67.052839268120721</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -29562,100 +29565,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>64.858165112763615</v>
+        <f ca="1">('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>60.402943575416415</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>66.746969485023214</v>
+        <f ca="1">('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>67.934283853086256</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>57.451698252483389</v>
+        <f ca="1">('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>54.076647697837878</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>56.356500876801213</v>
+        <f ca="1">('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>58.590614339260526</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>57.073799742033529</v>
+        <f ca="1">('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>63.856985571681278</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>60.310534935975035</v>
+        <f ca="1">('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>66.524023117276002</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>75.728762815954227</v>
+        <f ca="1">('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>74.245921688038521</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f ca="1">('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>86.971416139805598</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>105.29152602222304</v>
+        <f ca="1">('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>101.40500859753165</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>89.055435997777082</v>
+        <f ca="1">('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>92.006672224158009</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>105.59698565585067</v>
+        <f ca="1">('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>89.324629575415457</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>90.821768669902895</v>
+        <f ca="1">('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>99.480947129179327</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>96.741774798801941</v>
+        <f ca="1">('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>92.896413648119704</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>92.847031252512764</v>
+        <f ca="1">('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>86.22753644276672</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>93.04495725246538</v>
+        <f ca="1">('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>82.343952524022811</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>81.731588811588594</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>85.196394474759842</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>93.575831867852813</v>
+        <f ca="1">('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>87.261098957739833</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>100.34247619047619</v>
+        <f ca="1">('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>104.34247619047619</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>107.39993621609008</v>
+        <f ca="1">('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>99.428936089564431</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>95.20131237307568</v>
+        <f ca="1">('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>91.298326492202662</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>104.40948770351639</v>
+        <f ca="1">('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>88.1070630517724</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>81.41270303067077</v>
+        <f ca="1">('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>87.704367587377263</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>73.925291788418946</v>
+        <f ca="1">('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>85.719654380439863</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>76.337078780334792</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>73.483617252727399</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -29663,100 +29666,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>70.450875216160881</v>
+        <f ca="1">('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>81.778359548800225</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>72.4515944491026</v>
+        <f ca="1">('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>76.398875081239481</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>68.503662777796151</v>
+        <f ca="1">('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>66.122261435142207</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>66.815234767405073</v>
+        <f ca="1">('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>71.297568987771541</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>65.337632253859965</v>
+        <f ca="1">('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>61.509030862224229</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>66.240572169557979</v>
+        <f ca="1">('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>65.57535456924677</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>110.81911999659373</v>
+        <f ca="1">('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>101.90920576358532</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>120.68968091957659</v>
+        <f ca="1">('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>101.94534303332837</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>121.32894858780256</v>
+        <f ca="1">('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>128.58201883640407</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>124.01520839579673</v>
+        <f ca="1">('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>126.43417451124498</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f ca="1">('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>115.77275730485509</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>119.22682539682539</v>
+        <f ca="1">('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>127.97682539682539</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>126.89731309278962</v>
+        <f ca="1">('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>124.5396003721708</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>118.37759778242774</v>
+        <f ca="1">('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>100.72055397220204</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>118.13064624313067</v>
+        <f ca="1">('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>106.35990824305937</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>108.4557786435978</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>93.457572024668863</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>96.873588018939557</v>
+        <f ca="1">('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>100.87566212290331</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>109.71854849309359</v>
+        <f ca="1">('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>106.5408881032407</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>98.433013860250625</v>
+        <f ca="1">('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>117.49897619936799</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>100.68332359696515</v>
+        <f ca="1">('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>113.58538071239536</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>103.57311590512218</v>
+        <f ca="1">('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>114.03451257182562</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>88.565169890140581</v>
+        <f ca="1">('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>99.909083260501788</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>86.117100327720991</v>
+        <f ca="1">('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>88.515688844500488</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>82.491727914899371</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>73.981160307519161</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -30608,100 +30611,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>65.638931546563384</v>
+        <f ca="1">('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>60.304346253526326</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>57.663076168855191</v>
+        <f ca="1">('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>49.840220389630979</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>54.644533747454808</v>
+        <f ca="1">('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>47.279676545995564</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>46.128376289063468</v>
+        <f ca="1">('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>52.435452864150413</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>53.816219715862246</v>
+        <f ca="1">('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>50.769309312408161</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>55.446127732235077</v>
+        <f ca="1">('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>52.156367142214862</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>67.594897497084361</v>
+        <f ca="1">('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>65.610061642194367</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>72.848562002878737</v>
+        <f ca="1">('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>67.67108512512209</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>73.124231660412192</v>
+        <f ca="1">('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>74.689914061711377</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>81.413795484693097</v>
+        <f ca="1">('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>88.699050792601199</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>77.878259938880092</v>
+        <f ca="1">('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>78.695139066056271</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>81.179193068145011</v>
+        <f ca="1">('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>89.262780946388091</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>81.72794262352447</v>
+        <f ca="1">('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>84.139258599612191</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>84.450611613231828</v>
+        <f ca="1">('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>79.727431980137837</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>78.051213587677978</v>
+        <f ca="1">('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>81.861907329642236</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>73.646251141175284</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>69.904556310628706</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>74.99834446489912</v>
+        <f ca="1">('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>78.873615381969756</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>80.180629744429098</v>
+        <f ca="1">('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>90.710283234162503</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>94.651097076008995</v>
+        <f ca="1">('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>91.967037975878114</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>85.998514285714279</v>
+        <f ca="1">('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>98.598514285714288</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>95.939834933363542</v>
+        <f ca="1">('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>86.33423062160864</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>84.633171034088818</v>
+        <f ca="1">('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>81.299892407561956</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>79.641832270996744</v>
+        <f ca="1">('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>82.681294600951801</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>76.455944994721676</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>67.052839268120721</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -30709,99 +30712,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>70.586307089352871</v>
+        <f ca="1">('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>67.404005991247729</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>60.216740460676505</v>
+        <f ca="1">('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>60.810397644708026</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>57.451698252483389</v>
+        <f ca="1">('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>61.389257232903155</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>59.149142704875352</v>
+        <f ca="1">('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>54.122387414341908</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>58.20433071364149</v>
+        <f ca="1">('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>59.334861685249443</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>67.145371935406104</v>
+        <f ca="1">('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>64.038627844755609</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>70.538818868249265</v>
+        <f ca="1">('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>83.142968455532738</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>97.680747935206199</v>
+        <f ca="1">('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>95.003414986356049</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>98.490120529013112</v>
+        <f ca="1">('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>105.29152602222304</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>90.039181406570719</v>
+        <f ca="1">('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>89.055435997777082</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>91.239024408407829</v>
+        <f ca="1">('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>104.63978823935449</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>102.36733994893814</v>
+        <f ca="1">('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>106.21586370861654</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>95.780434511131375</v>
+        <f ca="1">('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>99.625795661813626</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>104.19473664064886</v>
+        <f ca="1">('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>88.11882067412273</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>90.369706070354738</v>
+        <f ca="1">('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>92.153206858428504</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>87.794998722138274</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>91.259804385309522</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>97.184250673631652</v>
+        <f ca="1">('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>91.771622464963386</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>108.34247619047619</v>
+        <f ca="1">('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>96.342476190476191</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>109.3926862477215</v>
+        <f ca="1">('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>97.436186057933014</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>103.00728413482175</v>
+        <f ca="1">('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>90.322580021984407</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>88.1070630517724</v>
+        <f ca="1">('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>89.066029207757353</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>86.805558364990617</v>
+        <f ca="1">('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>96.69245981124368</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f ca="1">('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>85.719654380439863</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f ca="1">('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>68.490059579414464</v>
       </c>
     </row>
@@ -30810,100 +30813,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>71.866810757740794</v>
+        <f ca="1">('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>80.362424007220312</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>73.767354659814899</v>
+        <f ca="1">('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>67.188553606253436</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>66.122261435142207</v>
+        <f ca="1">('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>64.931560763815241</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>67.45556822745742</v>
+        <f ca="1">('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>61.692567086986259</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>65.337632253859965</v>
+        <f ca="1">('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>62.785231326102803</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>62.91448416800197</v>
+        <f ca="1">('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>64.910136968935575</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>97.949243882248254</v>
+        <f ca="1">('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>95.969262941579714</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>100.84273492237259</v>
+        <f ca="1">('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>106.35577547715147</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f ca="1">('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>111.65818825633391</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>130.06262368441736</v>
+        <f ca="1">('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>114.33934393400376</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>111.20280997799298</v>
+        <f ca="1">('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>126.05513879029479</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>119.22682539682539</v>
+        <f ca="1">('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>122.97682539682539</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>111.57218040876725</v>
+        <f ca="1">('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>123.36074401186139</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>106.23838016289757</v>
+        <f ca="1">('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>111.7562063535931</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>97.799371515734791</v>
+        <f ca="1">('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>108.50004242489051</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>98.456974230978489</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>109.45565908485972</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>107.87929180483988</v>
+        <f ca="1">('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>99.875143596912366</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>110.77776862304455</v>
+        <f ca="1">('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>100.18556732353491</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>116.43975606941702</v>
+        <f ca="1">('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>113.26209567956413</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>99.608152170679304</v>
+        <f ca="1">('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>117.88606641753877</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>95.203998571759442</v>
+        <f ca="1">('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>98.342417571770468</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>90.455822118534101</v>
+        <f ca="1">('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>91.401148232730876</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>77.322275766196171</v>
+        <f ca="1">('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>78.121805271789327</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>87.133855700743126</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>80.944351986284786</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -31755,99 +31758,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
-        <v>10.813262185630244</v>
+        <f ca="1">('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
+        <v>12.653817451269436</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
         <v>9.2283995159327823</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
-        <v>7.444214048958572</v>
+        <f ca="1">('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
+        <v>7.2922913132655403</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
         <v>7.8793241403845427</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
-        <v>9.1242992184498171</v>
+        <f ca="1">('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
+        <v>8.2794566982229814</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
-        <v>10.384985187332877</v>
+        <f ca="1">('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
+        <v>10.699681708161146</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
-        <v>15.786886814010129</v>
+        <f ca="1">('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
+        <v>16.275141045371267</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
-        <v>19.670144754169069</v>
+        <f ca="1">('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
+        <v>21.855716393521188</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
-        <v>24.103403479477805</v>
+        <f ca="1">('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
+        <v>24.792072150320028</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
-        <v>27.806200777770208</v>
+        <f ca="1">('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
+        <v>24.520013413124634</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
-        <v>27.785946846808869</v>
+        <f ca="1">('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
+        <v>24.98186046777311</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
-        <v>26.286338021730796</v>
+        <f ca="1">('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
+        <v>23.532531181358994</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
-        <v>24.638404161081308</v>
+        <f ca="1">('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
+        <v>25.644053310513197</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
-        <v>23.391596336170867</v>
+        <f ca="1">('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
+        <v>23.142749566637139</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
-        <v>23.795782085238013</v>
+        <f ca="1">('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
+        <v>20.428454431666598</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
         <v>19.622150335440256</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
-        <v>22.671328709175562</v>
+        <f ca="1">('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
+        <v>23.11154868411101</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
-        <v>32.700000000000003</v>
+        <f ca="1">('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
+        <v>32.1</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
-        <v>31.75383604533792</v>
+        <f ca="1">('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
+        <v>31.454271554344164</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
-        <v>31.656127895941694</v>
+        <f ca="1">('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
+        <v>28.461472787176934</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
-        <v>28.494633745335054</v>
+        <f ca="1">('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
+        <v>29.569902943272229</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
-        <v>22.950545226683232</v>
+        <f ca="1">('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
+        <v>25.819363380018636</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
-        <v>20.278914547482202</v>
+        <f ca="1">('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
+        <v>19.88893542156908</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
         <v>15.109050429231946</v>
       </c>
     </row>
@@ -31856,100 +31859,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
-        <v>-27.059434563384116</v>
+        <f ca="1">('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
+        <v>-30.841936169018453</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
-        <v>-31.939772440491488</v>
+        <f ca="1">('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
+        <v>-29.726124845605938</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
         <v>-30.656624782507482</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
-        <v>-33.138648183003248</v>
+        <f ca="1">('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
+        <v>-35.167545010534063</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
-        <v>-32.200000000000003</v>
+        <f ca="1">('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
+        <v>-36.4</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
-        <v>-33.649115465354889</v>
+        <f ca="1">('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
+        <v>-33.337549581416418</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
-        <v>-24.825992348482206</v>
+        <f ca="1">('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
+        <v>-24.593973728402933</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
-        <v>-10.314375907489971</v>
+        <f ca="1">('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
+        <v>-9.3593411012408989</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
-        <v>-2.5593955467785316</v>
+        <f ca="1">('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
+        <v>-2.5312703209897567</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
-        <v>-0.41797373795190984</v>
+        <f ca="1">('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
+        <v>-0.47517014419796066</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
-        <v>-3.9893191974059161</v>
+        <f ca="1">('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
+        <v>-4.3448030862836715</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
         <v>-3.1361382232545592</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
-        <v>-3.8987193289407798</v>
+        <f ca="1">('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
+        <v>-4.4212281049843902</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
-        <v>-3.9329058759209174</v>
+        <f ca="1">('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
+        <v>-3.7301787689146848</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
-        <v>-10.864996868383985</v>
+        <f ca="1">('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
+        <v>-10.659996927471079</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
-        <v>-14.318761230902309</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
+        <v>-14.613993421230191</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
-        <v>-12.996478098968542</v>
+        <f ca="1">('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
+        <v>-13.652865881744731</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
         <v>-4.1227000778745406</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
         <v>-6.3229769374534452</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Winter, S1'!U3*Main!$B$5)</f>
-        <v>-7.7844020483341021</v>
+        <f ca="1">('[1]Qc, Winter, S1'!U3*Main!$B$5)</f>
+        <v>-7.3746966773691494</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
-        <v>-12.742775751833543</v>
+        <f ca="1">('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
+        <v>-11.841771405744304</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
-        <v>-15.87262924120456</v>
+        <f ca="1">('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
+        <v>-16.206789856808868</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
-        <v>-23.088578632758438</v>
+        <f ca="1">('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
+        <v>-22.191934802360052</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
-        <v>-23.212724838934463</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
+        <v>-25.735847104036036</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -31957,100 +31960,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
-        <v>40.364416827048736</v>
+        <f ca="1">('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
+        <v>43.59357017321264</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
-        <v>51.5</v>
+        <f ca="1">('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
+        <v>52</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
-        <v>48.5</v>
+        <f ca="1">('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
+        <v>55.000000000000007</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
-        <v>54.500000000000007</v>
+        <f ca="1">('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
+        <v>52.5</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
-        <v>54</v>
+        <f ca="1">('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
+        <v>48</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
-        <v>42.133168430436328</v>
+        <f ca="1">('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
+        <v>36.461395757108356</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
-        <v>16.721741331392934</v>
+        <f ca="1">('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
+        <v>20.029338517822307</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
-        <v>2.2237206877056699</v>
+        <f ca="1">('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
+        <v>2.5549131305554504</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
-        <v>-14.395532639376221</v>
+        <f ca="1">('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
+        <v>-13.565021140950668</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
-        <v>-12.457672476383268</v>
+        <f ca="1">('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
+        <v>-13.980276890163443</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
-        <v>-1.2516779557268016</v>
+        <f ca="1">('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
+        <v>-1.1920742435493348</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
-        <v>-13.28005170360659</v>
+        <f ca="1">('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
+        <v>-14.723535584433394</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
-        <v>-13.857445255937311</v>
+        <f ca="1">('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
+        <v>-15.156580748681435</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
-        <v>-10.391413319233276</v>
+        <f ca="1">('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
+        <v>-12.290918979738283</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
-        <v>-1.3063503459713692</v>
+        <f ca="1">('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
+        <v>-1.4175290988199967</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
-        <v>8.729824570743844</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
+        <v>7.554655878528326</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
-        <v>10.839454655483015</v>
+        <f ca="1">('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
+        <v>11.888434138271693</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
-        <v>11.888434138271693</v>
+        <f ca="1">('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
+        <v>12.004987414137103</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
-        <v>12.820860345194964</v>
+        <f ca="1">('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
+        <v>11.189114483079241</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
-        <v>11.305667758944649</v>
+        <f ca="1">('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
+        <v>11.771880862406285</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
-        <v>12.820860345194964</v>
+        <f ca="1">('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
+        <v>12.23809396586792</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
-        <v>24.305111538796627</v>
+        <f ca="1">('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
+        <v>21.874600384916963</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
-        <v>39.381709115562217</v>
+        <f ca="1">('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
+        <v>34.923402423234421</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
-        <v>39.010183557868238</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
+        <v>34.551876865540436</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE_9/ieee9/ieee9_2020.xlsx
+++ b/data/IEEE_9/ieee9/ieee9_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5A602A-9ACE-4417-82A2-F892E9E7B89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB28C98-E853-4A42-95E1-96BF46DDF859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="722" firstSheet="23" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26970" yWindow="3375" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4512,99 +4512,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
         <v>10.813262185630244</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
         <v>9.7608071803135203</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
         <v>7.0644072097259922</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
         <v>7.953657386991944</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
         <v>8.8708464623817651</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
         <v>10.909479388713324</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
         <v>16.112389634917555</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
         <v>21.060963070120419</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
         <v>23.87384725586373</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
         <v>26.289498917164558</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
         <v>27.276112959711458</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
         <v>27.287722327320541</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
         <v>24.386991873723336</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
         <v>25.133523722906997</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
         <v>23.122316554523731</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
         <v>22.821413977088124</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
         <v>20.690338821966044</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
         <v>30.6</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
         <v>32.652529518319184</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
         <v>30.204011937412258</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
         <v>26.344095349460709</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
         <v>22.711477047238613</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
         <v>19.88893542156908</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
         <v>16.455401457579349</v>
       </c>
     </row>
@@ -4613,99 +4613,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
         <v>-27.059434563384116</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
         <v>-34.153420035377039</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
         <v>-30.656624782507482</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
         <v>-31.447900826727576</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
         <v>-37.1</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
         <v>-30.533456625970175</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
         <v>-22.737824767768746</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
         <v>-9.3593411012408989</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
         <v>-2.6437712241448565</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
         <v>-0.47517014419796066</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
         <v>-3.6733335184034677</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
         <v>-3.0490232726085993</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
         <v>-4.3006491566666343</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
         <v>-3.7301787689146848</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
         <v>-9.942497134275909</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
         <v>-13.580680755082602</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
         <v>-12.996478098968542</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
         <v>-4.1227000778745406</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
         <v>-6.9748302299744198</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
         <v>-8.7676949386499885</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
         <v>-13.257635378170251</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
         <v>-15.037227702193796</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
         <v>-21.519451929561264</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
         <v>-24.221973744975092</v>
       </c>
     </row>
@@ -4714,99 +4714,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
         <v>36.32797514434386</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
         <v>46.5</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
         <v>49.5</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
         <v>45</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
         <v>52.5</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
         <v>39.297282093772338</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
         <v>19.478072320084078</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
         <v>2.2710338938270671</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
         <v>-12.596091059454192</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
         <v>-14.533951222447145</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
         <v>-1.2755194405977883</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
         <v>-14.867883972516074</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
         <v>-15.733974301012157</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
         <v>-10.838355827587394</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
         <v>-1.3897344106078398</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
         <v>8.6458839498713065</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
         <v>12.587753793464147</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
         <v>11.189114483079241</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
         <v>10.956007931348424</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
         <v>11.072561207213832</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
         <v>11.305667758944649</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
         <v>23.575958192632729</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
         <v>40.124760230950187</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
         <v>35.294927980928399</v>
       </c>
     </row>
@@ -5659,99 +5659,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
         <v>12.308713338962088</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
         <v>9.7608071803135203</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
         <v>6.9124844740329605</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
         <v>7.5819911539549372</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
         <v>8.0260039421549312</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
         <v>10.175187506780697</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
         <v>15.461383993102704</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
         <v>19.471456423318877</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
         <v>23.644291032249654</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
         <v>26.036715273730284</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
         <v>28.040863790357577</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
         <v>27.287722327320541</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
         <v>24.88981644843928</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
         <v>24.138136644772068</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
         <v>21.775385493095161</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
         <v>20.901855792099404</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
         <v>19.80989887209515</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
         <v>31.200000000000003</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
         <v>27.559933171425364</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
         <v>26.428510445235727</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
         <v>28.763451044819348</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
         <v>25.341227021129402</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
         <v>18.718998043829721</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
         <v>16.156212340168814</v>
       </c>
     </row>
@@ -5760,99 +5760,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
         <v>-30.841936169018453</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
         <v>-28.461183362814197</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
         <v>-30.997253946757564</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
         <v>-30.771601884217304</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
         <v>-36.75</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
         <v>-33.96068134929336</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
         <v>-21.34571304729311</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
         <v>-8.7863202174914559</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
         <v>-3.0656496109764833</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
         <v>-0.43997235573885246</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
         <v>-3.8313263579046914</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
         <v>-2.7586401037887325</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
         <v>-4.0594912600311215</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
         <v>-4.1761784043283967</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
         <v>-9.6349972229065504</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
         <v>-14.761609516394133</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
         <v>-13.521588325189494</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
         <v>-4.9293153105021688</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
         <v>-6.1926062789492509</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
         <v>-7.7024609741411112</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
         <v>-13.128920471586074</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
         <v>-16.540950472413176</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
         <v>-23.536900547957632</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
         <v>-26.745096010076665</v>
       </c>
     </row>
@@ -5861,99 +5861,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
         <v>44.400858509753611</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
         <v>48</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
         <v>47.5</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
         <v>46.5</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
         <v>51.5</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
         <v>43.75367490853003</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
         <v>19.845583118576229</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
         <v>2.2473772907663685</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
         <v>-14.810788388588996</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
         <v>-15.087625554730847</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
         <v>-1.3112816679042683</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
         <v>-14.146142032102672</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
         <v>-14.001793644019992</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
         <v>-11.620505217207103</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
         <v>-1.3758370665017614</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
         <v>8.142240224636085</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
         <v>12.587753793464147</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
         <v>10.606348103752197</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
         <v>10.839454655483015</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
         <v>10.839454655483015</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
         <v>12.004987414137103</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
         <v>25.277316000348492</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
         <v>40.496285788644172</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
         <v>34.551876865540436</v>
       </c>
     </row>
@@ -8912,99 +8912,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>3.0618349098846966</v>
+        <v>7.6545872747117425</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>2.8295813276614803</v>
+        <v>7.0739533191537003</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>2.9957917552893765</v>
+        <v>7.4894793882234412</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>2.9827463897906643</v>
+        <v>7.4568659744766599</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>2.4557281988133886</v>
+        <v>6.1393204970334709</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>2.4908308518974591</v>
+        <v>6.2270771297436482</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>2.4961860517183476</v>
+        <v>6.2404651292958686</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>2.2416306951751928</v>
+        <v>5.6040767379379819</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>2.0244453710959367</v>
+        <v>5.0611134277398424</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>1.4633847531624311</v>
+        <v>3.658461882906078</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>1.3497501399305945</v>
+        <v>3.3743753498264857</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>0.90554125153923648</v>
+        <v>2.2638531288480914</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>0.75261891301914252</v>
+        <v>1.8815472825478563</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>0.72061289600358214</v>
+        <v>1.8015322400089555</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>0.99972388895108022</v>
+        <v>2.4993097223777005</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>1.3523942404567331</v>
+        <v>3.3809856011418327</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>1.5120505429307065</v>
+        <v>3.7801263573267661</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>2.0766591570580997</v>
+        <v>5.191647892645249</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>1.8888857046904732</v>
+        <v>4.7222142617261831</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>1.7956845404679278</v>
+        <v>4.4892113511698195</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>2.3693603212806451</v>
+        <v>5.9234008032016128</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>2.8338398634277397</v>
+        <v>7.0845996585693491</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>2.6792243367289825</v>
+        <v>6.6980608418224561</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>3.8083134445315121</v>
+        <v>9.5207836113287811</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -9013,99 +9013,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>3.0618349098846966</v>
+        <v>7.6545872747117425</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>2.8295813276614803</v>
+        <v>7.0739533191537003</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>2.9957917552893765</v>
+        <v>7.4894793882234412</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>2.9827463897906643</v>
+        <v>7.4568659744766599</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>2.4557281988133886</v>
+        <v>6.1393204970334709</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>2.4908308518974591</v>
+        <v>6.2270771297436482</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>2.4961860517183476</v>
+        <v>6.2404651292958686</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>2.2416306951751928</v>
+        <v>5.6040767379379819</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>2.0244453710959367</v>
+        <v>5.0611134277398424</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>1.4633847531624311</v>
+        <v>3.658461882906078</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>1.3497501399305945</v>
+        <v>3.3743753498264857</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>0.90554125153923648</v>
+        <v>2.2638531288480914</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>0.75261891301914252</v>
+        <v>1.8815472825478563</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>0.72061289600358214</v>
+        <v>1.8015322400089555</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>0.99972388895108022</v>
+        <v>2.4993097223777005</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>1.3523942404567331</v>
+        <v>3.3809856011418327</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>1.5120505429307065</v>
+        <v>3.7801263573267661</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>2.0766591570580997</v>
+        <v>5.191647892645249</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>1.8888857046904732</v>
+        <v>4.7222142617261831</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>1.7956845404679278</v>
+        <v>4.4892113511698195</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>2.3693603212806451</v>
+        <v>5.9234008032016128</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>2.8338398634277397</v>
+        <v>7.0845996585693491</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>2.6792243367289825</v>
+        <v>6.6980608418224561</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>3.8083134445315121</v>
+        <v>9.5207836113287811</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -9114,99 +9114,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>3.0618349098846966</v>
+        <v>7.6545872747117425</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>2.8295813276614803</v>
+        <v>7.0739533191537003</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>2.9957917552893765</v>
+        <v>7.4894793882234412</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>2.9827463897906643</v>
+        <v>7.4568659744766599</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>2.4557281988133886</v>
+        <v>6.1393204970334709</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>2.4908308518974591</v>
+        <v>6.2270771297436482</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>2.4961860517183476</v>
+        <v>6.2404651292958686</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>2.2416306951751928</v>
+        <v>5.6040767379379819</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>2.0244453710959367</v>
+        <v>5.0611134277398424</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>1.4633847531624311</v>
+        <v>3.658461882906078</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>1.3497501399305945</v>
+        <v>3.3743753498264857</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>0.90554125153923648</v>
+        <v>2.2638531288480914</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>0.75261891301914252</v>
+        <v>1.8815472825478563</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>0.72061289600358214</v>
+        <v>1.8015322400089555</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>0.99972388895108022</v>
+        <v>2.4993097223777005</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>1.3523942404567331</v>
+        <v>3.3809856011418327</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>1.5120505429307065</v>
+        <v>3.7801263573267661</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>2.0766591570580997</v>
+        <v>5.191647892645249</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>1.8888857046904732</v>
+        <v>4.7222142617261831</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>1.7956845404679278</v>
+        <v>4.4892113511698195</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>2.3693603212806451</v>
+        <v>5.9234008032016128</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>2.8338398634277397</v>
+        <v>7.0845996585693491</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>2.6792243367289825</v>
+        <v>6.6980608418224561</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>3.8083134445315121</v>
+        <v>9.5207836113287811</v>
       </c>
     </row>
   </sheetData>
@@ -9741,99 +9741,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>4.1555650270573832</v>
+        <v>10.388912567643457</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>3.6541969956095568</v>
+        <v>9.1354924890238927</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>3.0075078491933827</v>
+        <v>7.5187696229834557</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>2.6036537165611593</v>
+        <v>6.5091342914028987</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>2.427370520216459</v>
+        <v>6.0684263005411481</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>1.9438015111292628</v>
+        <v>4.8595037778231571</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>1.8924915254237287</v>
+        <v>4.7312288135593219</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>1.7157819072901774</v>
+        <v>4.2894547682254442</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>1.7684448642025727</v>
+        <v>4.4211121605064321</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>1.8703326015928123</v>
+        <v>4.6758315039820308</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>1.8720605345109249</v>
+        <v>4.6801513362773122</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>2.1943172095160302</v>
+        <v>5.4857930237900749</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>2.1952724372064529</v>
+        <v>5.4881810930161317</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>2.2257335868899326</v>
+        <v>5.5643339672248313</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>2.5063188559322036</v>
+        <v>6.265797139830509</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>2.0689910149070863</v>
+        <v>5.1724775372677154</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>2.1432848938125377</v>
+        <v>5.3582122345313445</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>2.2694778691035329</v>
+        <v>5.673694672758832</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>1.9797782698590971</v>
+        <v>4.9494456746477429</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>2.0506117265672863</v>
+        <v>5.1265293164182157</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>1.9216206095568715</v>
+        <v>4.8040515238921788</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>1.7438276495813763</v>
+        <v>4.3595691239534409</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>1.7873017663875843</v>
+        <v>4.4682544159689606</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>1.9544837655707576</v>
+        <v>4.8862094139268937</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -9842,99 +9842,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>4.1555650270573832</v>
+        <v>10.388912567643457</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>3.6541969956095568</v>
+        <v>9.1354924890238927</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>3.0075078491933827</v>
+        <v>7.5187696229834557</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>2.6036537165611593</v>
+        <v>6.5091342914028987</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>2.427370520216459</v>
+        <v>6.0684263005411481</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>1.9438015111292628</v>
+        <v>4.8595037778231571</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>1.8924915254237287</v>
+        <v>4.7312288135593219</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>1.7157819072901774</v>
+        <v>4.2894547682254442</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>1.7684448642025727</v>
+        <v>4.4211121605064321</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>1.8703326015928123</v>
+        <v>4.6758315039820308</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>1.8720605345109249</v>
+        <v>4.6801513362773122</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>2.1943172095160302</v>
+        <v>5.4857930237900749</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>2.1952724372064529</v>
+        <v>5.4881810930161317</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>2.2257335868899326</v>
+        <v>5.5643339672248313</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>2.5063188559322036</v>
+        <v>6.265797139830509</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>2.0689910149070863</v>
+        <v>5.1724775372677154</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>2.1432848938125377</v>
+        <v>5.3582122345313445</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>2.2694778691035329</v>
+        <v>5.673694672758832</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>1.9797782698590971</v>
+        <v>4.9494456746477429</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>2.0506117265672863</v>
+        <v>5.1265293164182157</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>1.9216206095568715</v>
+        <v>4.8040515238921788</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>1.7438276495813763</v>
+        <v>4.3595691239534409</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>1.7873017663875843</v>
+        <v>4.4682544159689606</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>1.9544837655707576</v>
+        <v>4.8862094139268937</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -9943,99 +9943,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>4.1555650270573832</v>
+        <v>10.388912567643457</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>3.6541969956095568</v>
+        <v>9.1354924890238927</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>3.0075078491933827</v>
+        <v>7.5187696229834557</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>2.6036537165611593</v>
+        <v>6.5091342914028987</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>2.427370520216459</v>
+        <v>6.0684263005411481</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>1.9438015111292628</v>
+        <v>4.8595037778231571</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>1.8924915254237287</v>
+        <v>4.7312288135593219</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>1.7157819072901774</v>
+        <v>4.2894547682254442</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>1.7684448642025727</v>
+        <v>4.4211121605064321</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>1.8703326015928123</v>
+        <v>4.6758315039820308</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>1.8720605345109249</v>
+        <v>4.6801513362773122</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>2.1943172095160302</v>
+        <v>5.4857930237900749</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>2.1952724372064529</v>
+        <v>5.4881810930161317</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>2.2257335868899326</v>
+        <v>5.5643339672248313</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>2.5063188559322036</v>
+        <v>6.265797139830509</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>2.0689910149070863</v>
+        <v>5.1724775372677154</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>2.1432848938125377</v>
+        <v>5.3582122345313445</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>2.2694778691035329</v>
+        <v>5.673694672758832</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>1.9797782698590971</v>
+        <v>4.9494456746477429</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>2.0506117265672863</v>
+        <v>5.1265293164182157</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>1.9216206095568715</v>
+        <v>4.8040515238921788</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>1.7438276495813763</v>
+        <v>4.3595691239534409</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>1.7873017663875843</v>
+        <v>4.4682544159689606</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>1.9544837655707576</v>
+        <v>4.8862094139268937</v>
       </c>
     </row>
   </sheetData>
@@ -10570,99 +10570,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>3.7916920688500095</v>
+        <v>9.4792301721250229</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>3.5240588136772399</v>
+        <v>8.8101470341931005</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>3.8194648921641887</v>
+        <v>9.5486622304104714</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>4.2588399340359189</v>
+        <v>10.647099835089797</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>3.6428650055399512</v>
+        <v>9.1071625138498788</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>3.0904733953464398</v>
+        <v>7.7261834883660994</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>2.2244340230358937</v>
+        <v>5.5610850575897333</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>1.9801437810817077</v>
+        <v>4.9503594527042694</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>2.0202661238372541</v>
+        <v>5.0506653095931346</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>1.9748771419000746</v>
+        <v>4.9371928547501858</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>1.9977878069519956</v>
+        <v>4.9944695173799891</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>2.1013257234146718</v>
+        <v>5.2533143085366794</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>1.9221398644644283</v>
+        <v>4.8053496611610704</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>1.8522690999510418</v>
+        <v>4.630672749877605</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>2.5379757272797545</v>
+        <v>6.3449393181993861</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>3.3063352572856806</v>
+        <v>8.2658381432142018</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>3.375670591873019</v>
+        <v>8.4391764796825477</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>3.4366441289391636</v>
+        <v>8.5916103223479077</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>3.5314111675126907</v>
+        <v>8.8285279187817274</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>3.7253950758844594</v>
+        <v>9.3134876897111489</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>3.6743100827127724</v>
+        <v>9.1857752067819316</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>3.5957915431987422</v>
+        <v>8.9894788579968559</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>3.4430273519029093</v>
+        <v>8.6075683797572733</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>3.1755658996624496</v>
+        <v>7.9389147491561243</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -10671,99 +10671,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>3.7916920688500095</v>
+        <v>9.4792301721250229</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>3.5240588136772399</v>
+        <v>8.8101470341931005</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>3.8194648921641887</v>
+        <v>9.5486622304104714</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>4.2588399340359189</v>
+        <v>10.647099835089797</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>3.6428650055399512</v>
+        <v>9.1071625138498788</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>3.0904733953464398</v>
+        <v>7.7261834883660994</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>2.2244340230358937</v>
+        <v>5.5610850575897333</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>1.9801437810817077</v>
+        <v>4.9503594527042694</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>2.0202661238372541</v>
+        <v>5.0506653095931346</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>1.9748771419000746</v>
+        <v>4.9371928547501858</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>1.9977878069519956</v>
+        <v>4.9944695173799891</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>2.1013257234146718</v>
+        <v>5.2533143085366794</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>1.9221398644644283</v>
+        <v>4.8053496611610704</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>1.8522690999510418</v>
+        <v>4.630672749877605</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>2.5379757272797545</v>
+        <v>6.3449393181993861</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>3.3063352572856806</v>
+        <v>8.2658381432142018</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>3.375670591873019</v>
+        <v>8.4391764796825477</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>3.4366441289391636</v>
+        <v>8.5916103223479077</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>3.5314111675126907</v>
+        <v>8.8285279187817274</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>3.7253950758844594</v>
+        <v>9.3134876897111489</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>3.6743100827127724</v>
+        <v>9.1857752067819316</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>3.5957915431987422</v>
+        <v>8.9894788579968559</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>3.4430273519029093</v>
+        <v>8.6075683797572733</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>3.1755658996624496</v>
+        <v>7.9389147491561243</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -10772,99 +10772,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>3.7916920688500095</v>
+        <v>9.4792301721250229</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>3.5240588136772399</v>
+        <v>8.8101470341931005</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>3.8194648921641887</v>
+        <v>9.5486622304104714</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>4.2588399340359189</v>
+        <v>10.647099835089797</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>3.6428650055399512</v>
+        <v>9.1071625138498788</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>3.0904733953464398</v>
+        <v>7.7261834883660994</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>2.2244340230358937</v>
+        <v>5.5610850575897333</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>1.9801437810817077</v>
+        <v>4.9503594527042694</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>2.0202661238372541</v>
+        <v>5.0506653095931346</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>1.9748771419000746</v>
+        <v>4.9371928547501858</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>1.9977878069519956</v>
+        <v>4.9944695173799891</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>2.1013257234146718</v>
+        <v>5.2533143085366794</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>1.9221398644644283</v>
+        <v>4.8053496611610704</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>1.8522690999510418</v>
+        <v>4.630672749877605</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>2.5379757272797545</v>
+        <v>6.3449393181993861</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>3.3063352572856806</v>
+        <v>8.2658381432142018</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>3.375670591873019</v>
+        <v>8.4391764796825477</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>3.4366441289391636</v>
+        <v>8.5916103223479077</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>3.5314111675126907</v>
+        <v>8.8285279187817274</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>3.7253950758844594</v>
+        <v>9.3134876897111489</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>3.6743100827127724</v>
+        <v>9.1857752067819316</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>3.5957915431987422</v>
+        <v>8.9894788579968559</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>3.4430273519029093</v>
+        <v>8.6075683797572733</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>3.1755658996624496</v>
+        <v>7.9389147491561243</v>
       </c>
     </row>
   </sheetData>
@@ -13004,8 +13004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13054,7 +13054,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -13065,7 +13065,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -13076,7 +13076,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="4">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -13884,99 +13884,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>73.230833112774206</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>61.482845443226395</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>54.228383828063592</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>52.976116196399751</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>59.982608771258995</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>52.782026900545567</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>66.733625400505176</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>63.687385559047058</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>79.412349018932005</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>84.521430937314292</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>78.430999060020355</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>90.205940005533691</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>80.609479943008182</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>96.075932316706073</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>86.575199999999995</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>79.869806641579245</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>85.510554719710569</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>86.145824653096085</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>77.722499885415871</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>84.053066311769982</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>81.113601880396018</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>89.774463131433379</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>88.542199670881615</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>85.098544854237431</v>
       </c>
     </row>
@@ -13985,99 +13985,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>80.424676035947854</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>65.508076057517584</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>68.639932333166499</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>67.022677761126616</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>63.935441357795909</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>63.050550266395611</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>78.764734258996427</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>90.328254119753311</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>87.799205035992415</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>98.402143261591959</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>101.03586190218945</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>98.041766829593229</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>108.60774603174603</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>105.15894461558973</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>97.395913919288617</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>87.167844757879678</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>94.599204555049909</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>94.350576406235348</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>99.794867677276585</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>93.329109038294192</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>85.603159357475548</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>100.30638892020609</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>89.125438265481051</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>80.746377091955026</v>
       </c>
     </row>
@@ -14086,99 +14086,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>87.920782972633518</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>74.474234798916555</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>74.926953193010235</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>77.757608410732288</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>74.360302770693039</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>84.318556762798309</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>88.777089205969773</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>115.3587429743874</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>114.32181300752231</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>112.1419573698272</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>123.55329300127362</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>124.22682539682539</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>128.25968253968253</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>137.64968253968254</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>123.78320974920109</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>122.86091476114177</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>111.81292874741798</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>108.4789458117562</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>96.26787369106728</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>98.069627063660079</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>101.5698761701683</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>113.73309481842348</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>99.871851842644588</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>95.190713664896819</v>
       </c>
     </row>
@@ -15033,99 +15033,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>64.185874731316957</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>55.226754598388069</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>56.379585535185292</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>51.413885798572949</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>58.878535134799641</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>53.793287404941097</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>57.245432943288172</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>62.310787736334852</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>85.615670510612958</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>86.185884732395479</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>93.031618350667799</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>79.736507882836293</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>81.499063370946374</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>82.622890681592679</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>85.67519999999999</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>91.994796674349686</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>85.510554719710569</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>76.153166290546977</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>89.441941172326977</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>92.492920051775627</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>91.158173544016947</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>91.50857143079547</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>83.459455152426386</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>75.256215651438467</v>
       </c>
     </row>
@@ -15134,99 +15134,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>80.424676035947854</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>62.857760088842404</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>64.733899577872307</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>63.126623216681239</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>71.728164777427281</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>60.475947982831421</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>69.731317035602757</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>77.953400451023597</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>89.679713626969544</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>89.679824979441619</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>91.442472182101852</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>95.082363601952835</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>104.60774603174603</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>99.269933374994807</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>102.11166133363284</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>82.641898041299555</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>96.441168416540151</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>92.490414401920162</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>93.256665723745741</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>97.921940933164962</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>99.42305335209501</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>106.06330329930222</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>90.019795099178538</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>89.764748240614153</v>
       </c>
     </row>
@@ -15235,99 +15235,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>93.743873541693929</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>82.048661821158831</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>72.045479374726028</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>70.810376056665916</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>71.581409829066487</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>82.828759049650742</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>90.643761607617819</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>105.02194182097826</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>131.1037410062917</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>127.39903390882277</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>114.16878209082131</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>132.9768253968254</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>113.25968253968254</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>128.89968253968254</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>116.65952762788839</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>111.62088297108895</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>98.20105563508865</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>112.66721446170369</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>114.06801545334412</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>109.58736585101566</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>107.85227914508954</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>108.49775900598911</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>99.871851842644588</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>98.968658329199542</v>
       </c>
     </row>
@@ -16182,99 +16182,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>70.000490833682321</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>60.914109911877453</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>56.917385961965714</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>51.934629264515216</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>57.774461498340287</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>49.748245387358985</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>57.245432943288172</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>73.32357031803248</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>73.984442713711175</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>75.366935064367766</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>87.878458601027518</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>91.078392682425147</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>90.394897650328232</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>97.86967120138786</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>82.075199999999995</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>84.200160224711539</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>94.175596746503203</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>86.978546183308524</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>91.116147070457146</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>85.741037059771116</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>87.809982989476637</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>84.57213823334709</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>79.223834720380381</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>76.01331789780761</v>
       </c>
     </row>
@@ -16283,99 +16283,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>70.944100762895843</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>75.446760940049529</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>68.639932333166499</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>70.269389881497773</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>67.182409449308977</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>64.981501979068767</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>71.815951779462836</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>81.253361429351514</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>98.142002286366662</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>94.525557358414019</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>88.564455266075598</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>89.163557146672048</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>100.60774603174603</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>104.17744274215725</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>87.021269607731355</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>82.641898041299555</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>87.231349109088939</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>90.630252397604977</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>88.586521471223705</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>91.491976280345895</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>97.580400819479081</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>92.63050308141122</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>86.442367764388607</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>80.746377091955026</v>
       </c>
     </row>
@@ -16384,99 +16384,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>80.433952240984425</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>87.350760736728418</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>70.604742465583925</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>74.283992233699095</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>70.88668659365986</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>82.828759049650742</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>86.910416804321699</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>109.61607566693786</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>114.32181300752231</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>121.53092754767063</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>114.16878209082131</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>114.22682539682539</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>124.50968253968254</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>136.39968253968254</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>116.65952762788839</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>112.74488615009423</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>102.38932428503612</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>113.71428162419056</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>111.97388112837037</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>104.3520300385813</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>104.71107765762892</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>106.40362468101536</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>103.90959434667013</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>88.579310502367036</v>
       </c>
     </row>
@@ -17331,99 +17331,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
         <v>12.182754843706737</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
         <v>8.8430693158079379</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
         <v>9.1250334545802332</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
         <v>8.4574988272075</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
         <v>10.297962041116664</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
         <v>3.9973529904946137</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
         <v>7.884157942891532</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
         <v>15.878722799173934</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
         <v>19.072316498849123</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
         <v>27.699487061444909</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
         <v>25.565965184318362</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
         <v>31.34331769565814</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
         <v>27.690495574144865</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
         <v>30.6</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
         <v>30.680672424402239</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
         <v>29.083446907804298</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
         <v>27.403504362786581</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
         <v>26.506101775464025</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
         <v>22.510667585178503</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
         <v>22.565753943520477</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
         <v>22.208753453352283</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
         <v>25.628670071555877</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
         <v>20.065824386285286</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
         <v>17.224712114476301</v>
       </c>
     </row>
@@ -17432,99 +17432,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
         <v>-22.943485916808623</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
         <v>-34.27201792066495</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
         <v>-36.725089474183555</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
         <v>-32.875214517869153</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
         <v>-37.290494691694349</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
         <v>-32.200000000000003</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
         <v>-32.760892778889442</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
         <v>-5.0968588853531003</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
         <v>13.633784980259477</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
         <v>21.612420020535172</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
         <v>18.202815357195067</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
         <v>24.939411271822067</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
         <v>19.467724787320236</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
         <v>20.476061165802882</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
         <v>10.455979658368168</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
         <v>2.6984690239353726</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
         <v>5.6967418989299707</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
         <v>8.1844397123285244</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
         <v>4.6170374606456566</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
         <v>-0.77767144276712052</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
         <v>-3.0032602590480484</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
         <v>-2.2938482956031558</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
         <v>-11.436377596448239</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
         <v>-14.7429221299848</v>
       </c>
     </row>
@@ -17533,99 +17533,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
         <v>-34.04237153524452</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
         <v>-34.420620107858348</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
         <v>-47.425422921146712</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
         <v>-45.5</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
         <v>-46</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
         <v>-48.5</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
         <v>-19.538041031592279</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
         <v>4.3804965299475933</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
         <v>13.385902192807253</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
         <v>14.042073868925256</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
         <v>12.119548998777459</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
         <v>15.351323602826358</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
         <v>21.034419399748192</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
         <v>25.686871351608826</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
         <v>11.895373640420202</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
         <v>11.345139864391012</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
         <v>-1.7075437847017314</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
         <v>-1.5066562806191748</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
         <v>-1.5903594073202401</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
         <v>-1.7410250353821577</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
         <v>-10.771611827688222</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
         <v>-14.481644488605562</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
         <v>-35.907483434937099</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
         <v>-38.199450462699041</v>
       </c>
     </row>
@@ -18480,99 +18480,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
         <v>12.56747341771853</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
         <v>10.120401550313529</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
         <v>9.2181460408514599</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
         <v>7.6442777861298561</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
         <v>10.017108530904391</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
         <v>4.3883983917386518</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
         <v>8.1115855758595572</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
         <v>16.024399155129657</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
         <v>21.615292032029004</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
         <v>27.195860023964094</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
         <v>28.589896550205481</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
         <v>25.929471911862642</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
         <v>30.96571548076415</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
         <v>29.7</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
         <v>28.893448788029289</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
         <v>28.219582148166545</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
         <v>26.85543427553085</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
         <v>22.372122599474224</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
         <v>26.141420421497617</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
         <v>23.026279534204569</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
         <v>22.831428783820105</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
         <v>26.375136190144886</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
         <v>22.072406824913813</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
         <v>18.121832537105277</v>
       </c>
     </row>
@@ -18581,99 +18581,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
         <v>-25.62836192835006</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
         <v>-33.637350922134118</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
         <v>-33.227461905213694</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
         <v>-32.55603767788984</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
         <v>-36.606265431296286</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
         <v>-37.450000000000003</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
         <v>-30.334159980453187</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
         <v>-4.9552794718710693</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
         <v>16.360541976311374</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
         <v>21.832954918703898</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
         <v>15.775773309569058</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
         <v>21.244683675996573</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
         <v>22.541576069528698</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
         <v>22.586995306607303</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
         <v>11.327311296565515</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
         <v>2.5883274311216837</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
         <v>6.615571237467063</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
         <v>7.5892077332500856</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
         <v>4.1687813965053016</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
         <v>-0.86965408653527465</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
         <v>-3.2970574583027488</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
         <v>-2.2711369263397581</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
         <v>-10.347198777738882</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
         <v>-13.858346802185711</v>
       </c>
     </row>
@@ -18682,99 +18682,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
         <v>-40.472597269679596</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
         <v>-40.850845842293424</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
         <v>-40.838558626542998</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
         <v>-55.000000000000007</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
         <v>-45.5</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
         <v>-53.5</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
         <v>-18.142466672192832</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
         <v>3.8845912624063557</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
         <v>11.811090170124046</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
         <v>13.779605198478054</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
         <v>13.199508810549709</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
         <v>15.857411194128325</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
         <v>24.692579295356573</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
         <v>23.094618279428119</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
         <v>14.538790004958024</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
         <v>11.138864594129357</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
         <v>-1.8414687874234361</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
         <v>-1.7912469114027969</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
         <v>-1.5401375312996011</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
         <v>-1.7912469114027969</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
         <v>-11.731458426195095</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
         <v>-13.115451612322017</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
         <v>-40.491417490460982</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
         <v>-38.963439471953023</v>
       </c>
     </row>
@@ -19629,99 +19629,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
         <v>13.080431516400919</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
         <v>10.808195830431925</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
         <v>10.056159317292503</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
         <v>7.7255998902376204</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
         <v>8.519223143105604</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
         <v>4.3449489027115362</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
         <v>7.9599671538808732</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
         <v>15.004664663439588</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
         <v>22.462950543088965</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
         <v>25.684978911521643</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
         <v>28.314993698761196</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
         <v>28.208985926092325</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
         <v>32.752199066192851</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
         <v>31.8</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
         <v>29.489190000153606</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
         <v>31.099131346959052</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
         <v>29.321749668181642</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
         <v>24.317524564645893</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
         <v>22.994767963354381</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
         <v>24.1775935109148</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
         <v>22.831428783820105</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
         <v>22.891627636729524</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
         <v>20.957638803453516</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
         <v>18.480680706156868</v>
       </c>
     </row>
@@ -19730,99 +19730,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
         <v>-24.896123016111485</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
         <v>-31.416016427276205</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
         <v>-37.774377744874521</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
         <v>-31.917683997931213</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
         <v>-37.290494691694349</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
         <v>-38.5</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
         <v>-30.63750158025772</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
         <v>-4.908086334043726</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
         <v>14.542703978943441</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
         <v>23.597234104053708</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
         <v>17.509374772159063</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
         <v>24.015729372865692</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
         <v>19.057877949692443</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
         <v>20.053874337641997</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
         <v>10.455979658368168</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
         <v>2.9187522095627498</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
         <v>6.3705500805238389</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
         <v>7.7380157280196951</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
         <v>4.6618630670596923</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
         <v>-0.87801614505965231</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
         <v>-3.2317691918017037</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
         <v>-2.452827880446939</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
         <v>-10.782870305222625</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
         <v>-14.300634466085256</v>
       </c>
     </row>
@@ -19831,99 +19831,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
         <v>-34.420620107858348</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
         <v>-38.959602979224279</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
         <v>-43.034180058077567</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
         <v>-45</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
         <v>-47.5</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
         <v>-48</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
         <v>-19.73740879722077</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
         <v>3.8432658234445864</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
         <v>12.99219918713645</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
         <v>11.811090170124046</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
         <v>12.359540068060181</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
         <v>16.700890512964939</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
         <v>22.17759436712581</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
         <v>23.094618279428119</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
         <v>12.027544458647093</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
         <v>10.932589323867703</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
         <v>-1.7912469114027969</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
         <v>-1.556878156639814</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
         <v>-1.7745062860625838</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
         <v>-1.6238406580006661</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
         <v>-10.238363717406626</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
         <v>-14.071786625720499</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
         <v>-40.491417490460982</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
         <v>-37.817455958072053</v>
       </c>
     </row>
@@ -22884,99 +22884,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>2.3576128806112169</v>
+        <v>5.8940322015280415</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>2.1221859957461104</v>
+        <v>5.3054649893652757</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>2.186927981361245</v>
+        <v>5.4673199534031127</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>2.1475774006492783</v>
+        <v>5.3689435016231952</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>1.8417961491100412</v>
+        <v>4.6044903727751025</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>1.7435815963282217</v>
+        <v>4.3589539908205541</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>1.9220632598231275</v>
+        <v>4.8051581495578191</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>1.7484719422366504</v>
+        <v>4.3711798555916257</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>1.4373562134781153</v>
+        <v>3.5933905336952883</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>1.0390031747453261</v>
+        <v>2.5975079368633152</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>1.0663026105451694</v>
+        <v>2.6657565263629239</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>0.66104511362364271</v>
+        <v>1.6526127840591067</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.5418856173737826</v>
+        <v>1.3547140434344564</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.57649031680286567</v>
+        <v>1.4412257920071641</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>0.7697873944923318</v>
+        <v>1.9244684862308294</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>0.97372385312884779</v>
+        <v>2.4343096328221194</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>1.1491584126273369</v>
+        <v>2.8728960315683425</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>1.5782609593641554</v>
+        <v>3.9456523984103891</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>1.4355531355647597</v>
+        <v>3.5888828389118994</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>1.2749360237322287</v>
+        <v>3.1873400593305719</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>1.8954882570245162</v>
+        <v>4.7387206425612902</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>2.0403647016679729</v>
+        <v>5.1009117541699318</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>1.982626009179447</v>
+        <v>4.9565650229486176</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>2.8943182178439497</v>
+        <v>7.2357955446098741</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -22985,99 +22985,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>2.3576128806112169</v>
+        <v>5.8940322015280415</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>2.1221859957461104</v>
+        <v>5.3054649893652757</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>2.186927981361245</v>
+        <v>5.4673199534031127</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>2.1475774006492783</v>
+        <v>5.3689435016231952</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>1.8417961491100412</v>
+        <v>4.6044903727751025</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>1.7435815963282217</v>
+        <v>4.3589539908205541</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>1.9220632598231275</v>
+        <v>4.8051581495578191</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>1.7484719422366504</v>
+        <v>4.3711798555916257</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>1.4373562134781153</v>
+        <v>3.5933905336952883</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>1.0390031747453261</v>
+        <v>2.5975079368633152</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>1.0663026105451694</v>
+        <v>2.6657565263629239</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>0.66104511362364271</v>
+        <v>1.6526127840591067</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.5418856173737826</v>
+        <v>1.3547140434344564</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.57649031680286567</v>
+        <v>1.4412257920071641</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>0.7697873944923318</v>
+        <v>1.9244684862308294</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>0.97372385312884779</v>
+        <v>2.4343096328221194</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>1.1491584126273369</v>
+        <v>2.8728960315683425</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>1.5782609593641554</v>
+        <v>3.9456523984103891</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>1.4355531355647597</v>
+        <v>3.5888828389118994</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>1.2749360237322287</v>
+        <v>3.1873400593305719</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>1.8954882570245162</v>
+        <v>4.7387206425612902</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>2.0403647016679729</v>
+        <v>5.1009117541699318</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>1.982626009179447</v>
+        <v>4.9565650229486176</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>2.8943182178439497</v>
+        <v>7.2357955446098741</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -23086,99 +23086,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>2.3576128806112169</v>
+        <v>5.8940322015280415</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>2.1221859957461104</v>
+        <v>5.3054649893652757</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>2.186927981361245</v>
+        <v>5.4673199534031127</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>2.1475774006492783</v>
+        <v>5.3689435016231952</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>1.8417961491100412</v>
+        <v>4.6044903727751025</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>1.7435815963282217</v>
+        <v>4.3589539908205541</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>1.9220632598231275</v>
+        <v>4.8051581495578191</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>1.7484719422366504</v>
+        <v>4.3711798555916257</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>1.4373562134781153</v>
+        <v>3.5933905336952883</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>1.0390031747453261</v>
+        <v>2.5975079368633152</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>1.0663026105451694</v>
+        <v>2.6657565263629239</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>0.66104511362364271</v>
+        <v>1.6526127840591067</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.5418856173737826</v>
+        <v>1.3547140434344564</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.57649031680286567</v>
+        <v>1.4412257920071641</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>0.7697873944923318</v>
+        <v>1.9244684862308294</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>0.97372385312884779</v>
+        <v>2.4343096328221194</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>1.1491584126273369</v>
+        <v>2.8728960315683425</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>1.5782609593641554</v>
+        <v>3.9456523984103891</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>1.4355531355647597</v>
+        <v>3.5888828389118994</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>1.2749360237322287</v>
+        <v>3.1873400593305719</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>1.8954882570245162</v>
+        <v>4.7387206425612902</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>2.0403647016679729</v>
+        <v>5.1009117541699318</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>1.982626009179447</v>
+        <v>4.9565650229486176</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>2.8943182178439497</v>
+        <v>7.2357955446098741</v>
       </c>
     </row>
   </sheetData>
@@ -23808,99 +23808,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>3.1166737702930374</v>
+        <v>7.7916844257325932</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>2.5579378969266897</v>
+        <v>6.3948447423167245</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>2.3157810438789044</v>
+        <v>5.7894526096972614</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>2.0308498989177046</v>
+        <v>5.0771247472942616</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>1.8205278901623443</v>
+        <v>4.551319725405861</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>1.5550412089034102</v>
+        <v>3.8876030222585256</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>1.4572184745762711</v>
+        <v>3.6430461864406776</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>1.3554677067592402</v>
+        <v>3.3886692668981007</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>1.2732803022258521</v>
+        <v>3.1832007555646307</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>1.4214527772105374</v>
+        <v>3.5536319430263434</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>1.3291629795027566</v>
+        <v>3.3229074487568915</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>1.5360220466612211</v>
+        <v>3.8400551166530525</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>1.6903597766489686</v>
+        <v>4.2258994416224223</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>1.6247855184296507</v>
+        <v>4.0619637960741271</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>1.8546759533898309</v>
+        <v>4.6366898834745767</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>1.6345029017765982</v>
+        <v>4.0862572544414952</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>1.5431651235450272</v>
+        <v>3.8579128088625678</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>1.5886345083724729</v>
+        <v>3.9715862709311818</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>1.5244292677915046</v>
+        <v>3.8110731694787616</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>1.5994771467224833</v>
+        <v>3.9986928668062083</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>1.4988640754543598</v>
+        <v>3.7471601886358998</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>1.2729941841944048</v>
+        <v>3.1824854604860118</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>1.4298414131100672</v>
+        <v>3.5746035327751682</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>1.3681386358995302</v>
+        <v>3.4203465897488257</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -23909,99 +23909,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>3.1166737702930374</v>
+        <v>7.7916844257325932</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>2.5579378969266897</v>
+        <v>6.3948447423167245</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>2.3157810438789044</v>
+        <v>5.7894526096972614</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>2.0308498989177046</v>
+        <v>5.0771247472942616</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>1.8205278901623443</v>
+        <v>4.551319725405861</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>1.5550412089034102</v>
+        <v>3.8876030222585256</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>1.4572184745762711</v>
+        <v>3.6430461864406776</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>1.3554677067592402</v>
+        <v>3.3886692668981007</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>1.2732803022258521</v>
+        <v>3.1832007555646307</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>1.4214527772105374</v>
+        <v>3.5536319430263434</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>1.3291629795027566</v>
+        <v>3.3229074487568915</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>1.5360220466612211</v>
+        <v>3.8400551166530525</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>1.6903597766489686</v>
+        <v>4.2258994416224223</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>1.6247855184296507</v>
+        <v>4.0619637960741271</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>1.8546759533898309</v>
+        <v>4.6366898834745767</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>1.6345029017765982</v>
+        <v>4.0862572544414952</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>1.5431651235450272</v>
+        <v>3.8579128088625678</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>1.5886345083724729</v>
+        <v>3.9715862709311818</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>1.5244292677915046</v>
+        <v>3.8110731694787616</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>1.5994771467224833</v>
+        <v>3.9986928668062083</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>1.4988640754543598</v>
+        <v>3.7471601886358998</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>1.2729941841944048</v>
+        <v>3.1824854604860118</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>1.4298414131100672</v>
+        <v>3.5746035327751682</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>1.3681386358995302</v>
+        <v>3.4203465897488257</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -24010,99 +24010,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>3.1166737702930374</v>
+        <v>7.7916844257325932</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>2.5579378969266897</v>
+        <v>6.3948447423167245</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>2.3157810438789044</v>
+        <v>5.7894526096972614</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>2.0308498989177046</v>
+        <v>5.0771247472942616</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>1.8205278901623443</v>
+        <v>4.551319725405861</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>1.5550412089034102</v>
+        <v>3.8876030222585256</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>1.4572184745762711</v>
+        <v>3.6430461864406776</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>1.3554677067592402</v>
+        <v>3.3886692668981007</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>1.2732803022258521</v>
+        <v>3.1832007555646307</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>1.4214527772105374</v>
+        <v>3.5536319430263434</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>1.3291629795027566</v>
+        <v>3.3229074487568915</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>1.5360220466612211</v>
+        <v>3.8400551166530525</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>1.6903597766489686</v>
+        <v>4.2258994416224223</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>1.6247855184296507</v>
+        <v>4.0619637960741271</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>1.8546759533898309</v>
+        <v>4.6366898834745767</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>1.6345029017765982</v>
+        <v>4.0862572544414952</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>1.5431651235450272</v>
+        <v>3.8579128088625678</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>1.5886345083724729</v>
+        <v>3.9715862709311818</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>1.5244292677915046</v>
+        <v>3.8110731694787616</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>1.5994771467224833</v>
+        <v>3.9986928668062083</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>1.4988640754543598</v>
+        <v>3.7471601886358998</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>1.2729941841944048</v>
+        <v>3.1824854604860118</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>1.4298414131100672</v>
+        <v>3.5746035327751682</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>1.3681386358995302</v>
+        <v>3.4203465897488257</v>
       </c>
     </row>
   </sheetData>
@@ -24637,99 +24637,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>2.6921013688835069</v>
+        <v>6.7302534222087669</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>2.5020817577108403</v>
+        <v>6.2552043942771007</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>3.017377264809709</v>
+        <v>7.543443162024273</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>3.0663647525058613</v>
+        <v>7.6659118812646536</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>2.7321487541549638</v>
+        <v>6.8303718853874091</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>2.4105692483702228</v>
+        <v>6.0264231209255579</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>1.7573028781983555</v>
+        <v>4.393257195495889</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>1.5049092736220979</v>
+        <v>3.7622731840552452</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>1.5556049153546856</v>
+        <v>3.8890122883867138</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>1.461409085006055</v>
+        <v>3.6535227125151377</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>1.5982302455615964</v>
+        <v>3.9955756139039913</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>1.6600473214975908</v>
+        <v>4.1501183037439766</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>1.364719303769744</v>
+        <v>3.4117982594243603</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>1.4447698979618129</v>
+        <v>3.611924744904532</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>1.8527222809142208</v>
+        <v>4.6318057022855523</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>2.4136247378185471</v>
+        <v>6.0340618445463674</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>2.3629694143111131</v>
+        <v>5.9074235357777836</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>2.5431166554149809</v>
+        <v>6.357791638537452</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>2.4719878172588836</v>
+        <v>6.1799695431472088</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>2.7940463069133443</v>
+        <v>6.9851157672833617</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>2.8292187636888348</v>
+        <v>7.0730469092220876</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>2.7328015728310442</v>
+        <v>6.83200393207761</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>2.5134099668891237</v>
+        <v>6.2835249172228096</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>2.4451857427400863</v>
+        <v>6.112964356850215</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -24738,99 +24738,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>2.6921013688835069</v>
+        <v>6.7302534222087669</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>2.5020817577108403</v>
+        <v>6.2552043942771007</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>3.017377264809709</v>
+        <v>7.543443162024273</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>3.0663647525058613</v>
+        <v>7.6659118812646536</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>2.7321487541549638</v>
+        <v>6.8303718853874091</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>2.4105692483702228</v>
+        <v>6.0264231209255579</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>1.7573028781983555</v>
+        <v>4.393257195495889</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>1.5049092736220979</v>
+        <v>3.7622731840552452</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>1.5556049153546856</v>
+        <v>3.8890122883867138</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>1.461409085006055</v>
+        <v>3.6535227125151377</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>1.5982302455615964</v>
+        <v>3.9955756139039913</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>1.6600473214975908</v>
+        <v>4.1501183037439766</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>1.364719303769744</v>
+        <v>3.4117982594243603</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>1.4447698979618129</v>
+        <v>3.611924744904532</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>1.8527222809142208</v>
+        <v>4.6318057022855523</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>2.4136247378185471</v>
+        <v>6.0340618445463674</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>2.3629694143111131</v>
+        <v>5.9074235357777836</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>2.5431166554149809</v>
+        <v>6.357791638537452</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>2.4719878172588836</v>
+        <v>6.1799695431472088</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>2.7940463069133443</v>
+        <v>6.9851157672833617</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>2.8292187636888348</v>
+        <v>7.0730469092220876</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>2.7328015728310442</v>
+        <v>6.83200393207761</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>2.5134099668891237</v>
+        <v>6.2835249172228096</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>2.4451857427400863</v>
+        <v>6.112964356850215</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -24839,99 +24839,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>2.6921013688835069</v>
+        <v>6.7302534222087669</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>2.5020817577108403</v>
+        <v>6.2552043942771007</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>3.017377264809709</v>
+        <v>7.543443162024273</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>3.0663647525058613</v>
+        <v>7.6659118812646536</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>2.7321487541549638</v>
+        <v>6.8303718853874091</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>2.4105692483702228</v>
+        <v>6.0264231209255579</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>1.7573028781983555</v>
+        <v>4.393257195495889</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>1.5049092736220979</v>
+        <v>3.7622731840552452</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>1.5556049153546856</v>
+        <v>3.8890122883867138</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>1.461409085006055</v>
+        <v>3.6535227125151377</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>1.5982302455615964</v>
+        <v>3.9955756139039913</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>1.6600473214975908</v>
+        <v>4.1501183037439766</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>1.364719303769744</v>
+        <v>3.4117982594243603</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>1.4447698979618129</v>
+        <v>3.611924744904532</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>1.8527222809142208</v>
+        <v>4.6318057022855523</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>2.4136247378185471</v>
+        <v>6.0340618445463674</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>2.3629694143111131</v>
+        <v>5.9074235357777836</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>2.5431166554149809</v>
+        <v>6.357791638537452</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>2.4719878172588836</v>
+        <v>6.1799695431472088</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>2.7940463069133443</v>
+        <v>6.9851157672833617</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>2.8292187636888348</v>
+        <v>7.0730469092220876</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>2.7328015728310442</v>
+        <v>6.83200393207761</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>2.5134099668891237</v>
+        <v>6.2835249172228096</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>2.4451857427400863</v>
+        <v>6.112964356850215</v>
       </c>
     </row>
   </sheetData>
@@ -27071,7 +27071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6451C0BC-1134-43AA-AB38-9EE91B1398E3}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
@@ -28319,99 +28319,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>61.489809651979002</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>59.227647324700037</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>49.734628946481976</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>55.346411283421318</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>51.784946113559528</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>54.349540868895005</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>67.594897497084361</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>80.984597096496316</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>73.907072861061778</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>80.604322672703304</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>86.86393033781809</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>73.903963977726249</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>88.961890551787619</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>73.429859136012524</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>75.764797342499421</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>74.394590107284614</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>84.298994665868662</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>88.077869861729155</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>83.914860675485514</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>97.698514285714282</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>94.193361422135382</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>87.96644966061568</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>73.562907611086629</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>65.70953845003487</v>
       </c>
     </row>
@@ -28420,99 +28420,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>72.495687748215971</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>67.934283853086256</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>63.076782510225911</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>60.824727801719838</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>56.508534256229552</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>59.067837299714846</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>75.728762815954227</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>82.509194558388685</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>105.29152602222304</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>99.876635494507141</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>86.453037325926886</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>105.25373276869693</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>100.58713594948418</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>99.466526062258822</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>99.287210010723555</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>86.062595890552643</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>83.652680151960993</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>94.342476190476191</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>100.42531110538013</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>90.322580021984407</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>93.860859987682048</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>88.603176809763895</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>75.497873467355078</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>67.776694197512626</v>
       </c>
     </row>
@@ -28521,99 +28521,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>72.574778528530757</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>71.135834238390316</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>64.336210428151745</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>62.332900547038612</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>65.975732485799256</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>72.227530572358802</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>110.81911999659373</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>106.35577547715147</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>127.37317379497047</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>111.92037781855554</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>124.91265195857927</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>122.97682539682539</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>123.36074401186139</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>112.85977159173221</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>102.07963987939708</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>107.45589820233586</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>104.87773622686706</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>102.30400758343684</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>96.314573600348695</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>109.28469500725195</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>115.08065223849596</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>91.401148232730876</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>90.114747855686815</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>77.849600129055617</v>
       </c>
     </row>
@@ -29466,99 +29466,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>57.340687757394633</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>58.184599887470135</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>56.117505187746652</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>49.039334708334366</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>53.308401315286567</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>62.025648912275535</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>65.610061642194367</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>77.28639932667015</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>84.0840084695065</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>81.413795484693097</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>82.77953470193718</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>73.095605189901946</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>74.493994695261335</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>76.578645558075181</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>71.954103600535163</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>70.652895276738022</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>72.673181914656737</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>94.220167730740314</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>86.59891977561638</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>91.398514285714285</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>88.953940888450887</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>84.633171034088818</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>72.043176446109115</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>65.037888040991959</v>
       </c>
     </row>
@@ -29567,99 +29567,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>67.404005991247729</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>59.623083276644991</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>55.201664549386386</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>59.707671070490179</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>64.422251057485255</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>66.524023117276002</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>71.280239432207125</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>91.43363772122251</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>105.29152602222304</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>105.77910794726901</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>90.281826991911629</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>93.708161489661705</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>105.39383738783698</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>96.629599715224799</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>91.261456464391614</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>83.463991643174211</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>88.163203659184532</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>105.34247619047619</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>90.461560947223077</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>93.249819432639171</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>101.53258923556157</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>85.906749142603971</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>77.856745985759247</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>69.916790343218153</v>
       </c>
     </row>
@@ -29668,99 +29668,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>76.114617382480546</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>69.162193922321876</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>66.122261435142207</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>66.815234767405073</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>64.061431789981384</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>62.91448416800197</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>101.90920576358532</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>105.25316736619568</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>124.9554837121033</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>133.69107285758972</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>123.77016512686374</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>134.2268253968254</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>129.25502581340842</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>119.48116302056684</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>97.799371515734791</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>108.4557786435978</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>102.87669917488519</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>101.24478745348587</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>101.61067425010351</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>118.96123784382463</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>114.03451257182562</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>102.74506160309208</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>82.119452799755152</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>82.491727914899371</v>
       </c>
     </row>
@@ -30613,99 +30613,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>59.711614554299985</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>55.576981294395402</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>49.734628946481976</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>53.890932073785862</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>49.753672511256802</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>61.477355480605496</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>70.902957255234369</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>71.369282894948256</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>86.432532071455284</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>83.032741108672681</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>80.328897320408643</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>75.520681553374871</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>87.354346567729138</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>85.237808218747489</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>80.337629832856535</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>81.129640802268483</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>85.849103032696917</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>84.567985365151344</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>82.125487942064936</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>93.198514285714282</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>89.82717764406496</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>81.299892407561956</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>70.523445281131586</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>67.052839268120721</v>
       </c>
     </row>
@@ -30714,99 +30714,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>66.7675457716267</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>67.340626669054743</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>55.764172975160633</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>54.680915779956734</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>64.422251057485255</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>62.174581390365319</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>71.280239432207125</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>95.003414986356049</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>106.26315537839589</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>102.82787172088808</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>96.982208907384958</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>92.746030549742102</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>100.58713594948418</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>88.11882067412273</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>86.802704494207205</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>96.457012880066401</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>94.477936569297512</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>95.342476190476191</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>102.41806113701155</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>101.05579119438524</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>102.49155539154651</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>94.894841366470402</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>75.497873467355078</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>72.770251870825547</v>
       </c>
     </row>
@@ -30815,99 +30815,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>76.114617382480546</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>73.767354659814899</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>61.359458749834317</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>71.297568987771541</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>68.528133413556418</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>66.240572169557979</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>109.82912952625945</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>106.35577547715147</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>118.91125850493539</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>131.27210674214146</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>110.06032314627747</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>124.22682539682539</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>106.85675496752961</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>104.03124968661936</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>102.07963987939708</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>91.457811142145005</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>94.872550966957675</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>103.3632277133878</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>109.02521515976026</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>100.68332359696515</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>100.43469690511114</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>86.674517661747046</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>81.319923294161995</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>73.207472343211862</v>
       </c>
     </row>
@@ -31760,99 +31760,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
         <v>12.653817451269436</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
         <v>9.4946033481231513</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
         <v>7.9759436238841852</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
         <v>7.0616584277031276</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
         <v>7.8570354381095644</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
         <v>11.433973590093773</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
         <v>16.763395276732407</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
         <v>21.259651400970611</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
         <v>21.807841243337059</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
         <v>25.278364343427459</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
         <v>23.962192693578288</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
         <v>24.283569410551301</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
         <v>26.64970245994509</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
         <v>23.142749566637139</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
         <v>23.57129357499992</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
         <v>22.394845491535076</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
         <v>23.551768659046459</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
         <v>32.400000000000006</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
         <v>29.057755626394133</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
         <v>31.075281512529919</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
         <v>26.075278049976415</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
         <v>25.580295200574021</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
         <v>20.083924984525641</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
         <v>16.006617781463547</v>
       </c>
     </row>
@@ -31861,99 +31861,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
         <v>-27.932319549299731</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
         <v>-34.785890776772909</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
         <v>-33.041028932258058</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
         <v>-32.462349240492976</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
         <v>-37.450000000000003</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
         <v>-29.910324858093229</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
         <v>-22.737824767768746</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
         <v>-9.3593411012408989</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
         <v>-2.8968982562438326</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
         <v>-0.42237346150929833</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
         <v>-3.8708245677799979</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
         <v>-2.9038316881986659</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
         <v>-3.6575614323052679</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
         <v>-4.297814668532137</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
         <v>-9.4299972819936464</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
         <v>-14.909225611558075</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
         <v>-12.733922985858065</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
         <v>-4.6604435662929591</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
         <v>-6.0622356204450565</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!U3*Main!$B$5)</f>
         <v>-7.6205198999481212</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
         <v>-11.970486312328481</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
         <v>-15.371388317798102</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
         <v>-20.398647141563281</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
         <v>-25.23122265101572</v>
       </c>
     </row>
@@ -31962,99 +31962,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
         <v>37.942551817425809</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
         <v>53.5</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
         <v>51.5</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
         <v>47</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
         <v>48.5</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
         <v>39.702408713295767</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
         <v>19.845583118576229</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
         <v>2.5075999244340532</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
         <v>-15.226044137801772</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
         <v>-13.288183974808817</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
         <v>-1.1324705313718679</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
         <v>-14.434838808268033</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
         <v>-12.991354927441231</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
         <v>-11.508769590118574</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
         <v>-1.3063503459713692</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
         <v>7.8904183620184734</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
         <v>12.820860345194964</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
         <v>10.606348103752197</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
         <v>12.121540690002512</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
         <v>11.771880862406285</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
         <v>10.606348103752197</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
         <v>22.603753731080864</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
         <v>34.923402423234421</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
         <v>35.666453538622385</v>
       </c>
     </row>

--- a/data/IEEE_9/ieee9/ieee9_2020.xlsx
+++ b/data/IEEE_9/ieee9/ieee9_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB28C98-E853-4A42-95E1-96BF46DDF859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAAC3B2-3254-42BE-A0E2-4AB9FB1A18D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26970" yWindow="3375" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25695" yWindow="4320" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -247,16 +247,16 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>2.5000000000000001E-3</v>
+            <v>0.01</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>2.5000000000000001E-2</v>
+            <v>0.05</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="B2">
@@ -1152,224 +1152,224 @@
       <sheetData sheetId="4">
         <row r="2">
           <cell r="B2">
-            <v>58.68043822340757</v>
+            <v>53.345852930370519</v>
           </cell>
           <cell r="C2">
-            <v>56.324561610414321</v>
+            <v>47.980182112575157</v>
           </cell>
           <cell r="D2">
-            <v>47.135086089339119</v>
+            <v>50.081028969922819</v>
           </cell>
           <cell r="E2">
-            <v>52.88241128342132</v>
+            <v>43.664376289063469</v>
           </cell>
           <cell r="F2">
-            <v>49.766203256416674</v>
+            <v>52.305295259295072</v>
           </cell>
           <cell r="G2">
-            <v>52.636169440323577</v>
+            <v>54.281049735333688</v>
           </cell>
           <cell r="H2">
-            <v>65.49958321137008</v>
+            <v>64.176359308110079</v>
           </cell>
           <cell r="I2">
-            <v>80.620711382210601</v>
+            <v>68.786478518766842</v>
           </cell>
           <cell r="J2">
-            <v>73.587072861061785</v>
+            <v>81.415484867557737</v>
           </cell>
           <cell r="K2">
-            <v>80.137808386989022</v>
+            <v>77.709389951019659</v>
           </cell>
           <cell r="L2">
-            <v>86.589187480675236</v>
+            <v>82.504791844794326</v>
           </cell>
           <cell r="M2">
-            <v>73.560649692011964</v>
+            <v>75.177367267660586</v>
           </cell>
           <cell r="N2">
-            <v>88.414919123216194</v>
+            <v>78.769655218865324</v>
           </cell>
           <cell r="O2">
-            <v>72.422087707441094</v>
+            <v>76.35807073501941</v>
           </cell>
           <cell r="P2">
-            <v>74.689597342499425</v>
+            <v>72.403181097320868</v>
           </cell>
           <cell r="Q2">
-            <v>73.337218678713185</v>
+            <v>74.833896610931816</v>
           </cell>
           <cell r="R2">
-            <v>83.705851808725811</v>
+            <v>77.505418341412778</v>
           </cell>
           <cell r="S2">
-            <v>86.869641290300578</v>
+            <v>90.379525786878375</v>
           </cell>
           <cell r="T2">
-            <v>83.205832104056938</v>
+            <v>80.521773003926072</v>
           </cell>
           <cell r="U2">
             <v>97.2</v>
           </cell>
           <cell r="V2">
-            <v>93.436332850706805</v>
+            <v>79.464544760881481</v>
           </cell>
           <cell r="W2">
-            <v>87.498563946329966</v>
+            <v>85.831924633066535</v>
           </cell>
           <cell r="X2">
-            <v>71.427364753943777</v>
+            <v>68.387902423988734</v>
           </cell>
           <cell r="Y2">
-            <v>63.135138450034873</v>
+            <v>62.463488040991962</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>69.374163938692163</v>
+            <v>63.009561742481864</v>
           </cell>
           <cell r="C3">
-            <v>64.708633059435456</v>
+            <v>53.429146562836614</v>
           </cell>
           <cell r="D3">
-            <v>60.188401557844962</v>
+            <v>59.625893132070708</v>
           </cell>
           <cell r="E3">
-            <v>58.086950023942059</v>
+            <v>52.501666367793781</v>
           </cell>
           <cell r="F3">
-            <v>54.265486637181937</v>
+            <v>57.091814066201827</v>
           </cell>
           <cell r="G3">
-            <v>57.164091267968814</v>
+            <v>63.377579449269767</v>
           </cell>
           <cell r="H3">
-            <v>73.400635831827245</v>
+            <v>68.952112448080143</v>
           </cell>
           <cell r="I3">
-            <v>82.104877098071228</v>
+            <v>86.56709867948814</v>
           </cell>
           <cell r="J3">
-            <v>104.93597046666748</v>
+            <v>93.276418192593312</v>
           </cell>
           <cell r="K3">
-            <v>99.358286288157942</v>
+            <v>91.48832301780881</v>
           </cell>
           <cell r="L3">
-            <v>86.147767484657038</v>
+            <v>92.848149400130353</v>
           </cell>
           <cell r="M3">
-            <v>104.87227245123661</v>
+            <v>96.213093991960193</v>
           </cell>
           <cell r="N3">
-            <v>99.979389917738146</v>
+            <v>104.78609135609095</v>
           </cell>
           <cell r="O3">
-            <v>98.346780030512789</v>
+            <v>101.18370637754681</v>
           </cell>
           <cell r="P3">
-            <v>98.092543344056892</v>
+            <v>82.041036251393038</v>
           </cell>
           <cell r="Q3">
-            <v>84.887738747695494</v>
+            <v>87.48634299507394</v>
           </cell>
           <cell r="R3">
-            <v>82.993632532913381</v>
+            <v>87.50415604013692</v>
           </cell>
           <cell r="S3">
-            <v>93</v>
+            <v>106</v>
           </cell>
           <cell r="T3">
-            <v>99.637501581570604</v>
+            <v>93.659251486676368</v>
           </cell>
           <cell r="U3">
-            <v>89.768675260079647</v>
+            <v>93.671661140952665</v>
           </cell>
           <cell r="V3">
-            <v>93.019717130539192</v>
+            <v>96.855581754478948</v>
           </cell>
           <cell r="W3">
-            <v>88.083303793890877</v>
+            <v>97.970205240143954</v>
           </cell>
           <cell r="X3">
-            <v>73.125048070529687</v>
+            <v>70.766175552125503</v>
           </cell>
           <cell r="Y3">
-            <v>64.916249753068186</v>
+            <v>64.202884371166334</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>68.672873766625997</v>
+            <v>70.08880930820591</v>
           </cell>
           <cell r="C4">
-            <v>67.10377074632683</v>
+            <v>70.393171273107555</v>
           </cell>
           <cell r="D4">
-            <v>60.72573423767556</v>
+            <v>61.32108457333905</v>
           </cell>
           <cell r="E4">
-            <v>58.910678324816388</v>
+            <v>65.954346385392256</v>
           </cell>
           <cell r="F4">
-            <v>63.171922961989729</v>
+            <v>64.448123425868317</v>
           </cell>
           <cell r="G4">
-            <v>69.847848032676268</v>
+            <v>60.534801628319428</v>
           </cell>
           <cell r="H4">
-            <v>107.908961266435</v>
+            <v>94.049094681755264</v>
           </cell>
           <cell r="I4">
-            <v>105.85037865175464</v>
+            <v>111.36341920653354</v>
           </cell>
           <cell r="J4">
-            <v>126.92872935052603</v>
+            <v>118.46681406049095</v>
           </cell>
           <cell r="K4">
-            <v>111.27244131061903</v>
+            <v>112.48192436834316</v>
           </cell>
           <cell r="L4">
-            <v>124.53106465699197</v>
+            <v>125.67355148870749</v>
           </cell>
           <cell r="M4">
             <v>122.5</v>
           </cell>
           <cell r="N4">
-            <v>122.60106147217884</v>
+            <v>116.70677967063178</v>
           </cell>
           <cell r="O4">
-            <v>111.46008905204967</v>
+            <v>109.25295857577144</v>
           </cell>
           <cell r="P4">
-            <v>100.58630654606374</v>
+            <v>101.65637363697931</v>
           </cell>
           <cell r="Q4">
-            <v>105.98732677376444</v>
+            <v>99.988044126192861</v>
           </cell>
           <cell r="R4">
-            <v>104.05392670305753</v>
+            <v>99.051334073102836</v>
           </cell>
           <cell r="S4">
             <v>100.6259123453416</v>
           </cell>
           <cell r="T4">
-            <v>95.329811695586784</v>
+            <v>111.21811364485124</v>
           </cell>
           <cell r="U4">
-            <v>108.592314054871</v>
+            <v>111.81782833372856</v>
           </cell>
           <cell r="V4">
-            <v>114.02922366706738</v>
+            <v>104.61396666703429</v>
           </cell>
           <cell r="W4">
-            <v>90.751306962889601</v>
+            <v>91.696633077086361</v>
           </cell>
           <cell r="X4">
-            <v>87.148716109655069</v>
+            <v>73.556714514571254</v>
           </cell>
           <cell r="Y4">
-            <v>74.274044573500063</v>
+            <v>71.179292716270893</v>
           </cell>
         </row>
       </sheetData>
@@ -1379,969 +1379,969 @@
             <v>54.531316328823202</v>
           </cell>
           <cell r="C2">
-            <v>55.281514173184419</v>
+            <v>49.023229549805052</v>
           </cell>
           <cell r="D2">
-            <v>53.517962330603794</v>
+            <v>44.680133688852706</v>
           </cell>
           <cell r="E2">
             <v>46.575334708334367</v>
           </cell>
           <cell r="F2">
-            <v>51.289658458143712</v>
+            <v>48.242748054689628</v>
           </cell>
           <cell r="G2">
-            <v>60.312277483704108</v>
+            <v>54.829343167003728</v>
           </cell>
           <cell r="H2">
-            <v>63.514747356480079</v>
+            <v>72.777314679300105</v>
           </cell>
           <cell r="I2">
-            <v>76.922513612384435</v>
+            <v>78.401792720314901</v>
           </cell>
           <cell r="J2">
-            <v>83.764008469506507</v>
+            <v>85.329690870805706</v>
           </cell>
           <cell r="K2">
-            <v>80.947281198978814</v>
+            <v>84.185172446937969</v>
           </cell>
           <cell r="L2">
-            <v>82.504791844794326</v>
+            <v>79.237275336089596</v>
           </cell>
           <cell r="M2">
-            <v>72.75229090418766</v>
+            <v>74.369008479836268</v>
           </cell>
           <cell r="N2">
-            <v>73.947023266689911</v>
+            <v>80.377199202923805</v>
           </cell>
           <cell r="O2">
-            <v>75.57087412950375</v>
+            <v>78.719660551566406</v>
           </cell>
           <cell r="P2">
-            <v>70.878903600535168</v>
+            <v>80.024568581249383</v>
           </cell>
           <cell r="Q2">
-            <v>69.595523848166593</v>
+            <v>72.588879712603855</v>
           </cell>
           <cell r="R2">
-            <v>72.080039057513886</v>
+            <v>84.480905992139938</v>
           </cell>
           <cell r="S2">
-            <v>93.011939159311737</v>
+            <v>85.114699042011679</v>
           </cell>
           <cell r="T2">
-            <v>85.889891204187805</v>
+            <v>81.41645937063636</v>
           </cell>
           <cell r="U2">
-            <v>90.9</v>
+            <v>90</v>
           </cell>
           <cell r="V2">
-            <v>88.19691231702231</v>
+            <v>85.577202050180063</v>
           </cell>
           <cell r="W2">
-            <v>84.165285319803104</v>
+            <v>86.665244289698251</v>
           </cell>
           <cell r="X2">
-            <v>69.907633588966263</v>
+            <v>72.187230336432549</v>
           </cell>
           <cell r="Y2">
-            <v>62.463488040991962</v>
+            <v>61.120187222906111</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>64.282482181723921</v>
+            <v>68.101243499450092</v>
           </cell>
           <cell r="C3">
-            <v>56.397432482994198</v>
+            <v>56.991089667025712</v>
           </cell>
           <cell r="D3">
             <v>52.313283597005437</v>
           </cell>
           <cell r="E3">
-            <v>56.969893292712399</v>
+            <v>60.321063486401371</v>
           </cell>
           <cell r="F3">
-            <v>62.179203438437639</v>
+            <v>53.134955665573976</v>
           </cell>
           <cell r="G3">
-            <v>64.620277085529963</v>
+            <v>59.649486540489193</v>
           </cell>
           <cell r="H3">
-            <v>68.952112448080143</v>
+            <v>79.332000343490051</v>
           </cell>
           <cell r="I3">
-            <v>91.029320260905052</v>
+            <v>91.921764577188441</v>
           </cell>
           <cell r="J3">
-            <v>104.93597046666748</v>
+            <v>92.304788836420457</v>
           </cell>
           <cell r="K3">
-            <v>105.26075874091981</v>
+            <v>94.439559244189724</v>
           </cell>
           <cell r="L3">
-            <v>89.976557150641781</v>
+            <v>105.29171581458083</v>
           </cell>
           <cell r="M3">
             <v>93.326701172201382</v>
           </cell>
           <cell r="N3">
-            <v>104.78609135609095</v>
+            <v>87.481966178020883</v>
           </cell>
           <cell r="O3">
-            <v>95.509853683478767</v>
+            <v>87.94471675805471</v>
           </cell>
           <cell r="P3">
-            <v>90.066789797724951</v>
+            <v>97.200792950020002</v>
           </cell>
           <cell r="Q3">
-            <v>82.289134500317061</v>
+            <v>95.282155737209251</v>
           </cell>
           <cell r="R3">
-            <v>87.50415604013692</v>
+            <v>88.406260741581633</v>
           </cell>
           <cell r="S3">
             <v>104</v>
           </cell>
           <cell r="T3">
-            <v>89.673751423413549</v>
+            <v>104.61937666064914</v>
           </cell>
           <cell r="U3">
-            <v>92.69591467073441</v>
+            <v>99.526139962262206</v>
           </cell>
           <cell r="V3">
-            <v>100.69144637841872</v>
+            <v>101.65041253440366</v>
           </cell>
           <cell r="W3">
-            <v>85.386876126730954</v>
+            <v>94.374968350597385</v>
           </cell>
           <cell r="X3">
-            <v>75.483920588933856</v>
+            <v>84.919410662550604</v>
           </cell>
           <cell r="Y3">
-            <v>67.056345898773714</v>
+            <v>69.196442044479269</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>72.212712620575786</v>
+            <v>77.168487016105502</v>
           </cell>
           <cell r="C4">
-            <v>65.13013043025839</v>
+            <v>64.472250324902234</v>
           </cell>
           <cell r="D4">
-            <v>62.511785244666022</v>
+            <v>58.939683230685098</v>
           </cell>
           <cell r="E4">
-            <v>63.393012545182849</v>
+            <v>65.954346385392256</v>
           </cell>
           <cell r="F4">
-            <v>61.257622266171857</v>
+            <v>58.705221338414702</v>
           </cell>
           <cell r="G4">
-            <v>60.534801628319428</v>
+            <v>69.182630432365059</v>
           </cell>
           <cell r="H4">
-            <v>98.999047033426592</v>
+            <v>91.079123270752476</v>
           </cell>
           <cell r="I4">
-            <v>104.74777054079885</v>
+            <v>113.56863542844509</v>
           </cell>
           <cell r="J4">
             <v>124.51103926765886</v>
           </cell>
           <cell r="K4">
-            <v>133.0431363496532</v>
+            <v>116.1103735415155</v>
           </cell>
           <cell r="L4">
-            <v>123.38857782527644</v>
+            <v>119.96111733012988</v>
           </cell>
           <cell r="M4">
-            <v>133.75</v>
+            <v>135</v>
           </cell>
           <cell r="N4">
-            <v>128.49534327372589</v>
+            <v>111.99135422939412</v>
           </cell>
           <cell r="O4">
             <v>118.0814804808843</v>
           </cell>
           <cell r="P4">
-            <v>96.306038182401451</v>
+            <v>112.35704454613503</v>
           </cell>
           <cell r="Q4">
-            <v>106.98720721502637</v>
+            <v>90.989120154835504</v>
           </cell>
           <cell r="R4">
-            <v>102.05288965107566</v>
+            <v>93.048222917157219</v>
           </cell>
           <cell r="S4">
-            <v>99.566692215390631</v>
+            <v>115.4549941646551</v>
           </cell>
           <cell r="T4">
-            <v>100.6259123453416</v>
+            <v>98.507472085439673</v>
           </cell>
           <cell r="U4">
-            <v>118.26885689144368</v>
+            <v>117.19368546515781</v>
           </cell>
           <cell r="V4">
-            <v>112.98308400039704</v>
+            <v>110.89080466705636</v>
           </cell>
           <cell r="W4">
-            <v>102.09522033325081</v>
+            <v>103.04054644744758</v>
           </cell>
           <cell r="X4">
-            <v>79.153421053723406</v>
+            <v>87.94824561524824</v>
           </cell>
           <cell r="Y4">
-            <v>78.916172359343818</v>
+            <v>69.631916787656309</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="2">
           <cell r="B2">
-            <v>56.902243125728553</v>
+            <v>62.829560117991953</v>
           </cell>
           <cell r="C2">
-            <v>52.673895580109686</v>
+            <v>53.716943017339581</v>
           </cell>
           <cell r="D2">
             <v>47.135086089339119</v>
           </cell>
           <cell r="E2">
-            <v>51.426932073785864</v>
+            <v>43.664376289063469</v>
           </cell>
           <cell r="F2">
-            <v>47.734929654113948</v>
+            <v>50.781840057568033</v>
           </cell>
           <cell r="G2">
-            <v>59.763984052034068</v>
+            <v>52.087876008653538</v>
           </cell>
           <cell r="H2">
-            <v>68.807642969520089</v>
+            <v>64.176359308110079</v>
           </cell>
           <cell r="I2">
-            <v>71.005397180662541</v>
+            <v>72.484676288593022</v>
           </cell>
           <cell r="J2">
-            <v>86.112532071455291</v>
+            <v>83.764008469506507</v>
           </cell>
           <cell r="K2">
-            <v>82.566226822958399</v>
+            <v>83.375699634948177</v>
           </cell>
           <cell r="L2">
-            <v>80.054154463265789</v>
+            <v>88.222945735027608</v>
           </cell>
           <cell r="M2">
-            <v>75.177367267660586</v>
+            <v>88.919466660673805</v>
           </cell>
           <cell r="N2">
-            <v>86.807375139157713</v>
+            <v>82.788515179011526</v>
           </cell>
           <cell r="O2">
-            <v>84.230036790176058</v>
+            <v>81.868446973629062</v>
           </cell>
           <cell r="P2">
-            <v>79.26242983285654</v>
+            <v>75.451736090892268</v>
           </cell>
           <cell r="Q2">
-            <v>80.072269373697054</v>
+            <v>80.82060833980637</v>
           </cell>
           <cell r="R2">
-            <v>85.255960175554065</v>
+            <v>75.180255791170396</v>
           </cell>
           <cell r="S2">
-            <v>83.359756793722767</v>
+            <v>92.134468035167288</v>
           </cell>
           <cell r="T2">
-            <v>81.41645937063636</v>
+            <v>89.46863667102896</v>
           </cell>
           <cell r="U2">
-            <v>92.7</v>
+            <v>84.6</v>
           </cell>
           <cell r="V2">
-            <v>89.070149072636383</v>
+            <v>86.450438805794136</v>
           </cell>
           <cell r="W2">
-            <v>80.832006693276242</v>
+            <v>81.665326349907957</v>
           </cell>
           <cell r="X2">
-            <v>68.387902423988734</v>
+            <v>78.266154996342649</v>
           </cell>
           <cell r="Y2">
-            <v>64.478439268120724</v>
+            <v>66.4933904952495</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>63.646021962102893</v>
+            <v>67.464783279829064</v>
           </cell>
           <cell r="C3">
-            <v>64.114975875403942</v>
+            <v>62.334004323309379</v>
           </cell>
           <cell r="D3">
             <v>52.875792022779684</v>
           </cell>
           <cell r="E3">
-            <v>51.943138002178955</v>
+            <v>51.384609636564129</v>
           </cell>
           <cell r="F3">
-            <v>62.179203438437639</v>
+            <v>61.613937952633663</v>
           </cell>
           <cell r="G3">
-            <v>60.270835358619287</v>
+            <v>63.998928267399869</v>
           </cell>
           <cell r="H3">
-            <v>68.952112448080143</v>
+            <v>81.556262035363602</v>
           </cell>
           <cell r="I3">
-            <v>94.599097526038591</v>
+            <v>80.319988465504466</v>
           </cell>
           <cell r="J3">
             <v>105.90759982284034</v>
           </cell>
           <cell r="K3">
-            <v>102.30952251453888</v>
+            <v>106.24450414971345</v>
           </cell>
           <cell r="L3">
-            <v>96.676939066115111</v>
+            <v>93.805346816626539</v>
           </cell>
           <cell r="M3">
-            <v>92.364570232281778</v>
+            <v>102.94801057139742</v>
           </cell>
           <cell r="N3">
-            <v>99.979389917738146</v>
+            <v>97.095369054726476</v>
           </cell>
           <cell r="O3">
-            <v>86.999074642376698</v>
+            <v>91.727285220766731</v>
           </cell>
           <cell r="P3">
-            <v>85.608037827540542</v>
+            <v>95.41729216194625</v>
           </cell>
           <cell r="Q3">
-            <v>95.282155737209251</v>
+            <v>83.155335916109877</v>
           </cell>
           <cell r="R3">
-            <v>93.818888950249899</v>
+            <v>82.993632532913381</v>
           </cell>
           <cell r="S3">
-            <v>94</v>
+            <v>98</v>
           </cell>
           <cell r="T3">
             <v>101.63025161320202</v>
           </cell>
           <cell r="U3">
-            <v>100.50188643248048</v>
+            <v>99.526139962262206</v>
           </cell>
           <cell r="V3">
-            <v>101.65041253440366</v>
+            <v>88.224886350614497</v>
           </cell>
           <cell r="W3">
-            <v>94.374968350597385</v>
+            <v>85.386876126730954</v>
           </cell>
           <cell r="X3">
-            <v>73.125048070529687</v>
+            <v>86.491992341486721</v>
           </cell>
           <cell r="Y3">
-            <v>69.909807426381107</v>
+            <v>78.470192009203302</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>72.212712620575786</v>
+            <v>75.044583703735626</v>
           </cell>
           <cell r="C4">
-            <v>69.735291167751413</v>
+            <v>71.051051378463697</v>
           </cell>
           <cell r="D4">
             <v>57.748982559358126</v>
           </cell>
           <cell r="E4">
-            <v>67.875346765549324</v>
+            <v>69.796347145706378</v>
           </cell>
           <cell r="F4">
-            <v>65.724323889746898</v>
+            <v>62.533822730050439</v>
           </cell>
           <cell r="G4">
-            <v>63.860889629875437</v>
+            <v>69.182630432365059</v>
           </cell>
           <cell r="H4">
             <v>106.91897079610072</v>
           </cell>
           <cell r="I4">
-            <v>105.85037865175464</v>
+            <v>115.77385165035665</v>
           </cell>
           <cell r="J4">
-            <v>118.46681406049095</v>
+            <v>112.42258885332305</v>
           </cell>
           <cell r="K4">
-            <v>130.62417023420494</v>
+            <v>120.94830577241198</v>
           </cell>
           <cell r="L4">
-            <v>109.67873584469017</v>
+            <v>116.5336568349833</v>
           </cell>
           <cell r="M4">
-            <v>123.75</v>
+            <v>112.5</v>
           </cell>
           <cell r="N4">
-            <v>106.09707242784707</v>
+            <v>115.52792331032236</v>
           </cell>
           <cell r="O4">
-            <v>102.63156714693682</v>
+            <v>109.25295857577144</v>
           </cell>
           <cell r="P4">
-            <v>100.58630654606374</v>
+            <v>110.21691036430389</v>
           </cell>
           <cell r="Q4">
-            <v>89.989239713573582</v>
+            <v>107.9870876562883</v>
           </cell>
           <cell r="R4">
-            <v>94.048741443148145</v>
+            <v>110.05703785900316</v>
           </cell>
           <cell r="S4">
-            <v>101.68513247529256</v>
+            <v>114.39577403470415</v>
           </cell>
           <cell r="T4">
-            <v>108.04045325499835</v>
+            <v>110.15889351490029</v>
           </cell>
           <cell r="U4">
-            <v>99.990942644584194</v>
+            <v>96.765428365726635</v>
           </cell>
           <cell r="V4">
-            <v>99.383268333682565</v>
+            <v>96.244849333671553</v>
           </cell>
           <cell r="W4">
-            <v>86.024676391905771</v>
+            <v>97.368589762266978</v>
           </cell>
           <cell r="X4">
-            <v>78.35389154813025</v>
+            <v>84.750127592875572</v>
           </cell>
           <cell r="Y4">
-            <v>69.631916787656309</v>
+            <v>83.558300145187573</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="2">
           <cell r="B2">
-            <v>12.653817451269436</v>
+            <v>11.388435706142491</v>
           </cell>
           <cell r="C2">
-            <v>9.4946033481231513</v>
+            <v>8.9621956837424133</v>
           </cell>
           <cell r="D2">
-            <v>7.9759436238841852</v>
+            <v>7.5961367846516046</v>
           </cell>
           <cell r="E2">
-            <v>7.0616584277031276</v>
+            <v>8.176657126814149</v>
           </cell>
           <cell r="F2">
-            <v>7.8570354381095644</v>
+            <v>8.6173937063137149</v>
           </cell>
           <cell r="G2">
-            <v>11.433973590093773</v>
+            <v>9.9653898262285168</v>
           </cell>
           <cell r="H2">
-            <v>16.763395276732407</v>
+            <v>14.810378351287854</v>
           </cell>
           <cell r="I2">
-            <v>21.259651400970611</v>
+            <v>20.067521415869454</v>
           </cell>
           <cell r="J2">
-            <v>21.807841243337059</v>
+            <v>24.792072150320028</v>
           </cell>
           <cell r="K2">
-            <v>25.278364343427459</v>
+            <v>24.014446126256086</v>
           </cell>
           <cell r="L2">
-            <v>23.962192693578288</v>
+            <v>26.766279072614047</v>
           </cell>
           <cell r="M2">
             <v>24.283569410551301</v>
           </cell>
           <cell r="N2">
-            <v>26.64970245994509</v>
+            <v>26.398290172587117</v>
           </cell>
           <cell r="O2">
-            <v>23.142749566637139</v>
+            <v>24.138136644772068</v>
           </cell>
           <cell r="P2">
-            <v>23.57129357499992</v>
+            <v>20.428454431666598</v>
           </cell>
           <cell r="Q2">
-            <v>22.394845491535076</v>
+            <v>20.262003063769829</v>
           </cell>
           <cell r="R2">
-            <v>23.551768659046459</v>
+            <v>22.01099874677239</v>
           </cell>
           <cell r="S2">
-            <v>32.400000000000006</v>
+            <v>30.3</v>
           </cell>
           <cell r="T2">
-            <v>29.057755626394133</v>
+            <v>32.652529518319184</v>
           </cell>
           <cell r="U2">
-            <v>31.075281512529919</v>
+            <v>31.656127895941694</v>
           </cell>
           <cell r="V2">
-            <v>26.075278049976415</v>
+            <v>24.46237425307066</v>
           </cell>
           <cell r="W2">
-            <v>25.580295200574021</v>
+            <v>24.624022482795553</v>
           </cell>
           <cell r="X2">
-            <v>20.083924984525641</v>
+            <v>17.939039792003484</v>
           </cell>
           <cell r="Y2">
-            <v>16.006617781463547</v>
+            <v>14.809861311821411</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-27.932319549299731</v>
+            <v>-26.477511239440371</v>
           </cell>
           <cell r="C3">
-            <v>-34.785890776772909</v>
+            <v>-32.888478552585298</v>
           </cell>
           <cell r="D3">
-            <v>-33.041028932258058</v>
+            <v>-30.656624782507482</v>
           </cell>
           <cell r="E3">
-            <v>-32.462349240492976</v>
+            <v>-32.12419976923784</v>
           </cell>
           <cell r="F3">
-            <v>-37.450000000000003</v>
+            <v>-33.25</v>
           </cell>
           <cell r="G3">
-            <v>-29.910324858093229</v>
+            <v>-32.091286045662528</v>
           </cell>
           <cell r="H3">
             <v>-22.737824767768746</v>
           </cell>
           <cell r="I3">
-            <v>-9.3593411012408989</v>
+            <v>-10.218872426865063</v>
           </cell>
           <cell r="J3">
-            <v>-2.8968982562438326</v>
+            <v>-3.0375243851877078</v>
           </cell>
           <cell r="K3">
-            <v>-0.42237346150929833</v>
+            <v>-0.47077042064057217</v>
           </cell>
           <cell r="L3">
-            <v>-3.8708245677799979</v>
+            <v>-3.6338353085281616</v>
           </cell>
           <cell r="M3">
-            <v>-2.9038316881986659</v>
+            <v>-2.6715251531427726</v>
           </cell>
           <cell r="N3">
-            <v>-3.6575614323052679</v>
+            <v>-4.0594912600311215</v>
           </cell>
           <cell r="O3">
-            <v>-4.297814668532137</v>
+            <v>-4.2167238257296438</v>
           </cell>
           <cell r="P3">
-            <v>-9.4299972819936464</v>
+            <v>-10.454996986558173</v>
           </cell>
           <cell r="Q3">
-            <v>-14.909225611558075</v>
+            <v>-15.352073897049898</v>
           </cell>
           <cell r="R3">
-            <v>-12.733922985858065</v>
+            <v>-12.208812759637116</v>
           </cell>
           <cell r="S3">
-            <v>-4.6604435662929591</v>
+            <v>-4.9293153105021688</v>
           </cell>
           <cell r="T3">
-            <v>-6.0622356204450565</v>
+            <v>-5.9318649619408612</v>
           </cell>
           <cell r="U3">
-            <v>-7.6205198999481212</v>
+            <v>-8.1941074192990548</v>
           </cell>
           <cell r="V3">
-            <v>-11.970486312328481</v>
+            <v>-12.099201218912656</v>
           </cell>
           <cell r="W3">
-            <v>-15.371388317798102</v>
+            <v>-18.211753550434707</v>
           </cell>
           <cell r="X3">
-            <v>-20.398647141563281</v>
+            <v>-22.191934802360052</v>
           </cell>
           <cell r="Y3">
-            <v>-25.23122265101572</v>
+            <v>-25.735847104036036</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>37.942551817425809</v>
+            <v>39.153484322237276</v>
           </cell>
           <cell r="C4">
-            <v>53.5</v>
+            <v>50</v>
           </cell>
           <cell r="D4">
-            <v>51.5</v>
+            <v>49</v>
           </cell>
           <cell r="E4">
-            <v>47</v>
+            <v>46</v>
           </cell>
           <cell r="F4">
-            <v>48.5</v>
+            <v>52</v>
           </cell>
           <cell r="G4">
-            <v>39.702408713295767</v>
+            <v>37.271648996155214</v>
           </cell>
           <cell r="H4">
-            <v>19.845583118576229</v>
+            <v>17.640518327623312</v>
           </cell>
           <cell r="I4">
-            <v>2.5075999244340532</v>
+            <v>2.1290942754628754</v>
           </cell>
           <cell r="J4">
-            <v>-15.226044137801772</v>
+            <v>-14.810788388588996</v>
           </cell>
           <cell r="K4">
-            <v>-13.288183974808817</v>
+            <v>-12.872928225596043</v>
           </cell>
           <cell r="L4">
-            <v>-1.1324705313718679</v>
+            <v>-1.2635986981622949</v>
           </cell>
           <cell r="M4">
-            <v>-14.434838808268033</v>
+            <v>-15.300929136764116</v>
           </cell>
           <cell r="N4">
-            <v>-12.991354927441231</v>
+            <v>-15.445277524846796</v>
           </cell>
           <cell r="O4">
-            <v>-11.508769590118574</v>
+            <v>-11.620505217207103</v>
           </cell>
           <cell r="P4">
-            <v>-1.3063503459713692</v>
+            <v>-1.3202476900774478</v>
           </cell>
           <cell r="Q4">
-            <v>7.8904183620184734</v>
+            <v>8.4780027081262332</v>
           </cell>
           <cell r="R4">
-            <v>12.820860345194964</v>
+            <v>11.072561207213832</v>
           </cell>
           <cell r="S4">
-            <v>10.606348103752197</v>
+            <v>12.704307069329555</v>
           </cell>
           <cell r="T4">
-            <v>12.121540690002512</v>
+            <v>11.655327586540876</v>
           </cell>
           <cell r="U4">
-            <v>11.771880862406285</v>
+            <v>12.704307069329555</v>
           </cell>
           <cell r="V4">
-            <v>10.606348103752197</v>
+            <v>10.722901379617607</v>
           </cell>
           <cell r="W4">
-            <v>22.603753731080864</v>
+            <v>25.763418231124426</v>
           </cell>
           <cell r="X4">
-            <v>34.923402423234421</v>
+            <v>39.381709115562217</v>
           </cell>
           <cell r="Y4">
-            <v>35.666453538622385</v>
+            <v>37.524081327092304</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="2">
           <cell r="B2">
-            <v>10.813262185630244</v>
+            <v>11.963609226654738</v>
           </cell>
           <cell r="C2">
-            <v>9.7608071803135203</v>
+            <v>8.4297880193616752</v>
           </cell>
           <cell r="D2">
             <v>7.0644072097259922</v>
           </cell>
           <cell r="E2">
-            <v>7.953657386991944</v>
+            <v>7.0616584277031276</v>
           </cell>
           <cell r="F2">
-            <v>8.8708464623817651</v>
+            <v>9.2087834704725005</v>
           </cell>
           <cell r="G2">
-            <v>10.909479388713324</v>
+            <v>11.224175909541595</v>
           </cell>
           <cell r="H2">
-            <v>16.112389634917555</v>
+            <v>16.763395276732407</v>
           </cell>
           <cell r="I2">
-            <v>21.060963070120419</v>
+            <v>18.478014769067915</v>
           </cell>
           <cell r="J2">
-            <v>23.87384725586373</v>
+            <v>21.578285019722983</v>
           </cell>
           <cell r="K2">
-            <v>26.289498917164558</v>
+            <v>27.300633490901657</v>
           </cell>
           <cell r="L2">
-            <v>27.276112959711458</v>
+            <v>27.785946846808869</v>
           </cell>
           <cell r="M2">
-            <v>27.287722327320541</v>
+            <v>25.28495371614105</v>
           </cell>
           <cell r="N2">
-            <v>24.386991873723336</v>
+            <v>26.901114747303062</v>
           </cell>
           <cell r="O2">
-            <v>25.133523722906997</v>
+            <v>23.640443105704602</v>
           </cell>
           <cell r="P2">
-            <v>23.122316554523731</v>
+            <v>21.775385493095161</v>
           </cell>
           <cell r="Q2">
-            <v>22.821413977088124</v>
+            <v>23.247982462641176</v>
           </cell>
           <cell r="R2">
-            <v>20.690338821966044</v>
+            <v>22.231108734240113</v>
           </cell>
           <cell r="S2">
-            <v>30.6</v>
+            <v>28.799999999999997</v>
           </cell>
           <cell r="T2">
-            <v>32.652529518319184</v>
+            <v>30.555578081362903</v>
           </cell>
           <cell r="U2">
-            <v>30.204011937412258</v>
+            <v>27.009356828647501</v>
           </cell>
           <cell r="V2">
-            <v>26.344095349460709</v>
+            <v>25.000008852039247</v>
           </cell>
           <cell r="W2">
             <v>22.711477047238613</v>
           </cell>
           <cell r="X2">
-            <v>19.88893542156908</v>
+            <v>20.668893673395321</v>
           </cell>
           <cell r="Y2">
-            <v>16.455401457579349</v>
+            <v>15.857023222758279</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-27.059434563384116</v>
+            <v>-29.09616619718722</v>
           </cell>
           <cell r="C3">
             <v>-34.153420035377039</v>
           </cell>
           <cell r="D3">
-            <v>-30.656624782507482</v>
+            <v>-33.041028932258058</v>
           </cell>
           <cell r="E3">
-            <v>-31.447900826727576</v>
+            <v>-31.786050297982708</v>
           </cell>
           <cell r="F3">
-            <v>-37.1</v>
+            <v>-35.35</v>
           </cell>
           <cell r="G3">
-            <v>-30.533456625970175</v>
+            <v>-28.975627206277821</v>
           </cell>
           <cell r="H3">
-            <v>-22.737824767768746</v>
+            <v>-20.881675807134563</v>
           </cell>
           <cell r="I3">
-            <v>-9.3593411012408989</v>
+            <v>-10.218872426865063</v>
           </cell>
           <cell r="J3">
-            <v>-2.6437712241448565</v>
+            <v>-2.8968982562438326</v>
           </cell>
           <cell r="K3">
-            <v>-0.47517014419796066</v>
+            <v>-0.48396959131273776</v>
           </cell>
           <cell r="L3">
-            <v>-3.6733335184034677</v>
+            <v>-3.7128317282787733</v>
           </cell>
           <cell r="M3">
-            <v>-3.0490232726085993</v>
+            <v>-2.7586401037887325</v>
           </cell>
           <cell r="N3">
-            <v>-4.3006491566666343</v>
+            <v>-3.9389123117133655</v>
           </cell>
           <cell r="O3">
-            <v>-3.7301787689146848</v>
+            <v>-4.1356329829271505</v>
           </cell>
           <cell r="P3">
-            <v>-9.942497134275909</v>
+            <v>-11.274996750209795</v>
           </cell>
           <cell r="Q3">
-            <v>-13.580680755082602</v>
+            <v>-14.023529040574426</v>
           </cell>
           <cell r="R3">
-            <v>-12.996478098968542</v>
+            <v>-12.340090316192352</v>
           </cell>
           <cell r="S3">
-            <v>-4.1227000778745406</v>
+            <v>-4.4811957368201529</v>
           </cell>
           <cell r="T3">
-            <v>-6.9748302299744198</v>
+            <v>-6.5837182544618349</v>
           </cell>
           <cell r="U3">
-            <v>-8.7676949386499885</v>
+            <v>-8.1941074192990548</v>
           </cell>
           <cell r="V3">
-            <v>-13.257635378170251</v>
+            <v>-12.742775751833543</v>
           </cell>
           <cell r="W3">
-            <v>-15.037227702193796</v>
+            <v>-17.37635201142394</v>
           </cell>
           <cell r="X3">
-            <v>-21.519451929561264</v>
+            <v>-24.657705335955615</v>
           </cell>
           <cell r="Y3">
-            <v>-24.221973744975092</v>
+            <v>-27.249720463096981</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>36.32797514434386</v>
+            <v>40.768060995319225</v>
           </cell>
           <cell r="C4">
-            <v>46.5</v>
+            <v>47</v>
           </cell>
           <cell r="D4">
-            <v>49.5</v>
+            <v>54</v>
           </cell>
           <cell r="E4">
-            <v>45</v>
+            <v>46</v>
           </cell>
           <cell r="F4">
-            <v>52.5</v>
+            <v>54.500000000000007</v>
           </cell>
           <cell r="G4">
-            <v>39.297282093772338</v>
+            <v>40.512661952342619</v>
           </cell>
           <cell r="H4">
-            <v>19.478072320084078</v>
+            <v>16.905496730639008</v>
           </cell>
           <cell r="I4">
-            <v>2.2710338938270671</v>
+            <v>2.2946904968877657</v>
           </cell>
           <cell r="J4">
-            <v>-12.596091059454192</v>
+            <v>-13.703439724021594</v>
           </cell>
           <cell r="K4">
-            <v>-14.533951222447145</v>
+            <v>-12.457672476383268</v>
           </cell>
           <cell r="L4">
-            <v>-1.2755194405977883</v>
+            <v>-1.0728668191944013</v>
           </cell>
           <cell r="M4">
+            <v>-15.300929136764116</v>
+          </cell>
+          <cell r="N4">
             <v>-14.867883972516074</v>
           </cell>
-          <cell r="N4">
-            <v>-15.733974301012157</v>
-          </cell>
           <cell r="O4">
-            <v>-10.838355827587394</v>
+            <v>-10.056206437967687</v>
           </cell>
           <cell r="P4">
-            <v>-1.3897344106078398</v>
+            <v>-1.2507609695470558</v>
           </cell>
           <cell r="Q4">
             <v>8.6458839498713065</v>
           </cell>
           <cell r="R4">
-            <v>12.587753793464147</v>
+            <v>10.839454655483015</v>
           </cell>
           <cell r="S4">
-            <v>11.189114483079241</v>
+            <v>10.606348103752197</v>
           </cell>
           <cell r="T4">
-            <v>10.956007931348424</v>
+            <v>10.722901379617607</v>
           </cell>
           <cell r="U4">
-            <v>11.072561207213832</v>
+            <v>12.704307069329555</v>
           </cell>
           <cell r="V4">
-            <v>11.305667758944649</v>
+            <v>12.23809396586792</v>
           </cell>
           <cell r="W4">
-            <v>23.575958192632729</v>
+            <v>22.846804846468828</v>
           </cell>
           <cell r="X4">
-            <v>40.124760230950187</v>
+            <v>39.753234673256202</v>
           </cell>
           <cell r="Y4">
-            <v>35.294927980928399</v>
+            <v>39.381709115562217</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9">
         <row r="2">
           <cell r="B2">
-            <v>12.308713338962088</v>
+            <v>12.423748043064537</v>
           </cell>
           <cell r="C2">
-            <v>9.7608071803135203</v>
+            <v>8.6959918515520442</v>
           </cell>
           <cell r="D2">
-            <v>6.9124844740329605</v>
+            <v>7.444214048958572</v>
           </cell>
           <cell r="E2">
-            <v>7.5819911539549372</v>
+            <v>6.764325441273523</v>
           </cell>
           <cell r="F2">
-            <v>8.0260039421549312</v>
+            <v>9.2932677224951838</v>
           </cell>
           <cell r="G2">
-            <v>10.175187506780697</v>
+            <v>11.224175909541595</v>
           </cell>
           <cell r="H2">
-            <v>15.461383993102704</v>
+            <v>14.810378351287854</v>
           </cell>
           <cell r="I2">
-            <v>19.471456423318877</v>
+            <v>19.074079761618489</v>
           </cell>
           <cell r="J2">
-            <v>23.644291032249654</v>
+            <v>22.726066137793357</v>
           </cell>
           <cell r="K2">
-            <v>26.036715273730284</v>
+            <v>23.003311552518987</v>
           </cell>
           <cell r="L2">
-            <v>28.040863790357577</v>
+            <v>24.217109637126995</v>
           </cell>
           <cell r="M2">
-            <v>27.287722327320541</v>
+            <v>25.034607639743612</v>
           </cell>
           <cell r="N2">
-            <v>24.88981644843928</v>
+            <v>24.638404161081308</v>
           </cell>
           <cell r="O2">
-            <v>24.138136644772068</v>
+            <v>24.635830183839534</v>
           </cell>
           <cell r="P2">
-            <v>21.775385493095161</v>
+            <v>23.122316554523731</v>
           </cell>
           <cell r="Q2">
-            <v>20.901855792099404</v>
+            <v>23.247982462641176</v>
           </cell>
           <cell r="R2">
-            <v>19.80989887209515</v>
+            <v>22.891438696643288</v>
           </cell>
           <cell r="S2">
-            <v>31.200000000000003</v>
+            <v>33</v>
           </cell>
           <cell r="T2">
-            <v>27.559933171425364</v>
+            <v>28.159062153412869</v>
           </cell>
           <cell r="U2">
-            <v>26.428510445235727</v>
+            <v>27.299780020353385</v>
           </cell>
           <cell r="V2">
-            <v>28.763451044819348</v>
+            <v>25.537643451007831</v>
           </cell>
           <cell r="W2">
-            <v>25.341227021129402</v>
+            <v>25.102158841684787</v>
           </cell>
           <cell r="X2">
             <v>18.718998043829721</v>
           </cell>
           <cell r="Y2">
-            <v>16.156212340168814</v>
+            <v>14.061888518295078</v>
           </cell>
         </row>
         <row r="3">
@@ -2349,223 +2349,223 @@
             <v>-30.841936169018453</v>
           </cell>
           <cell r="C3">
-            <v>-28.461183362814197</v>
+            <v>-32.888478552585298</v>
           </cell>
           <cell r="D3">
-            <v>-30.997253946757564</v>
+            <v>-34.403545589258393</v>
           </cell>
           <cell r="E3">
-            <v>-30.771601884217304</v>
+            <v>-34.829395539278927</v>
           </cell>
           <cell r="F3">
-            <v>-36.75</v>
+            <v>-36.050000000000004</v>
           </cell>
           <cell r="G3">
-            <v>-33.96068134929336</v>
+            <v>-33.337549581416418</v>
           </cell>
           <cell r="H3">
-            <v>-21.34571304729311</v>
+            <v>-23.433880628006566</v>
           </cell>
           <cell r="I3">
-            <v>-8.7863202174914559</v>
+            <v>-9.6458515431156204</v>
           </cell>
           <cell r="J3">
-            <v>-3.0656496109764833</v>
+            <v>-2.8968982562438326</v>
           </cell>
           <cell r="K3">
-            <v>-0.43997235573885246</v>
+            <v>-0.46197097352579508</v>
           </cell>
           <cell r="L3">
-            <v>-3.8313263579046914</v>
+            <v>-4.305304876408365</v>
           </cell>
           <cell r="M3">
-            <v>-2.7586401037887325</v>
+            <v>-2.9328700050806527</v>
           </cell>
           <cell r="N3">
-            <v>-4.0594912600311215</v>
+            <v>-4.3006491566666343</v>
           </cell>
           <cell r="O3">
-            <v>-4.1761784043283967</v>
+            <v>-3.8518150331184242</v>
           </cell>
           <cell r="P3">
-            <v>-9.6349972229065504</v>
+            <v>-10.967496838840438</v>
           </cell>
           <cell r="Q3">
-            <v>-14.761609516394133</v>
+            <v>-15.204457801885956</v>
           </cell>
           <cell r="R3">
-            <v>-13.521588325189494</v>
+            <v>-12.471367872747591</v>
           </cell>
           <cell r="S3">
-            <v>-4.9293153105021688</v>
+            <v>-4.6604435662929591</v>
           </cell>
           <cell r="T3">
-            <v>-6.1926062789492509</v>
+            <v>-7.1052008884786142</v>
           </cell>
           <cell r="U3">
-            <v>-7.7024609741411112</v>
+            <v>-7.948284196720083</v>
           </cell>
           <cell r="V3">
-            <v>-13.128920471586074</v>
+            <v>-14.029924817675315</v>
           </cell>
           <cell r="W3">
-            <v>-16.540950472413176</v>
+            <v>-15.371388317798102</v>
           </cell>
           <cell r="X3">
-            <v>-23.536900547957632</v>
+            <v>-22.640256717559247</v>
           </cell>
           <cell r="Y3">
-            <v>-26.745096010076665</v>
+            <v>-26.240471557056349</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>44.400858509753611</v>
+            <v>39.960772658778247</v>
           </cell>
           <cell r="C4">
-            <v>48</v>
+            <v>54</v>
           </cell>
           <cell r="D4">
+            <v>54</v>
+          </cell>
+          <cell r="E4">
+            <v>52.5</v>
+          </cell>
+          <cell r="F4">
             <v>47.5</v>
           </cell>
-          <cell r="E4">
-            <v>46.5</v>
-          </cell>
-          <cell r="F4">
-            <v>51.5</v>
-          </cell>
           <cell r="G4">
-            <v>43.75367490853003</v>
+            <v>39.702408713295767</v>
           </cell>
           <cell r="H4">
-            <v>19.845583118576229</v>
+            <v>17.824273726869389</v>
           </cell>
           <cell r="I4">
-            <v>2.2473772907663685</v>
+            <v>2.5312565274947518</v>
           </cell>
           <cell r="J4">
-            <v>-14.810788388588996</v>
+            <v>-13.841858307092519</v>
           </cell>
           <cell r="K4">
-            <v>-15.087625554730847</v>
+            <v>-14.11869547323437</v>
           </cell>
           <cell r="L4">
-            <v>-1.3112816679042683</v>
+            <v>-1.1801535011138413</v>
           </cell>
           <cell r="M4">
-            <v>-14.146142032102672</v>
+            <v>-15.300929136764116</v>
           </cell>
           <cell r="N4">
-            <v>-14.001793644019992</v>
+            <v>-15.589625912929476</v>
           </cell>
           <cell r="O4">
-            <v>-11.620505217207103</v>
+            <v>-10.726620200498864</v>
           </cell>
           <cell r="P4">
-            <v>-1.3758370665017614</v>
+            <v>-1.4453237870321534</v>
           </cell>
           <cell r="Q4">
-            <v>8.142240224636085</v>
+            <v>8.8137651916163815</v>
           </cell>
           <cell r="R4">
-            <v>12.587753793464147</v>
+            <v>10.489794827886788</v>
           </cell>
           <cell r="S4">
-            <v>10.606348103752197</v>
+            <v>12.121540690002512</v>
           </cell>
           <cell r="T4">
-            <v>10.839454655483015</v>
+            <v>10.956007931348424</v>
           </cell>
           <cell r="U4">
-            <v>10.839454655483015</v>
+            <v>11.305667758944649</v>
           </cell>
           <cell r="V4">
-            <v>12.004987414137103</v>
+            <v>12.121540690002512</v>
           </cell>
           <cell r="W4">
-            <v>25.277316000348492</v>
+            <v>25.763418231124426</v>
           </cell>
           <cell r="X4">
-            <v>40.496285788644172</v>
+            <v>40.124760230950187</v>
           </cell>
           <cell r="Y4">
-            <v>34.551876865540436</v>
+            <v>35.666453538622385</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="2">
           <cell r="B2">
-            <v>70.421461684202782</v>
+            <v>60.084366391108787</v>
           </cell>
           <cell r="C2">
-            <v>58.57975972894068</v>
+            <v>53.461139946800223</v>
           </cell>
           <cell r="D2">
-            <v>51.628840970920734</v>
+            <v>55.931244385164135</v>
           </cell>
           <cell r="E2">
-            <v>50.512116196399752</v>
+            <v>54.678063923937877</v>
           </cell>
           <cell r="F2">
-            <v>57.963865914116141</v>
+            <v>52.995534550049037</v>
           </cell>
           <cell r="G2">
-            <v>51.068655471974139</v>
+            <v>53.091176480765199</v>
           </cell>
           <cell r="H2">
-            <v>64.638311114790895</v>
+            <v>60.487226914758452</v>
           </cell>
           <cell r="I2">
-            <v>63.323499844761344</v>
+            <v>70.206488958322353</v>
           </cell>
           <cell r="J2">
-            <v>79.092349018932012</v>
+            <v>82.969424951232611</v>
           </cell>
           <cell r="K2">
-            <v>84.05491665160001</v>
+            <v>87.383824241762397</v>
           </cell>
           <cell r="L2">
-            <v>78.156256202877501</v>
+            <v>84.168275910791152</v>
           </cell>
           <cell r="M2">
-            <v>89.862625719819405</v>
+            <v>84.627909658470699</v>
           </cell>
           <cell r="N2">
-            <v>80.062508514436757</v>
+            <v>85.400009082065864</v>
           </cell>
           <cell r="O2">
-            <v>95.068160888134642</v>
+            <v>82.511988695362149</v>
           </cell>
           <cell r="P2">
-            <v>85.5</v>
+            <v>99.000000000000014</v>
           </cell>
           <cell r="Q2">
-            <v>78.812435213007817</v>
+            <v>90.07135452915179</v>
           </cell>
           <cell r="R2">
-            <v>84.917411862567718</v>
+            <v>86.650420267926251</v>
           </cell>
           <cell r="S2">
-            <v>84.937596081667508</v>
+            <v>82.439431491030234</v>
           </cell>
           <cell r="T2">
-            <v>77.013471313987296</v>
+            <v>83.710294906507926</v>
           </cell>
           <cell r="U2">
-            <v>83.554552026055703</v>
+            <v>82.710566652055149</v>
           </cell>
           <cell r="V2">
-            <v>80.356573308967441</v>
+            <v>82.867716224872666</v>
           </cell>
           <cell r="W2">
-            <v>89.306577417147665</v>
+            <v>94.508902315233939</v>
           </cell>
           <cell r="X2">
-            <v>86.406656813738763</v>
+            <v>77.088291863237529</v>
           </cell>
           <cell r="Y2">
-            <v>82.524144854237434</v>
+            <v>70.410508912331025</v>
           </cell>
         </row>
         <row r="3">
@@ -2573,223 +2573,223 @@
             <v>77.303152226424046</v>
           </cell>
           <cell r="C3">
-            <v>62.282425263866784</v>
+            <v>72.221110146398729</v>
           </cell>
           <cell r="D3">
-            <v>65.751551380785543</v>
+            <v>62.496524084707048</v>
           </cell>
           <cell r="E3">
-            <v>64.284899983348836</v>
+            <v>65.583584831497305</v>
           </cell>
           <cell r="F3">
-            <v>61.692393738748294</v>
+            <v>68.835723540077041</v>
           </cell>
           <cell r="G3">
-            <v>61.146804234649579</v>
+            <v>69.514261656233217</v>
           </cell>
           <cell r="H3">
-            <v>76.436607274869445</v>
+            <v>75.046850778962721</v>
           </cell>
           <cell r="I3">
-            <v>89.923936659435853</v>
+            <v>79.199063479870105</v>
           </cell>
           <cell r="J3">
-            <v>87.443649480436861</v>
+            <v>85.563140889459717</v>
           </cell>
           <cell r="K3">
             <v>97.88379405524276</v>
           </cell>
           <cell r="L3">
-            <v>100.73059206091961</v>
+            <v>98.811914116902088</v>
           </cell>
           <cell r="M3">
-            <v>97.660306512132905</v>
+            <v>102.59264522486689</v>
           </cell>
           <cell r="N3">
-            <v>108</v>
+            <v>93</v>
           </cell>
           <cell r="O3">
-            <v>104.0391985838437</v>
+            <v>106.00220233070868</v>
           </cell>
           <cell r="P3">
-            <v>96.201247252621954</v>
+            <v>90.5423503554089</v>
           </cell>
           <cell r="Q3">
-            <v>85.992987615022528</v>
+            <v>95.044881048182802</v>
           </cell>
           <cell r="R3">
-            <v>93.940156936002296</v>
+            <v>91.177211143766925</v>
           </cell>
           <cell r="S3">
-            <v>93.008100215759157</v>
+            <v>87.427614202813601</v>
           </cell>
           <cell r="T3">
-            <v>99.007058153467057</v>
+            <v>101.80914470498028</v>
           </cell>
           <cell r="U3">
-            <v>92.775204276389431</v>
+            <v>90.019505139466972</v>
           </cell>
           <cell r="V3">
-            <v>84.762016500332692</v>
+            <v>88.447321565564536</v>
           </cell>
           <cell r="W3">
-            <v>99.786515904333072</v>
+            <v>91.151144335688855</v>
           </cell>
           <cell r="X3">
-            <v>86.75261286865566</v>
+            <v>97.484894873025439</v>
           </cell>
           <cell r="Y3">
-            <v>77.885932647510586</v>
+            <v>77.066080724905206</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>84.018878210728758</v>
+            <v>90.673838861083524</v>
           </cell>
           <cell r="C4">
-            <v>70.442171306853069</v>
+            <v>79.531483733543794</v>
           </cell>
           <cell r="D4">
-            <v>71.316477002534043</v>
+            <v>65.55352936596563</v>
           </cell>
           <cell r="E4">
-            <v>74.335386188510071</v>
+            <v>67.388153834443699</v>
           </cell>
           <cell r="F4">
-            <v>71.55649324688352</v>
+            <v>75.030109423916699</v>
           </cell>
           <cell r="G4">
-            <v>81.938874223115775</v>
+            <v>73.744986800804185</v>
           </cell>
           <cell r="H4">
-            <v>85.866930475811046</v>
+            <v>101.7336458898196</v>
           </cell>
           <cell r="I4">
-            <v>114.85334614899057</v>
+            <v>105.66507845707133</v>
           </cell>
           <cell r="J4">
-            <v>113.87736856307787</v>
+            <v>116.27478684861634</v>
           </cell>
           <cell r="K4">
             <v>111.49402086189069</v>
           </cell>
           <cell r="L4">
-            <v>123.17170569968631</v>
+            <v>117.30638638065362</v>
           </cell>
           <cell r="M4">
-            <v>123.75</v>
+            <v>115</v>
           </cell>
           <cell r="N4">
-            <v>127.5</v>
+            <v>122.5</v>
           </cell>
           <cell r="O4">
-            <v>136.25</v>
+            <v>131.25</v>
           </cell>
           <cell r="P4">
-            <v>122.28987641586775</v>
+            <v>115.16619429455505</v>
           </cell>
           <cell r="Q4">
-            <v>121.39234333257035</v>
+            <v>110.15231154251752</v>
           </cell>
           <cell r="R4">
-            <v>110.98911922360845</v>
+            <v>100.51844759873973</v>
           </cell>
           <cell r="S4">
-            <v>106.80085057366097</v>
+            <v>97.377246111279121</v>
           </cell>
           <cell r="T4">
-            <v>95.283111786305369</v>
+            <v>100.51844759873973</v>
           </cell>
           <cell r="U4">
-            <v>97.377246111279121</v>
+            <v>108.8949848986347</v>
           </cell>
           <cell r="V4">
-            <v>100.51844759873973</v>
+            <v>103.65964908620035</v>
           </cell>
           <cell r="W4">
             <v>113.08325354858221</v>
           </cell>
           <cell r="X4">
-            <v>96.905820096612842</v>
+            <v>104.98130510466393</v>
           </cell>
           <cell r="Y4">
-            <v>91.615158109341266</v>
+            <v>94.448616607568312</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="2">
           <cell r="B2">
-            <v>61.376503302745533</v>
+            <v>63.960777126019032</v>
           </cell>
           <cell r="C2">
-            <v>52.323668884102354</v>
+            <v>60.285966322987498</v>
           </cell>
           <cell r="D2">
-            <v>53.780042678042435</v>
+            <v>57.006845238724985</v>
           </cell>
           <cell r="E2">
-            <v>48.94988579857295</v>
+            <v>49.470629264515217</v>
           </cell>
           <cell r="F2">
-            <v>56.859792277656787</v>
+            <v>55.755718641197433</v>
           </cell>
           <cell r="G2">
-            <v>52.079915976369669</v>
+            <v>55.61932774175402</v>
           </cell>
           <cell r="H2">
-            <v>55.150118657573884</v>
+            <v>57.522166771878133</v>
           </cell>
           <cell r="I2">
-            <v>61.946902022049137</v>
+            <v>65.388396578829642</v>
           </cell>
           <cell r="J2">
-            <v>85.295670510612965</v>
+            <v>82.194009764772488</v>
           </cell>
           <cell r="K2">
-            <v>85.719370446681197</v>
+            <v>84.887143549140603</v>
           </cell>
           <cell r="L2">
-            <v>92.756875493524944</v>
+            <v>91.898015535251574</v>
           </cell>
           <cell r="M2">
-            <v>79.393193597122007</v>
+            <v>92.479983750493759</v>
           </cell>
           <cell r="N2">
-            <v>80.952091942374949</v>
+            <v>96.075010217324106</v>
           </cell>
           <cell r="O2">
-            <v>81.615119253021248</v>
+            <v>89.686944234089282</v>
           </cell>
           <cell r="P2">
-            <v>84.6</v>
+            <v>87.3</v>
           </cell>
           <cell r="Q2">
-            <v>90.937425245778257</v>
+            <v>85.741000946019483</v>
           </cell>
           <cell r="R2">
-            <v>84.917411862567718</v>
+            <v>81.451395051850668</v>
           </cell>
           <cell r="S2">
-            <v>74.9449377191184</v>
+            <v>76.610380779543249</v>
           </cell>
           <cell r="T2">
-            <v>88.732912600898402</v>
+            <v>89.570015549963486</v>
           </cell>
           <cell r="U2">
-            <v>91.994405766061348</v>
+            <v>79.334625156052894</v>
           </cell>
           <cell r="V2">
-            <v>90.401144972588369</v>
+            <v>92.075240249858538</v>
           </cell>
           <cell r="W2">
-            <v>91.040685716509756</v>
+            <v>87.572469117785573</v>
           </cell>
           <cell r="X2">
-            <v>81.323912295283534</v>
+            <v>83.018160468101954</v>
           </cell>
           <cell r="Y2">
-            <v>72.68181565143847</v>
+            <v>78.738633622391674</v>
           </cell>
         </row>
         <row r="3">
@@ -2800,291 +2800,291 @@
             <v>59.632109295191611</v>
           </cell>
           <cell r="D3">
-            <v>61.845518625491351</v>
+            <v>68.355573217648342</v>
           </cell>
           <cell r="E3">
-            <v>60.388845438903459</v>
+            <v>70.128981800016916</v>
           </cell>
           <cell r="F3">
-            <v>69.485117158379666</v>
+            <v>71.433298013287498</v>
           </cell>
           <cell r="G3">
-            <v>58.57220195108539</v>
+            <v>70.801562798015311</v>
           </cell>
           <cell r="H3">
-            <v>67.403190051475775</v>
+            <v>63.233920563755632</v>
           </cell>
           <cell r="I3">
-            <v>77.54908299070614</v>
+            <v>79.199063479870105</v>
           </cell>
           <cell r="J3">
-            <v>89.32415807141399</v>
+            <v>87.443649480436861</v>
           </cell>
           <cell r="K3">
-            <v>89.16147577309242</v>
+            <v>95.945501103653783</v>
           </cell>
           <cell r="L3">
-            <v>91.137202340832005</v>
+            <v>98.811914116902088</v>
           </cell>
           <cell r="M3">
-            <v>94.700903284492512</v>
+            <v>103.57911296741369</v>
           </cell>
           <cell r="N3">
             <v>104</v>
           </cell>
           <cell r="O3">
-            <v>98.150187343248774</v>
+            <v>104.0391985838437</v>
           </cell>
           <cell r="P3">
-            <v>100.91699466696618</v>
+            <v>91.485499838277747</v>
           </cell>
           <cell r="Q3">
-            <v>81.467040898442406</v>
+            <v>83.277419585074455</v>
           </cell>
           <cell r="R3">
-            <v>95.782120797492539</v>
+            <v>89.335247282276683</v>
           </cell>
           <cell r="S3">
-            <v>91.147938211443972</v>
+            <v>90.217857209286379</v>
           </cell>
           <cell r="T3">
-            <v>92.468856199936212</v>
+            <v>101.80914470498028</v>
           </cell>
           <cell r="U3">
-            <v>97.368036171260201</v>
+            <v>93.693770655363593</v>
           </cell>
           <cell r="V3">
-            <v>98.581910494952155</v>
+            <v>83.84069023402472</v>
           </cell>
           <cell r="W3">
             <v>105.5434302834292</v>
           </cell>
           <cell r="X3">
-            <v>87.646969702353147</v>
+            <v>92.11875387084055</v>
           </cell>
           <cell r="Y3">
-            <v>86.904303796169714</v>
+            <v>79.525636492721333</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>89.84196877978917</v>
+            <v>84.018878210728758</v>
           </cell>
           <cell r="C4">
-            <v>78.016598329095345</v>
+            <v>68.169843200180395</v>
           </cell>
           <cell r="D4">
-            <v>68.435003184249837</v>
+            <v>78.520161548244545</v>
           </cell>
           <cell r="E4">
-            <v>67.388153834443699</v>
+            <v>75.030109423916699</v>
           </cell>
           <cell r="F4">
-            <v>68.777600305256968</v>
+            <v>71.55649324688352</v>
           </cell>
           <cell r="G4">
-            <v>80.449076509968208</v>
+            <v>78.214379940246872</v>
           </cell>
           <cell r="H4">
-            <v>87.733602877459091</v>
+            <v>84.933594274987001</v>
           </cell>
           <cell r="I4">
-            <v>104.51654499558143</v>
+            <v>117.15041307197038</v>
           </cell>
           <cell r="J4">
-            <v>130.65929656184724</v>
+            <v>110.28124113477014</v>
           </cell>
           <cell r="K4">
-            <v>126.75109740088627</v>
+            <v>123.23023358419498</v>
           </cell>
           <cell r="L4">
-            <v>113.78719478923401</v>
+            <v>129.03702501871899</v>
           </cell>
           <cell r="M4">
-            <v>132.5</v>
+            <v>131.25</v>
           </cell>
           <cell r="N4">
-            <v>112.5</v>
+            <v>137.5</v>
           </cell>
           <cell r="O4">
-            <v>127.5</v>
+            <v>128.75</v>
           </cell>
           <cell r="P4">
-            <v>115.16619429455505</v>
+            <v>123.47715676941986</v>
           </cell>
           <cell r="Q4">
-            <v>110.15231154251752</v>
+            <v>104.53229564749114</v>
           </cell>
           <cell r="R4">
-            <v>97.377246111279121</v>
+            <v>114.13032071106907</v>
           </cell>
           <cell r="S4">
             <v>110.98911922360845</v>
           </cell>
           <cell r="T4">
-            <v>113.08325354858221</v>
+            <v>109.94205206112159</v>
           </cell>
           <cell r="U4">
-            <v>108.8949848986347</v>
+            <v>107.84791773614783</v>
           </cell>
           <cell r="V4">
             <v>106.80085057366097</v>
           </cell>
           <cell r="W4">
-            <v>107.84791773614783</v>
+            <v>105.75378341117408</v>
           </cell>
           <cell r="X4">
-            <v>96.905820096612842</v>
+            <v>91.858641966580933</v>
           </cell>
           <cell r="Y4">
-            <v>95.393102773643989</v>
+            <v>100.11553360402242</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="2">
           <cell r="B2">
-            <v>67.191119405110896</v>
+            <v>67.837187860929276</v>
           </cell>
           <cell r="C2">
-            <v>58.011024197591738</v>
+            <v>51.754933352753412</v>
           </cell>
           <cell r="D2">
-            <v>54.317843104822856</v>
+            <v>49.477639263799041</v>
           </cell>
           <cell r="E2">
-            <v>49.470629264515217</v>
+            <v>51.032859662342013</v>
           </cell>
           <cell r="F2">
-            <v>55.755718641197433</v>
+            <v>50.787387277130335</v>
           </cell>
           <cell r="G2">
-            <v>48.034873958787557</v>
+            <v>52.585546228567438</v>
           </cell>
           <cell r="H2">
-            <v>55.150118657573884</v>
+            <v>62.266263000486646</v>
           </cell>
           <cell r="I2">
-            <v>72.959684603746766</v>
+            <v>66.076695490185742</v>
           </cell>
           <cell r="J2">
-            <v>73.664442713711182</v>
+            <v>80.643179391852257</v>
           </cell>
           <cell r="K2">
-            <v>74.900420778653483</v>
+            <v>79.893782163897043</v>
           </cell>
           <cell r="L2">
-            <v>87.603715743884663</v>
+            <v>85.027135869064523</v>
           </cell>
           <cell r="M2">
-            <v>90.735078396710861</v>
+            <v>80.265646274013449</v>
           </cell>
           <cell r="N2">
-            <v>89.847926221756808</v>
+            <v>94.295843361447737</v>
           </cell>
           <cell r="O2">
-            <v>96.861899772816429</v>
+            <v>95.965030330475543</v>
           </cell>
           <cell r="P2">
-            <v>81</v>
+            <v>89.1</v>
           </cell>
           <cell r="Q2">
-            <v>83.14278879614011</v>
+            <v>82.276718079513643</v>
           </cell>
           <cell r="R2">
-            <v>93.582453889360352</v>
+            <v>84.917411862567718</v>
           </cell>
           <cell r="S2">
-            <v>85.770317611879946</v>
+            <v>79.941266900392947</v>
           </cell>
           <cell r="T2">
-            <v>90.40711849902857</v>
+            <v>91.24422144809364</v>
           </cell>
           <cell r="U2">
-            <v>85.242522774056837</v>
+            <v>83.554552026055703</v>
           </cell>
           <cell r="V2">
-            <v>87.05295441804806</v>
+            <v>79.519525670332357</v>
           </cell>
           <cell r="W2">
-            <v>84.104252519061376</v>
+            <v>87.572469117785573</v>
           </cell>
           <cell r="X2">
-            <v>77.088291863237529</v>
+            <v>92.336525418603202</v>
           </cell>
           <cell r="Y2">
-            <v>73.438917897807613</v>
+            <v>68.139202173223566</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>67.822576953372035</v>
+            <v>79.490977289436046</v>
           </cell>
           <cell r="C3">
-            <v>72.221110146398729</v>
+            <v>64.270162240373182</v>
           </cell>
           <cell r="D3">
-            <v>65.751551380785543</v>
+            <v>69.006578676864038</v>
           </cell>
           <cell r="E3">
-            <v>67.531612103719993</v>
+            <v>65.583584831497305</v>
           </cell>
           <cell r="F3">
-            <v>64.939361830261362</v>
+            <v>60.393606502143072</v>
           </cell>
           <cell r="G3">
-            <v>63.077755947322729</v>
+            <v>64.365057089104823</v>
           </cell>
           <cell r="H3">
-            <v>69.487824795335854</v>
+            <v>63.233920563755632</v>
           </cell>
           <cell r="I3">
-            <v>80.849043969034057</v>
+            <v>81.674034213616039</v>
           </cell>
           <cell r="J3">
-            <v>97.786446730811107</v>
+            <v>99.666955321788251</v>
           </cell>
           <cell r="K3">
-            <v>94.00720815206482</v>
+            <v>106.60611233739311</v>
           </cell>
           <cell r="L3">
-            <v>88.25918542480575</v>
+            <v>103.60860897694587</v>
           </cell>
           <cell r="M3">
-            <v>88.782096829211724</v>
+            <v>105.55204845250728</v>
           </cell>
           <cell r="N3">
             <v>100</v>
           </cell>
           <cell r="O3">
-            <v>103.05769671041122</v>
+            <v>97.168685469816282</v>
           </cell>
           <cell r="P3">
-            <v>85.826602941064692</v>
+            <v>87.712901906802372</v>
           </cell>
           <cell r="Q3">
-            <v>81.467040898442406</v>
+            <v>96.855259734814851</v>
           </cell>
           <cell r="R3">
-            <v>86.572301490041326</v>
+            <v>85.651319559296212</v>
           </cell>
           <cell r="S3">
-            <v>89.287776207128786</v>
+            <v>97.658505226547121</v>
           </cell>
           <cell r="T3">
-            <v>87.798711947414176</v>
+            <v>102.74317355548469</v>
           </cell>
           <cell r="U3">
-            <v>90.938071518441134</v>
+            <v>83.589540486647905</v>
           </cell>
           <cell r="V3">
-            <v>96.739257962336225</v>
+            <v>90.289974098180465</v>
           </cell>
           <cell r="W3">
-            <v>92.110630065538203</v>
+            <v>91.151144335688855</v>
           </cell>
           <cell r="X3">
-            <v>84.069542367563216</v>
+            <v>92.11875387084055</v>
           </cell>
           <cell r="Y3">
             <v>77.885932647510586</v>
@@ -3092,600 +3092,600 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>76.532047479079665</v>
+            <v>88.178228617200489</v>
           </cell>
           <cell r="C4">
-            <v>83.318697244664932</v>
+            <v>71.199614009077294</v>
           </cell>
           <cell r="D4">
-            <v>66.994266275107734</v>
+            <v>77.079424639102442</v>
           </cell>
           <cell r="E4">
-            <v>70.861770011476878</v>
+            <v>67.388153834443699</v>
           </cell>
           <cell r="F4">
-            <v>68.08287706985034</v>
+            <v>65.99870736363043</v>
           </cell>
           <cell r="G4">
-            <v>80.449076509968208</v>
+            <v>73.000087944230401</v>
           </cell>
           <cell r="H4">
-            <v>84.000258074162971</v>
+            <v>98.933637287347509</v>
           </cell>
           <cell r="I4">
-            <v>109.11067884154103</v>
+            <v>126.33868076388964</v>
           </cell>
           <cell r="J4">
-            <v>113.87736856307787</v>
+            <v>130.65929656184724</v>
           </cell>
           <cell r="K4">
-            <v>120.88299103973412</v>
+            <v>115.01488467858198</v>
           </cell>
           <cell r="L4">
-            <v>113.78719478923401</v>
+            <v>114.96025865304054</v>
           </cell>
           <cell r="M4">
-            <v>113.75</v>
+            <v>125</v>
           </cell>
           <cell r="N4">
-            <v>123.75</v>
+            <v>126.25</v>
           </cell>
           <cell r="O4">
-            <v>135</v>
+            <v>122.5</v>
           </cell>
           <cell r="P4">
-            <v>115.16619429455505</v>
+            <v>117.54075500165929</v>
           </cell>
           <cell r="Q4">
-            <v>111.27631472152281</v>
+            <v>118.02033379555451</v>
           </cell>
           <cell r="R4">
-            <v>101.56551476122659</v>
+            <v>95.283111786305369</v>
           </cell>
           <cell r="S4">
-            <v>112.03618638609532</v>
+            <v>96.330178948792238</v>
           </cell>
           <cell r="T4">
-            <v>110.98911922360845</v>
+            <v>99.471380436252844</v>
           </cell>
           <cell r="U4">
-            <v>103.65964908620035</v>
+            <v>94.236044623818501</v>
           </cell>
           <cell r="V4">
-            <v>103.65964908620035</v>
+            <v>108.8949848986347</v>
           </cell>
           <cell r="W4">
-            <v>105.75378341117408</v>
+            <v>100.51844759873973</v>
           </cell>
           <cell r="X4">
             <v>100.94356260063839</v>
           </cell>
           <cell r="Y4">
-            <v>85.003754946811483</v>
+            <v>87.837213445038529</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="13">
         <row r="2">
           <cell r="B2">
-            <v>12.182754843706737</v>
+            <v>12.695712942389127</v>
           </cell>
           <cell r="C2">
-            <v>8.8430693158079379</v>
+            <v>9.0395819672703368</v>
           </cell>
           <cell r="D2">
-            <v>9.1250334545802332</v>
+            <v>10.149271903563729</v>
           </cell>
           <cell r="E2">
-            <v>8.4574988272075</v>
+            <v>7.9695662025609142</v>
           </cell>
           <cell r="F2">
-            <v>10.297962041116664</v>
+            <v>9.1745480002675723</v>
           </cell>
           <cell r="G2">
-            <v>3.9973529904946137</v>
+            <v>4.0842519685488439</v>
           </cell>
           <cell r="H2">
-            <v>7.884157942891532</v>
+            <v>8.0357763648702143</v>
           </cell>
           <cell r="I2">
-            <v>15.878722799173934</v>
+            <v>15.73304644321821</v>
           </cell>
           <cell r="J2">
-            <v>19.072316498849123</v>
+            <v>19.919975009909081</v>
           </cell>
           <cell r="K2">
-            <v>27.699487061444909</v>
+            <v>24.174097799079192</v>
           </cell>
           <cell r="L2">
-            <v>25.565965184318362</v>
+            <v>28.864799401649762</v>
           </cell>
           <cell r="M2">
-            <v>31.34331769565814</v>
+            <v>29.633682184985876</v>
           </cell>
           <cell r="N2">
-            <v>27.690495574144865</v>
+            <v>29.179231895335448</v>
           </cell>
           <cell r="O2">
-            <v>30.6</v>
+            <v>30.3</v>
           </cell>
           <cell r="P2">
-            <v>30.680672424402239</v>
+            <v>32.765766666837344</v>
           </cell>
           <cell r="Q2">
-            <v>29.083446907804298</v>
+            <v>28.795491987925047</v>
           </cell>
           <cell r="R2">
-            <v>27.403504362786581</v>
+            <v>29.869819755437376</v>
           </cell>
           <cell r="S2">
-            <v>26.506101775464025</v>
+            <v>22.615297845120683</v>
           </cell>
           <cell r="T2">
-            <v>22.510667585178503</v>
+            <v>26.383470610585558</v>
           </cell>
           <cell r="U2">
-            <v>22.565753943520477</v>
+            <v>24.868381896940935</v>
           </cell>
           <cell r="V2">
-            <v>22.208753453352283</v>
+            <v>22.831428783820105</v>
           </cell>
           <cell r="W2">
-            <v>25.628670071555877</v>
+            <v>25.37984803202621</v>
           </cell>
           <cell r="X2">
-            <v>20.065824386285286</v>
+            <v>24.524896472126461</v>
           </cell>
           <cell r="Y2">
-            <v>17.224712114476301</v>
+            <v>17.583560283527891</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-22.943485916808623</v>
+            <v>-25.140202653524344</v>
           </cell>
           <cell r="C3">
-            <v>-34.27201792066495</v>
+            <v>-31.098682928010788</v>
           </cell>
           <cell r="D3">
-            <v>-36.725089474183555</v>
+            <v>-31.82841087762575</v>
           </cell>
           <cell r="E3">
-            <v>-32.875214517869153</v>
+            <v>-32.236860837910527</v>
           </cell>
           <cell r="F3">
-            <v>-37.290494691694349</v>
+            <v>-32.158775238708884</v>
           </cell>
           <cell r="G3">
-            <v>-32.200000000000003</v>
+            <v>-38.5</v>
           </cell>
           <cell r="H3">
-            <v>-32.760892778889442</v>
+            <v>-30.940843180062252</v>
           </cell>
           <cell r="I3">
-            <v>-5.0968588853531003</v>
+            <v>-4.3417686801156039</v>
           </cell>
           <cell r="J3">
-            <v>13.633784980259477</v>
+            <v>14.694190478724103</v>
           </cell>
           <cell r="K3">
-            <v>21.612420020535172</v>
+            <v>22.494559613210075</v>
           </cell>
           <cell r="L3">
-            <v>18.202815357195067</v>
+            <v>18.896255942231068</v>
           </cell>
           <cell r="M3">
-            <v>24.939411271822067</v>
+            <v>22.399286049692037</v>
           </cell>
           <cell r="N3">
-            <v>19.467724787320236</v>
+            <v>20.082495043761927</v>
           </cell>
           <cell r="O3">
-            <v>20.476061165802882</v>
+            <v>21.953715064365976</v>
           </cell>
           <cell r="P3">
             <v>10.455979658368168</v>
           </cell>
           <cell r="Q3">
-            <v>2.6984690239353726</v>
+            <v>2.9187522095627498</v>
           </cell>
           <cell r="R3">
-            <v>5.6967418989299707</v>
+            <v>5.6354866096941647</v>
           </cell>
           <cell r="S3">
-            <v>8.1844397123285244</v>
+            <v>7.6636117306348908</v>
           </cell>
           <cell r="T3">
-            <v>4.6170374606456566</v>
+            <v>4.303258215747408</v>
           </cell>
           <cell r="U3">
-            <v>-0.77767144276712052</v>
+            <v>-0.83620585243776402</v>
           </cell>
           <cell r="V3">
-            <v>-3.0032602590480484</v>
+            <v>-3.5908546575574491</v>
           </cell>
           <cell r="W3">
-            <v>-2.2938482956031558</v>
+            <v>-2.4982506189737341</v>
           </cell>
           <cell r="X3">
-            <v>-11.436377596448239</v>
+            <v>-10.782870305222625</v>
           </cell>
           <cell r="Y3">
-            <v>-14.7429221299848</v>
+            <v>-14.890351351284648</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-34.04237153524452</v>
+            <v>-34.420620107858348</v>
           </cell>
           <cell r="C4">
-            <v>-34.420620107858348</v>
+            <v>-38.959602979224279</v>
           </cell>
           <cell r="D4">
-            <v>-47.425422921146712</v>
+            <v>-41.277682912849912</v>
           </cell>
           <cell r="E4">
-            <v>-45.5</v>
+            <v>-50.5</v>
           </cell>
           <cell r="F4">
-            <v>-46</v>
+            <v>-46.5</v>
           </cell>
           <cell r="G4">
-            <v>-48.5</v>
+            <v>-52</v>
           </cell>
           <cell r="H4">
-            <v>-19.538041031592279</v>
+            <v>-19.936776562849264</v>
           </cell>
           <cell r="I4">
-            <v>4.3804965299475933</v>
+            <v>4.421821968909363</v>
           </cell>
           <cell r="J4">
-            <v>13.385902192807253</v>
+            <v>13.648370863254453</v>
           </cell>
           <cell r="K4">
-            <v>14.042073868925256</v>
+            <v>12.72973051668925</v>
           </cell>
           <cell r="L4">
-            <v>12.119548998777459</v>
+            <v>12.959517741266986</v>
           </cell>
           <cell r="M4">
-            <v>15.351323602826358</v>
+            <v>16.363498785430291</v>
           </cell>
           <cell r="N4">
-            <v>21.034419399748192</v>
+            <v>23.092134341027904</v>
           </cell>
           <cell r="O4">
             <v>25.686871351608826</v>
           </cell>
           <cell r="P4">
-            <v>11.895373640420202</v>
+            <v>14.274448368504242</v>
           </cell>
           <cell r="Q4">
-            <v>11.345139864391012</v>
+            <v>10.416901148213565</v>
           </cell>
           <cell r="R4">
-            <v>-1.7075437847017314</v>
+            <v>-1.7912469114027969</v>
           </cell>
           <cell r="S4">
-            <v>-1.5066562806191748</v>
+            <v>-1.7745062860625838</v>
           </cell>
           <cell r="T4">
-            <v>-1.5903594073202401</v>
+            <v>-1.607100032660453</v>
           </cell>
           <cell r="U4">
-            <v>-1.7410250353821577</v>
+            <v>-1.7577656607223706</v>
           </cell>
           <cell r="V4">
-            <v>-10.771611827688222</v>
+            <v>-10.558312583575585</v>
           </cell>
           <cell r="W4">
-            <v>-14.481644488605562</v>
+            <v>-12.978832324693663</v>
           </cell>
           <cell r="X4">
-            <v>-35.907483434937099</v>
+            <v>-37.817455958072053</v>
           </cell>
           <cell r="Y4">
-            <v>-38.199450462699041</v>
+            <v>-36.671472444191075</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="14">
         <row r="2">
           <cell r="B2">
-            <v>12.56747341771853</v>
+            <v>13.721629139753906</v>
           </cell>
           <cell r="C2">
-            <v>10.120401550313529</v>
+            <v>9.9238888988511302</v>
           </cell>
           <cell r="D2">
-            <v>9.2181460408514599</v>
+            <v>8.6594705232240994</v>
           </cell>
           <cell r="E2">
-            <v>7.6442777861298561</v>
+            <v>8.782787243638559</v>
           </cell>
           <cell r="F2">
             <v>10.017108530904391</v>
           </cell>
           <cell r="G2">
-            <v>4.3883983917386518</v>
+            <v>4.2146004356301896</v>
           </cell>
           <cell r="H2">
-            <v>8.1115855758595572</v>
+            <v>7.2018750439874566</v>
           </cell>
           <cell r="I2">
-            <v>16.024399155129657</v>
+            <v>15.587370087262485</v>
           </cell>
           <cell r="J2">
-            <v>21.615292032029004</v>
+            <v>19.708060382144094</v>
           </cell>
           <cell r="K2">
-            <v>27.195860023964094</v>
+            <v>26.944046505223685</v>
           </cell>
           <cell r="L2">
-            <v>28.589896550205481</v>
+            <v>28.040090847316911</v>
           </cell>
           <cell r="M2">
-            <v>25.929471911862642</v>
+            <v>25.644532660083932</v>
           </cell>
           <cell r="N2">
-            <v>30.96571548076415</v>
+            <v>29.179231895335448</v>
           </cell>
           <cell r="O2">
-            <v>29.7</v>
+            <v>28.2</v>
           </cell>
           <cell r="P2">
-            <v>28.893448788029289</v>
+            <v>27.106225151656346</v>
           </cell>
           <cell r="Q2">
-            <v>28.219582148166545</v>
+            <v>31.099131346959052</v>
           </cell>
           <cell r="R2">
-            <v>26.85543427553085</v>
+            <v>29.321749668181642</v>
           </cell>
           <cell r="S2">
-            <v>22.372122599474224</v>
+            <v>25.290225547231731</v>
           </cell>
           <cell r="T2">
-            <v>26.141420421497617</v>
+            <v>25.415269854233795</v>
           </cell>
           <cell r="U2">
-            <v>23.026279534204569</v>
+            <v>21.184177171468203</v>
           </cell>
           <cell r="V2">
-            <v>22.831428783820105</v>
+            <v>19.925610574970271</v>
           </cell>
           <cell r="W2">
-            <v>26.375136190144886</v>
+            <v>24.882203952966872</v>
           </cell>
           <cell r="X2">
-            <v>22.072406824913813</v>
+            <v>23.187174846374106</v>
           </cell>
           <cell r="Y2">
-            <v>18.121832537105277</v>
+            <v>16.148167607321533</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-25.62836192835006</v>
+            <v>-25.872441565762916</v>
           </cell>
           <cell r="C3">
-            <v>-33.637350922134118</v>
+            <v>-29.512015431683707</v>
           </cell>
           <cell r="D3">
             <v>-33.227461905213694</v>
           </cell>
           <cell r="E3">
-            <v>-32.55603767788984</v>
+            <v>-32.236860837910527</v>
           </cell>
           <cell r="F3">
             <v>-36.606265431296286</v>
           </cell>
           <cell r="G3">
-            <v>-37.450000000000003</v>
+            <v>-35.35</v>
           </cell>
           <cell r="H3">
-            <v>-30.334159980453187</v>
+            <v>-29.727476780844121</v>
           </cell>
           <cell r="I3">
-            <v>-4.9552794718710693</v>
+            <v>-5.0496657475257569</v>
           </cell>
           <cell r="J3">
-            <v>16.360541976311374</v>
+            <v>14.08824447960146</v>
           </cell>
           <cell r="K3">
-            <v>21.832954918703898</v>
+            <v>20.950815326028991</v>
           </cell>
           <cell r="L3">
-            <v>15.775773309569058</v>
+            <v>18.202815357195067</v>
           </cell>
           <cell r="M3">
-            <v>21.244683675996573</v>
+            <v>23.092047473909318</v>
           </cell>
           <cell r="N3">
-            <v>22.541576069528698</v>
+            <v>18.852954530878545</v>
           </cell>
           <cell r="O3">
-            <v>22.586995306607303</v>
+            <v>20.898247993963768</v>
           </cell>
           <cell r="P3">
             <v>11.327311296565515</v>
           </cell>
           <cell r="Q3">
-            <v>2.5883274311216837</v>
+            <v>2.8636814131559056</v>
           </cell>
           <cell r="R3">
-            <v>6.615571237467063</v>
+            <v>5.7579971881657768</v>
           </cell>
           <cell r="S3">
-            <v>7.5892077332500856</v>
+            <v>8.1844397123285244</v>
           </cell>
           <cell r="T3">
-            <v>4.1687813965053016</v>
+            <v>4.0343045772631951</v>
           </cell>
           <cell r="U3">
-            <v>-0.86965408653527465</v>
+            <v>-0.79439555981587573</v>
           </cell>
           <cell r="V3">
-            <v>-3.2970574583027488</v>
+            <v>-2.9379719925470038</v>
           </cell>
           <cell r="W3">
-            <v>-2.2711369263397581</v>
+            <v>-2.452827880446939</v>
           </cell>
           <cell r="X3">
-            <v>-10.347198777738882</v>
+            <v>-11.872049123931982</v>
           </cell>
           <cell r="Y3">
-            <v>-13.858346802185711</v>
+            <v>-13.563488359586016</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
+            <v>-35.177117253086003</v>
+          </cell>
+          <cell r="C4">
             <v>-40.472597269679596</v>
           </cell>
-          <cell r="C4">
-            <v>-40.850845842293424</v>
-          </cell>
           <cell r="D4">
-            <v>-40.838558626542998</v>
+            <v>-45.229801489612136</v>
           </cell>
           <cell r="E4">
-            <v>-55.000000000000007</v>
+            <v>-51.5</v>
           </cell>
           <cell r="F4">
-            <v>-45.5</v>
+            <v>-46.5</v>
           </cell>
           <cell r="G4">
-            <v>-53.5</v>
+            <v>-46.5</v>
           </cell>
           <cell r="H4">
-            <v>-18.142466672192832</v>
+            <v>-20.136144328477759</v>
           </cell>
           <cell r="I4">
-            <v>3.8845912624063557</v>
+            <v>4.0085675792916655</v>
           </cell>
           <cell r="J4">
-            <v>11.811090170124046</v>
+            <v>13.517136528030852</v>
           </cell>
           <cell r="K4">
-            <v>13.779605198478054</v>
+            <v>11.942324505347646</v>
           </cell>
           <cell r="L4">
-            <v>13.199508810549709</v>
+            <v>12.239544533418819</v>
           </cell>
           <cell r="M4">
-            <v>15.857411194128325</v>
+            <v>16.532194649197617</v>
           </cell>
           <cell r="N4">
-            <v>24.692579295356573</v>
+            <v>21.263054393223715</v>
           </cell>
           <cell r="O4">
-            <v>23.094618279428119</v>
+            <v>22.85895890922987</v>
           </cell>
           <cell r="P4">
-            <v>14.538790004958024</v>
+            <v>12.291886095100875</v>
           </cell>
           <cell r="Q4">
-            <v>11.138864594129357</v>
+            <v>9.282387161774464</v>
           </cell>
           <cell r="R4">
-            <v>-1.8414687874234361</v>
+            <v>-1.7745062860625838</v>
           </cell>
           <cell r="S4">
-            <v>-1.7912469114027969</v>
+            <v>-1.5736187819800269</v>
           </cell>
           <cell r="T4">
-            <v>-1.5401375312996011</v>
+            <v>-1.607100032660453</v>
           </cell>
           <cell r="U4">
-            <v>-1.7912469114027969</v>
+            <v>-1.8079875367430098</v>
           </cell>
           <cell r="V4">
-            <v>-11.731458426195095</v>
+            <v>-10.131714095350308</v>
           </cell>
           <cell r="W4">
-            <v>-13.115451612322017</v>
+            <v>-14.891502351490626</v>
           </cell>
           <cell r="X4">
-            <v>-40.491417490460982</v>
+            <v>-35.907483434937099</v>
           </cell>
           <cell r="Y4">
-            <v>-38.963439471953023</v>
+            <v>-36.289477939564087</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="15">
         <row r="2">
           <cell r="B2">
-            <v>13.080431516400919</v>
+            <v>13.465150090412711</v>
           </cell>
           <cell r="C2">
-            <v>10.808195830431925</v>
+            <v>9.3343509444639334</v>
           </cell>
           <cell r="D2">
-            <v>10.056159317292503</v>
+            <v>8.6594705232240994</v>
           </cell>
           <cell r="E2">
-            <v>7.7255998902376204</v>
+            <v>7.5629556820220918</v>
           </cell>
           <cell r="F2">
-            <v>8.519223143105604</v>
+            <v>8.8000766533178751</v>
           </cell>
           <cell r="G2">
-            <v>4.3449489027115362</v>
+            <v>4.5187468588199975</v>
           </cell>
           <cell r="H2">
-            <v>7.9599671538808732</v>
+            <v>7.3534934659661397</v>
           </cell>
           <cell r="I2">
-            <v>15.004664663439588</v>
+            <v>15.73304644321821</v>
           </cell>
           <cell r="J2">
-            <v>22.462950543088965</v>
+            <v>23.098694426383936</v>
           </cell>
           <cell r="K2">
-            <v>25.684978911521643</v>
+            <v>24.174097799079192</v>
           </cell>
           <cell r="L2">
-            <v>28.314993698761196</v>
+            <v>25.840868035762643</v>
           </cell>
           <cell r="M2">
-            <v>28.208985926092325</v>
+            <v>29.063803681428457</v>
           </cell>
           <cell r="N2">
-            <v>32.752199066192851</v>
+            <v>29.774726423811682</v>
           </cell>
           <cell r="O2">
-            <v>31.8</v>
+            <v>33</v>
           </cell>
           <cell r="P2">
-            <v>29.489190000153606</v>
+            <v>27.106225151656346</v>
           </cell>
           <cell r="Q2">
             <v>31.099131346959052</v>
           </cell>
           <cell r="R2">
-            <v>29.321749668181642</v>
+            <v>24.937188970135789</v>
           </cell>
           <cell r="S2">
-            <v>24.317524564645893</v>
+            <v>25.047050301585269</v>
           </cell>
           <cell r="T2">
-            <v>22.994767963354381</v>
+            <v>24.93116947605791</v>
           </cell>
           <cell r="U2">
-            <v>24.1775935109148</v>
+            <v>23.256542329546615</v>
           </cell>
           <cell r="V2">
-            <v>22.831428783820105</v>
+            <v>19.925610574970271</v>
           </cell>
           <cell r="W2">
-            <v>22.891627636729524</v>
+            <v>27.370424348263562</v>
           </cell>
           <cell r="X2">
-            <v>20.957638803453516</v>
+            <v>20.734685199161461</v>
           </cell>
           <cell r="Y2">
-            <v>18.480680706156868</v>
+            <v>16.148167607321533</v>
           </cell>
         </row>
         <row r="3">
@@ -3696,151 +3696,151 @@
             <v>-31.416016427276205</v>
           </cell>
           <cell r="D3">
-            <v>-37.774377744874521</v>
+            <v>-31.82841087762575</v>
           </cell>
           <cell r="E3">
-            <v>-31.917683997931213</v>
+            <v>-30.960153477993277</v>
           </cell>
           <cell r="F3">
-            <v>-37.290494691694349</v>
+            <v>-33.527233759505009</v>
           </cell>
           <cell r="G3">
-            <v>-38.5</v>
+            <v>-35</v>
           </cell>
           <cell r="H3">
-            <v>-30.63750158025772</v>
+            <v>-32.760892778889442</v>
           </cell>
           <cell r="I3">
-            <v>-4.908086334043726</v>
+            <v>-4.5777343692523207</v>
           </cell>
           <cell r="J3">
-            <v>14.542703978943441</v>
+            <v>16.663514975872694</v>
           </cell>
           <cell r="K3">
-            <v>23.597234104053708</v>
+            <v>20.509745529691543</v>
           </cell>
           <cell r="L3">
-            <v>17.509374772159063</v>
+            <v>17.856095064677064</v>
           </cell>
           <cell r="M3">
-            <v>24.015729372865692</v>
+            <v>23.784808898126599</v>
           </cell>
           <cell r="N3">
-            <v>19.057877949692443</v>
+            <v>19.877571624948033</v>
           </cell>
           <cell r="O3">
-            <v>20.053874337641997</v>
+            <v>21.109341408044209</v>
           </cell>
           <cell r="P3">
-            <v>10.455979658368168</v>
+            <v>10.564896113142836</v>
           </cell>
           <cell r="Q3">
-            <v>2.9187522095627498</v>
+            <v>2.8636814131559056</v>
           </cell>
           <cell r="R3">
-            <v>6.3705500805238389</v>
+            <v>6.4318053697596449</v>
           </cell>
           <cell r="S3">
-            <v>7.7380157280196951</v>
+            <v>7.2171877463260614</v>
           </cell>
           <cell r="T3">
-            <v>4.6618630670596923</v>
+            <v>4.4825606414035502</v>
           </cell>
           <cell r="U3">
-            <v>-0.87801614505965231</v>
+            <v>-0.91146437915716283</v>
           </cell>
           <cell r="V3">
-            <v>-3.2317691918017037</v>
+            <v>-3.0685485255490925</v>
           </cell>
           <cell r="W3">
-            <v>-2.452827880446939</v>
+            <v>-2.4982506189737341</v>
           </cell>
           <cell r="X3">
-            <v>-10.782870305222625</v>
+            <v>-10.67395242335169</v>
           </cell>
           <cell r="Y3">
-            <v>-14.300634466085256</v>
+            <v>-15.037780572584497</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-34.420620107858348</v>
+            <v>-35.177117253086003</v>
           </cell>
           <cell r="C4">
-            <v>-38.959602979224279</v>
+            <v>-37.068360116155141</v>
           </cell>
           <cell r="D4">
-            <v>-43.034180058077567</v>
+            <v>-39.96031005392917</v>
           </cell>
           <cell r="E4">
-            <v>-45</v>
+            <v>-50</v>
           </cell>
           <cell r="F4">
-            <v>-47.5</v>
+            <v>-52</v>
           </cell>
           <cell r="G4">
-            <v>-48</v>
+            <v>-54.500000000000007</v>
           </cell>
           <cell r="H4">
-            <v>-19.73740879722077</v>
+            <v>-21.332350922248715</v>
           </cell>
           <cell r="I4">
-            <v>3.8432658234445864</v>
+            <v>4.0912184572152048</v>
           </cell>
           <cell r="J4">
-            <v>12.99219918713645</v>
+            <v>14.435776874596057</v>
           </cell>
           <cell r="K4">
-            <v>11.811090170124046</v>
+            <v>11.942324505347646</v>
           </cell>
           <cell r="L4">
-            <v>12.359540068060181</v>
+            <v>12.599531137342902</v>
           </cell>
           <cell r="M4">
-            <v>16.700890512964939</v>
+            <v>18.219153286870842</v>
           </cell>
           <cell r="N4">
-            <v>22.17759436712581</v>
+            <v>23.549404327978952</v>
           </cell>
           <cell r="O4">
-            <v>23.094618279428119</v>
+            <v>23.801596390022855</v>
           </cell>
           <cell r="P4">
-            <v>12.027544458647093</v>
+            <v>13.084911004462221</v>
           </cell>
           <cell r="Q4">
-            <v>10.932589323867703</v>
+            <v>9.5918000671669468</v>
           </cell>
           <cell r="R4">
-            <v>-1.7912469114027969</v>
+            <v>-1.5066562806191748</v>
           </cell>
           <cell r="S4">
-            <v>-1.556878156639814</v>
+            <v>-1.7242844100419445</v>
           </cell>
           <cell r="T4">
-            <v>-1.7745062860625838</v>
+            <v>-1.8414687874234361</v>
           </cell>
           <cell r="U4">
-            <v>-1.6238406580006661</v>
+            <v>-1.7577656607223706</v>
           </cell>
           <cell r="V4">
-            <v>-10.238363717406626</v>
+            <v>-10.664962205631904</v>
           </cell>
           <cell r="W4">
             <v>-14.071786625720499</v>
           </cell>
           <cell r="X4">
-            <v>-40.491417490460982</v>
+            <v>-38.581444967326028</v>
           </cell>
           <cell r="Y4">
-            <v>-37.817455958072053</v>
+            <v>-36.671472444191075</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
       <sheetData sheetId="20">
         <row r="2">
           <cell r="B2">
@@ -4512,100 +4512,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
-        <v>10.813262185630244</v>
+        <f ca="1">('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
+        <v>11.963609226654738</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
-        <v>9.7608071803135203</v>
+        <f ca="1">('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
+        <v>8.4297880193616752</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
         <v>7.0644072097259922</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
-        <v>7.953657386991944</v>
+        <f ca="1">('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
+        <v>7.0616584277031276</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
-        <v>8.8708464623817651</v>
+        <f ca="1">('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
+        <v>9.2087834704725005</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
-        <v>10.909479388713324</v>
+        <f ca="1">('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
+        <v>11.224175909541595</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
-        <v>16.112389634917555</v>
+        <f ca="1">('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
+        <v>16.763395276732407</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
-        <v>21.060963070120419</v>
+        <f ca="1">('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
+        <v>18.478014769067915</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
-        <v>23.87384725586373</v>
+        <f ca="1">('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
+        <v>21.578285019722983</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
-        <v>26.289498917164558</v>
+        <f ca="1">('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
+        <v>27.300633490901657</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
-        <v>27.276112959711458</v>
+        <f ca="1">('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
+        <v>27.785946846808869</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
-        <v>27.287722327320541</v>
+        <f ca="1">('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
+        <v>25.28495371614105</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
-        <v>24.386991873723336</v>
+        <f ca="1">('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
+        <v>26.901114747303062</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
-        <v>25.133523722906997</v>
+        <f ca="1">('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
+        <v>23.640443105704602</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
-        <v>23.122316554523731</v>
+        <f ca="1">('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
+        <v>21.775385493095161</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
-        <v>22.821413977088124</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
+        <v>23.247982462641176</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
-        <v>20.690338821966044</v>
+        <f ca="1">('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
+        <v>22.231108734240113</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
-        <v>30.6</v>
+        <f ca="1">('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
+        <v>28.799999999999997</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
-        <v>32.652529518319184</v>
+        <f ca="1">('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
+        <v>30.555578081362903</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
-        <v>30.204011937412258</v>
+        <f ca="1">('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
+        <v>27.009356828647501</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
-        <v>26.344095349460709</v>
+        <f ca="1">('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
+        <v>25.000008852039247</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
         <v>22.711477047238613</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
-        <v>19.88893542156908</v>
+        <f ca="1">('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
+        <v>20.668893673395321</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
-        <v>16.455401457579349</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
+        <v>15.857023222758279</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4613,100 +4613,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
-        <v>-27.059434563384116</v>
+        <f ca="1">('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
+        <v>-29.09616619718722</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
         <v>-34.153420035377039</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
-        <v>-30.656624782507482</v>
+        <f ca="1">('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
+        <v>-33.041028932258058</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
-        <v>-31.447900826727576</v>
+        <f ca="1">('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
+        <v>-31.786050297982708</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
-        <v>-37.1</v>
+        <f ca="1">('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
+        <v>-35.35</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
-        <v>-30.533456625970175</v>
+        <f ca="1">('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
+        <v>-28.975627206277821</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
-        <v>-22.737824767768746</v>
+        <f ca="1">('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
+        <v>-20.881675807134563</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
-        <v>-9.3593411012408989</v>
+        <f ca="1">('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
+        <v>-10.218872426865063</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
-        <v>-2.6437712241448565</v>
+        <f ca="1">('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
+        <v>-2.8968982562438326</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
-        <v>-0.47517014419796066</v>
+        <f ca="1">('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
+        <v>-0.48396959131273776</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
-        <v>-3.6733335184034677</v>
+        <f ca="1">('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
+        <v>-3.7128317282787733</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
-        <v>-3.0490232726085993</v>
+        <f ca="1">('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
+        <v>-2.7586401037887325</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
-        <v>-4.3006491566666343</v>
+        <f ca="1">('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
+        <v>-3.9389123117133655</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
-        <v>-3.7301787689146848</v>
+        <f ca="1">('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
+        <v>-4.1356329829271505</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
-        <v>-9.942497134275909</v>
+        <f ca="1">('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
+        <v>-11.274996750209795</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
-        <v>-13.580680755082602</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
+        <v>-14.023529040574426</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
-        <v>-12.996478098968542</v>
+        <f ca="1">('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
+        <v>-12.340090316192352</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
-        <v>-4.1227000778745406</v>
+        <f ca="1">('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
+        <v>-4.4811957368201529</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
-        <v>-6.9748302299744198</v>
+        <f ca="1">('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
+        <v>-6.5837182544618349</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
-        <v>-8.7676949386499885</v>
+        <f ca="1">('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
+        <v>-8.1941074192990548</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
-        <v>-13.257635378170251</v>
+        <f ca="1">('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
+        <v>-12.742775751833543</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
-        <v>-15.037227702193796</v>
+        <f ca="1">('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
+        <v>-17.37635201142394</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
-        <v>-21.519451929561264</v>
+        <f ca="1">('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
+        <v>-24.657705335955615</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
-        <v>-24.221973744975092</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
+        <v>-27.249720463096981</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4714,100 +4714,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
-        <v>36.32797514434386</v>
+        <f ca="1">('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
+        <v>40.768060995319225</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
-        <v>46.5</v>
+        <f ca="1">('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
+        <v>47</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
-        <v>49.5</v>
+        <f ca="1">('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
+        <v>54</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
-        <v>45</v>
+        <f ca="1">('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
+        <v>46</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
-        <v>52.5</v>
+        <f ca="1">('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
+        <v>54.500000000000007</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
-        <v>39.297282093772338</v>
+        <f ca="1">('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
+        <v>40.512661952342619</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
-        <v>19.478072320084078</v>
+        <f ca="1">('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
+        <v>16.905496730639008</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
-        <v>2.2710338938270671</v>
+        <f ca="1">('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
+        <v>2.2946904968877657</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
-        <v>-12.596091059454192</v>
+        <f ca="1">('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
+        <v>-13.703439724021594</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
-        <v>-14.533951222447145</v>
+        <f ca="1">('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
+        <v>-12.457672476383268</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
-        <v>-1.2755194405977883</v>
+        <f ca="1">('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
+        <v>-1.0728668191944013</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
+        <v>-15.300929136764116</v>
+      </c>
+      <c r="N4" s="2">
+        <f ca="1">('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
         <v>-14.867883972516074</v>
       </c>
-      <c r="N4" s="2">
-        <f>('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
-        <v>-15.733974301012157</v>
-      </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
-        <v>-10.838355827587394</v>
+        <f ca="1">('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
+        <v>-10.056206437967687</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
-        <v>-1.3897344106078398</v>
+        <f ca="1">('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
+        <v>-1.2507609695470558</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
         <v>8.6458839498713065</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
-        <v>12.587753793464147</v>
+        <f ca="1">('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
+        <v>10.839454655483015</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
-        <v>11.189114483079241</v>
+        <f ca="1">('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
+        <v>10.606348103752197</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
-        <v>10.956007931348424</v>
+        <f ca="1">('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
+        <v>10.722901379617607</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
-        <v>11.072561207213832</v>
+        <f ca="1">('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
+        <v>12.704307069329555</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
-        <v>11.305667758944649</v>
+        <f ca="1">('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
+        <v>12.23809396586792</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
-        <v>23.575958192632729</v>
+        <f ca="1">('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
+        <v>22.846804846468828</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
-        <v>40.124760230950187</v>
+        <f ca="1">('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
+        <v>39.753234673256202</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
-        <v>35.294927980928399</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
+        <v>39.381709115562217</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5659,100 +5659,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
-        <v>12.308713338962088</v>
+        <f ca="1">('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
+        <v>12.423748043064537</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
-        <v>9.7608071803135203</v>
+        <f ca="1">('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
+        <v>8.6959918515520442</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
-        <v>6.9124844740329605</v>
+        <f ca="1">('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
+        <v>7.444214048958572</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
-        <v>7.5819911539549372</v>
+        <f ca="1">('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
+        <v>6.764325441273523</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
-        <v>8.0260039421549312</v>
+        <f ca="1">('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
+        <v>9.2932677224951838</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
-        <v>10.175187506780697</v>
+        <f ca="1">('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
+        <v>11.224175909541595</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
-        <v>15.461383993102704</v>
+        <f ca="1">('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
+        <v>14.810378351287854</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
-        <v>19.471456423318877</v>
+        <f ca="1">('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
+        <v>19.074079761618489</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
-        <v>23.644291032249654</v>
+        <f ca="1">('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
+        <v>22.726066137793357</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
-        <v>26.036715273730284</v>
+        <f ca="1">('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
+        <v>23.003311552518987</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
-        <v>28.040863790357577</v>
+        <f ca="1">('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
+        <v>24.217109637126995</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
-        <v>27.287722327320541</v>
+        <f ca="1">('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
+        <v>25.034607639743612</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
-        <v>24.88981644843928</v>
+        <f ca="1">('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
+        <v>24.638404161081308</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
-        <v>24.138136644772068</v>
+        <f ca="1">('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
+        <v>24.635830183839534</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
-        <v>21.775385493095161</v>
+        <f ca="1">('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
+        <v>23.122316554523731</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
-        <v>20.901855792099404</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
+        <v>23.247982462641176</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
-        <v>19.80989887209515</v>
+        <f ca="1">('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
+        <v>22.891438696643288</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
-        <v>31.200000000000003</v>
+        <f ca="1">('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
+        <v>33</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
-        <v>27.559933171425364</v>
+        <f ca="1">('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
+        <v>28.159062153412869</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
-        <v>26.428510445235727</v>
+        <f ca="1">('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
+        <v>27.299780020353385</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
-        <v>28.763451044819348</v>
+        <f ca="1">('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
+        <v>25.537643451007831</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
-        <v>25.341227021129402</v>
+        <f ca="1">('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
+        <v>25.102158841684787</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
         <v>18.718998043829721</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
-        <v>16.156212340168814</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
+        <v>14.061888518295078</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5760,100 +5760,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
         <v>-30.841936169018453</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
-        <v>-28.461183362814197</v>
+        <f ca="1">('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
+        <v>-32.888478552585298</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
-        <v>-30.997253946757564</v>
+        <f ca="1">('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
+        <v>-34.403545589258393</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
-        <v>-30.771601884217304</v>
+        <f ca="1">('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
+        <v>-34.829395539278927</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
-        <v>-36.75</v>
+        <f ca="1">('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
+        <v>-36.050000000000004</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
-        <v>-33.96068134929336</v>
+        <f ca="1">('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
+        <v>-33.337549581416418</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
-        <v>-21.34571304729311</v>
+        <f ca="1">('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
+        <v>-23.433880628006566</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
-        <v>-8.7863202174914559</v>
+        <f ca="1">('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
+        <v>-9.6458515431156204</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
-        <v>-3.0656496109764833</v>
+        <f ca="1">('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
+        <v>-2.8968982562438326</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
-        <v>-0.43997235573885246</v>
+        <f ca="1">('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
+        <v>-0.46197097352579508</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
-        <v>-3.8313263579046914</v>
+        <f ca="1">('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
+        <v>-4.305304876408365</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
-        <v>-2.7586401037887325</v>
+        <f ca="1">('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
+        <v>-2.9328700050806527</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
-        <v>-4.0594912600311215</v>
+        <f ca="1">('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
+        <v>-4.3006491566666343</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
-        <v>-4.1761784043283967</v>
+        <f ca="1">('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
+        <v>-3.8518150331184242</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
-        <v>-9.6349972229065504</v>
+        <f ca="1">('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
+        <v>-10.967496838840438</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
-        <v>-14.761609516394133</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
+        <v>-15.204457801885956</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
-        <v>-13.521588325189494</v>
+        <f ca="1">('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
+        <v>-12.471367872747591</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
-        <v>-4.9293153105021688</v>
+        <f ca="1">('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
+        <v>-4.6604435662929591</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
-        <v>-6.1926062789492509</v>
+        <f ca="1">('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
+        <v>-7.1052008884786142</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
-        <v>-7.7024609741411112</v>
+        <f ca="1">('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
+        <v>-7.948284196720083</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
-        <v>-13.128920471586074</v>
+        <f ca="1">('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
+        <v>-14.029924817675315</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
-        <v>-16.540950472413176</v>
+        <f ca="1">('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
+        <v>-15.371388317798102</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
-        <v>-23.536900547957632</v>
+        <f ca="1">('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
+        <v>-22.640256717559247</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
-        <v>-26.745096010076665</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
+        <v>-26.240471557056349</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5861,100 +5861,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
-        <v>44.400858509753611</v>
+        <f ca="1">('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
+        <v>39.960772658778247</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
-        <v>48</v>
+        <f ca="1">('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
+        <v>54</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
+        <v>54</v>
+      </c>
+      <c r="E4" s="2">
+        <f ca="1">('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
+        <v>52.5</v>
+      </c>
+      <c r="F4" s="2">
+        <f ca="1">('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
         <v>47.5</v>
       </c>
-      <c r="E4" s="2">
-        <f>('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
-        <v>46.5</v>
-      </c>
-      <c r="F4" s="2">
-        <f>('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
-        <v>51.5</v>
-      </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
-        <v>43.75367490853003</v>
+        <f ca="1">('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
+        <v>39.702408713295767</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
-        <v>19.845583118576229</v>
+        <f ca="1">('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
+        <v>17.824273726869389</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
-        <v>2.2473772907663685</v>
+        <f ca="1">('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
+        <v>2.5312565274947518</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
-        <v>-14.810788388588996</v>
+        <f ca="1">('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
+        <v>-13.841858307092519</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
-        <v>-15.087625554730847</v>
+        <f ca="1">('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
+        <v>-14.11869547323437</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
-        <v>-1.3112816679042683</v>
+        <f ca="1">('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
+        <v>-1.1801535011138413</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
-        <v>-14.146142032102672</v>
+        <f ca="1">('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
+        <v>-15.300929136764116</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
-        <v>-14.001793644019992</v>
+        <f ca="1">('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
+        <v>-15.589625912929476</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
-        <v>-11.620505217207103</v>
+        <f ca="1">('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
+        <v>-10.726620200498864</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
-        <v>-1.3758370665017614</v>
+        <f ca="1">('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
+        <v>-1.4453237870321534</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
-        <v>8.142240224636085</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
+        <v>8.8137651916163815</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
-        <v>12.587753793464147</v>
+        <f ca="1">('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
+        <v>10.489794827886788</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
-        <v>10.606348103752197</v>
+        <f ca="1">('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
+        <v>12.121540690002512</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
-        <v>10.839454655483015</v>
+        <f ca="1">('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
+        <v>10.956007931348424</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
-        <v>10.839454655483015</v>
+        <f ca="1">('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
+        <v>11.305667758944649</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
-        <v>12.004987414137103</v>
+        <f ca="1">('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
+        <v>12.121540690002512</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
-        <v>25.277316000348492</v>
+        <f ca="1">('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
+        <v>25.763418231124426</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
-        <v>40.496285788644172</v>
+        <f ca="1">('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
+        <v>40.124760230950187</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
-        <v>34.551876865540436</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
+        <v>35.666453538622385</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13005,7 +13005,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13884,100 +13884,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>73.230833112774206</v>
+        <f ca="1">('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>62.893737819680219</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>61.482845443226395</v>
+        <f ca="1">('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>56.364225661085939</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>54.228383828063592</v>
+        <f ca="1">('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>58.530787242306992</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>52.976116196399751</v>
+        <f ca="1">('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>57.142063923937876</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>59.982608771258995</v>
+        <f ca="1">('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>55.014277407191891</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>52.782026900545567</v>
+        <f ca="1">('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>54.804547909336627</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>66.733625400505176</v>
+        <f ca="1">('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>62.58254120047274</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>63.687385559047058</v>
+        <f ca="1">('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>70.570374672608068</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>79.412349018932005</v>
+        <f ca="1">('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>83.289424951232604</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>84.521430937314292</v>
+        <f ca="1">('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>87.85033852747668</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>78.430999060020355</v>
+        <f ca="1">('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>84.443018767934007</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>90.205940005533691</v>
+        <f ca="1">('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>84.971223944184985</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>80.609479943008182</v>
+        <f ca="1">('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>85.946980510637289</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>96.075932316706073</v>
+        <f ca="1">('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>83.51976012393358</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>86.575199999999995</v>
+        <f ca="1">('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>100.07520000000001</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>79.869806641579245</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>91.128725957723219</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>85.510554719710569</v>
+        <f ca="1">('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>87.243563125069102</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>86.145824653096085</v>
+        <f ca="1">('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>83.647660062458812</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>77.722499885415871</v>
+        <f ca="1">('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>84.419323477936501</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>84.053066311769982</v>
+        <f ca="1">('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>83.209080937769428</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>81.113601880396018</v>
+        <f ca="1">('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>83.624744796301243</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>89.774463131433379</v>
+        <f ca="1">('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>94.976788029519653</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>88.542199670881615</v>
+        <f ca="1">('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>79.223834720380381</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>85.098544854237431</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>72.984908912331022</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -13985,100 +13985,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f ca="1">('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>80.424676035947854</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>65.508076057517584</v>
+        <f ca="1">('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>75.446760940049529</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>68.639932333166499</v>
+        <f ca="1">('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>65.384905037088004</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>67.022677761126616</v>
+        <f ca="1">('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>68.321362609275084</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>63.935441357795909</v>
+        <f ca="1">('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>71.078771159124656</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>63.050550266395611</v>
+        <f ca="1">('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>71.418007687979255</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>78.764734258996427</v>
+        <f ca="1">('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>77.374977763089703</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>90.328254119753311</v>
+        <f ca="1">('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>79.603380940187563</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>87.799205035992415</v>
+        <f ca="1">('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>85.918696445015271</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f ca="1">('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>98.402143261591959</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>101.03586190218945</v>
+        <f ca="1">('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>99.117183958171935</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>98.041766829593229</v>
+        <f ca="1">('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>102.97410554232721</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>108.60774603174603</v>
+        <f ca="1">('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>93.607746031746032</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>105.15894461558973</v>
+        <f ca="1">('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>107.12194836245472</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>97.395913919288617</v>
+        <f ca="1">('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>91.737017022075563</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>87.167844757879678</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>96.219738191039951</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>94.599204555049909</v>
+        <f ca="1">('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>91.836258762814538</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>94.350576406235348</v>
+        <f ca="1">('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>88.770090393289792</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>99.794867677276585</v>
+        <f ca="1">('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>102.59695422878981</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>93.329109038294192</v>
+        <f ca="1">('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>90.573409901371733</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>85.603159357475548</v>
+        <f ca="1">('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>89.288464422707392</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>100.30638892020609</v>
+        <f ca="1">('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>91.671017351561872</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>89.125438265481051</v>
+        <f ca="1">('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>99.85772026985083</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>80.746377091955026</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>79.926525169349645</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -14086,100 +14086,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>87.920782972633518</v>
+        <f ca="1">('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>94.575743622988284</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>74.474234798916555</v>
+        <f ca="1">('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>83.56354722560728</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>74.926953193010235</v>
+        <f ca="1">('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>69.164005556441822</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>77.757608410732288</v>
+        <f ca="1">('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>70.810376056665916</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>74.360302770693039</v>
+        <f ca="1">('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>77.833918947726218</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>84.318556762798309</v>
+        <f ca="1">('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>76.124669340486719</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>88.777089205969773</v>
+        <f ca="1">('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>104.64380461997833</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>115.3587429743874</v>
+        <f ca="1">('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>106.17047528246816</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>114.32181300752231</v>
+        <f ca="1">('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>116.71923129306079</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f ca="1">('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>112.1419573698272</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>123.55329300127362</v>
+        <f ca="1">('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>117.68797368224092</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>124.22682539682539</v>
+        <f ca="1">('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>115.47682539682539</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>128.25968253968253</v>
+        <f ca="1">('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>123.25968253968254</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>137.64968253968254</v>
+        <f ca="1">('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>132.64968253968254</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>123.78320974920109</v>
+        <f ca="1">('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>116.65952762788839</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>122.86091476114177</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>111.62088297108895</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>111.81292874741798</v>
+        <f ca="1">('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>101.34225712254926</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>108.4789458117562</v>
+        <f ca="1">('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>99.055341349374359</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>96.26787369106728</v>
+        <f ca="1">('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>101.50320950350164</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>98.069627063660079</v>
+        <f ca="1">('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>109.58736585101566</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>101.5698761701683</v>
+        <f ca="1">('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>104.71107765762892</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f ca="1">('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>113.73309481842348</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>99.871851842644588</v>
+        <f ca="1">('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>107.94733685069568</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>95.190713664896819</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>98.024172163123865</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15033,100 +15033,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>64.185874731316957</v>
+        <f ca="1">('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>66.770148554590463</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>55.226754598388069</v>
+        <f ca="1">('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>63.189052037273214</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>56.379585535185292</v>
+        <f ca="1">('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>59.606388095867842</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>51.413885798572949</v>
+        <f ca="1">('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>51.934629264515216</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>58.878535134799641</v>
+        <f ca="1">('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>57.774461498340287</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>53.793287404941097</v>
+        <f ca="1">('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>57.332699170325448</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>57.245432943288172</v>
+        <f ca="1">('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>59.617481057592421</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>62.310787736334852</v>
+        <f ca="1">('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>65.752282293115357</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>85.615670510612958</v>
+        <f ca="1">('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>82.514009764772482</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>86.185884732395479</v>
+        <f ca="1">('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>85.353657834854886</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>93.031618350667799</v>
+        <f ca="1">('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>92.172758392394428</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>79.736507882836293</v>
+        <f ca="1">('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>92.823298036208044</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>81.499063370946374</v>
+        <f ca="1">('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>96.621981645895531</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>82.622890681592679</v>
+        <f ca="1">('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>90.694715662660712</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>85.67519999999999</v>
+        <f ca="1">('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>88.375199999999992</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>91.994796674349686</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>86.798372374590912</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>85.510554719710569</v>
+        <f ca="1">('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>82.044537908993519</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>76.153166290546977</v>
+        <f ca="1">('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>77.818609350971826</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>89.441941172326977</v>
+        <f ca="1">('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>90.279044121392062</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>92.492920051775627</v>
+        <f ca="1">('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>79.833139441767173</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>91.158173544016947</v>
+        <f ca="1">('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>92.832268821287116</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>91.50857143079547</v>
+        <f ca="1">('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>88.040354832071287</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>83.459455152426386</v>
+        <f ca="1">('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>85.153703325244805</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>75.256215651438467</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>81.313033622391671</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -15134,100 +15134,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f ca="1">('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>80.424676035947854</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f ca="1">('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>62.857760088842404</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>64.733899577872307</v>
+        <f ca="1">('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>71.243954170029298</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>63.126623216681239</v>
+        <f ca="1">('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>72.866759577794696</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>71.728164777427281</v>
+        <f ca="1">('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>73.676345632335114</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>60.475947982831421</v>
+        <f ca="1">('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>72.70530882976135</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>69.731317035602757</v>
+        <f ca="1">('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>65.562047547882614</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>77.953400451023597</v>
+        <f ca="1">('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>79.603380940187563</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>89.679713626969544</v>
+        <f ca="1">('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>87.799205035992415</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>89.679824979441619</v>
+        <f ca="1">('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>96.463850310002982</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>91.442472182101852</v>
+        <f ca="1">('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>99.117183958171935</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>95.082363601952835</v>
+        <f ca="1">('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>103.96057328487402</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f ca="1">('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>104.60774603174603</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>99.269933374994807</v>
+        <f ca="1">('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>105.15894461558973</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>102.11166133363284</v>
+        <f ca="1">('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>92.68016650494441</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>82.641898041299555</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>84.452276727931604</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>96.441168416540151</v>
+        <f ca="1">('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>89.994294901324295</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>92.490414401920162</v>
+        <f ca="1">('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>91.56033339976257</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>93.256665723745741</v>
+        <f ca="1">('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>102.59695422878981</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>97.921940933164962</v>
+        <f ca="1">('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>94.247675417268354</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>99.42305335209501</v>
+        <f ca="1">('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>84.681833091167576</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f ca="1">('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>106.06330329930222</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>90.019795099178538</v>
+        <f ca="1">('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>94.491579267665941</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>89.764748240614153</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>82.386080937165772</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -15235,100 +15235,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>93.743873541693929</v>
+        <f ca="1">('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>87.920782972633518</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>82.048661821158831</v>
+        <f ca="1">('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>72.201906692243881</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>72.045479374726028</v>
+        <f ca="1">('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>82.130637738720736</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>70.810376056665916</v>
+        <f ca="1">('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>78.452331646138916</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>71.581409829066487</v>
+        <f ca="1">('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>74.360302770693039</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>82.828759049650742</v>
+        <f ca="1">('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>80.594062479929406</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>90.643761607617819</v>
+        <f ca="1">('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>87.843753005145729</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>105.02194182097826</v>
+        <f ca="1">('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>117.65580989736721</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>131.1037410062917</v>
+        <f ca="1">('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>110.72568557921458</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>127.39903390882277</v>
+        <f ca="1">('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>123.87817009213148</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>114.16878209082131</v>
+        <f ca="1">('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>129.41861232030629</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>132.9768253968254</v>
+        <f ca="1">('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>131.7268253968254</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>113.25968253968254</v>
+        <f ca="1">('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>138.25968253968253</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>128.89968253968254</v>
+        <f ca="1">('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>130.14968253968254</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>116.65952762788839</v>
+        <f ca="1">('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>124.9704901027532</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>111.62088297108895</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>106.00086707606256</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>98.20105563508865</v>
+        <f ca="1">('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>114.9541302348786</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f ca="1">('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>112.66721446170369</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>114.06801545334412</v>
+        <f ca="1">('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>110.9268139658835</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>109.58736585101566</v>
+        <f ca="1">('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>108.54029868852879</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f ca="1">('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>107.85227914508954</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>108.49775900598911</v>
+        <f ca="1">('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>106.40362468101536</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>99.871851842644588</v>
+        <f ca="1">('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>94.824673712612679</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>98.968658329199542</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>103.69108915957797</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -16182,100 +16182,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>70.000490833682321</v>
+        <f ca="1">('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>70.646559289500701</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>60.914109911877453</v>
+        <f ca="1">('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>54.658019067039127</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>56.917385961965714</v>
+        <f ca="1">('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>52.077182120941899</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>51.934629264515216</v>
+        <f ca="1">('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>53.496859662342011</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>57.774461498340287</v>
+        <f ca="1">('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>52.806130134273189</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>49.748245387358985</v>
+        <f ca="1">('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>54.298917657138865</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>57.245432943288172</v>
+        <f ca="1">('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>64.361577286200927</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>73.32357031803248</v>
+        <f ca="1">('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>66.440581204471457</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>73.984442713711175</v>
+        <f ca="1">('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>80.96317939185225</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>75.366935064367766</v>
+        <f ca="1">('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>80.360296449611326</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>87.878458601027518</v>
+        <f ca="1">('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>85.301878726207377</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>91.078392682425147</v>
+        <f ca="1">('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>80.608960559727734</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>90.394897650328232</v>
+        <f ca="1">('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>94.842814790019162</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>97.86967120138786</v>
+        <f ca="1">('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>96.972801759046973</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>82.075199999999995</v>
+        <f ca="1">('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>90.17519999999999</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>84.200160224711539</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>83.334089508085071</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>94.175596746503203</v>
+        <f ca="1">('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>85.510554719710569</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>86.978546183308524</v>
+        <f ca="1">('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>81.149495471821524</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>91.116147070457146</v>
+        <f ca="1">('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>91.953250019522216</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>85.741037059771116</v>
+        <f ca="1">('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>84.053066311769982</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>87.809982989476637</v>
+        <f ca="1">('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>80.276554241760934</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>84.57213823334709</v>
+        <f ca="1">('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>88.040354832071287</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>79.223834720380381</v>
+        <f ca="1">('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>94.472068275746054</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>76.01331789780761</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>70.713602173223563</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -16283,99 +16283,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>70.944100762895843</v>
+        <f ca="1">('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>82.612501098959854</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>75.446760940049529</v>
+        <f ca="1">('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>67.495813034023982</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>68.639932333166499</v>
+        <f ca="1">('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>71.894959629244994</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>70.269389881497773</v>
+        <f ca="1">('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>68.321362609275084</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>67.182409449308977</v>
+        <f ca="1">('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>62.636654121190688</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>64.981501979068767</v>
+        <f ca="1">('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>66.268803120850862</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>71.815951779462836</v>
+        <f ca="1">('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>65.562047547882614</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>81.253361429351514</v>
+        <f ca="1">('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>82.078351673933497</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>98.142002286366662</v>
+        <f ca="1">('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>100.02251087734381</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>94.525557358414019</v>
+        <f ca="1">('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>107.12446154374231</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>88.564455266075598</v>
+        <f ca="1">('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>103.91387881821572</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>89.163557146672048</v>
+        <f ca="1">('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>105.9335087699676</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f ca="1">('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>100.60774603174603</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>104.17744274215725</v>
+        <f ca="1">('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>98.288431501562314</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>87.021269607731355</v>
+        <f ca="1">('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>88.907568573469035</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>82.641898041299555</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>98.030116877672</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>87.231349109088939</v>
+        <f ca="1">('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>86.310367178343824</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>90.630252397604977</v>
+        <f ca="1">('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>99.000981417023311</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>88.586521471223705</v>
+        <f ca="1">('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>103.53098307929422</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>91.491976280345895</v>
+        <f ca="1">('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>84.143445248552666</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>97.580400819479081</v>
+        <f ca="1">('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>91.131116955323321</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>92.63050308141122</v>
+        <f ca="1">('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>91.671017351561872</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>86.442367764388607</v>
+        <f ca="1">('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>94.491579267665941</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f ca="1">('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>80.746377091955026</v>
       </c>
     </row>
@@ -16384,100 +16384,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>80.433952240984425</v>
+        <f ca="1">('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>92.080133379105249</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>87.350760736728418</v>
+        <f ca="1">('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>75.23167750114078</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>70.604742465583925</v>
+        <f ca="1">('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>80.689900829578633</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>74.283992233699095</v>
+        <f ca="1">('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>70.810376056665916</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>70.88668659365986</v>
+        <f ca="1">('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>68.80251688743995</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>82.828759049650742</v>
+        <f ca="1">('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>75.379770483912935</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>86.910416804321699</v>
+        <f ca="1">('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>101.84379601750624</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>109.61607566693786</v>
+        <f ca="1">('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>126.84407758928647</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>114.32181300752231</v>
+        <f ca="1">('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>131.1037410062917</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>121.53092754767063</v>
+        <f ca="1">('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>115.66282118651849</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>114.16878209082131</v>
+        <f ca="1">('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>115.34184595462784</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>114.22682539682539</v>
+        <f ca="1">('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>125.47682539682539</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>124.50968253968254</v>
+        <f ca="1">('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>127.00968253968254</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>136.39968253968254</v>
+        <f ca="1">('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>123.89968253968254</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>116.65952762788839</v>
+        <f ca="1">('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>119.03408833499263</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>112.74488615009423</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>119.48890522412593</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>102.38932428503612</v>
+        <f ca="1">('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>96.106921310114899</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>113.71428162419056</v>
+        <f ca="1">('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>98.008274186887476</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>111.97388112837037</v>
+        <f ca="1">('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>100.45614234101475</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>104.3520300385813</v>
+        <f ca="1">('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>94.928425576199459</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>104.71107765762892</v>
+        <f ca="1">('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>109.94641347006328</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>106.40362468101536</v>
+        <f ca="1">('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>101.168288868581</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f ca="1">('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>103.90959434667013</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>88.579310502367036</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>91.412769000594082</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -17331,100 +17331,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
-        <v>12.182754843706737</v>
+        <f ca="1">('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
+        <v>12.695712942389127</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
-        <v>8.8430693158079379</v>
+        <f ca="1">('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
+        <v>9.0395819672703368</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
-        <v>9.1250334545802332</v>
+        <f ca="1">('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
+        <v>10.149271903563729</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
-        <v>8.4574988272075</v>
+        <f ca="1">('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
+        <v>7.9695662025609142</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
-        <v>10.297962041116664</v>
+        <f ca="1">('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
+        <v>9.1745480002675723</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
-        <v>3.9973529904946137</v>
+        <f ca="1">('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
+        <v>4.0842519685488439</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
-        <v>7.884157942891532</v>
+        <f ca="1">('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
+        <v>8.0357763648702143</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
-        <v>15.878722799173934</v>
+        <f ca="1">('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
+        <v>15.73304644321821</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
-        <v>19.072316498849123</v>
+        <f ca="1">('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
+        <v>19.919975009909081</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
-        <v>27.699487061444909</v>
+        <f ca="1">('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
+        <v>24.174097799079192</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
-        <v>25.565965184318362</v>
+        <f ca="1">('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
+        <v>28.864799401649762</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
-        <v>31.34331769565814</v>
+        <f ca="1">('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
+        <v>29.633682184985876</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
-        <v>27.690495574144865</v>
+        <f ca="1">('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
+        <v>29.179231895335448</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
-        <v>30.6</v>
+        <f ca="1">('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
+        <v>30.3</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
-        <v>30.680672424402239</v>
+        <f ca="1">('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
+        <v>32.765766666837344</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
-        <v>29.083446907804298</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
+        <v>28.795491987925047</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
-        <v>27.403504362786581</v>
+        <f ca="1">('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
+        <v>29.869819755437376</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
-        <v>26.506101775464025</v>
+        <f ca="1">('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
+        <v>22.615297845120683</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
-        <v>22.510667585178503</v>
+        <f ca="1">('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
+        <v>26.383470610585558</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
-        <v>22.565753943520477</v>
+        <f ca="1">('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
+        <v>24.868381896940935</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
-        <v>22.208753453352283</v>
+        <f ca="1">('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
+        <v>22.831428783820105</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
-        <v>25.628670071555877</v>
+        <f ca="1">('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
+        <v>25.37984803202621</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
-        <v>20.065824386285286</v>
+        <f ca="1">('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
+        <v>24.524896472126461</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
-        <v>17.224712114476301</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
+        <v>17.583560283527891</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -17432,100 +17432,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
-        <v>-22.943485916808623</v>
+        <f ca="1">('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
+        <v>-25.140202653524344</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
-        <v>-34.27201792066495</v>
+        <f ca="1">('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
+        <v>-31.098682928010788</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
-        <v>-36.725089474183555</v>
+        <f ca="1">('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
+        <v>-31.82841087762575</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
-        <v>-32.875214517869153</v>
+        <f ca="1">('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
+        <v>-32.236860837910527</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
-        <v>-37.290494691694349</v>
+        <f ca="1">('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
+        <v>-32.158775238708884</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
-        <v>-32.200000000000003</v>
+        <f ca="1">('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
+        <v>-38.5</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
-        <v>-32.760892778889442</v>
+        <f ca="1">('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
+        <v>-30.940843180062252</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
-        <v>-5.0968588853531003</v>
+        <f ca="1">('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
+        <v>-4.3417686801156039</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
-        <v>13.633784980259477</v>
+        <f ca="1">('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
+        <v>14.694190478724103</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
-        <v>21.612420020535172</v>
+        <f ca="1">('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
+        <v>22.494559613210075</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
-        <v>18.202815357195067</v>
+        <f ca="1">('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
+        <v>18.896255942231068</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
-        <v>24.939411271822067</v>
+        <f ca="1">('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
+        <v>22.399286049692037</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
-        <v>19.467724787320236</v>
+        <f ca="1">('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
+        <v>20.082495043761927</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
-        <v>20.476061165802882</v>
+        <f ca="1">('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
+        <v>21.953715064365976</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
         <v>10.455979658368168</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
-        <v>2.6984690239353726</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
+        <v>2.9187522095627498</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
-        <v>5.6967418989299707</v>
+        <f ca="1">('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
+        <v>5.6354866096941647</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
-        <v>8.1844397123285244</v>
+        <f ca="1">('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
+        <v>7.6636117306348908</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
-        <v>4.6170374606456566</v>
+        <f ca="1">('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
+        <v>4.303258215747408</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
-        <v>-0.77767144276712052</v>
+        <f ca="1">('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
+        <v>-0.83620585243776402</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
-        <v>-3.0032602590480484</v>
+        <f ca="1">('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
+        <v>-3.5908546575574491</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
-        <v>-2.2938482956031558</v>
+        <f ca="1">('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
+        <v>-2.4982506189737341</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
-        <v>-11.436377596448239</v>
+        <f ca="1">('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
+        <v>-10.782870305222625</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
-        <v>-14.7429221299848</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
+        <v>-14.890351351284648</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -17533,100 +17533,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
-        <v>-34.04237153524452</v>
+        <f ca="1">('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
+        <v>-34.420620107858348</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
-        <v>-34.420620107858348</v>
+        <f ca="1">('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
+        <v>-38.959602979224279</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
-        <v>-47.425422921146712</v>
+        <f ca="1">('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
+        <v>-41.277682912849912</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
-        <v>-45.5</v>
+        <f ca="1">('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
+        <v>-50.5</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
-        <v>-46</v>
+        <f ca="1">('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
+        <v>-46.5</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
-        <v>-48.5</v>
+        <f ca="1">('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
+        <v>-52</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
-        <v>-19.538041031592279</v>
+        <f ca="1">('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
+        <v>-19.936776562849264</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
-        <v>4.3804965299475933</v>
+        <f ca="1">('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
+        <v>4.421821968909363</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
-        <v>13.385902192807253</v>
+        <f ca="1">('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
+        <v>13.648370863254453</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
-        <v>14.042073868925256</v>
+        <f ca="1">('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
+        <v>12.72973051668925</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
-        <v>12.119548998777459</v>
+        <f ca="1">('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
+        <v>12.959517741266986</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
-        <v>15.351323602826358</v>
+        <f ca="1">('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
+        <v>16.363498785430291</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
-        <v>21.034419399748192</v>
+        <f ca="1">('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
+        <v>23.092134341027904</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
         <v>25.686871351608826</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
-        <v>11.895373640420202</v>
+        <f ca="1">('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
+        <v>14.274448368504242</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
-        <v>11.345139864391012</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
+        <v>10.416901148213565</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
-        <v>-1.7075437847017314</v>
+        <f ca="1">('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
+        <v>-1.7912469114027969</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
-        <v>-1.5066562806191748</v>
+        <f ca="1">('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
+        <v>-1.7745062860625838</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
-        <v>-1.5903594073202401</v>
+        <f ca="1">('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
+        <v>-1.607100032660453</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
-        <v>-1.7410250353821577</v>
+        <f ca="1">('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
+        <v>-1.7577656607223706</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
-        <v>-10.771611827688222</v>
+        <f ca="1">('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
+        <v>-10.558312583575585</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
-        <v>-14.481644488605562</v>
+        <f ca="1">('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
+        <v>-12.978832324693663</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
-        <v>-35.907483434937099</v>
+        <f ca="1">('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
+        <v>-37.817455958072053</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
-        <v>-38.199450462699041</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
+        <v>-36.671472444191075</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -18480,100 +18480,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
-        <v>12.56747341771853</v>
+        <f ca="1">('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
+        <v>13.721629139753906</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
-        <v>10.120401550313529</v>
+        <f ca="1">('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
+        <v>9.9238888988511302</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
-        <v>9.2181460408514599</v>
+        <f ca="1">('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
+        <v>8.6594705232240994</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
-        <v>7.6442777861298561</v>
+        <f ca="1">('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
+        <v>8.782787243638559</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
         <v>10.017108530904391</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
-        <v>4.3883983917386518</v>
+        <f ca="1">('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
+        <v>4.2146004356301896</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
-        <v>8.1115855758595572</v>
+        <f ca="1">('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
+        <v>7.2018750439874566</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
-        <v>16.024399155129657</v>
+        <f ca="1">('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
+        <v>15.587370087262485</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
-        <v>21.615292032029004</v>
+        <f ca="1">('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
+        <v>19.708060382144094</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
-        <v>27.195860023964094</v>
+        <f ca="1">('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
+        <v>26.944046505223685</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
-        <v>28.589896550205481</v>
+        <f ca="1">('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
+        <v>28.040090847316911</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
-        <v>25.929471911862642</v>
+        <f ca="1">('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
+        <v>25.644532660083932</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
-        <v>30.96571548076415</v>
+        <f ca="1">('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
+        <v>29.179231895335448</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
-        <v>29.7</v>
+        <f ca="1">('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
+        <v>28.2</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
-        <v>28.893448788029289</v>
+        <f ca="1">('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
+        <v>27.106225151656346</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
-        <v>28.219582148166545</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
+        <v>31.099131346959052</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
-        <v>26.85543427553085</v>
+        <f ca="1">('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
+        <v>29.321749668181642</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
-        <v>22.372122599474224</v>
+        <f ca="1">('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
+        <v>25.290225547231731</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
-        <v>26.141420421497617</v>
+        <f ca="1">('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
+        <v>25.415269854233795</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
-        <v>23.026279534204569</v>
+        <f ca="1">('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
+        <v>21.184177171468203</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
-        <v>22.831428783820105</v>
+        <f ca="1">('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
+        <v>19.925610574970271</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
-        <v>26.375136190144886</v>
+        <f ca="1">('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
+        <v>24.882203952966872</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
-        <v>22.072406824913813</v>
+        <f ca="1">('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
+        <v>23.187174846374106</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
-        <v>18.121832537105277</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
+        <v>16.148167607321533</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -18581,100 +18581,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
-        <v>-25.62836192835006</v>
+        <f ca="1">('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
+        <v>-25.872441565762916</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
-        <v>-33.637350922134118</v>
+        <f ca="1">('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
+        <v>-29.512015431683707</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
         <v>-33.227461905213694</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
-        <v>-32.55603767788984</v>
+        <f ca="1">('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
+        <v>-32.236860837910527</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
         <v>-36.606265431296286</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
-        <v>-37.450000000000003</v>
+        <f ca="1">('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
+        <v>-35.35</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
-        <v>-30.334159980453187</v>
+        <f ca="1">('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
+        <v>-29.727476780844121</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
-        <v>-4.9552794718710693</v>
+        <f ca="1">('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
+        <v>-5.0496657475257569</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
-        <v>16.360541976311374</v>
+        <f ca="1">('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
+        <v>14.08824447960146</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
-        <v>21.832954918703898</v>
+        <f ca="1">('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
+        <v>20.950815326028991</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
-        <v>15.775773309569058</v>
+        <f ca="1">('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
+        <v>18.202815357195067</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
-        <v>21.244683675996573</v>
+        <f ca="1">('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
+        <v>23.092047473909318</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
-        <v>22.541576069528698</v>
+        <f ca="1">('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
+        <v>18.852954530878545</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
-        <v>22.586995306607303</v>
+        <f ca="1">('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
+        <v>20.898247993963768</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
         <v>11.327311296565515</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
-        <v>2.5883274311216837</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
+        <v>2.8636814131559056</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
-        <v>6.615571237467063</v>
+        <f ca="1">('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
+        <v>5.7579971881657768</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
-        <v>7.5892077332500856</v>
+        <f ca="1">('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
+        <v>8.1844397123285244</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
-        <v>4.1687813965053016</v>
+        <f ca="1">('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
+        <v>4.0343045772631951</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
-        <v>-0.86965408653527465</v>
+        <f ca="1">('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
+        <v>-0.79439555981587573</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
-        <v>-3.2970574583027488</v>
+        <f ca="1">('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
+        <v>-2.9379719925470038</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
-        <v>-2.2711369263397581</v>
+        <f ca="1">('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
+        <v>-2.452827880446939</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
-        <v>-10.347198777738882</v>
+        <f ca="1">('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
+        <v>-11.872049123931982</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
-        <v>-13.858346802185711</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
+        <v>-13.563488359586016</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -18682,100 +18682,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
+        <v>-35.177117253086003</v>
+      </c>
+      <c r="C4" s="2">
+        <f ca="1">('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
         <v>-40.472597269679596</v>
       </c>
-      <c r="C4" s="2">
-        <f>('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
-        <v>-40.850845842293424</v>
-      </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
-        <v>-40.838558626542998</v>
+        <f ca="1">('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
+        <v>-45.229801489612136</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
-        <v>-55.000000000000007</v>
+        <f ca="1">('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
+        <v>-51.5</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
-        <v>-45.5</v>
+        <f ca="1">('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
+        <v>-46.5</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
-        <v>-53.5</v>
+        <f ca="1">('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
+        <v>-46.5</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
-        <v>-18.142466672192832</v>
+        <f ca="1">('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
+        <v>-20.136144328477759</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
-        <v>3.8845912624063557</v>
+        <f ca="1">('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
+        <v>4.0085675792916655</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
-        <v>11.811090170124046</v>
+        <f ca="1">('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
+        <v>13.517136528030852</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
-        <v>13.779605198478054</v>
+        <f ca="1">('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
+        <v>11.942324505347646</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
-        <v>13.199508810549709</v>
+        <f ca="1">('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
+        <v>12.239544533418819</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
-        <v>15.857411194128325</v>
+        <f ca="1">('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
+        <v>16.532194649197617</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
-        <v>24.692579295356573</v>
+        <f ca="1">('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
+        <v>21.263054393223715</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
-        <v>23.094618279428119</v>
+        <f ca="1">('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
+        <v>22.85895890922987</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
-        <v>14.538790004958024</v>
+        <f ca="1">('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
+        <v>12.291886095100875</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
-        <v>11.138864594129357</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
+        <v>9.282387161774464</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
-        <v>-1.8414687874234361</v>
+        <f ca="1">('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
+        <v>-1.7745062860625838</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
-        <v>-1.7912469114027969</v>
+        <f ca="1">('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
+        <v>-1.5736187819800269</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
-        <v>-1.5401375312996011</v>
+        <f ca="1">('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
+        <v>-1.607100032660453</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
-        <v>-1.7912469114027969</v>
+        <f ca="1">('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
+        <v>-1.8079875367430098</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
-        <v>-11.731458426195095</v>
+        <f ca="1">('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
+        <v>-10.131714095350308</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
-        <v>-13.115451612322017</v>
+        <f ca="1">('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
+        <v>-14.891502351490626</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
-        <v>-40.491417490460982</v>
+        <f ca="1">('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
+        <v>-35.907483434937099</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
-        <v>-38.963439471953023</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
+        <v>-36.289477939564087</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -19629,100 +19629,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
-        <v>13.080431516400919</v>
+        <f ca="1">('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
+        <v>13.465150090412711</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
-        <v>10.808195830431925</v>
+        <f ca="1">('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
+        <v>9.3343509444639334</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
-        <v>10.056159317292503</v>
+        <f ca="1">('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
+        <v>8.6594705232240994</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
-        <v>7.7255998902376204</v>
+        <f ca="1">('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
+        <v>7.5629556820220918</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
-        <v>8.519223143105604</v>
+        <f ca="1">('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
+        <v>8.8000766533178751</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
-        <v>4.3449489027115362</v>
+        <f ca="1">('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
+        <v>4.5187468588199975</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
-        <v>7.9599671538808732</v>
+        <f ca="1">('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
+        <v>7.3534934659661397</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
-        <v>15.004664663439588</v>
+        <f ca="1">('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
+        <v>15.73304644321821</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
-        <v>22.462950543088965</v>
+        <f ca="1">('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
+        <v>23.098694426383936</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
-        <v>25.684978911521643</v>
+        <f ca="1">('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
+        <v>24.174097799079192</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
-        <v>28.314993698761196</v>
+        <f ca="1">('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
+        <v>25.840868035762643</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
-        <v>28.208985926092325</v>
+        <f ca="1">('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
+        <v>29.063803681428457</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
-        <v>32.752199066192851</v>
+        <f ca="1">('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
+        <v>29.774726423811682</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
-        <v>31.8</v>
+        <f ca="1">('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
+        <v>33</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
-        <v>29.489190000153606</v>
+        <f ca="1">('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
+        <v>27.106225151656346</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
         <v>31.099131346959052</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
-        <v>29.321749668181642</v>
+        <f ca="1">('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
+        <v>24.937188970135789</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
-        <v>24.317524564645893</v>
+        <f ca="1">('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
+        <v>25.047050301585269</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
-        <v>22.994767963354381</v>
+        <f ca="1">('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
+        <v>24.93116947605791</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
-        <v>24.1775935109148</v>
+        <f ca="1">('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
+        <v>23.256542329546615</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
-        <v>22.831428783820105</v>
+        <f ca="1">('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
+        <v>19.925610574970271</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
-        <v>22.891627636729524</v>
+        <f ca="1">('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
+        <v>27.370424348263562</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
-        <v>20.957638803453516</v>
+        <f ca="1">('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
+        <v>20.734685199161461</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
-        <v>18.480680706156868</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
+        <v>16.148167607321533</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -19730,100 +19730,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
         <v>-24.896123016111485</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
         <v>-31.416016427276205</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
-        <v>-37.774377744874521</v>
+        <f ca="1">('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
+        <v>-31.82841087762575</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
-        <v>-31.917683997931213</v>
+        <f ca="1">('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
+        <v>-30.960153477993277</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
-        <v>-37.290494691694349</v>
+        <f ca="1">('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
+        <v>-33.527233759505009</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
-        <v>-38.5</v>
+        <f ca="1">('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
+        <v>-35</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
-        <v>-30.63750158025772</v>
+        <f ca="1">('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
+        <v>-32.760892778889442</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
-        <v>-4.908086334043726</v>
+        <f ca="1">('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
+        <v>-4.5777343692523207</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
-        <v>14.542703978943441</v>
+        <f ca="1">('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
+        <v>16.663514975872694</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
-        <v>23.597234104053708</v>
+        <f ca="1">('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
+        <v>20.509745529691543</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
-        <v>17.509374772159063</v>
+        <f ca="1">('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
+        <v>17.856095064677064</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
-        <v>24.015729372865692</v>
+        <f ca="1">('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
+        <v>23.784808898126599</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
-        <v>19.057877949692443</v>
+        <f ca="1">('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
+        <v>19.877571624948033</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
-        <v>20.053874337641997</v>
+        <f ca="1">('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
+        <v>21.109341408044209</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
-        <v>10.455979658368168</v>
+        <f ca="1">('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
+        <v>10.564896113142836</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
-        <v>2.9187522095627498</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
+        <v>2.8636814131559056</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
-        <v>6.3705500805238389</v>
+        <f ca="1">('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
+        <v>6.4318053697596449</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
-        <v>7.7380157280196951</v>
+        <f ca="1">('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
+        <v>7.2171877463260614</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
-        <v>4.6618630670596923</v>
+        <f ca="1">('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
+        <v>4.4825606414035502</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
-        <v>-0.87801614505965231</v>
+        <f ca="1">('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
+        <v>-0.91146437915716283</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
-        <v>-3.2317691918017037</v>
+        <f ca="1">('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
+        <v>-3.0685485255490925</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
-        <v>-2.452827880446939</v>
+        <f ca="1">('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
+        <v>-2.4982506189737341</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
-        <v>-10.782870305222625</v>
+        <f ca="1">('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
+        <v>-10.67395242335169</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
-        <v>-14.300634466085256</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
+        <v>-15.037780572584497</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -19831,100 +19831,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
-        <v>-34.420620107858348</v>
+        <f ca="1">('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
+        <v>-35.177117253086003</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
-        <v>-38.959602979224279</v>
+        <f ca="1">('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
+        <v>-37.068360116155141</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
-        <v>-43.034180058077567</v>
+        <f ca="1">('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
+        <v>-39.96031005392917</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
-        <v>-45</v>
+        <f ca="1">('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
+        <v>-50</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
-        <v>-47.5</v>
+        <f ca="1">('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
+        <v>-52</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
-        <v>-48</v>
+        <f ca="1">('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
+        <v>-54.500000000000007</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
-        <v>-19.73740879722077</v>
+        <f ca="1">('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
+        <v>-21.332350922248715</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
-        <v>3.8432658234445864</v>
+        <f ca="1">('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
+        <v>4.0912184572152048</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
-        <v>12.99219918713645</v>
+        <f ca="1">('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
+        <v>14.435776874596057</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
-        <v>11.811090170124046</v>
+        <f ca="1">('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
+        <v>11.942324505347646</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
-        <v>12.359540068060181</v>
+        <f ca="1">('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
+        <v>12.599531137342902</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
-        <v>16.700890512964939</v>
+        <f ca="1">('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
+        <v>18.219153286870842</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
-        <v>22.17759436712581</v>
+        <f ca="1">('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
+        <v>23.549404327978952</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
-        <v>23.094618279428119</v>
+        <f ca="1">('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
+        <v>23.801596390022855</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
-        <v>12.027544458647093</v>
+        <f ca="1">('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
+        <v>13.084911004462221</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
-        <v>10.932589323867703</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
+        <v>9.5918000671669468</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
-        <v>-1.7912469114027969</v>
+        <f ca="1">('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
+        <v>-1.5066562806191748</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
-        <v>-1.556878156639814</v>
+        <f ca="1">('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
+        <v>-1.7242844100419445</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
-        <v>-1.7745062860625838</v>
+        <f ca="1">('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
+        <v>-1.8414687874234361</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
-        <v>-1.6238406580006661</v>
+        <f ca="1">('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
+        <v>-1.7577656607223706</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
-        <v>-10.238363717406626</v>
+        <f ca="1">('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
+        <v>-10.664962205631904</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
         <v>-14.071786625720499</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
-        <v>-40.491417490460982</v>
+        <f ca="1">('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
+        <v>-38.581444967326028</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
-        <v>-37.817455958072053</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
+        <v>-36.671472444191075</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28319,100 +28319,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>61.489809651979002</v>
+        <f ca="1">('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>56.15522435894195</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>59.227647324700037</v>
+        <f ca="1">('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>50.883267826860873</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>49.734628946481976</v>
+        <f ca="1">('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>52.680571827065677</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>55.346411283421318</v>
+        <f ca="1">('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>46.128376289063468</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>51.784946113559528</v>
+        <f ca="1">('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>54.324038116437926</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>54.349540868895005</v>
+        <f ca="1">('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>55.994421163905116</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>67.594897497084361</v>
+        <f ca="1">('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>66.27167359382436</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>80.984597096496316</v>
+        <f ca="1">('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>69.150364233052557</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>73.907072861061778</v>
+        <f ca="1">('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>81.73548486755773</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>80.604322672703304</v>
+        <f ca="1">('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>78.175904236733942</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>86.86393033781809</v>
+        <f ca="1">('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>82.77953470193718</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>73.903963977726249</v>
+        <f ca="1">('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>75.520681553374871</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>88.961890551787619</v>
+        <f ca="1">('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>79.316626647436749</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>73.429859136012524</v>
+        <f ca="1">('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>77.365842163590841</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>75.764797342499421</v>
+        <f ca="1">('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>73.478381097320863</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>74.394590107284614</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>75.891268039503245</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>84.298994665868662</v>
+        <f ca="1">('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>78.098561198555629</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>88.077869861729155</v>
+        <f ca="1">('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>91.587754358306952</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>83.914860675485514</v>
+        <f ca="1">('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>81.230801575354647</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f ca="1">('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>97.698514285714282</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>94.193361422135382</v>
+        <f ca="1">('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>80.221573332310058</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>87.96644966061568</v>
+        <f ca="1">('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>86.299810347352249</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>73.562907611086629</v>
+        <f ca="1">('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>70.523445281131586</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>65.70953845003487</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>65.037888040991959</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -28420,100 +28420,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>72.495687748215971</v>
+        <f ca="1">('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>66.131085552005672</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>67.934283853086256</v>
+        <f ca="1">('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>56.654797356487407</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>63.076782510225911</v>
+        <f ca="1">('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>62.514274084451657</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>60.824727801719838</v>
+        <f ca="1">('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>55.239444145571561</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>56.508534256229552</v>
+        <f ca="1">('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>59.334861685249443</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>59.067837299714846</v>
+        <f ca="1">('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>65.281325481015799</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>75.728762815954227</v>
+        <f ca="1">('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>71.280239432207125</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>82.509194558388685</v>
+        <f ca="1">('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>86.971416139805598</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>105.29152602222304</v>
+        <f ca="1">('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>93.631973748148866</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>99.876635494507141</v>
+        <f ca="1">('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>92.006672224158009</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>86.453037325926886</v>
+        <f ca="1">('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>93.153419241400201</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>105.25373276869693</v>
+        <f ca="1">('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>96.594554309420516</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>100.58713594948418</v>
+        <f ca="1">('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>105.39383738783698</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>99.466526062258822</v>
+        <f ca="1">('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>102.30345240929285</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>99.287210010723555</v>
+        <f ca="1">('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>83.235702918059701</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>86.062595890552643</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>88.66120013793109</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>83.652680151960993</v>
+        <f ca="1">('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>88.163203659184532</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>94.342476190476191</v>
+        <f ca="1">('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>107.34247619047619</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>100.42531110538013</v>
+        <f ca="1">('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>94.447061010485896</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>90.322580021984407</v>
+        <f ca="1">('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>94.225565902857426</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>93.860859987682048</v>
+        <f ca="1">('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>97.696724611621804</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>88.603176809763895</v>
+        <f ca="1">('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>98.490078256016972</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>75.497873467355078</v>
+        <f ca="1">('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>73.139000948950894</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>67.776694197512626</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>67.063328815610774</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -28521,100 +28521,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>72.574778528530757</v>
+        <f ca="1">('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>73.99071407011067</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>71.135834238390316</v>
+        <f ca="1">('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>74.425234765171041</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>64.336210428151745</v>
+        <f ca="1">('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>64.931560763815241</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>62.332900547038612</v>
+        <f ca="1">('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>69.376568607614473</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>65.975732485799256</v>
+        <f ca="1">('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>67.251932949677837</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>72.227530572358802</v>
+        <f ca="1">('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>62.91448416800197</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>110.81911999659373</v>
+        <f ca="1">('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>96.959253411913991</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>106.35577547715147</v>
+        <f ca="1">('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>111.86881603193036</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>127.37317379497047</v>
+        <f ca="1">('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>118.91125850493539</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>111.92037781855554</v>
+        <f ca="1">('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>113.12986087627966</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>124.91265195857927</v>
+        <f ca="1">('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>126.05513879029479</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f ca="1">('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>122.97682539682539</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>123.36074401186139</v>
+        <f ca="1">('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>117.46646221031432</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>112.85977159173221</v>
+        <f ca="1">('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>110.65264111545399</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>102.07963987939708</v>
+        <f ca="1">('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>103.14970697031265</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>107.45589820233586</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>101.45661555476428</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>104.87773622686706</v>
+        <f ca="1">('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>99.875143596912366</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f ca="1">('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>102.30400758343684</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>96.314573600348695</v>
+        <f ca="1">('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>112.20287554961315</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>109.28469500725195</v>
+        <f ca="1">('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>112.51020928610951</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>115.08065223849596</v>
+        <f ca="1">('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>105.66539523846286</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>91.401148232730876</v>
+        <f ca="1">('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>92.346474346927636</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>90.114747855686815</v>
+        <f ca="1">('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>76.522746260603</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>77.849600129055617</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>74.754848271826447</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -29466,100 +29466,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f ca="1">('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>57.340687757394633</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>58.184599887470135</v>
+        <f ca="1">('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>51.926315264090768</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>56.117505187746652</v>
+        <f ca="1">('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>47.279676545995564</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f ca="1">('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>49.039334708334366</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>53.308401315286567</v>
+        <f ca="1">('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>50.261490911832482</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>62.025648912275535</v>
+        <f ca="1">('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>56.542714595575156</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>65.610061642194367</v>
+        <f ca="1">('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>74.872628965014385</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>77.28639932667015</v>
+        <f ca="1">('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>78.765678434600616</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>84.0840084695065</v>
+        <f ca="1">('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>85.649690870805699</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>81.413795484693097</v>
+        <f ca="1">('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>84.651686732652252</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>82.77953470193718</v>
+        <f ca="1">('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>79.51201819323245</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>73.095605189901946</v>
+        <f ca="1">('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>74.712322765550553</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>74.493994695261335</v>
+        <f ca="1">('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>80.92417063149523</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>76.578645558075181</v>
+        <f ca="1">('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>79.727431980137837</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>71.954103600535163</v>
+        <f ca="1">('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>81.099768581249378</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>70.652895276738022</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>73.646251141175284</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>72.673181914656737</v>
+        <f ca="1">('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>85.074048849282789</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>94.220167730740314</v>
+        <f ca="1">('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>86.322927613440257</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>86.59891977561638</v>
+        <f ca="1">('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>82.125487942064936</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>91.398514285714285</v>
+        <f ca="1">('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>90.498514285714279</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>88.953940888450887</v>
+        <f ca="1">('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>86.33423062160864</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>84.633171034088818</v>
+        <f ca="1">('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>87.133130003983965</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>72.043176446109115</v>
+        <f ca="1">('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>74.322773193575401</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>65.037888040991959</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>63.694587222906108</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -29567,100 +29567,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>67.404005991247729</v>
+        <f ca="1">('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>71.2227673089739</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>59.623083276644991</v>
+        <f ca="1">('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>60.216740460676505</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f ca="1">('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>55.201664549386386</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>59.707671070490179</v>
+        <f ca="1">('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>63.058841264179151</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>64.422251057485255</v>
+        <f ca="1">('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>55.378003284621592</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>66.524023117276002</v>
+        <f ca="1">('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>61.553232572235224</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>71.280239432207125</v>
+        <f ca="1">('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>81.660127327617033</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>91.43363772122251</v>
+        <f ca="1">('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>92.326082037505898</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>105.29152602222304</v>
+        <f ca="1">('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>92.660344391976011</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>105.77910794726901</v>
+        <f ca="1">('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>94.957908450538923</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>90.281826991911629</v>
+        <f ca="1">('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>105.59698565585067</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f ca="1">('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>93.708161489661705</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>105.39383738783698</v>
+        <f ca="1">('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>88.089712209766915</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>96.629599715224799</v>
+        <f ca="1">('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>89.064462789800743</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>91.261456464391614</v>
+        <f ca="1">('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>98.395459616686665</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>83.463991643174211</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>96.457012880066401</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>88.163203659184532</v>
+        <f ca="1">('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>89.065308360629245</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f ca="1">('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>105.34247619047619</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>90.461560947223077</v>
+        <f ca="1">('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>105.40718618445867</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>93.249819432639171</v>
+        <f ca="1">('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>100.08004472416697</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>101.53258923556157</v>
+        <f ca="1">('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>102.49155539154651</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>85.906749142603971</v>
+        <f ca="1">('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>94.894841366470402</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>77.856745985759247</v>
+        <f ca="1">('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>87.292236059375995</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>69.916790343218153</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>72.056886488923709</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -29668,100 +29668,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>76.114617382480546</v>
+        <f ca="1">('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>81.070391778010261</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>69.162193922321876</v>
+        <f ca="1">('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>68.50431381696572</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>66.122261435142207</v>
+        <f ca="1">('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>62.55015942116129</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>66.815234767405073</v>
+        <f ca="1">('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>69.376568607614473</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>64.061431789981384</v>
+        <f ca="1">('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>61.509030862224229</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>62.91448416800197</v>
+        <f ca="1">('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>71.562312972047593</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>101.90920576358532</v>
+        <f ca="1">('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>93.989282000911203</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>105.25316736619568</v>
+        <f ca="1">('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>114.07403225384192</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f ca="1">('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>124.9554837121033</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>133.69107285758972</v>
+        <f ca="1">('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>116.75831004945201</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>123.77016512686374</v>
+        <f ca="1">('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>120.34270463171718</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>134.2268253968254</v>
+        <f ca="1">('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>135.4768253968254</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>129.25502581340842</v>
+        <f ca="1">('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>112.75103676907666</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f ca="1">('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>119.48116302056684</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>97.799371515734791</v>
+        <f ca="1">('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>113.85037787946837</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>108.4557786435978</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>92.457691583406927</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>102.87669917488519</v>
+        <f ca="1">('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>93.872032440966748</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>101.24478745348587</v>
+        <f ca="1">('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>117.13308940275034</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>101.61067425010351</v>
+        <f ca="1">('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>99.492233990201584</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>118.96123784382463</v>
+        <f ca="1">('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>117.88606641753877</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>114.03451257182562</v>
+        <f ca="1">('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>111.94223323848493</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>102.74506160309208</v>
+        <f ca="1">('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>103.69038771728886</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>82.119452799755152</v>
+        <f ca="1">('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>90.914277361279986</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>82.491727914899371</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>73.207472343211862</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -30613,100 +30613,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>59.711614554299985</v>
+        <f ca="1">('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>65.638931546563384</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>55.576981294395402</v>
+        <f ca="1">('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>56.620028731625297</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f ca="1">('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>49.734628946481976</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>53.890932073785862</v>
+        <f ca="1">('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>46.128376289063468</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>49.753672511256802</v>
+        <f ca="1">('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>52.800582914710887</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>61.477355480605496</v>
+        <f ca="1">('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>53.801247437224966</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>70.902957255234369</v>
+        <f ca="1">('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>66.27167359382436</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>71.369282894948256</v>
+        <f ca="1">('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>72.848562002878737</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>86.432532071455284</v>
+        <f ca="1">('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>84.0840084695065</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>83.032741108672681</v>
+        <f ca="1">('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>83.842213920662459</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>80.328897320408643</v>
+        <f ca="1">('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>88.497688592170462</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>75.520681553374871</v>
+        <f ca="1">('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>89.262780946388091</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>87.354346567729138</v>
+        <f ca="1">('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>83.335486607582951</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>85.237808218747489</v>
+        <f ca="1">('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>82.876218402200493</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>80.337629832856535</v>
+        <f ca="1">('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>76.526936090892264</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>81.129640802268483</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>81.877979768377799</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>85.849103032696917</v>
+        <f ca="1">('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>75.773398648313247</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>84.567985365151344</v>
+        <f ca="1">('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>93.342696606595865</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>82.125487942064936</v>
+        <f ca="1">('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>90.177665242457536</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>93.198514285714282</v>
+        <f ca="1">('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>85.098514285714273</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>89.82717764406496</v>
+        <f ca="1">('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>87.207467377222713</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>81.299892407561956</v>
+        <f ca="1">('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>82.133212064193671</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>70.523445281131586</v>
+        <f ca="1">('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>80.401697853485501</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>67.052839268120721</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>69.067790495249497</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -30714,100 +30714,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>66.7675457716267</v>
+        <f ca="1">('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>70.586307089352871</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>67.340626669054743</v>
+        <f ca="1">('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>65.559655116960172</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f ca="1">('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>55.764172975160633</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>54.680915779956734</v>
+        <f ca="1">('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>54.122387414341908</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>64.422251057485255</v>
+        <f ca="1">('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>63.856985571681278</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>62.174581390365319</v>
+        <f ca="1">('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>65.9026742991459</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>71.280239432207125</v>
+        <f ca="1">('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>83.884389019490584</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>95.003414986356049</v>
+        <f ca="1">('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>80.724305925821923</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f ca="1">('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>106.26315537839589</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>102.82787172088808</v>
+        <f ca="1">('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>106.76285335606265</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>96.982208907384958</v>
+        <f ca="1">('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>94.110616657896387</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>92.746030549742102</v>
+        <f ca="1">('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>103.32947088885774</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>100.58713594948418</v>
+        <f ca="1">('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>97.703115086472508</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>88.11882067412273</v>
+        <f ca="1">('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>92.847031252512764</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>86.802704494207205</v>
+        <f ca="1">('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>96.611958828612913</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>96.457012880066401</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>84.330193058967026</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>94.477936569297512</v>
+        <f ca="1">('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>83.652680151960993</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>95.342476190476191</v>
+        <f ca="1">('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>99.342476190476191</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f ca="1">('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>102.41806113701155</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>101.05579119438524</v>
+        <f ca="1">('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>100.08004472416697</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>102.49155539154651</v>
+        <f ca="1">('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>89.066029207757353</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>94.894841366470402</v>
+        <f ca="1">('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>85.906749142603971</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>75.497873467355078</v>
+        <f ca="1">('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>88.864817738312112</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>72.770251870825547</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>81.330636453647742</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -30815,100 +30815,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>76.114617382480546</v>
+        <f ca="1">('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>78.946488465640385</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>73.767354659814899</v>
+        <f ca="1">('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>75.083114870527183</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f ca="1">('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>61.359458749834317</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>71.297568987771541</v>
+        <f ca="1">('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>73.218569367928595</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>68.528133413556418</v>
+        <f ca="1">('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>65.337632253859965</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>66.240572169557979</v>
+        <f ca="1">('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>71.562312972047593</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f ca="1">('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>109.82912952625945</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>106.35577547715147</v>
+        <f ca="1">('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>116.27924847575348</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>118.91125850493539</v>
+        <f ca="1">('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>112.86703329776749</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>131.27210674214146</v>
+        <f ca="1">('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>121.59624228034849</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>110.06032314627747</v>
+        <f ca="1">('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>116.91524413657061</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>124.22682539682539</v>
+        <f ca="1">('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>112.97682539682539</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>106.85675496752961</v>
+        <f ca="1">('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>116.28760585000491</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>104.03124968661936</v>
+        <f ca="1">('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>110.65264111545399</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>102.07963987939708</v>
+        <f ca="1">('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>111.71024369763722</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>91.457811142145005</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>109.45565908485972</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>94.872550966957675</v>
+        <f ca="1">('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>110.88084738281269</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>103.3632277133878</v>
+        <f ca="1">('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>116.07386927279939</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>109.02521515976026</v>
+        <f ca="1">('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>111.1436554196622</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>100.68332359696515</v>
+        <f ca="1">('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>97.457809318107593</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>100.43469690511114</v>
+        <f ca="1">('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>97.296277905100126</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>86.674517661747046</v>
+        <f ca="1">('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>98.018431032108253</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>81.319923294161995</v>
+        <f ca="1">('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>87.716159338907318</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>73.207472343211862</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>87.133855700743126</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -31760,100 +31760,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
-        <v>12.653817451269436</v>
+        <f ca="1">('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
+        <v>11.388435706142491</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
-        <v>9.4946033481231513</v>
+        <f ca="1">('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
+        <v>8.9621956837424133</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
-        <v>7.9759436238841852</v>
+        <f ca="1">('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
+        <v>7.5961367846516046</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
-        <v>7.0616584277031276</v>
+        <f ca="1">('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
+        <v>8.176657126814149</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
-        <v>7.8570354381095644</v>
+        <f ca="1">('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
+        <v>8.6173937063137149</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
-        <v>11.433973590093773</v>
+        <f ca="1">('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
+        <v>9.9653898262285168</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
-        <v>16.763395276732407</v>
+        <f ca="1">('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
+        <v>14.810378351287854</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
-        <v>21.259651400970611</v>
+        <f ca="1">('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
+        <v>20.067521415869454</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
-        <v>21.807841243337059</v>
+        <f ca="1">('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
+        <v>24.792072150320028</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
-        <v>25.278364343427459</v>
+        <f ca="1">('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
+        <v>24.014446126256086</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
-        <v>23.962192693578288</v>
+        <f ca="1">('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
+        <v>26.766279072614047</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
         <v>24.283569410551301</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
-        <v>26.64970245994509</v>
+        <f ca="1">('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
+        <v>26.398290172587117</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
-        <v>23.142749566637139</v>
+        <f ca="1">('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
+        <v>24.138136644772068</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
-        <v>23.57129357499992</v>
+        <f ca="1">('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
+        <v>20.428454431666598</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
-        <v>22.394845491535076</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
+        <v>20.262003063769829</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
-        <v>23.551768659046459</v>
+        <f ca="1">('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
+        <v>22.01099874677239</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
-        <v>32.400000000000006</v>
+        <f ca="1">('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
+        <v>30.3</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
-        <v>29.057755626394133</v>
+        <f ca="1">('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
+        <v>32.652529518319184</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
-        <v>31.075281512529919</v>
+        <f ca="1">('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
+        <v>31.656127895941694</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
-        <v>26.075278049976415</v>
+        <f ca="1">('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
+        <v>24.46237425307066</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
-        <v>25.580295200574021</v>
+        <f ca="1">('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
+        <v>24.624022482795553</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
-        <v>20.083924984525641</v>
+        <f ca="1">('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
+        <v>17.939039792003484</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
-        <v>16.006617781463547</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
+        <v>14.809861311821411</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -31861,100 +31861,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
-        <v>-27.932319549299731</v>
+        <f ca="1">('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
+        <v>-26.477511239440371</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
-        <v>-34.785890776772909</v>
+        <f ca="1">('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
+        <v>-32.888478552585298</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
-        <v>-33.041028932258058</v>
+        <f ca="1">('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
+        <v>-30.656624782507482</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
-        <v>-32.462349240492976</v>
+        <f ca="1">('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
+        <v>-32.12419976923784</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
-        <v>-37.450000000000003</v>
+        <f ca="1">('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
+        <v>-33.25</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
-        <v>-29.910324858093229</v>
+        <f ca="1">('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
+        <v>-32.091286045662528</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
         <v>-22.737824767768746</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
-        <v>-9.3593411012408989</v>
+        <f ca="1">('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
+        <v>-10.218872426865063</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
-        <v>-2.8968982562438326</v>
+        <f ca="1">('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
+        <v>-3.0375243851877078</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
-        <v>-0.42237346150929833</v>
+        <f ca="1">('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
+        <v>-0.47077042064057217</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
-        <v>-3.8708245677799979</v>
+        <f ca="1">('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
+        <v>-3.6338353085281616</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
-        <v>-2.9038316881986659</v>
+        <f ca="1">('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
+        <v>-2.6715251531427726</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
-        <v>-3.6575614323052679</v>
+        <f ca="1">('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
+        <v>-4.0594912600311215</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
-        <v>-4.297814668532137</v>
+        <f ca="1">('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
+        <v>-4.2167238257296438</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
-        <v>-9.4299972819936464</v>
+        <f ca="1">('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
+        <v>-10.454996986558173</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
-        <v>-14.909225611558075</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
+        <v>-15.352073897049898</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
-        <v>-12.733922985858065</v>
+        <f ca="1">('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
+        <v>-12.208812759637116</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
-        <v>-4.6604435662929591</v>
+        <f ca="1">('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
+        <v>-4.9293153105021688</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
-        <v>-6.0622356204450565</v>
+        <f ca="1">('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
+        <v>-5.9318649619408612</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Winter, S1'!U3*Main!$B$5)</f>
-        <v>-7.6205198999481212</v>
+        <f ca="1">('[1]Qc, Winter, S1'!U3*Main!$B$5)</f>
+        <v>-8.1941074192990548</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
-        <v>-11.970486312328481</v>
+        <f ca="1">('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
+        <v>-12.099201218912656</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
-        <v>-15.371388317798102</v>
+        <f ca="1">('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
+        <v>-18.211753550434707</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
-        <v>-20.398647141563281</v>
+        <f ca="1">('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
+        <v>-22.191934802360052</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
-        <v>-25.23122265101572</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
+        <v>-25.735847104036036</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -31962,100 +31962,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
-        <v>37.942551817425809</v>
+        <f ca="1">('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
+        <v>39.153484322237276</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
-        <v>53.5</v>
+        <f ca="1">('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
+        <v>50</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
-        <v>51.5</v>
+        <f ca="1">('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
+        <v>49</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
-        <v>47</v>
+        <f ca="1">('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
+        <v>46</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
-        <v>48.5</v>
+        <f ca="1">('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
+        <v>52</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
-        <v>39.702408713295767</v>
+        <f ca="1">('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
+        <v>37.271648996155214</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
-        <v>19.845583118576229</v>
+        <f ca="1">('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
+        <v>17.640518327623312</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
-        <v>2.5075999244340532</v>
+        <f ca="1">('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
+        <v>2.1290942754628754</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
-        <v>-15.226044137801772</v>
+        <f ca="1">('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
+        <v>-14.810788388588996</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
-        <v>-13.288183974808817</v>
+        <f ca="1">('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
+        <v>-12.872928225596043</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
-        <v>-1.1324705313718679</v>
+        <f ca="1">('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
+        <v>-1.2635986981622949</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
-        <v>-14.434838808268033</v>
+        <f ca="1">('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
+        <v>-15.300929136764116</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
-        <v>-12.991354927441231</v>
+        <f ca="1">('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
+        <v>-15.445277524846796</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
-        <v>-11.508769590118574</v>
+        <f ca="1">('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
+        <v>-11.620505217207103</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
-        <v>-1.3063503459713692</v>
+        <f ca="1">('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
+        <v>-1.3202476900774478</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
-        <v>7.8904183620184734</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
+        <v>8.4780027081262332</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
-        <v>12.820860345194964</v>
+        <f ca="1">('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
+        <v>11.072561207213832</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
-        <v>10.606348103752197</v>
+        <f ca="1">('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
+        <v>12.704307069329555</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
-        <v>12.121540690002512</v>
+        <f ca="1">('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
+        <v>11.655327586540876</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
-        <v>11.771880862406285</v>
+        <f ca="1">('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
+        <v>12.704307069329555</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
-        <v>10.606348103752197</v>
+        <f ca="1">('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
+        <v>10.722901379617607</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
-        <v>22.603753731080864</v>
+        <f ca="1">('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
+        <v>25.763418231124426</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
-        <v>34.923402423234421</v>
+        <f ca="1">('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
+        <v>39.381709115562217</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
-        <v>35.666453538622385</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
+        <v>37.524081327092304</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE_9/ieee9/ieee9_2020.xlsx
+++ b/data/IEEE_9/ieee9/ieee9_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAAC3B2-3254-42BE-A0E2-4AB9FB1A18D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AF6EBA-B72E-4F9B-9D4C-191EEB95B856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25695" yWindow="4320" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5730" yWindow="4845" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="B2">
@@ -3837,10 +3837,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
       <sheetData sheetId="20">
         <row r="2">
           <cell r="B2">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>45</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4512,99 +4512,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
         <v>11.963609226654738</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
         <v>8.4297880193616752</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
         <v>7.0644072097259922</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
         <v>7.0616584277031276</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
         <v>9.2087834704725005</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
         <v>11.224175909541595</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
         <v>16.763395276732407</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
         <v>18.478014769067915</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
         <v>21.578285019722983</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
         <v>27.300633490901657</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
         <v>27.785946846808869</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
         <v>25.28495371614105</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
         <v>26.901114747303062</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
         <v>23.640443105704602</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
         <v>21.775385493095161</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
         <v>23.247982462641176</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
         <v>22.231108734240113</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
         <v>28.799999999999997</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
         <v>30.555578081362903</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
         <v>27.009356828647501</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
         <v>25.000008852039247</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
         <v>22.711477047238613</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
         <v>20.668893673395321</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
         <v>15.857023222758279</v>
       </c>
     </row>
@@ -4613,99 +4613,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
         <v>-29.09616619718722</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
         <v>-34.153420035377039</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
         <v>-33.041028932258058</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
         <v>-31.786050297982708</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
         <v>-35.35</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
         <v>-28.975627206277821</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
         <v>-20.881675807134563</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
         <v>-10.218872426865063</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
         <v>-2.8968982562438326</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
         <v>-0.48396959131273776</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
         <v>-3.7128317282787733</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
         <v>-2.7586401037887325</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
         <v>-3.9389123117133655</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
         <v>-4.1356329829271505</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
         <v>-11.274996750209795</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
         <v>-14.023529040574426</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
         <v>-12.340090316192352</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
         <v>-4.4811957368201529</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
         <v>-6.5837182544618349</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
         <v>-8.1941074192990548</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
         <v>-12.742775751833543</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
         <v>-17.37635201142394</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
         <v>-24.657705335955615</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
         <v>-27.249720463096981</v>
       </c>
     </row>
@@ -4714,99 +4714,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
         <v>40.768060995319225</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
         <v>47</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
         <v>54</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
         <v>46</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
         <v>54.500000000000007</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
         <v>40.512661952342619</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
         <v>16.905496730639008</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
         <v>2.2946904968877657</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
         <v>-13.703439724021594</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
         <v>-12.457672476383268</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
         <v>-1.0728668191944013</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
         <v>-15.300929136764116</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
         <v>-14.867883972516074</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
         <v>-10.056206437967687</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
         <v>-1.2507609695470558</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
         <v>8.6458839498713065</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
         <v>10.839454655483015</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
         <v>10.606348103752197</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
         <v>10.722901379617607</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
         <v>12.704307069329555</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
         <v>12.23809396586792</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
         <v>22.846804846468828</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
         <v>39.753234673256202</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
         <v>39.381709115562217</v>
       </c>
     </row>
@@ -5659,99 +5659,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
         <v>12.423748043064537</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
         <v>8.6959918515520442</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
         <v>7.444214048958572</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
         <v>6.764325441273523</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
         <v>9.2932677224951838</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
         <v>11.224175909541595</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
         <v>14.810378351287854</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
         <v>19.074079761618489</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
         <v>22.726066137793357</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
         <v>23.003311552518987</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
         <v>24.217109637126995</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
         <v>25.034607639743612</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
         <v>24.638404161081308</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
         <v>24.635830183839534</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
         <v>23.122316554523731</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
         <v>23.247982462641176</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
         <v>22.891438696643288</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
         <v>33</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
         <v>28.159062153412869</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
         <v>27.299780020353385</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
         <v>25.537643451007831</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
         <v>25.102158841684787</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
         <v>18.718998043829721</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
         <v>14.061888518295078</v>
       </c>
     </row>
@@ -5760,99 +5760,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
         <v>-30.841936169018453</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
         <v>-32.888478552585298</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
         <v>-34.403545589258393</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
         <v>-34.829395539278927</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
         <v>-36.050000000000004</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
         <v>-33.337549581416418</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
         <v>-23.433880628006566</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
         <v>-9.6458515431156204</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
         <v>-2.8968982562438326</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
         <v>-0.46197097352579508</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
         <v>-4.305304876408365</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
         <v>-2.9328700050806527</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
         <v>-4.3006491566666343</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
         <v>-3.8518150331184242</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
         <v>-10.967496838840438</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
         <v>-15.204457801885956</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
         <v>-12.471367872747591</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
         <v>-4.6604435662929591</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
         <v>-7.1052008884786142</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
         <v>-7.948284196720083</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
         <v>-14.029924817675315</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
         <v>-15.371388317798102</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
         <v>-22.640256717559247</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
         <v>-26.240471557056349</v>
       </c>
     </row>
@@ -5861,99 +5861,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
         <v>39.960772658778247</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
         <v>54</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
         <v>54</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
         <v>52.5</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
         <v>47.5</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
         <v>39.702408713295767</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
         <v>17.824273726869389</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
         <v>2.5312565274947518</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
         <v>-13.841858307092519</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
         <v>-14.11869547323437</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
         <v>-1.1801535011138413</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
         <v>-15.300929136764116</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
         <v>-15.589625912929476</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
         <v>-10.726620200498864</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
         <v>-1.4453237870321534</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
         <v>8.8137651916163815</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
         <v>10.489794827886788</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
         <v>12.121540690002512</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
         <v>10.956007931348424</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
         <v>11.305667758944649</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
         <v>12.121540690002512</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
         <v>25.763418231124426</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
         <v>40.124760230950187</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
         <v>35.666453538622385</v>
       </c>
     </row>
@@ -8912,99 +8912,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>7.6545872747117425</v>
+        <v>22.963761824135226</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>7.0739533191537003</v>
+        <v>21.221859957461099</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>7.4894793882234412</v>
+        <v>22.468438164670324</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>7.4568659744766599</v>
+        <v>22.37059792342998</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>6.1393204970334709</v>
+        <v>18.417961491100414</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>6.2270771297436482</v>
+        <v>18.681231389230945</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>6.2404651292958686</v>
+        <v>18.721395387887608</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>5.6040767379379819</v>
+        <v>16.812230213813947</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>5.0611134277398424</v>
+        <v>15.183340283219525</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>3.658461882906078</v>
+        <v>10.975385648718234</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>3.3743753498264857</v>
+        <v>10.123126049479458</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>2.2638531288480914</v>
+        <v>6.7915593865442743</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.8815472825478563</v>
+        <v>5.6446418476435687</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.8015322400089555</v>
+        <v>5.4045967200268663</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>2.4993097223777005</v>
+        <v>7.4979291671331021</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>3.3809856011418327</v>
+        <v>10.142956803425498</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>3.7801263573267661</v>
+        <v>11.340379071980298</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>5.191647892645249</v>
+        <v>15.574943677935746</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>4.7222142617261831</v>
+        <v>14.166642785178549</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>4.4892113511698195</v>
+        <v>13.467634053509459</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>5.9234008032016128</v>
+        <v>17.770202409604838</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>7.0845996585693491</v>
+        <v>21.253798975708047</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>6.6980608418224561</v>
+        <v>20.094182525467367</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>9.5207836113287811</v>
+        <v>28.562350833986343</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -9013,99 +9013,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>7.6545872747117425</v>
+        <v>22.963761824135226</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>7.0739533191537003</v>
+        <v>21.221859957461099</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>7.4894793882234412</v>
+        <v>22.468438164670324</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>7.4568659744766599</v>
+        <v>22.37059792342998</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>6.1393204970334709</v>
+        <v>18.417961491100414</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>6.2270771297436482</v>
+        <v>18.681231389230945</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>6.2404651292958686</v>
+        <v>18.721395387887608</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>5.6040767379379819</v>
+        <v>16.812230213813947</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>5.0611134277398424</v>
+        <v>15.183340283219525</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>3.658461882906078</v>
+        <v>10.975385648718234</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>3.3743753498264857</v>
+        <v>10.123126049479458</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>2.2638531288480914</v>
+        <v>6.7915593865442743</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.8815472825478563</v>
+        <v>5.6446418476435687</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.8015322400089555</v>
+        <v>5.4045967200268663</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>2.4993097223777005</v>
+        <v>7.4979291671331021</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>3.3809856011418327</v>
+        <v>10.142956803425498</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>3.7801263573267661</v>
+        <v>11.340379071980298</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>5.191647892645249</v>
+        <v>15.574943677935746</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>4.7222142617261831</v>
+        <v>14.166642785178549</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>4.4892113511698195</v>
+        <v>13.467634053509459</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>5.9234008032016128</v>
+        <v>17.770202409604838</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>7.0845996585693491</v>
+        <v>21.253798975708047</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>6.6980608418224561</v>
+        <v>20.094182525467367</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>9.5207836113287811</v>
+        <v>28.562350833986343</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -9114,99 +9114,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>7.6545872747117425</v>
+        <v>22.963761824135226</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>7.0739533191537003</v>
+        <v>21.221859957461099</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>7.4894793882234412</v>
+        <v>22.468438164670324</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>7.4568659744766599</v>
+        <v>22.37059792342998</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>6.1393204970334709</v>
+        <v>18.417961491100414</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>6.2270771297436482</v>
+        <v>18.681231389230945</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>6.2404651292958686</v>
+        <v>18.721395387887608</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>5.6040767379379819</v>
+        <v>16.812230213813947</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>5.0611134277398424</v>
+        <v>15.183340283219525</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>3.658461882906078</v>
+        <v>10.975385648718234</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>3.3743753498264857</v>
+        <v>10.123126049479458</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>2.2638531288480914</v>
+        <v>6.7915593865442743</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.8815472825478563</v>
+        <v>5.6446418476435687</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.8015322400089555</v>
+        <v>5.4045967200268663</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>2.4993097223777005</v>
+        <v>7.4979291671331021</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>3.3809856011418327</v>
+        <v>10.142956803425498</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>3.7801263573267661</v>
+        <v>11.340379071980298</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>5.191647892645249</v>
+        <v>15.574943677935746</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>4.7222142617261831</v>
+        <v>14.166642785178549</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>4.4892113511698195</v>
+        <v>13.467634053509459</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>5.9234008032016128</v>
+        <v>17.770202409604838</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>7.0845996585693491</v>
+        <v>21.253798975708047</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>6.6980608418224561</v>
+        <v>20.094182525467367</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>9.5207836113287811</v>
+        <v>28.562350833986343</v>
       </c>
     </row>
   </sheetData>
@@ -9741,99 +9741,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>10.388912567643457</v>
+        <v>31.166737702930369</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>9.1354924890238927</v>
+        <v>27.406477467071674</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>7.5187696229834557</v>
+        <v>22.556308868950367</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>6.5091342914028987</v>
+        <v>19.527402874208697</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>6.0684263005411481</v>
+        <v>18.205278901623444</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>4.8595037778231571</v>
+        <v>14.578511333469471</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>4.7312288135593219</v>
+        <v>14.193686440677965</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>4.2894547682254442</v>
+        <v>12.868364304676332</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>4.4211121605064321</v>
+        <v>13.263336481519296</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>4.6758315039820308</v>
+        <v>14.027494511946092</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>4.6801513362773122</v>
+        <v>14.040454008831937</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>5.4857930237900749</v>
+        <v>16.457379071370227</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>5.4881810930161317</v>
+        <v>16.464543279048396</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>5.5643339672248313</v>
+        <v>16.693001901674496</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>6.265797139830509</v>
+        <v>18.797391419491529</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>5.1724775372677154</v>
+        <v>15.517432611803146</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>5.3582122345313445</v>
+        <v>16.074636703594035</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>5.673694672758832</v>
+        <v>17.021084018276497</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>4.9494456746477429</v>
+        <v>14.848337023943229</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>5.1265293164182157</v>
+        <v>15.379587949254647</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>4.8040515238921788</v>
+        <v>14.412154571676536</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>4.3595691239534409</v>
+        <v>13.078707371860322</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>4.4682544159689606</v>
+        <v>13.404763247906882</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>4.8862094139268937</v>
+        <v>14.658628241780683</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -9842,99 +9842,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>10.388912567643457</v>
+        <v>31.166737702930369</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>9.1354924890238927</v>
+        <v>27.406477467071674</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>7.5187696229834557</v>
+        <v>22.556308868950367</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>6.5091342914028987</v>
+        <v>19.527402874208697</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>6.0684263005411481</v>
+        <v>18.205278901623444</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>4.8595037778231571</v>
+        <v>14.578511333469471</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>4.7312288135593219</v>
+        <v>14.193686440677965</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>4.2894547682254442</v>
+        <v>12.868364304676332</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>4.4211121605064321</v>
+        <v>13.263336481519296</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>4.6758315039820308</v>
+        <v>14.027494511946092</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>4.6801513362773122</v>
+        <v>14.040454008831937</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>5.4857930237900749</v>
+        <v>16.457379071370227</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>5.4881810930161317</v>
+        <v>16.464543279048396</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>5.5643339672248313</v>
+        <v>16.693001901674496</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>6.265797139830509</v>
+        <v>18.797391419491529</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>5.1724775372677154</v>
+        <v>15.517432611803146</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>5.3582122345313445</v>
+        <v>16.074636703594035</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>5.673694672758832</v>
+        <v>17.021084018276497</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>4.9494456746477429</v>
+        <v>14.848337023943229</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>5.1265293164182157</v>
+        <v>15.379587949254647</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>4.8040515238921788</v>
+        <v>14.412154571676536</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>4.3595691239534409</v>
+        <v>13.078707371860322</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>4.4682544159689606</v>
+        <v>13.404763247906882</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>4.8862094139268937</v>
+        <v>14.658628241780683</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -9943,99 +9943,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>10.388912567643457</v>
+        <v>31.166737702930369</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>9.1354924890238927</v>
+        <v>27.406477467071674</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>7.5187696229834557</v>
+        <v>22.556308868950367</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>6.5091342914028987</v>
+        <v>19.527402874208697</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>6.0684263005411481</v>
+        <v>18.205278901623444</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>4.8595037778231571</v>
+        <v>14.578511333469471</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>4.7312288135593219</v>
+        <v>14.193686440677965</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>4.2894547682254442</v>
+        <v>12.868364304676332</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>4.4211121605064321</v>
+        <v>13.263336481519296</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>4.6758315039820308</v>
+        <v>14.027494511946092</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>4.6801513362773122</v>
+        <v>14.040454008831937</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>5.4857930237900749</v>
+        <v>16.457379071370227</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>5.4881810930161317</v>
+        <v>16.464543279048396</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>5.5643339672248313</v>
+        <v>16.693001901674496</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>6.265797139830509</v>
+        <v>18.797391419491529</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>5.1724775372677154</v>
+        <v>15.517432611803146</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>5.3582122345313445</v>
+        <v>16.074636703594035</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>5.673694672758832</v>
+        <v>17.021084018276497</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>4.9494456746477429</v>
+        <v>14.848337023943229</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>5.1265293164182157</v>
+        <v>15.379587949254647</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>4.8040515238921788</v>
+        <v>14.412154571676536</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>4.3595691239534409</v>
+        <v>13.078707371860322</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>4.4682544159689606</v>
+        <v>13.404763247906882</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>4.8862094139268937</v>
+        <v>14.658628241780683</v>
       </c>
     </row>
   </sheetData>
@@ -10570,99 +10570,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>9.4792301721250229</v>
+        <v>28.437690516375071</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>8.8101470341931005</v>
+        <v>26.430441102579298</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>9.5486622304104714</v>
+        <v>28.645986691231414</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>10.647099835089797</v>
+        <v>31.941299505269392</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>9.1071625138498788</v>
+        <v>27.321487541549637</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>7.7261834883660994</v>
+        <v>23.178550465098297</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>5.5610850575897333</v>
+        <v>16.683255172769201</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>4.9503594527042694</v>
+        <v>14.851078358112808</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>5.0506653095931346</v>
+        <v>15.151995928779405</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>4.9371928547501858</v>
+        <v>14.811578564250558</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>4.9944695173799891</v>
+        <v>14.983408552139966</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>5.2533143085366794</v>
+        <v>15.759942925610037</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>4.8053496611610704</v>
+        <v>14.416048983483213</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>4.630672749877605</v>
+        <v>13.892018249632814</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>6.3449393181993861</v>
+        <v>19.034817954598157</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>8.2658381432142018</v>
+        <v>24.797514429642604</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>8.4391764796825477</v>
+        <v>25.317529439047643</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>8.5916103223479077</v>
+        <v>25.774830967043727</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>8.8285279187817274</v>
+        <v>26.485583756345179</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>9.3134876897111489</v>
+        <v>27.940463069133447</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>9.1857752067819316</v>
+        <v>27.557325620345793</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>8.9894788579968559</v>
+        <v>26.968436573990569</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>8.6075683797572733</v>
+        <v>25.822705139271818</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>7.9389147491561243</v>
+        <v>23.816744247468371</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -10671,99 +10671,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>9.4792301721250229</v>
+        <v>28.437690516375071</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>8.8101470341931005</v>
+        <v>26.430441102579298</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>9.5486622304104714</v>
+        <v>28.645986691231414</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>10.647099835089797</v>
+        <v>31.941299505269392</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>9.1071625138498788</v>
+        <v>27.321487541549637</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>7.7261834883660994</v>
+        <v>23.178550465098297</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>5.5610850575897333</v>
+        <v>16.683255172769201</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>4.9503594527042694</v>
+        <v>14.851078358112808</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>5.0506653095931346</v>
+        <v>15.151995928779405</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>4.9371928547501858</v>
+        <v>14.811578564250558</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>4.9944695173799891</v>
+        <v>14.983408552139966</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>5.2533143085366794</v>
+        <v>15.759942925610037</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>4.8053496611610704</v>
+        <v>14.416048983483213</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>4.630672749877605</v>
+        <v>13.892018249632814</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>6.3449393181993861</v>
+        <v>19.034817954598157</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>8.2658381432142018</v>
+        <v>24.797514429642604</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>8.4391764796825477</v>
+        <v>25.317529439047643</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>8.5916103223479077</v>
+        <v>25.774830967043727</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>8.8285279187817274</v>
+        <v>26.485583756345179</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>9.3134876897111489</v>
+        <v>27.940463069133447</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>9.1857752067819316</v>
+        <v>27.557325620345793</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>8.9894788579968559</v>
+        <v>26.968436573990569</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>8.6075683797572733</v>
+        <v>25.822705139271818</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>7.9389147491561243</v>
+        <v>23.816744247468371</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -10772,99 +10772,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>9.4792301721250229</v>
+        <v>28.437690516375071</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>8.8101470341931005</v>
+        <v>26.430441102579298</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>9.5486622304104714</v>
+        <v>28.645986691231414</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>10.647099835089797</v>
+        <v>31.941299505269392</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>9.1071625138498788</v>
+        <v>27.321487541549637</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>7.7261834883660994</v>
+        <v>23.178550465098297</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>5.5610850575897333</v>
+        <v>16.683255172769201</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>4.9503594527042694</v>
+        <v>14.851078358112808</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>5.0506653095931346</v>
+        <v>15.151995928779405</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>4.9371928547501858</v>
+        <v>14.811578564250558</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>4.9944695173799891</v>
+        <v>14.983408552139966</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>5.2533143085366794</v>
+        <v>15.759942925610037</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>4.8053496611610704</v>
+        <v>14.416048983483213</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>4.630672749877605</v>
+        <v>13.892018249632814</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>6.3449393181993861</v>
+        <v>19.034817954598157</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>8.2658381432142018</v>
+        <v>24.797514429642604</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>8.4391764796825477</v>
+        <v>25.317529439047643</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>8.5916103223479077</v>
+        <v>25.774830967043727</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>8.8285279187817274</v>
+        <v>26.485583756345179</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>9.3134876897111489</v>
+        <v>27.940463069133447</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>9.1857752067819316</v>
+        <v>27.557325620345793</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>8.9894788579968559</v>
+        <v>26.968436573990569</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>8.6075683797572733</v>
+        <v>25.822705139271818</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>7.9389147491561243</v>
+        <v>23.816744247468371</v>
       </c>
     </row>
   </sheetData>
@@ -13005,7 +13005,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13054,7 +13054,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -13065,7 +13065,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -13076,7 +13076,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="4">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -13884,99 +13884,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>62.893737819680219</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>56.364225661085939</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>58.530787242306992</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>57.142063923937876</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>55.014277407191891</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>54.804547909336627</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>62.58254120047274</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>70.570374672608068</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>83.289424951232604</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>87.85033852747668</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>84.443018767934007</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>84.971223944184985</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>85.946980510637289</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>83.51976012393358</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>100.07520000000001</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>91.128725957723219</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>87.243563125069102</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>83.647660062458812</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>84.419323477936501</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>83.209080937769428</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>83.624744796301243</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>94.976788029519653</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>79.223834720380381</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>72.984908912331022</v>
       </c>
     </row>
@@ -13985,99 +13985,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>80.424676035947854</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>75.446760940049529</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>65.384905037088004</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>68.321362609275084</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>71.078771159124656</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>71.418007687979255</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>77.374977763089703</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>79.603380940187563</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>85.918696445015271</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>98.402143261591959</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>99.117183958171935</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>102.97410554232721</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>93.607746031746032</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>107.12194836245472</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>91.737017022075563</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>96.219738191039951</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>91.836258762814538</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>88.770090393289792</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>102.59695422878981</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>90.573409901371733</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>89.288464422707392</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>91.671017351561872</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>99.85772026985083</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>79.926525169349645</v>
       </c>
     </row>
@@ -14086,99 +14086,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>94.575743622988284</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>83.56354722560728</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>69.164005556441822</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>70.810376056665916</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>77.833918947726218</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>76.124669340486719</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>104.64380461997833</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>106.17047528246816</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>116.71923129306079</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>112.1419573698272</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>117.68797368224092</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>115.47682539682539</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>123.25968253968254</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>132.64968253968254</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>116.65952762788839</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>111.62088297108895</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>101.34225712254926</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>99.055341349374359</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>101.50320950350164</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>109.58736585101566</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>104.71107765762892</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>113.73309481842348</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>107.94733685069568</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>98.024172163123865</v>
       </c>
     </row>
@@ -15033,99 +15033,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>66.770148554590463</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>63.189052037273214</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>59.606388095867842</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>51.934629264515216</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>57.774461498340287</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>57.332699170325448</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>59.617481057592421</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>65.752282293115357</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>82.514009764772482</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>85.353657834854886</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>92.172758392394428</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>92.823298036208044</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>96.621981645895531</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>90.694715662660712</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>88.375199999999992</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>86.798372374590912</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>82.044537908993519</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>77.818609350971826</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>90.279044121392062</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>79.833139441767173</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>92.832268821287116</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>88.040354832071287</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>85.153703325244805</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>81.313033622391671</v>
       </c>
     </row>
@@ -15134,99 +15134,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>80.424676035947854</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>62.857760088842404</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>71.243954170029298</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>72.866759577794696</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>73.676345632335114</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>72.70530882976135</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>65.562047547882614</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>79.603380940187563</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>87.799205035992415</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>96.463850310002982</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>99.117183958171935</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>103.96057328487402</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>104.60774603174603</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>105.15894461558973</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>92.68016650494441</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>84.452276727931604</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>89.994294901324295</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>91.56033339976257</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>102.59695422878981</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>94.247675417268354</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>84.681833091167576</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>106.06330329930222</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>94.491579267665941</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>82.386080937165772</v>
       </c>
     </row>
@@ -15235,99 +15235,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>87.920782972633518</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>72.201906692243881</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>82.130637738720736</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>78.452331646138916</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>74.360302770693039</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>80.594062479929406</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>87.843753005145729</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>117.65580989736721</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>110.72568557921458</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>123.87817009213148</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>129.41861232030629</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>131.7268253968254</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>138.25968253968253</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>130.14968253968254</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>124.9704901027532</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>106.00086707606256</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>114.9541302348786</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>112.66721446170369</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>110.9268139658835</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>108.54029868852879</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>107.85227914508954</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>106.40362468101536</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>94.824673712612679</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>103.69108915957797</v>
       </c>
     </row>
@@ -16182,99 +16182,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>70.646559289500701</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>54.658019067039127</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>52.077182120941899</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>53.496859662342011</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>52.806130134273189</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>54.298917657138865</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>64.361577286200927</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>66.440581204471457</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>80.96317939185225</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>80.360296449611326</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>85.301878726207377</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>80.608960559727734</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>94.842814790019162</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>96.972801759046973</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>90.17519999999999</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>83.334089508085071</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>85.510554719710569</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>81.149495471821524</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>91.953250019522216</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>84.053066311769982</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>80.276554241760934</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>88.040354832071287</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>94.472068275746054</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>70.713602173223563</v>
       </c>
     </row>
@@ -16283,99 +16283,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>82.612501098959854</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>67.495813034023982</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>71.894959629244994</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>68.321362609275084</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>62.636654121190688</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>66.268803120850862</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>65.562047547882614</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>82.078351673933497</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>100.02251087734381</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>107.12446154374231</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>103.91387881821572</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>105.9335087699676</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>100.60774603174603</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>98.288431501562314</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>88.907568573469035</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>98.030116877672</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>86.310367178343824</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>99.000981417023311</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>103.53098307929422</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>84.143445248552666</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>91.131116955323321</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>91.671017351561872</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>94.491579267665941</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>80.746377091955026</v>
       </c>
     </row>
@@ -16384,99 +16384,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>92.080133379105249</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>75.23167750114078</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>80.689900829578633</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>70.810376056665916</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>68.80251688743995</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>75.379770483912935</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>101.84379601750624</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>126.84407758928647</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>131.1037410062917</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>115.66282118651849</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>115.34184595462784</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>125.47682539682539</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>127.00968253968254</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>123.89968253968254</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>119.03408833499263</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>119.48890522412593</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>96.106921310114899</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>98.008274186887476</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>100.45614234101475</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>94.928425576199459</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>109.94641347006328</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>101.168288868581</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>103.90959434667013</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>91.412769000594082</v>
       </c>
     </row>
@@ -17331,99 +17331,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
         <v>12.695712942389127</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
         <v>9.0395819672703368</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
         <v>10.149271903563729</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
         <v>7.9695662025609142</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
         <v>9.1745480002675723</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
         <v>4.0842519685488439</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
         <v>8.0357763648702143</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
         <v>15.73304644321821</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
         <v>19.919975009909081</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
         <v>24.174097799079192</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
         <v>28.864799401649762</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
         <v>29.633682184985876</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
         <v>29.179231895335448</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
         <v>30.3</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
         <v>32.765766666837344</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
         <v>28.795491987925047</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
         <v>29.869819755437376</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
         <v>22.615297845120683</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
         <v>26.383470610585558</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
         <v>24.868381896940935</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
         <v>22.831428783820105</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
         <v>25.37984803202621</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
         <v>24.524896472126461</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
         <v>17.583560283527891</v>
       </c>
     </row>
@@ -17432,99 +17432,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
         <v>-25.140202653524344</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
         <v>-31.098682928010788</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
         <v>-31.82841087762575</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
         <v>-32.236860837910527</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
         <v>-32.158775238708884</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
         <v>-38.5</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
         <v>-30.940843180062252</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
         <v>-4.3417686801156039</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
         <v>14.694190478724103</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
         <v>22.494559613210075</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
         <v>18.896255942231068</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
         <v>22.399286049692037</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
         <v>20.082495043761927</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
         <v>21.953715064365976</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
         <v>10.455979658368168</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
         <v>2.9187522095627498</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
         <v>5.6354866096941647</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
         <v>7.6636117306348908</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
         <v>4.303258215747408</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
         <v>-0.83620585243776402</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
         <v>-3.5908546575574491</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
         <v>-2.4982506189737341</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
         <v>-10.782870305222625</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
         <v>-14.890351351284648</v>
       </c>
     </row>
@@ -17533,99 +17533,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
         <v>-34.420620107858348</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
         <v>-38.959602979224279</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
         <v>-41.277682912849912</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
         <v>-50.5</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
         <v>-46.5</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
         <v>-52</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
         <v>-19.936776562849264</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
         <v>4.421821968909363</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
         <v>13.648370863254453</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
         <v>12.72973051668925</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
         <v>12.959517741266986</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
         <v>16.363498785430291</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
         <v>23.092134341027904</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
         <v>25.686871351608826</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
         <v>14.274448368504242</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
         <v>10.416901148213565</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
         <v>-1.7912469114027969</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
         <v>-1.7745062860625838</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
         <v>-1.607100032660453</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
         <v>-1.7577656607223706</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
         <v>-10.558312583575585</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
         <v>-12.978832324693663</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
         <v>-37.817455958072053</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
         <v>-36.671472444191075</v>
       </c>
     </row>
@@ -18480,99 +18480,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
         <v>13.721629139753906</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
         <v>9.9238888988511302</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
         <v>8.6594705232240994</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
         <v>8.782787243638559</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
         <v>10.017108530904391</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
         <v>4.2146004356301896</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
         <v>7.2018750439874566</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
         <v>15.587370087262485</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
         <v>19.708060382144094</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
         <v>26.944046505223685</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
         <v>28.040090847316911</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
         <v>25.644532660083932</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
         <v>29.179231895335448</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
         <v>28.2</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
         <v>27.106225151656346</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
         <v>31.099131346959052</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
         <v>29.321749668181642</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
         <v>25.290225547231731</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
         <v>25.415269854233795</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
         <v>21.184177171468203</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
         <v>19.925610574970271</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
         <v>24.882203952966872</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
         <v>23.187174846374106</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
         <v>16.148167607321533</v>
       </c>
     </row>
@@ -18581,99 +18581,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
         <v>-25.872441565762916</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
         <v>-29.512015431683707</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
         <v>-33.227461905213694</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
         <v>-32.236860837910527</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
         <v>-36.606265431296286</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
         <v>-35.35</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
         <v>-29.727476780844121</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
         <v>-5.0496657475257569</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
         <v>14.08824447960146</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
         <v>20.950815326028991</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
         <v>18.202815357195067</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
         <v>23.092047473909318</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
         <v>18.852954530878545</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
         <v>20.898247993963768</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
         <v>11.327311296565515</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
         <v>2.8636814131559056</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
         <v>5.7579971881657768</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
         <v>8.1844397123285244</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
         <v>4.0343045772631951</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
         <v>-0.79439555981587573</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
         <v>-2.9379719925470038</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
         <v>-2.452827880446939</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
         <v>-11.872049123931982</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
         <v>-13.563488359586016</v>
       </c>
     </row>
@@ -18682,99 +18682,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
         <v>-35.177117253086003</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
         <v>-40.472597269679596</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
         <v>-45.229801489612136</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
         <v>-51.5</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
         <v>-46.5</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
         <v>-46.5</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
         <v>-20.136144328477759</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
         <v>4.0085675792916655</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
         <v>13.517136528030852</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
         <v>11.942324505347646</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
         <v>12.239544533418819</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
         <v>16.532194649197617</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
         <v>21.263054393223715</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
         <v>22.85895890922987</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
         <v>12.291886095100875</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
         <v>9.282387161774464</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
         <v>-1.7745062860625838</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
         <v>-1.5736187819800269</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
         <v>-1.607100032660453</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
         <v>-1.8079875367430098</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
         <v>-10.131714095350308</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
         <v>-14.891502351490626</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
         <v>-35.907483434937099</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
         <v>-36.289477939564087</v>
       </c>
     </row>
@@ -19629,99 +19629,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
         <v>13.465150090412711</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
         <v>9.3343509444639334</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
         <v>8.6594705232240994</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
         <v>7.5629556820220918</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
         <v>8.8000766533178751</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
         <v>4.5187468588199975</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
         <v>7.3534934659661397</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
         <v>15.73304644321821</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
         <v>23.098694426383936</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
         <v>24.174097799079192</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
         <v>25.840868035762643</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
         <v>29.063803681428457</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
         <v>29.774726423811682</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
         <v>33</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
         <v>27.106225151656346</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
         <v>31.099131346959052</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
         <v>24.937188970135789</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
         <v>25.047050301585269</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
         <v>24.93116947605791</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
         <v>23.256542329546615</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
         <v>19.925610574970271</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
         <v>27.370424348263562</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
         <v>20.734685199161461</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
         <v>16.148167607321533</v>
       </c>
     </row>
@@ -19730,99 +19730,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
         <v>-24.896123016111485</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
         <v>-31.416016427276205</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
         <v>-31.82841087762575</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
         <v>-30.960153477993277</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
         <v>-33.527233759505009</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
         <v>-35</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
         <v>-32.760892778889442</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
         <v>-4.5777343692523207</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
         <v>16.663514975872694</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
         <v>20.509745529691543</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
         <v>17.856095064677064</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
         <v>23.784808898126599</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
         <v>19.877571624948033</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
         <v>21.109341408044209</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
         <v>10.564896113142836</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
         <v>2.8636814131559056</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
         <v>6.4318053697596449</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
         <v>7.2171877463260614</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
         <v>4.4825606414035502</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
         <v>-0.91146437915716283</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
         <v>-3.0685485255490925</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
         <v>-2.4982506189737341</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
         <v>-10.67395242335169</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
         <v>-15.037780572584497</v>
       </c>
     </row>
@@ -19831,99 +19831,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
         <v>-35.177117253086003</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
         <v>-37.068360116155141</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
         <v>-39.96031005392917</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
         <v>-50</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
         <v>-52</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
         <v>-54.500000000000007</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
         <v>-21.332350922248715</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
         <v>4.0912184572152048</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
         <v>14.435776874596057</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
         <v>11.942324505347646</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
         <v>12.599531137342902</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
         <v>18.219153286870842</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
         <v>23.549404327978952</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
         <v>23.801596390022855</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
         <v>13.084911004462221</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
         <v>9.5918000671669468</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
         <v>-1.5066562806191748</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
         <v>-1.7242844100419445</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
         <v>-1.8414687874234361</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
         <v>-1.7577656607223706</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
         <v>-10.664962205631904</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
         <v>-14.071786625720499</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
         <v>-38.581444967326028</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
         <v>-36.671472444191075</v>
       </c>
     </row>
@@ -22884,99 +22884,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>5.8940322015280415</v>
+        <v>17.682096604584125</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>5.3054649893652757</v>
+        <v>15.916394968095826</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>5.4673199534031127</v>
+        <v>16.401959860209338</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>5.3689435016231952</v>
+        <v>16.106830504869585</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>4.6044903727751025</v>
+        <v>13.813471118325308</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>4.3589539908205541</v>
+        <v>13.076861972461662</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>4.8051581495578191</v>
+        <v>14.415474448673457</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>4.3711798555916257</v>
+        <v>13.113539566774877</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>3.5933905336952883</v>
+        <v>10.780171601085865</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>2.5975079368633152</v>
+        <v>7.7925238105899455</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>2.6657565263629239</v>
+        <v>7.9972695790887709</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.6526127840591067</v>
+        <v>4.9578383521773199</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>1.3547140434344564</v>
+        <v>4.0641421303033693</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>1.4412257920071641</v>
+        <v>4.3236773760214922</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.9244684862308294</v>
+        <v>5.7734054586924888</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>2.4343096328221194</v>
+        <v>7.3029288984663587</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>2.8728960315683425</v>
+        <v>8.6186880947050266</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>3.9456523984103891</v>
+        <v>11.836957195231166</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>3.5888828389118994</v>
+        <v>10.766648516735698</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>3.1873400593305719</v>
+        <v>9.562020177991716</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>4.7387206425612902</v>
+        <v>14.216161927683871</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>5.1009117541699318</v>
+        <v>15.302735262509795</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>4.9565650229486176</v>
+        <v>14.869695068845852</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>7.2357955446098741</v>
+        <v>21.707386633829621</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -22985,99 +22985,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>5.8940322015280415</v>
+        <v>17.682096604584125</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>5.3054649893652757</v>
+        <v>15.916394968095826</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>5.4673199534031127</v>
+        <v>16.401959860209338</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>5.3689435016231952</v>
+        <v>16.106830504869585</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>4.6044903727751025</v>
+        <v>13.813471118325308</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>4.3589539908205541</v>
+        <v>13.076861972461662</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>4.8051581495578191</v>
+        <v>14.415474448673457</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>4.3711798555916257</v>
+        <v>13.113539566774877</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>3.5933905336952883</v>
+        <v>10.780171601085865</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>2.5975079368633152</v>
+        <v>7.7925238105899455</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>2.6657565263629239</v>
+        <v>7.9972695790887709</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.6526127840591067</v>
+        <v>4.9578383521773199</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>1.3547140434344564</v>
+        <v>4.0641421303033693</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>1.4412257920071641</v>
+        <v>4.3236773760214922</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.9244684862308294</v>
+        <v>5.7734054586924888</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>2.4343096328221194</v>
+        <v>7.3029288984663587</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>2.8728960315683425</v>
+        <v>8.6186880947050266</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>3.9456523984103891</v>
+        <v>11.836957195231166</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>3.5888828389118994</v>
+        <v>10.766648516735698</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>3.1873400593305719</v>
+        <v>9.562020177991716</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>4.7387206425612902</v>
+        <v>14.216161927683871</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>5.1009117541699318</v>
+        <v>15.302735262509795</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>4.9565650229486176</v>
+        <v>14.869695068845852</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>7.2357955446098741</v>
+        <v>21.707386633829621</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -23086,99 +23086,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>5.8940322015280415</v>
+        <v>17.682096604584125</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>5.3054649893652757</v>
+        <v>15.916394968095826</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>5.4673199534031127</v>
+        <v>16.401959860209338</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>5.3689435016231952</v>
+        <v>16.106830504869585</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>4.6044903727751025</v>
+        <v>13.813471118325308</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>4.3589539908205541</v>
+        <v>13.076861972461662</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>4.8051581495578191</v>
+        <v>14.415474448673457</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>4.3711798555916257</v>
+        <v>13.113539566774877</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>3.5933905336952883</v>
+        <v>10.780171601085865</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>2.5975079368633152</v>
+        <v>7.7925238105899455</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>2.6657565263629239</v>
+        <v>7.9972695790887709</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.6526127840591067</v>
+        <v>4.9578383521773199</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>1.3547140434344564</v>
+        <v>4.0641421303033693</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>1.4412257920071641</v>
+        <v>4.3236773760214922</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.9244684862308294</v>
+        <v>5.7734054586924888</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>2.4343096328221194</v>
+        <v>7.3029288984663587</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>2.8728960315683425</v>
+        <v>8.6186880947050266</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>3.9456523984103891</v>
+        <v>11.836957195231166</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>3.5888828389118994</v>
+        <v>10.766648516735698</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>3.1873400593305719</v>
+        <v>9.562020177991716</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>4.7387206425612902</v>
+        <v>14.216161927683871</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>5.1009117541699318</v>
+        <v>15.302735262509795</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>4.9565650229486176</v>
+        <v>14.869695068845852</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>7.2357955446098741</v>
+        <v>21.707386633829621</v>
       </c>
     </row>
   </sheetData>
@@ -23808,99 +23808,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>7.7916844257325932</v>
+        <v>23.375053277197779</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>6.3948447423167245</v>
+        <v>19.184534226950174</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>5.7894526096972614</v>
+        <v>17.368357829091785</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>5.0771247472942616</v>
+        <v>15.231374241882785</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>4.551319725405861</v>
+        <v>13.653959176217581</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>3.8876030222585256</v>
+        <v>11.662809066775576</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>3.6430461864406776</v>
+        <v>10.929138559322032</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>3.3886692668981007</v>
+        <v>10.166007800694302</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>3.1832007555646307</v>
+        <v>9.549602266693892</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>3.5536319430263434</v>
+        <v>10.660895829079029</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>3.3229074487568915</v>
+        <v>9.968722346270674</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>3.8400551166530525</v>
+        <v>11.520165349959157</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>4.2258994416224223</v>
+        <v>12.677698324867265</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>4.0619637960741271</v>
+        <v>12.18589138822238</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>4.6366898834745767</v>
+        <v>13.910069650423731</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>4.0862572544414952</v>
+        <v>12.258771763324486</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>3.8579128088625678</v>
+        <v>11.573738426587704</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>3.9715862709311818</v>
+        <v>11.914758812793545</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>3.8110731694787616</v>
+        <v>11.433219508436284</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>3.9986928668062083</v>
+        <v>11.996078600418624</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>3.7471601886358998</v>
+        <v>11.241480565907699</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>3.1824854604860118</v>
+        <v>9.5474563814580353</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>3.5746035327751682</v>
+        <v>10.723810598325505</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>3.4203465897488257</v>
+        <v>10.261039769246477</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -23909,99 +23909,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>7.7916844257325932</v>
+        <v>23.375053277197779</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>6.3948447423167245</v>
+        <v>19.184534226950174</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>5.7894526096972614</v>
+        <v>17.368357829091785</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>5.0771247472942616</v>
+        <v>15.231374241882785</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>4.551319725405861</v>
+        <v>13.653959176217581</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>3.8876030222585256</v>
+        <v>11.662809066775576</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>3.6430461864406776</v>
+        <v>10.929138559322032</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>3.3886692668981007</v>
+        <v>10.166007800694302</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>3.1832007555646307</v>
+        <v>9.549602266693892</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>3.5536319430263434</v>
+        <v>10.660895829079029</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>3.3229074487568915</v>
+        <v>9.968722346270674</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>3.8400551166530525</v>
+        <v>11.520165349959157</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>4.2258994416224223</v>
+        <v>12.677698324867265</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>4.0619637960741271</v>
+        <v>12.18589138822238</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>4.6366898834745767</v>
+        <v>13.910069650423731</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>4.0862572544414952</v>
+        <v>12.258771763324486</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>3.8579128088625678</v>
+        <v>11.573738426587704</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>3.9715862709311818</v>
+        <v>11.914758812793545</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>3.8110731694787616</v>
+        <v>11.433219508436284</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>3.9986928668062083</v>
+        <v>11.996078600418624</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>3.7471601886358998</v>
+        <v>11.241480565907699</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>3.1824854604860118</v>
+        <v>9.5474563814580353</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>3.5746035327751682</v>
+        <v>10.723810598325505</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>3.4203465897488257</v>
+        <v>10.261039769246477</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -24010,99 +24010,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>7.7916844257325932</v>
+        <v>23.375053277197779</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>6.3948447423167245</v>
+        <v>19.184534226950174</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>5.7894526096972614</v>
+        <v>17.368357829091785</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>5.0771247472942616</v>
+        <v>15.231374241882785</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>4.551319725405861</v>
+        <v>13.653959176217581</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>3.8876030222585256</v>
+        <v>11.662809066775576</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>3.6430461864406776</v>
+        <v>10.929138559322032</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>3.3886692668981007</v>
+        <v>10.166007800694302</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>3.1832007555646307</v>
+        <v>9.549602266693892</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>3.5536319430263434</v>
+        <v>10.660895829079029</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>3.3229074487568915</v>
+        <v>9.968722346270674</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>3.8400551166530525</v>
+        <v>11.520165349959157</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>4.2258994416224223</v>
+        <v>12.677698324867265</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>4.0619637960741271</v>
+        <v>12.18589138822238</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>4.6366898834745767</v>
+        <v>13.910069650423731</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>4.0862572544414952</v>
+        <v>12.258771763324486</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>3.8579128088625678</v>
+        <v>11.573738426587704</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>3.9715862709311818</v>
+        <v>11.914758812793545</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>3.8110731694787616</v>
+        <v>11.433219508436284</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>3.9986928668062083</v>
+        <v>11.996078600418624</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>3.7471601886358998</v>
+        <v>11.241480565907699</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>3.1824854604860118</v>
+        <v>9.5474563814580353</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>3.5746035327751682</v>
+        <v>10.723810598325505</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>3.4203465897488257</v>
+        <v>10.261039769246477</v>
       </c>
     </row>
   </sheetData>
@@ -24637,99 +24637,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>6.7302534222087669</v>
+        <v>20.190760266626302</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>6.2552043942771007</v>
+        <v>18.765613182831302</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>7.543443162024273</v>
+        <v>22.630329486072817</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>7.6659118812646536</v>
+        <v>22.997735643793959</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>6.8303718853874091</v>
+        <v>20.491115656162229</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>6.0264231209255579</v>
+        <v>18.079269362776671</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>4.393257195495889</v>
+        <v>13.179771586487668</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>3.7622731840552452</v>
+        <v>11.286819552165735</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>3.8890122883867138</v>
+        <v>11.66703686516014</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>3.6535227125151377</v>
+        <v>10.960568137545414</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>3.9955756139039913</v>
+        <v>11.986726841711974</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>4.1501183037439766</v>
+        <v>12.450354911231932</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>3.4117982594243603</v>
+        <v>10.235394778273081</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>3.611924744904532</v>
+        <v>10.835774234713597</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>4.6318057022855523</v>
+        <v>13.895417106856655</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>6.0340618445463674</v>
+        <v>18.102185533639101</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>5.9074235357777836</v>
+        <v>17.72227060733335</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>6.357791638537452</v>
+        <v>19.073374915612355</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>6.1799695431472088</v>
+        <v>18.539908629441626</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>6.9851157672833617</v>
+        <v>20.955347301850082</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>7.0730469092220876</v>
+        <v>21.219140727666261</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>6.83200393207761</v>
+        <v>20.496011796232832</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>6.2835249172228096</v>
+        <v>18.850574751668429</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>6.112964356850215</v>
+        <v>18.338893070550647</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -24738,99 +24738,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>6.7302534222087669</v>
+        <v>20.190760266626302</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>6.2552043942771007</v>
+        <v>18.765613182831302</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>7.543443162024273</v>
+        <v>22.630329486072817</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>7.6659118812646536</v>
+        <v>22.997735643793959</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>6.8303718853874091</v>
+        <v>20.491115656162229</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>6.0264231209255579</v>
+        <v>18.079269362776671</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>4.393257195495889</v>
+        <v>13.179771586487668</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>3.7622731840552452</v>
+        <v>11.286819552165735</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>3.8890122883867138</v>
+        <v>11.66703686516014</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>3.6535227125151377</v>
+        <v>10.960568137545414</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>3.9955756139039913</v>
+        <v>11.986726841711974</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>4.1501183037439766</v>
+        <v>12.450354911231932</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>3.4117982594243603</v>
+        <v>10.235394778273081</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>3.611924744904532</v>
+        <v>10.835774234713597</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>4.6318057022855523</v>
+        <v>13.895417106856655</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>6.0340618445463674</v>
+        <v>18.102185533639101</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>5.9074235357777836</v>
+        <v>17.72227060733335</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>6.357791638537452</v>
+        <v>19.073374915612355</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>6.1799695431472088</v>
+        <v>18.539908629441626</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>6.9851157672833617</v>
+        <v>20.955347301850082</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>7.0730469092220876</v>
+        <v>21.219140727666261</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>6.83200393207761</v>
+        <v>20.496011796232832</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>6.2835249172228096</v>
+        <v>18.850574751668429</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>6.112964356850215</v>
+        <v>18.338893070550647</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -24839,99 +24839,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>6.7302534222087669</v>
+        <v>20.190760266626302</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>6.2552043942771007</v>
+        <v>18.765613182831302</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>7.543443162024273</v>
+        <v>22.630329486072817</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>7.6659118812646536</v>
+        <v>22.997735643793959</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>6.8303718853874091</v>
+        <v>20.491115656162229</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>6.0264231209255579</v>
+        <v>18.079269362776671</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>4.393257195495889</v>
+        <v>13.179771586487668</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>3.7622731840552452</v>
+        <v>11.286819552165735</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>3.8890122883867138</v>
+        <v>11.66703686516014</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>3.6535227125151377</v>
+        <v>10.960568137545414</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>3.9955756139039913</v>
+        <v>11.986726841711974</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>4.1501183037439766</v>
+        <v>12.450354911231932</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>3.4117982594243603</v>
+        <v>10.235394778273081</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>3.611924744904532</v>
+        <v>10.835774234713597</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>4.6318057022855523</v>
+        <v>13.895417106856655</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>6.0340618445463674</v>
+        <v>18.102185533639101</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>5.9074235357777836</v>
+        <v>17.72227060733335</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>6.357791638537452</v>
+        <v>19.073374915612355</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>6.1799695431472088</v>
+        <v>18.539908629441626</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>6.9851157672833617</v>
+        <v>20.955347301850082</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>7.0730469092220876</v>
+        <v>21.219140727666261</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>6.83200393207761</v>
+        <v>20.496011796232832</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>6.2835249172228096</v>
+        <v>18.850574751668429</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>6.112964356850215</v>
+        <v>18.338893070550647</v>
       </c>
     </row>
   </sheetData>
@@ -28319,99 +28319,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>56.15522435894195</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>50.883267826860873</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>52.680571827065677</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>46.128376289063468</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>54.324038116437926</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>55.994421163905116</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>66.27167359382436</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>69.150364233052557</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>81.73548486755773</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>78.175904236733942</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>82.77953470193718</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>75.520681553374871</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>79.316626647436749</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>77.365842163590841</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>73.478381097320863</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>75.891268039503245</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>78.098561198555629</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>91.587754358306952</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>81.230801575354647</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>97.698514285714282</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>80.221573332310058</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>86.299810347352249</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>70.523445281131586</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>65.037888040991959</v>
       </c>
     </row>
@@ -28420,99 +28420,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>66.131085552005672</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>56.654797356487407</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>62.514274084451657</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>55.239444145571561</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>59.334861685249443</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>65.281325481015799</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>71.280239432207125</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>86.971416139805598</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>93.631973748148866</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>92.006672224158009</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>93.153419241400201</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>96.594554309420516</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>105.39383738783698</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>102.30345240929285</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>83.235702918059701</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>88.66120013793109</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>88.163203659184532</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>107.34247619047619</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>94.447061010485896</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>94.225565902857426</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>97.696724611621804</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>98.490078256016972</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>73.139000948950894</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>67.063328815610774</v>
       </c>
     </row>
@@ -28521,99 +28521,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>73.99071407011067</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>74.425234765171041</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>64.931560763815241</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>69.376568607614473</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>67.251932949677837</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>62.91448416800197</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>96.959253411913991</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>111.86881603193036</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>118.91125850493539</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>113.12986087627966</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>126.05513879029479</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>122.97682539682539</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>117.46646221031432</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>110.65264111545399</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>103.14970697031265</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>101.45661555476428</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>99.875143596912366</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>102.30400758343684</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>112.20287554961315</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>112.51020928610951</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>105.66539523846286</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>92.346474346927636</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>76.522746260603</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>74.754848271826447</v>
       </c>
     </row>
@@ -29466,99 +29466,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>57.340687757394633</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>51.926315264090768</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>47.279676545995564</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>49.039334708334366</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>50.261490911832482</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>56.542714595575156</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>74.872628965014385</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>78.765678434600616</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>85.649690870805699</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>84.651686732652252</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>79.51201819323245</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>74.712322765550553</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>80.92417063149523</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>79.727431980137837</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>81.099768581249378</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>73.646251141175284</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>85.074048849282789</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>86.322927613440257</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>82.125487942064936</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>90.498514285714279</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>86.33423062160864</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>87.133130003983965</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>74.322773193575401</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>63.694587222906108</v>
       </c>
     </row>
@@ -29567,99 +29567,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>71.2227673089739</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>60.216740460676505</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>55.201664549386386</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>63.058841264179151</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>55.378003284621592</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>61.553232572235224</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>81.660127327617033</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>92.326082037505898</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>92.660344391976011</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>94.957908450538923</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>105.59698565585067</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>93.708161489661705</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>88.089712209766915</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>89.064462789800743</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>98.395459616686665</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>96.457012880066401</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>89.065308360629245</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>105.34247619047619</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>105.40718618445867</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>100.08004472416697</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>102.49155539154651</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>94.894841366470402</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>87.292236059375995</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>72.056886488923709</v>
       </c>
     </row>
@@ -29668,99 +29668,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>81.070391778010261</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>68.50431381696572</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>62.55015942116129</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>69.376568607614473</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>61.509030862224229</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>71.562312972047593</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>93.989282000911203</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>114.07403225384192</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>124.9554837121033</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>116.75831004945201</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>120.34270463171718</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>135.4768253968254</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>112.75103676907666</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>119.48116302056684</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>113.85037787946837</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>92.457691583406927</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>93.872032440966748</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>117.13308940275034</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>99.492233990201584</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>117.88606641753877</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>111.94223323848493</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>103.69038771728886</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>90.914277361279986</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>73.207472343211862</v>
       </c>
     </row>
@@ -30613,99 +30613,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>65.638931546563384</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>56.620028731625297</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>49.734628946481976</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>46.128376289063468</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>52.800582914710887</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>53.801247437224966</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>66.27167359382436</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>72.848562002878737</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>84.0840084695065</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>83.842213920662459</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>88.497688592170462</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>89.262780946388091</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>83.335486607582951</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>82.876218402200493</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>76.526936090892264</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>81.877979768377799</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>75.773398648313247</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>93.342696606595865</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>90.177665242457536</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>85.098514285714273</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>87.207467377222713</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>82.133212064193671</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>80.401697853485501</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>69.067790495249497</v>
       </c>
     </row>
@@ -30714,99 +30714,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>70.586307089352871</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>65.559655116960172</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>55.764172975160633</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>54.122387414341908</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>63.856985571681278</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>65.9026742991459</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>83.884389019490584</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>80.724305925821923</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>106.26315537839589</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>106.76285335606265</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>94.110616657896387</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>103.32947088885774</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>97.703115086472508</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>92.847031252512764</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>96.611958828612913</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>84.330193058967026</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>83.652680151960993</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>99.342476190476191</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>102.41806113701155</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>100.08004472416697</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>89.066029207757353</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>85.906749142603971</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>88.864817738312112</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>81.330636453647742</v>
       </c>
     </row>
@@ -30815,99 +30815,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>78.946488465640385</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>75.083114870527183</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>61.359458749834317</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>73.218569367928595</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>65.337632253859965</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>71.562312972047593</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>109.82912952625945</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>116.27924847575348</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>112.86703329776749</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>121.59624228034849</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>116.91524413657061</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>112.97682539682539</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>116.28760585000491</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>110.65264111545399</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>111.71024369763722</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>109.45565908485972</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>110.88084738281269</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>116.07386927279939</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>111.1436554196622</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>97.457809318107593</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>97.296277905100126</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>98.018431032108253</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>87.716159338907318</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>87.133855700743126</v>
       </c>
     </row>
@@ -31760,99 +31760,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
         <v>11.388435706142491</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
         <v>8.9621956837424133</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
         <v>7.5961367846516046</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
         <v>8.176657126814149</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
         <v>8.6173937063137149</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
         <v>9.9653898262285168</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
         <v>14.810378351287854</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
         <v>20.067521415869454</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
         <v>24.792072150320028</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
         <v>24.014446126256086</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
         <v>26.766279072614047</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
         <v>24.283569410551301</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
         <v>26.398290172587117</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
         <v>24.138136644772068</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
         <v>20.428454431666598</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
         <v>20.262003063769829</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
         <v>22.01099874677239</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
         <v>30.3</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
         <v>32.652529518319184</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
         <v>31.656127895941694</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
         <v>24.46237425307066</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
         <v>24.624022482795553</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
         <v>17.939039792003484</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
         <v>14.809861311821411</v>
       </c>
     </row>
@@ -31861,99 +31861,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
         <v>-26.477511239440371</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
         <v>-32.888478552585298</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
         <v>-30.656624782507482</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
         <v>-32.12419976923784</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
         <v>-33.25</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
         <v>-32.091286045662528</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
         <v>-22.737824767768746</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
         <v>-10.218872426865063</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
         <v>-3.0375243851877078</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
         <v>-0.47077042064057217</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
         <v>-3.6338353085281616</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
         <v>-2.6715251531427726</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
         <v>-4.0594912600311215</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
         <v>-4.2167238257296438</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
         <v>-10.454996986558173</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
         <v>-15.352073897049898</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
         <v>-12.208812759637116</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
         <v>-4.9293153105021688</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
         <v>-5.9318649619408612</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!U3*Main!$B$5)</f>
         <v>-8.1941074192990548</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
         <v>-12.099201218912656</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
         <v>-18.211753550434707</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
         <v>-22.191934802360052</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
         <v>-25.735847104036036</v>
       </c>
     </row>
@@ -31962,99 +31962,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
         <v>39.153484322237276</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
         <v>50</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
         <v>49</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
         <v>46</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
         <v>52</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
         <v>37.271648996155214</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
         <v>17.640518327623312</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
         <v>2.1290942754628754</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
         <v>-14.810788388588996</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
         <v>-12.872928225596043</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
         <v>-1.2635986981622949</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
         <v>-15.300929136764116</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
         <v>-15.445277524846796</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
         <v>-11.620505217207103</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
         <v>-1.3202476900774478</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
         <v>8.4780027081262332</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
         <v>11.072561207213832</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
         <v>12.704307069329555</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
         <v>11.655327586540876</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
         <v>12.704307069329555</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
         <v>10.722901379617607</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
         <v>25.763418231124426</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
         <v>39.381709115562217</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
         <v>37.524081327092304</v>
       </c>
     </row>
